--- a/vs/scattered unsuccessful looukp.xlsx
+++ b/vs/scattered unsuccessful looukp.xlsx
@@ -9366,13 +9366,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.225435</v>
+        <v>0.229988</v>
       </c>
       <c r="C2" t="n">
-        <v>0.209245</v>
+        <v>0.216214</v>
       </c>
       <c r="D2" t="n">
-        <v>0.240007</v>
+        <v>0.238428</v>
       </c>
     </row>
     <row r="3">
@@ -9380,13 +9380,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.229746</v>
+        <v>0.225957</v>
       </c>
       <c r="C3" t="n">
-        <v>0.21238</v>
+        <v>0.219563</v>
       </c>
       <c r="D3" t="n">
-        <v>0.243694</v>
+        <v>0.237942</v>
       </c>
     </row>
     <row r="4">
@@ -9394,13 +9394,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.234665</v>
+        <v>0.232365</v>
       </c>
       <c r="C4" t="n">
-        <v>0.220938</v>
+        <v>0.227181</v>
       </c>
       <c r="D4" t="n">
-        <v>0.246657</v>
+        <v>0.241855</v>
       </c>
     </row>
     <row r="5">
@@ -9408,13 +9408,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.238365</v>
+        <v>0.237101</v>
       </c>
       <c r="C5" t="n">
-        <v>0.226517</v>
+        <v>0.2298</v>
       </c>
       <c r="D5" t="n">
-        <v>0.248504</v>
+        <v>0.249643</v>
       </c>
     </row>
     <row r="6">
@@ -9422,13 +9422,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.246843</v>
+        <v>0.255687</v>
       </c>
       <c r="C6" t="n">
-        <v>0.231526</v>
+        <v>0.24047</v>
       </c>
       <c r="D6" t="n">
-        <v>0.263885</v>
+        <v>0.258477</v>
       </c>
     </row>
     <row r="7">
@@ -9436,13 +9436,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.24457</v>
+        <v>0.246538</v>
       </c>
       <c r="C7" t="n">
-        <v>0.186719</v>
+        <v>0.203016</v>
       </c>
       <c r="D7" t="n">
-        <v>0.213291</v>
+        <v>0.217014</v>
       </c>
     </row>
     <row r="8">
@@ -9450,13 +9450,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.248868</v>
+        <v>0.246469</v>
       </c>
       <c r="C8" t="n">
-        <v>0.190666</v>
+        <v>0.199975</v>
       </c>
       <c r="D8" t="n">
-        <v>0.226258</v>
+        <v>0.227921</v>
       </c>
     </row>
     <row r="9">
@@ -9464,13 +9464,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.256682</v>
+        <v>0.277422</v>
       </c>
       <c r="C9" t="n">
-        <v>0.195143</v>
+        <v>0.204827</v>
       </c>
       <c r="D9" t="n">
-        <v>0.226716</v>
+        <v>0.231235</v>
       </c>
     </row>
     <row r="10">
@@ -9478,13 +9478,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.25939</v>
+        <v>0.258997</v>
       </c>
       <c r="C10" t="n">
-        <v>0.205383</v>
+        <v>0.209436</v>
       </c>
       <c r="D10" t="n">
-        <v>0.234094</v>
+        <v>0.23649</v>
       </c>
     </row>
     <row r="11">
@@ -9492,13 +9492,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.263322</v>
+        <v>0.257731</v>
       </c>
       <c r="C11" t="n">
-        <v>0.203296</v>
+        <v>0.221623</v>
       </c>
       <c r="D11" t="n">
-        <v>0.235885</v>
+        <v>0.244848</v>
       </c>
     </row>
     <row r="12">
@@ -9506,13 +9506,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.266966</v>
+        <v>0.273697</v>
       </c>
       <c r="C12" t="n">
-        <v>0.211634</v>
+        <v>0.221477</v>
       </c>
       <c r="D12" t="n">
-        <v>0.248513</v>
+        <v>0.256107</v>
       </c>
     </row>
     <row r="13">
@@ -9520,13 +9520,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.220534</v>
+        <v>0.222043</v>
       </c>
       <c r="C13" t="n">
-        <v>0.215296</v>
+        <v>0.228509</v>
       </c>
       <c r="D13" t="n">
-        <v>0.250564</v>
+        <v>0.253683</v>
       </c>
     </row>
     <row r="14">
@@ -9534,13 +9534,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.226792</v>
+        <v>0.240344</v>
       </c>
       <c r="C14" t="n">
-        <v>0.229798</v>
+        <v>0.228965</v>
       </c>
       <c r="D14" t="n">
-        <v>0.255978</v>
+        <v>0.26165</v>
       </c>
     </row>
     <row r="15">
@@ -9548,13 +9548,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.233429</v>
+        <v>0.235381</v>
       </c>
       <c r="C15" t="n">
-        <v>0.231179</v>
+        <v>0.23159</v>
       </c>
       <c r="D15" t="n">
-        <v>0.271027</v>
+        <v>0.265948</v>
       </c>
     </row>
     <row r="16">
@@ -9562,13 +9562,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.246055</v>
+        <v>0.23613</v>
       </c>
       <c r="C16" t="n">
-        <v>0.23825</v>
+        <v>0.239751</v>
       </c>
       <c r="D16" t="n">
-        <v>0.273892</v>
+        <v>0.277384</v>
       </c>
     </row>
     <row r="17">
@@ -9576,13 +9576,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.248122</v>
+        <v>0.239568</v>
       </c>
       <c r="C17" t="n">
-        <v>0.243877</v>
+        <v>0.245591</v>
       </c>
       <c r="D17" t="n">
-        <v>0.276799</v>
+        <v>0.281917</v>
       </c>
     </row>
     <row r="18">
@@ -9590,13 +9590,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.254104</v>
+        <v>0.251669</v>
       </c>
       <c r="C18" t="n">
-        <v>0.237845</v>
+        <v>0.24835</v>
       </c>
       <c r="D18" t="n">
-        <v>0.28429</v>
+        <v>0.284189</v>
       </c>
     </row>
     <row r="19">
@@ -9604,13 +9604,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.257677</v>
+        <v>0.255644</v>
       </c>
       <c r="C19" t="n">
-        <v>0.247074</v>
+        <v>0.252967</v>
       </c>
       <c r="D19" t="n">
-        <v>0.299221</v>
+        <v>0.286164</v>
       </c>
     </row>
     <row r="20">
@@ -9618,13 +9618,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.253918</v>
+        <v>0.25493</v>
       </c>
       <c r="C20" t="n">
-        <v>0.251104</v>
+        <v>0.256035</v>
       </c>
       <c r="D20" t="n">
-        <v>0.304593</v>
+        <v>0.302216</v>
       </c>
     </row>
     <row r="21">
@@ -9632,13 +9632,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.256653</v>
+        <v>0.268132</v>
       </c>
       <c r="C21" t="n">
-        <v>0.199886</v>
+        <v>0.20806</v>
       </c>
       <c r="D21" t="n">
-        <v>0.231897</v>
+        <v>0.232643</v>
       </c>
     </row>
     <row r="22">
@@ -9646,13 +9646,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.272701</v>
+        <v>0.26293</v>
       </c>
       <c r="C22" t="n">
-        <v>0.204689</v>
+        <v>0.212969</v>
       </c>
       <c r="D22" t="n">
-        <v>0.237817</v>
+        <v>0.251915</v>
       </c>
     </row>
     <row r="23">
@@ -9660,13 +9660,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.275755</v>
+        <v>0.266248</v>
       </c>
       <c r="C23" t="n">
-        <v>0.210867</v>
+        <v>0.22381</v>
       </c>
       <c r="D23" t="n">
-        <v>0.248244</v>
+        <v>0.242333</v>
       </c>
     </row>
     <row r="24">
@@ -9674,13 +9674,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.285774</v>
+        <v>0.269454</v>
       </c>
       <c r="C24" t="n">
-        <v>0.216174</v>
+        <v>0.225889</v>
       </c>
       <c r="D24" t="n">
-        <v>0.255175</v>
+        <v>0.254223</v>
       </c>
     </row>
     <row r="25">
@@ -9688,13 +9688,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.277532</v>
+        <v>0.272947</v>
       </c>
       <c r="C25" t="n">
-        <v>0.218636</v>
+        <v>0.231076</v>
       </c>
       <c r="D25" t="n">
-        <v>0.262256</v>
+        <v>0.258185</v>
       </c>
     </row>
     <row r="26">
@@ -9702,13 +9702,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.28459</v>
+        <v>0.273379</v>
       </c>
       <c r="C26" t="n">
-        <v>0.229337</v>
+        <v>0.22722</v>
       </c>
       <c r="D26" t="n">
-        <v>0.271134</v>
+        <v>0.266078</v>
       </c>
     </row>
     <row r="27">
@@ -9716,13 +9716,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.240155</v>
+        <v>0.243378</v>
       </c>
       <c r="C27" t="n">
-        <v>0.236822</v>
+        <v>0.239039</v>
       </c>
       <c r="D27" t="n">
-        <v>0.283925</v>
+        <v>0.280402</v>
       </c>
     </row>
     <row r="28">
@@ -9730,13 +9730,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.244829</v>
+        <v>0.245256</v>
       </c>
       <c r="C28" t="n">
-        <v>0.247541</v>
+        <v>0.246202</v>
       </c>
       <c r="D28" t="n">
-        <v>0.291972</v>
+        <v>0.284919</v>
       </c>
     </row>
     <row r="29">
@@ -9744,13 +9744,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.259137</v>
+        <v>0.253851</v>
       </c>
       <c r="C29" t="n">
-        <v>0.247169</v>
+        <v>0.252059</v>
       </c>
       <c r="D29" t="n">
-        <v>0.298712</v>
+        <v>0.283885</v>
       </c>
     </row>
     <row r="30">
@@ -9758,13 +9758,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.268769</v>
+        <v>0.261728</v>
       </c>
       <c r="C30" t="n">
-        <v>0.251613</v>
+        <v>0.263266</v>
       </c>
       <c r="D30" t="n">
-        <v>0.302995</v>
+        <v>0.31205</v>
       </c>
     </row>
     <row r="31">
@@ -9772,13 +9772,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.273361</v>
+        <v>0.274138</v>
       </c>
       <c r="C31" t="n">
-        <v>0.257235</v>
+        <v>0.272326</v>
       </c>
       <c r="D31" t="n">
-        <v>0.318518</v>
+        <v>0.308632</v>
       </c>
     </row>
     <row r="32">
@@ -9786,13 +9786,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.291289</v>
+        <v>0.275116</v>
       </c>
       <c r="C32" t="n">
-        <v>0.273357</v>
+        <v>0.273962</v>
       </c>
       <c r="D32" t="n">
-        <v>0.32848</v>
+        <v>0.317415</v>
       </c>
     </row>
     <row r="33">
@@ -9800,13 +9800,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.285836</v>
+        <v>0.28679</v>
       </c>
       <c r="C33" t="n">
-        <v>0.280194</v>
+        <v>0.283479</v>
       </c>
       <c r="D33" t="n">
-        <v>0.338967</v>
+        <v>0.322661</v>
       </c>
     </row>
     <row r="34">
@@ -9814,13 +9814,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.299756</v>
+        <v>0.295541</v>
       </c>
       <c r="C34" t="n">
-        <v>0.295783</v>
+        <v>0.28355</v>
       </c>
       <c r="D34" t="n">
-        <v>0.350425</v>
+        <v>0.343918</v>
       </c>
     </row>
     <row r="35">
@@ -9828,13 +9828,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.303147</v>
+        <v>0.302886</v>
       </c>
       <c r="C35" t="n">
-        <v>0.224212</v>
+        <v>0.231474</v>
       </c>
       <c r="D35" t="n">
-        <v>0.273242</v>
+        <v>0.277109</v>
       </c>
     </row>
     <row r="36">
@@ -9842,13 +9842,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.312876</v>
+        <v>0.307253</v>
       </c>
       <c r="C36" t="n">
-        <v>0.237319</v>
+        <v>0.240313</v>
       </c>
       <c r="D36" t="n">
-        <v>0.276308</v>
+        <v>0.282704</v>
       </c>
     </row>
     <row r="37">
@@ -9856,13 +9856,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.333787</v>
+        <v>0.333845</v>
       </c>
       <c r="C37" t="n">
-        <v>0.2393</v>
+        <v>0.249227</v>
       </c>
       <c r="D37" t="n">
-        <v>0.286713</v>
+        <v>0.294443</v>
       </c>
     </row>
     <row r="38">
@@ -9870,13 +9870,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.342447</v>
+        <v>0.332588</v>
       </c>
       <c r="C38" t="n">
-        <v>0.250388</v>
+        <v>0.254807</v>
       </c>
       <c r="D38" t="n">
-        <v>0.301144</v>
+        <v>0.310404</v>
       </c>
     </row>
     <row r="39">
@@ -9884,13 +9884,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.353979</v>
+        <v>0.343226</v>
       </c>
       <c r="C39" t="n">
-        <v>0.261026</v>
+        <v>0.273933</v>
       </c>
       <c r="D39" t="n">
-        <v>0.318072</v>
+        <v>0.321899</v>
       </c>
     </row>
     <row r="40">
@@ -9898,13 +9898,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.352067</v>
+        <v>0.361383</v>
       </c>
       <c r="C40" t="n">
-        <v>0.271268</v>
+        <v>0.279565</v>
       </c>
       <c r="D40" t="n">
-        <v>0.328777</v>
+        <v>0.332354</v>
       </c>
     </row>
     <row r="41">
@@ -9912,13 +9912,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.321358</v>
+        <v>0.332297</v>
       </c>
       <c r="C41" t="n">
-        <v>0.283322</v>
+        <v>0.295541</v>
       </c>
       <c r="D41" t="n">
-        <v>0.339744</v>
+        <v>0.335894</v>
       </c>
     </row>
     <row r="42">
@@ -9926,13 +9926,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.332706</v>
+        <v>0.333177</v>
       </c>
       <c r="C42" t="n">
-        <v>0.284541</v>
+        <v>0.301704</v>
       </c>
       <c r="D42" t="n">
-        <v>0.35781</v>
+        <v>0.347958</v>
       </c>
     </row>
     <row r="43">
@@ -9940,13 +9940,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.354781</v>
+        <v>0.345832</v>
       </c>
       <c r="C43" t="n">
-        <v>0.302008</v>
+        <v>0.310254</v>
       </c>
       <c r="D43" t="n">
-        <v>0.364423</v>
+        <v>0.365573</v>
       </c>
     </row>
     <row r="44">
@@ -9954,13 +9954,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.352955</v>
+        <v>0.356054</v>
       </c>
       <c r="C44" t="n">
-        <v>0.322611</v>
+        <v>0.325715</v>
       </c>
       <c r="D44" t="n">
-        <v>0.38963</v>
+        <v>0.391786</v>
       </c>
     </row>
     <row r="45">
@@ -9968,13 +9968,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.379951</v>
+        <v>0.390772</v>
       </c>
       <c r="C45" t="n">
-        <v>0.332532</v>
+        <v>0.337429</v>
       </c>
       <c r="D45" t="n">
-        <v>0.396206</v>
+        <v>0.404238</v>
       </c>
     </row>
     <row r="46">
@@ -9982,13 +9982,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.389007</v>
+        <v>0.382403</v>
       </c>
       <c r="C46" t="n">
-        <v>0.339493</v>
+        <v>0.349371</v>
       </c>
       <c r="D46" t="n">
-        <v>0.412571</v>
+        <v>0.412203</v>
       </c>
     </row>
     <row r="47">
@@ -9996,13 +9996,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.401659</v>
+        <v>0.416597</v>
       </c>
       <c r="C47" t="n">
-        <v>0.356803</v>
+        <v>0.365058</v>
       </c>
       <c r="D47" t="n">
-        <v>0.421298</v>
+        <v>0.437971</v>
       </c>
     </row>
     <row r="48">
@@ -10010,13 +10010,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.416809</v>
+        <v>0.430197</v>
       </c>
       <c r="C48" t="n">
-        <v>0.376932</v>
+        <v>0.382017</v>
       </c>
       <c r="D48" t="n">
-        <v>0.455031</v>
+        <v>0.446174</v>
       </c>
     </row>
     <row r="49">
@@ -10024,13 +10024,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.456161</v>
+        <v>0.440034</v>
       </c>
       <c r="C49" t="n">
-        <v>0.393007</v>
+        <v>0.402447</v>
       </c>
       <c r="D49" t="n">
-        <v>0.467069</v>
+        <v>0.488953</v>
       </c>
     </row>
     <row r="50">
@@ -10038,13 +10038,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.444758</v>
+        <v>0.463484</v>
       </c>
       <c r="C50" t="n">
-        <v>0.312138</v>
+        <v>0.322571</v>
       </c>
       <c r="D50" t="n">
-        <v>0.370163</v>
+        <v>0.374938</v>
       </c>
     </row>
     <row r="51">
@@ -10052,13 +10052,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.490612</v>
+        <v>0.480923</v>
       </c>
       <c r="C51" t="n">
-        <v>0.32264</v>
+        <v>0.329842</v>
       </c>
       <c r="D51" t="n">
-        <v>0.393392</v>
+        <v>0.383612</v>
       </c>
     </row>
     <row r="52">
@@ -10066,13 +10066,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.494135</v>
+        <v>0.503028</v>
       </c>
       <c r="C52" t="n">
-        <v>0.347306</v>
+        <v>0.349943</v>
       </c>
       <c r="D52" t="n">
-        <v>0.415292</v>
+        <v>0.419441</v>
       </c>
     </row>
     <row r="53">
@@ -10080,13 +10080,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.524397</v>
+        <v>0.530063</v>
       </c>
       <c r="C53" t="n">
-        <v>0.358743</v>
+        <v>0.367061</v>
       </c>
       <c r="D53" t="n">
-        <v>0.434091</v>
+        <v>0.426362</v>
       </c>
     </row>
     <row r="54">
@@ -10094,13 +10094,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.535498</v>
+        <v>0.533139</v>
       </c>
       <c r="C54" t="n">
-        <v>0.372475</v>
+        <v>0.384274</v>
       </c>
       <c r="D54" t="n">
-        <v>0.449058</v>
+        <v>0.446124</v>
       </c>
     </row>
     <row r="55">
@@ -10108,13 +10108,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.5580270000000001</v>
+        <v>0.550527</v>
       </c>
       <c r="C55" t="n">
-        <v>0.392471</v>
+        <v>0.39281</v>
       </c>
       <c r="D55" t="n">
-        <v>0.490332</v>
+        <v>0.468162</v>
       </c>
     </row>
     <row r="56">
@@ -10122,13 +10122,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.506417</v>
+        <v>0.520908</v>
       </c>
       <c r="C56" t="n">
-        <v>0.408589</v>
+        <v>0.424722</v>
       </c>
       <c r="D56" t="n">
-        <v>0.497175</v>
+        <v>0.507362</v>
       </c>
     </row>
     <row r="57">
@@ -10136,13 +10136,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.550332</v>
+        <v>0.523133</v>
       </c>
       <c r="C57" t="n">
-        <v>0.433731</v>
+        <v>0.436616</v>
       </c>
       <c r="D57" t="n">
-        <v>0.519188</v>
+        <v>0.515736</v>
       </c>
     </row>
     <row r="58">
@@ -10150,13 +10150,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.551961</v>
+        <v>0.557731</v>
       </c>
       <c r="C58" t="n">
-        <v>0.470049</v>
+        <v>0.466936</v>
       </c>
       <c r="D58" t="n">
-        <v>0.55093</v>
+        <v>0.53384</v>
       </c>
     </row>
     <row r="59">
@@ -10164,13 +10164,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.5974120000000001</v>
+        <v>0.58932</v>
       </c>
       <c r="C59" t="n">
-        <v>0.494166</v>
+        <v>0.477159</v>
       </c>
       <c r="D59" t="n">
-        <v>0.565464</v>
+        <v>0.574265</v>
       </c>
     </row>
     <row r="60">
@@ -10178,13 +10178,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.596263</v>
+        <v>0.616804</v>
       </c>
       <c r="C60" t="n">
-        <v>0.495392</v>
+        <v>0.527789</v>
       </c>
       <c r="D60" t="n">
-        <v>0.601539</v>
+        <v>0.654589</v>
       </c>
     </row>
     <row r="61">
@@ -10192,13 +10192,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.64936</v>
+        <v>0.657839</v>
       </c>
       <c r="C61" t="n">
-        <v>0.508015</v>
+        <v>0.551556</v>
       </c>
       <c r="D61" t="n">
-        <v>0.626271</v>
+        <v>0.644008</v>
       </c>
     </row>
     <row r="62">
@@ -10206,13 +10206,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.680295</v>
+        <v>0.667673</v>
       </c>
       <c r="C62" t="n">
-        <v>0.562014</v>
+        <v>0.595464</v>
       </c>
       <c r="D62" t="n">
-        <v>0.658142</v>
+        <v>0.688759</v>
       </c>
     </row>
     <row r="63">
@@ -10220,13 +10220,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.71171</v>
+        <v>0.708529</v>
       </c>
       <c r="C63" t="n">
-        <v>0.612339</v>
+        <v>0.630768</v>
       </c>
       <c r="D63" t="n">
-        <v>0.731594</v>
+        <v>0.718907</v>
       </c>
     </row>
     <row r="64">
@@ -10234,13 +10234,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.714198</v>
+        <v>0.7363690000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>0.499184</v>
+        <v>0.51911</v>
       </c>
       <c r="D64" t="n">
-        <v>0.601536</v>
+        <v>0.610547</v>
       </c>
     </row>
     <row r="65">
@@ -10248,13 +10248,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.783805</v>
+        <v>0.768769</v>
       </c>
       <c r="C65" t="n">
-        <v>0.533352</v>
+        <v>0.539592</v>
       </c>
       <c r="D65" t="n">
-        <v>0.647015</v>
+        <v>0.670731</v>
       </c>
     </row>
     <row r="66">
@@ -10262,13 +10262,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.796446</v>
+        <v>0.783641</v>
       </c>
       <c r="C66" t="n">
-        <v>0.573379</v>
+        <v>0.535958</v>
       </c>
       <c r="D66" t="n">
-        <v>0.672369</v>
+        <v>0.666721</v>
       </c>
     </row>
     <row r="67">
@@ -10276,13 +10276,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.825059</v>
+        <v>0.805499</v>
       </c>
       <c r="C67" t="n">
-        <v>0.592578</v>
+        <v>0.5890339999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>0.68343</v>
+        <v>0.702467</v>
       </c>
     </row>
     <row r="68">
@@ -10290,13 +10290,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.848195</v>
+        <v>0.875901</v>
       </c>
       <c r="C68" t="n">
-        <v>0.609089</v>
+        <v>0.61414</v>
       </c>
       <c r="D68" t="n">
-        <v>0.709561</v>
+        <v>0.7631559999999999</v>
       </c>
     </row>
     <row r="69">
@@ -10304,13 +10304,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.922023</v>
+        <v>0.909089</v>
       </c>
       <c r="C69" t="n">
-        <v>0.630327</v>
+        <v>0.672354</v>
       </c>
       <c r="D69" t="n">
-        <v>0.7836610000000001</v>
+        <v>0.772343</v>
       </c>
     </row>
     <row r="70">
@@ -10318,13 +10318,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.759929</v>
+        <v>0.7692369999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>0.677494</v>
+        <v>0.708969</v>
       </c>
       <c r="D70" t="n">
-        <v>0.7963249999999999</v>
+        <v>0.827879</v>
       </c>
     </row>
     <row r="71">
@@ -10332,13 +10332,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.800974</v>
+        <v>0.8049809999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>0.699128</v>
+        <v>0.7432260000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>0.8283700000000001</v>
+        <v>0.864383</v>
       </c>
     </row>
     <row r="72">
@@ -10346,13 +10346,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.8061160000000001</v>
+        <v>0.824861</v>
       </c>
       <c r="C72" t="n">
-        <v>0.74603</v>
+        <v>0.761595</v>
       </c>
       <c r="D72" t="n">
-        <v>0.849396</v>
+        <v>0.908451</v>
       </c>
     </row>
     <row r="73">
@@ -10360,13 +10360,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.824385</v>
+        <v>0.826282</v>
       </c>
       <c r="C73" t="n">
-        <v>0.778953</v>
+        <v>0.779276</v>
       </c>
       <c r="D73" t="n">
-        <v>0.873314</v>
+        <v>0.924363</v>
       </c>
     </row>
     <row r="74">
@@ -10374,13 +10374,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.874054</v>
+        <v>0.861835</v>
       </c>
       <c r="C74" t="n">
-        <v>0.795984</v>
+        <v>0.7942</v>
       </c>
       <c r="D74" t="n">
-        <v>0.9267570000000001</v>
+        <v>0.963398</v>
       </c>
     </row>
     <row r="75">
@@ -10388,13 +10388,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.885148</v>
+        <v>0.893277</v>
       </c>
       <c r="C75" t="n">
-        <v>0.825638</v>
+        <v>0.871306</v>
       </c>
       <c r="D75" t="n">
-        <v>0.982572</v>
+        <v>0.9991679999999999</v>
       </c>
     </row>
     <row r="76">
@@ -10402,13 +10402,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.936648</v>
+        <v>0.9389690000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>0.873481</v>
+        <v>0.87881</v>
       </c>
       <c r="D76" t="n">
-        <v>1.05437</v>
+        <v>1.03658</v>
       </c>
     </row>
     <row r="77">
@@ -10416,13 +10416,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.9505670000000001</v>
+        <v>0.935086</v>
       </c>
       <c r="C77" t="n">
-        <v>0.918125</v>
+        <v>0.904617</v>
       </c>
       <c r="D77" t="n">
-        <v>1.07473</v>
+        <v>1.07562</v>
       </c>
     </row>
     <row r="78">
@@ -10430,13 +10430,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.944653</v>
+        <v>0.964753</v>
       </c>
       <c r="C78" t="n">
-        <v>0.736751</v>
+        <v>0.72423</v>
       </c>
       <c r="D78" t="n">
-        <v>0.898847</v>
+        <v>0.9106340000000001</v>
       </c>
     </row>
     <row r="79">
@@ -10444,13 +10444,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.994691</v>
+        <v>1.02171</v>
       </c>
       <c r="C79" t="n">
-        <v>0.733531</v>
+        <v>0.802616</v>
       </c>
       <c r="D79" t="n">
-        <v>0.885301</v>
+        <v>0.961071</v>
       </c>
     </row>
     <row r="80">
@@ -10458,13 +10458,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.02847</v>
+        <v>1.03719</v>
       </c>
       <c r="C80" t="n">
-        <v>0.7934330000000001</v>
+        <v>0.791984</v>
       </c>
       <c r="D80" t="n">
-        <v>0.9567</v>
+        <v>0.97358</v>
       </c>
     </row>
     <row r="81">
@@ -10472,13 +10472,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.06119</v>
+        <v>1.07339</v>
       </c>
       <c r="C81" t="n">
-        <v>0.789254</v>
+        <v>0.84683</v>
       </c>
       <c r="D81" t="n">
-        <v>0.982577</v>
+        <v>1.01711</v>
       </c>
     </row>
     <row r="82">
@@ -10486,13 +10486,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.08135</v>
+        <v>1.09853</v>
       </c>
       <c r="C82" t="n">
-        <v>0.83732</v>
+        <v>0.840365</v>
       </c>
       <c r="D82" t="n">
-        <v>1.05243</v>
+        <v>1.03732</v>
       </c>
     </row>
     <row r="83">
@@ -10500,13 +10500,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.11585</v>
+        <v>1.11793</v>
       </c>
       <c r="C83" t="n">
-        <v>0.871731</v>
+        <v>0.869838</v>
       </c>
       <c r="D83" t="n">
-        <v>1.07344</v>
+        <v>1.06451</v>
       </c>
     </row>
     <row r="84">
@@ -10514,13 +10514,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.883478</v>
+        <v>0.9028080000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>0.874853</v>
+        <v>0.89559</v>
       </c>
       <c r="D84" t="n">
-        <v>1.09762</v>
+        <v>1.12087</v>
       </c>
     </row>
     <row r="85">
@@ -10528,13 +10528,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.898989</v>
+        <v>0.925592</v>
       </c>
       <c r="C85" t="n">
-        <v>0.908985</v>
+        <v>0.923583</v>
       </c>
       <c r="D85" t="n">
-        <v>1.17301</v>
+        <v>1.17948</v>
       </c>
     </row>
     <row r="86">
@@ -10542,13 +10542,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.932734</v>
+        <v>0.947052</v>
       </c>
       <c r="C86" t="n">
-        <v>0.944488</v>
+        <v>0.946803</v>
       </c>
       <c r="D86" t="n">
-        <v>1.16241</v>
+        <v>1.21995</v>
       </c>
     </row>
     <row r="87">
@@ -10556,13 +10556,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.967112</v>
+        <v>0.982318</v>
       </c>
       <c r="C87" t="n">
-        <v>0.961936</v>
+        <v>1.01804</v>
       </c>
       <c r="D87" t="n">
-        <v>1.19429</v>
+        <v>1.2732</v>
       </c>
     </row>
     <row r="88">
@@ -10570,13 +10570,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.01094</v>
+        <v>1.01743</v>
       </c>
       <c r="C88" t="n">
-        <v>1.00233</v>
+        <v>1.02198</v>
       </c>
       <c r="D88" t="n">
-        <v>1.24406</v>
+        <v>1.28218</v>
       </c>
     </row>
     <row r="89">
@@ -10584,13 +10584,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.0117</v>
+        <v>1.02674</v>
       </c>
       <c r="C89" t="n">
-        <v>1.03452</v>
+        <v>1.06131</v>
       </c>
       <c r="D89" t="n">
-        <v>1.27611</v>
+        <v>1.32568</v>
       </c>
     </row>
     <row r="90">
@@ -10598,13 +10598,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.05812</v>
+        <v>1.05534</v>
       </c>
       <c r="C90" t="n">
-        <v>1.08115</v>
+        <v>1.10159</v>
       </c>
       <c r="D90" t="n">
-        <v>1.29468</v>
+        <v>1.38355</v>
       </c>
     </row>
     <row r="91">
@@ -10612,13 +10612,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.06122</v>
+        <v>1.07995</v>
       </c>
       <c r="C91" t="n">
-        <v>1.09393</v>
+        <v>1.11746</v>
       </c>
       <c r="D91" t="n">
-        <v>1.36922</v>
+        <v>1.41097</v>
       </c>
     </row>
     <row r="92">
@@ -10626,13 +10626,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.08404</v>
+        <v>1.08887</v>
       </c>
       <c r="C92" t="n">
-        <v>0.86469</v>
+        <v>0.897222</v>
       </c>
       <c r="D92" t="n">
-        <v>1.1352</v>
+        <v>1.12263</v>
       </c>
     </row>
     <row r="93">
@@ -10640,13 +10640,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.12976</v>
+        <v>1.11298</v>
       </c>
       <c r="C93" t="n">
-        <v>0.903976</v>
+        <v>0.92227</v>
       </c>
       <c r="D93" t="n">
-        <v>1.15028</v>
+        <v>1.14392</v>
       </c>
     </row>
     <row r="94">
@@ -10654,13 +10654,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.16351</v>
+        <v>1.14858</v>
       </c>
       <c r="C94" t="n">
-        <v>0.893872</v>
+        <v>0.9452199999999999</v>
       </c>
       <c r="D94" t="n">
-        <v>1.19234</v>
+        <v>1.17637</v>
       </c>
     </row>
     <row r="95">
@@ -10668,13 +10668,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.18601</v>
+        <v>1.18009</v>
       </c>
       <c r="C95" t="n">
-        <v>0.934967</v>
+        <v>0.9490229999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>1.23023</v>
+        <v>1.21162</v>
       </c>
     </row>
     <row r="96">
@@ -10682,13 +10682,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.21525</v>
+        <v>1.2249</v>
       </c>
       <c r="C96" t="n">
-        <v>0.983487</v>
+        <v>0.9724429999999999</v>
       </c>
       <c r="D96" t="n">
-        <v>1.23196</v>
+        <v>1.26308</v>
       </c>
     </row>
     <row r="97">
@@ -10696,13 +10696,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.26185</v>
+        <v>1.25541</v>
       </c>
       <c r="C97" t="n">
-        <v>0.9980019999999999</v>
+        <v>1.02301</v>
       </c>
       <c r="D97" t="n">
-        <v>1.2792</v>
+        <v>1.29508</v>
       </c>
     </row>
     <row r="98">
@@ -10710,13 +10710,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.970334</v>
+        <v>0.980356</v>
       </c>
       <c r="C98" t="n">
-        <v>1.00974</v>
+        <v>1.03162</v>
       </c>
       <c r="D98" t="n">
-        <v>1.33824</v>
+        <v>1.33163</v>
       </c>
     </row>
     <row r="99">
@@ -10724,13 +10724,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.995322</v>
+        <v>1.01033</v>
       </c>
       <c r="C99" t="n">
-        <v>1.06084</v>
+        <v>1.0588</v>
       </c>
       <c r="D99" t="n">
-        <v>1.4046</v>
+        <v>1.38873</v>
       </c>
     </row>
     <row r="100">
@@ -10738,13 +10738,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.02967</v>
+        <v>1.06675</v>
       </c>
       <c r="C100" t="n">
-        <v>1.08295</v>
+        <v>1.07347</v>
       </c>
       <c r="D100" t="n">
-        <v>1.41752</v>
+        <v>1.421</v>
       </c>
     </row>
     <row r="101">
@@ -10752,13 +10752,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.03238</v>
+        <v>1.05062</v>
       </c>
       <c r="C101" t="n">
-        <v>1.10293</v>
+        <v>1.10641</v>
       </c>
       <c r="D101" t="n">
-        <v>1.44657</v>
+        <v>1.4879</v>
       </c>
     </row>
     <row r="102">
@@ -10766,13 +10766,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.08455</v>
+        <v>1.10555</v>
       </c>
       <c r="C102" t="n">
-        <v>1.13831</v>
+        <v>1.14063</v>
       </c>
       <c r="D102" t="n">
-        <v>1.46632</v>
+        <v>1.50275</v>
       </c>
     </row>
     <row r="103">
@@ -10780,13 +10780,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.11178</v>
+        <v>1.12829</v>
       </c>
       <c r="C103" t="n">
-        <v>1.19608</v>
+        <v>1.19655</v>
       </c>
       <c r="D103" t="n">
-        <v>1.49233</v>
+        <v>1.51332</v>
       </c>
     </row>
     <row r="104">
@@ -10794,13 +10794,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.13875</v>
+        <v>1.15889</v>
       </c>
       <c r="C104" t="n">
-        <v>1.20277</v>
+        <v>1.21204</v>
       </c>
       <c r="D104" t="n">
-        <v>1.52791</v>
+        <v>1.58323</v>
       </c>
     </row>
     <row r="105">
@@ -10808,13 +10808,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.1461</v>
+        <v>1.18177</v>
       </c>
       <c r="C105" t="n">
-        <v>1.21406</v>
+        <v>1.27284</v>
       </c>
       <c r="D105" t="n">
-        <v>1.60694</v>
+        <v>1.63652</v>
       </c>
     </row>
     <row r="106">
@@ -10822,13 +10822,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.19627</v>
+        <v>1.20216</v>
       </c>
       <c r="C106" t="n">
-        <v>1.28071</v>
+        <v>1.32643</v>
       </c>
       <c r="D106" t="n">
-        <v>1.6588</v>
+        <v>1.69048</v>
       </c>
     </row>
     <row r="107">
@@ -10836,13 +10836,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.24539</v>
+        <v>1.26176</v>
       </c>
       <c r="C107" t="n">
-        <v>0.998039</v>
+        <v>1.01164</v>
       </c>
       <c r="D107" t="n">
-        <v>1.26176</v>
+        <v>1.31679</v>
       </c>
     </row>
     <row r="108">
@@ -10850,13 +10850,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.25361</v>
+        <v>1.29141</v>
       </c>
       <c r="C108" t="n">
-        <v>1.00918</v>
+        <v>1.0668</v>
       </c>
       <c r="D108" t="n">
-        <v>1.30163</v>
+        <v>1.3626</v>
       </c>
     </row>
     <row r="109">
@@ -10864,13 +10864,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.26281</v>
+        <v>1.33522</v>
       </c>
       <c r="C109" t="n">
-        <v>1.0313</v>
+        <v>1.07647</v>
       </c>
       <c r="D109" t="n">
-        <v>1.33265</v>
+        <v>1.39272</v>
       </c>
     </row>
     <row r="110">
@@ -10878,13 +10878,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.29571</v>
+        <v>1.38545</v>
       </c>
       <c r="C110" t="n">
-        <v>1.07284</v>
+        <v>1.08977</v>
       </c>
       <c r="D110" t="n">
-        <v>1.35937</v>
+        <v>1.44773</v>
       </c>
     </row>
     <row r="111">
@@ -10892,13 +10892,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.35997</v>
+        <v>1.4012</v>
       </c>
       <c r="C111" t="n">
-        <v>1.07948</v>
+        <v>1.14328</v>
       </c>
       <c r="D111" t="n">
-        <v>1.41118</v>
+        <v>1.50948</v>
       </c>
     </row>
     <row r="112">
@@ -10906,13 +10906,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.08209</v>
+        <v>1.14694</v>
       </c>
       <c r="C112" t="n">
-        <v>1.09923</v>
+        <v>1.15241</v>
       </c>
       <c r="D112" t="n">
-        <v>1.47893</v>
+        <v>1.49386</v>
       </c>
     </row>
     <row r="113">
@@ -10920,13 +10920,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.07552</v>
+        <v>1.16434</v>
       </c>
       <c r="C113" t="n">
-        <v>1.13742</v>
+        <v>1.22942</v>
       </c>
       <c r="D113" t="n">
-        <v>1.49813</v>
+        <v>1.59326</v>
       </c>
     </row>
     <row r="114">
@@ -10934,13 +10934,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.1187</v>
+        <v>1.22298</v>
       </c>
       <c r="C114" t="n">
-        <v>1.14344</v>
+        <v>1.22918</v>
       </c>
       <c r="D114" t="n">
-        <v>1.54715</v>
+        <v>1.57789</v>
       </c>
     </row>
     <row r="115">
@@ -10948,13 +10948,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.11688</v>
+        <v>1.15082</v>
       </c>
       <c r="C115" t="n">
-        <v>1.17853</v>
+        <v>1.26085</v>
       </c>
       <c r="D115" t="n">
-        <v>1.60088</v>
+        <v>1.71264</v>
       </c>
     </row>
     <row r="116">
@@ -10962,13 +10962,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.17406</v>
+        <v>1.17467</v>
       </c>
       <c r="C116" t="n">
-        <v>1.2371</v>
+        <v>1.31478</v>
       </c>
       <c r="D116" t="n">
-        <v>1.63786</v>
+        <v>1.77051</v>
       </c>
     </row>
     <row r="117">
@@ -10976,13 +10976,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.18898</v>
+        <v>1.18213</v>
       </c>
       <c r="C117" t="n">
-        <v>1.28694</v>
+        <v>1.3614</v>
       </c>
       <c r="D117" t="n">
-        <v>1.67015</v>
+        <v>1.83659</v>
       </c>
     </row>
     <row r="118">
@@ -10990,13 +10990,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.22752</v>
+        <v>1.24073</v>
       </c>
       <c r="C118" t="n">
-        <v>1.32702</v>
+        <v>1.41167</v>
       </c>
       <c r="D118" t="n">
-        <v>1.73289</v>
+        <v>1.90333</v>
       </c>
     </row>
     <row r="119">
@@ -11004,13 +11004,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.26112</v>
+        <v>1.30436</v>
       </c>
       <c r="C119" t="n">
-        <v>1.34903</v>
+        <v>1.47045</v>
       </c>
       <c r="D119" t="n">
-        <v>1.83698</v>
+        <v>2.00753</v>
       </c>
     </row>
   </sheetData>
@@ -11058,13 +11058,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.189437</v>
+        <v>0.189464</v>
       </c>
       <c r="C2" t="n">
-        <v>0.184763</v>
+        <v>0.188894</v>
       </c>
       <c r="D2" t="n">
-        <v>0.146424</v>
+        <v>0.14765</v>
       </c>
     </row>
     <row r="3">
@@ -11072,13 +11072,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.192849</v>
+        <v>0.189888</v>
       </c>
       <c r="C3" t="n">
-        <v>0.185905</v>
+        <v>0.190524</v>
       </c>
       <c r="D3" t="n">
-        <v>0.142307</v>
+        <v>0.143247</v>
       </c>
     </row>
     <row r="4">
@@ -11086,13 +11086,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.198054</v>
+        <v>0.198319</v>
       </c>
       <c r="C4" t="n">
-        <v>0.201378</v>
+        <v>0.206899</v>
       </c>
       <c r="D4" t="n">
-        <v>0.157935</v>
+        <v>0.15295</v>
       </c>
     </row>
     <row r="5">
@@ -11100,13 +11100,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.210887</v>
+        <v>0.1988</v>
       </c>
       <c r="C5" t="n">
-        <v>0.203007</v>
+        <v>0.208948</v>
       </c>
       <c r="D5" t="n">
-        <v>0.155648</v>
+        <v>0.15232</v>
       </c>
     </row>
     <row r="6">
@@ -11114,13 +11114,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.205545</v>
+        <v>0.202951</v>
       </c>
       <c r="C6" t="n">
-        <v>0.202783</v>
+        <v>0.209943</v>
       </c>
       <c r="D6" t="n">
-        <v>0.149824</v>
+        <v>0.154359</v>
       </c>
     </row>
     <row r="7">
@@ -11128,13 +11128,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.210074</v>
+        <v>0.213298</v>
       </c>
       <c r="C7" t="n">
-        <v>0.168334</v>
+        <v>0.167884</v>
       </c>
       <c r="D7" t="n">
-        <v>0.146486</v>
+        <v>0.14264</v>
       </c>
     </row>
     <row r="8">
@@ -11142,13 +11142,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.229618</v>
+        <v>0.213217</v>
       </c>
       <c r="C8" t="n">
-        <v>0.165453</v>
+        <v>0.167977</v>
       </c>
       <c r="D8" t="n">
-        <v>0.146775</v>
+        <v>0.148853</v>
       </c>
     </row>
     <row r="9">
@@ -11156,13 +11156,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.223907</v>
+        <v>0.222927</v>
       </c>
       <c r="C9" t="n">
-        <v>0.173383</v>
+        <v>0.180659</v>
       </c>
       <c r="D9" t="n">
-        <v>0.15504</v>
+        <v>0.145769</v>
       </c>
     </row>
     <row r="10">
@@ -11170,13 +11170,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.22413</v>
+        <v>0.238278</v>
       </c>
       <c r="C10" t="n">
-        <v>0.17562</v>
+        <v>0.184524</v>
       </c>
       <c r="D10" t="n">
-        <v>0.150474</v>
+        <v>0.151174</v>
       </c>
     </row>
     <row r="11">
@@ -11184,13 +11184,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.233253</v>
+        <v>0.235513</v>
       </c>
       <c r="C11" t="n">
-        <v>0.180142</v>
+        <v>0.192098</v>
       </c>
       <c r="D11" t="n">
-        <v>0.160649</v>
+        <v>0.150518</v>
       </c>
     </row>
     <row r="12">
@@ -11198,13 +11198,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.242876</v>
+        <v>0.246801</v>
       </c>
       <c r="C12" t="n">
-        <v>0.186256</v>
+        <v>0.188879</v>
       </c>
       <c r="D12" t="n">
-        <v>0.156726</v>
+        <v>0.153666</v>
       </c>
     </row>
     <row r="13">
@@ -11212,13 +11212,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.191257</v>
+        <v>0.190984</v>
       </c>
       <c r="C13" t="n">
-        <v>0.187844</v>
+        <v>0.199508</v>
       </c>
       <c r="D13" t="n">
-        <v>0.159128</v>
+        <v>0.160117</v>
       </c>
     </row>
     <row r="14">
@@ -11226,13 +11226,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.199949</v>
+        <v>0.196513</v>
       </c>
       <c r="C14" t="n">
-        <v>0.196425</v>
+        <v>0.20136</v>
       </c>
       <c r="D14" t="n">
-        <v>0.157396</v>
+        <v>0.160798</v>
       </c>
     </row>
     <row r="15">
@@ -11240,13 +11240,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.2022</v>
+        <v>0.200544</v>
       </c>
       <c r="C15" t="n">
-        <v>0.201392</v>
+        <v>0.209066</v>
       </c>
       <c r="D15" t="n">
-        <v>0.163515</v>
+        <v>0.163473</v>
       </c>
     </row>
     <row r="16">
@@ -11254,13 +11254,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.202888</v>
+        <v>0.204789</v>
       </c>
       <c r="C16" t="n">
-        <v>0.206783</v>
+        <v>0.217478</v>
       </c>
       <c r="D16" t="n">
-        <v>0.162869</v>
+        <v>0.167432</v>
       </c>
     </row>
     <row r="17">
@@ -11268,13 +11268,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.216077</v>
+        <v>0.211404</v>
       </c>
       <c r="C17" t="n">
-        <v>0.212775</v>
+        <v>0.219658</v>
       </c>
       <c r="D17" t="n">
-        <v>0.171519</v>
+        <v>0.167273</v>
       </c>
     </row>
     <row r="18">
@@ -11282,13 +11282,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.212347</v>
+        <v>0.209736</v>
       </c>
       <c r="C18" t="n">
-        <v>0.215851</v>
+        <v>0.222949</v>
       </c>
       <c r="D18" t="n">
-        <v>0.171547</v>
+        <v>0.184081</v>
       </c>
     </row>
     <row r="19">
@@ -11296,13 +11296,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.220162</v>
+        <v>0.219511</v>
       </c>
       <c r="C19" t="n">
-        <v>0.230696</v>
+        <v>0.232385</v>
       </c>
       <c r="D19" t="n">
-        <v>0.182628</v>
+        <v>0.177066</v>
       </c>
     </row>
     <row r="20">
@@ -11310,13 +11310,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.228338</v>
+        <v>0.232836</v>
       </c>
       <c r="C20" t="n">
-        <v>0.240928</v>
+        <v>0.244179</v>
       </c>
       <c r="D20" t="n">
-        <v>0.18397</v>
+        <v>0.188685</v>
       </c>
     </row>
     <row r="21">
@@ -11324,13 +11324,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.236881</v>
+        <v>0.237512</v>
       </c>
       <c r="C21" t="n">
-        <v>0.183066</v>
+        <v>0.189473</v>
       </c>
       <c r="D21" t="n">
-        <v>0.160879</v>
+        <v>0.160446</v>
       </c>
     </row>
     <row r="22">
@@ -11338,13 +11338,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.234814</v>
+        <v>0.233498</v>
       </c>
       <c r="C22" t="n">
-        <v>0.187168</v>
+        <v>0.186701</v>
       </c>
       <c r="D22" t="n">
-        <v>0.165991</v>
+        <v>0.160525</v>
       </c>
     </row>
     <row r="23">
@@ -11352,13 +11352,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.249517</v>
+        <v>0.242837</v>
       </c>
       <c r="C23" t="n">
-        <v>0.194678</v>
+        <v>0.194748</v>
       </c>
       <c r="D23" t="n">
-        <v>0.168574</v>
+        <v>0.166585</v>
       </c>
     </row>
     <row r="24">
@@ -11366,13 +11366,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.247847</v>
+        <v>0.242943</v>
       </c>
       <c r="C24" t="n">
-        <v>0.202628</v>
+        <v>0.206234</v>
       </c>
       <c r="D24" t="n">
-        <v>0.169099</v>
+        <v>0.167292</v>
       </c>
     </row>
     <row r="25">
@@ -11380,13 +11380,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.255255</v>
+        <v>0.258548</v>
       </c>
       <c r="C25" t="n">
-        <v>0.2104</v>
+        <v>0.216036</v>
       </c>
       <c r="D25" t="n">
-        <v>0.173928</v>
+        <v>0.174551</v>
       </c>
     </row>
     <row r="26">
@@ -11394,13 +11394,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.252942</v>
+        <v>0.266986</v>
       </c>
       <c r="C26" t="n">
-        <v>0.206429</v>
+        <v>0.226136</v>
       </c>
       <c r="D26" t="n">
-        <v>0.176612</v>
+        <v>0.179666</v>
       </c>
     </row>
     <row r="27">
@@ -11408,13 +11408,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.23082</v>
+        <v>0.218363</v>
       </c>
       <c r="C27" t="n">
-        <v>0.217651</v>
+        <v>0.216517</v>
       </c>
       <c r="D27" t="n">
-        <v>0.173583</v>
+        <v>0.183061</v>
       </c>
     </row>
     <row r="28">
@@ -11422,13 +11422,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.225892</v>
+        <v>0.237856</v>
       </c>
       <c r="C28" t="n">
-        <v>0.215226</v>
+        <v>0.23267</v>
       </c>
       <c r="D28" t="n">
-        <v>0.184505</v>
+        <v>0.185612</v>
       </c>
     </row>
     <row r="29">
@@ -11436,13 +11436,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.235126</v>
+        <v>0.243807</v>
       </c>
       <c r="C29" t="n">
-        <v>0.231465</v>
+        <v>0.229119</v>
       </c>
       <c r="D29" t="n">
-        <v>0.183254</v>
+        <v>0.185731</v>
       </c>
     </row>
     <row r="30">
@@ -11450,13 +11450,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.253128</v>
+        <v>0.254721</v>
       </c>
       <c r="C30" t="n">
-        <v>0.237206</v>
+        <v>0.243171</v>
       </c>
       <c r="D30" t="n">
-        <v>0.191992</v>
+        <v>0.204523</v>
       </c>
     </row>
     <row r="31">
@@ -11464,13 +11464,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.25756</v>
+        <v>0.267783</v>
       </c>
       <c r="C31" t="n">
-        <v>0.239811</v>
+        <v>0.264765</v>
       </c>
       <c r="D31" t="n">
-        <v>0.192312</v>
+        <v>0.200905</v>
       </c>
     </row>
     <row r="32">
@@ -11478,13 +11478,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.267517</v>
+        <v>0.265835</v>
       </c>
       <c r="C32" t="n">
-        <v>0.258813</v>
+        <v>0.265917</v>
       </c>
       <c r="D32" t="n">
-        <v>0.207675</v>
+        <v>0.204803</v>
       </c>
     </row>
     <row r="33">
@@ -11492,13 +11492,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.274842</v>
+        <v>0.278651</v>
       </c>
       <c r="C33" t="n">
-        <v>0.276672</v>
+        <v>0.273348</v>
       </c>
       <c r="D33" t="n">
-        <v>0.204243</v>
+        <v>0.206003</v>
       </c>
     </row>
     <row r="34">
@@ -11506,13 +11506,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.272432</v>
+        <v>0.296937</v>
       </c>
       <c r="C34" t="n">
-        <v>0.272816</v>
+        <v>0.281423</v>
       </c>
       <c r="D34" t="n">
-        <v>0.21137</v>
+        <v>0.205822</v>
       </c>
     </row>
     <row r="35">
@@ -11520,13 +11520,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.285912</v>
+        <v>0.293665</v>
       </c>
       <c r="C35" t="n">
-        <v>0.220679</v>
+        <v>0.228854</v>
       </c>
       <c r="D35" t="n">
-        <v>0.186243</v>
+        <v>0.191358</v>
       </c>
     </row>
     <row r="36">
@@ -11534,13 +11534,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.295893</v>
+        <v>0.318088</v>
       </c>
       <c r="C36" t="n">
-        <v>0.221395</v>
+        <v>0.237381</v>
       </c>
       <c r="D36" t="n">
-        <v>0.192844</v>
+        <v>0.192664</v>
       </c>
     </row>
     <row r="37">
@@ -11548,13 +11548,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.311895</v>
+        <v>0.315935</v>
       </c>
       <c r="C37" t="n">
-        <v>0.24053</v>
+        <v>0.251611</v>
       </c>
       <c r="D37" t="n">
-        <v>0.190888</v>
+        <v>0.200155</v>
       </c>
     </row>
     <row r="38">
@@ -11562,13 +11562,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.328704</v>
+        <v>0.329541</v>
       </c>
       <c r="C38" t="n">
-        <v>0.239969</v>
+        <v>0.256222</v>
       </c>
       <c r="D38" t="n">
-        <v>0.193792</v>
+        <v>0.208236</v>
       </c>
     </row>
     <row r="39">
@@ -11576,13 +11576,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.33271</v>
+        <v>0.335829</v>
       </c>
       <c r="C39" t="n">
-        <v>0.257703</v>
+        <v>0.272874</v>
       </c>
       <c r="D39" t="n">
-        <v>0.209236</v>
+        <v>0.205725</v>
       </c>
     </row>
     <row r="40">
@@ -11590,13 +11590,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.359443</v>
+        <v>0.355131</v>
       </c>
       <c r="C40" t="n">
-        <v>0.270273</v>
+        <v>0.280018</v>
       </c>
       <c r="D40" t="n">
-        <v>0.213305</v>
+        <v>0.211088</v>
       </c>
     </row>
     <row r="41">
@@ -11604,13 +11604,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.317854</v>
+        <v>0.315402</v>
       </c>
       <c r="C41" t="n">
-        <v>0.276011</v>
+        <v>0.284648</v>
       </c>
       <c r="D41" t="n">
-        <v>0.217667</v>
+        <v>0.215593</v>
       </c>
     </row>
     <row r="42">
@@ -11618,13 +11618,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.329516</v>
+        <v>0.341677</v>
       </c>
       <c r="C42" t="n">
-        <v>0.286924</v>
+        <v>0.289161</v>
       </c>
       <c r="D42" t="n">
-        <v>0.228057</v>
+        <v>0.227995</v>
       </c>
     </row>
     <row r="43">
@@ -11632,13 +11632,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.337101</v>
+        <v>0.351042</v>
       </c>
       <c r="C43" t="n">
-        <v>0.303647</v>
+        <v>0.311871</v>
       </c>
       <c r="D43" t="n">
-        <v>0.231414</v>
+        <v>0.231809</v>
       </c>
     </row>
     <row r="44">
@@ -11646,13 +11646,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.344394</v>
+        <v>0.363287</v>
       </c>
       <c r="C44" t="n">
-        <v>0.31948</v>
+        <v>0.330863</v>
       </c>
       <c r="D44" t="n">
-        <v>0.23498</v>
+        <v>0.239724</v>
       </c>
     </row>
     <row r="45">
@@ -11660,13 +11660,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.360365</v>
+        <v>0.379853</v>
       </c>
       <c r="C45" t="n">
-        <v>0.323691</v>
+        <v>0.352224</v>
       </c>
       <c r="D45" t="n">
-        <v>0.247437</v>
+        <v>0.25869</v>
       </c>
     </row>
     <row r="46">
@@ -11674,13 +11674,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.372859</v>
+        <v>0.384809</v>
       </c>
       <c r="C46" t="n">
-        <v>0.346607</v>
+        <v>0.353278</v>
       </c>
       <c r="D46" t="n">
-        <v>0.266766</v>
+        <v>0.264066</v>
       </c>
     </row>
     <row r="47">
@@ -11688,13 +11688,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.389626</v>
+        <v>0.406928</v>
       </c>
       <c r="C47" t="n">
-        <v>0.366384</v>
+        <v>0.382358</v>
       </c>
       <c r="D47" t="n">
-        <v>0.278306</v>
+        <v>0.27297</v>
       </c>
     </row>
     <row r="48">
@@ -11702,13 +11702,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.406419</v>
+        <v>0.413329</v>
       </c>
       <c r="C48" t="n">
-        <v>0.395165</v>
+        <v>0.405739</v>
       </c>
       <c r="D48" t="n">
-        <v>0.281081</v>
+        <v>0.28977</v>
       </c>
     </row>
     <row r="49">
@@ -11716,13 +11716,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.429095</v>
+        <v>0.434225</v>
       </c>
       <c r="C49" t="n">
-        <v>0.405878</v>
+        <v>0.414669</v>
       </c>
       <c r="D49" t="n">
-        <v>0.288196</v>
+        <v>0.290572</v>
       </c>
     </row>
     <row r="50">
@@ -11730,13 +11730,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.442574</v>
+        <v>0.448759</v>
       </c>
       <c r="C50" t="n">
-        <v>0.310077</v>
+        <v>0.324741</v>
       </c>
       <c r="D50" t="n">
-        <v>0.243847</v>
+        <v>0.252526</v>
       </c>
     </row>
     <row r="51">
@@ -11744,13 +11744,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.455424</v>
+        <v>0.477845</v>
       </c>
       <c r="C51" t="n">
-        <v>0.328804</v>
+        <v>0.341776</v>
       </c>
       <c r="D51" t="n">
-        <v>0.253926</v>
+        <v>0.253075</v>
       </c>
     </row>
     <row r="52">
@@ -11758,13 +11758,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.483717</v>
+        <v>0.511893</v>
       </c>
       <c r="C52" t="n">
-        <v>0.334958</v>
+        <v>0.364385</v>
       </c>
       <c r="D52" t="n">
-        <v>0.259183</v>
+        <v>0.272992</v>
       </c>
     </row>
     <row r="53">
@@ -11772,13 +11772,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.499467</v>
+        <v>0.5315530000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>0.361511</v>
+        <v>0.384668</v>
       </c>
       <c r="D53" t="n">
-        <v>0.268525</v>
+        <v>0.272094</v>
       </c>
     </row>
     <row r="54">
@@ -11786,13 +11786,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.551934</v>
+        <v>0.559454</v>
       </c>
       <c r="C54" t="n">
-        <v>0.388439</v>
+        <v>0.398865</v>
       </c>
       <c r="D54" t="n">
-        <v>0.279467</v>
+        <v>0.287223</v>
       </c>
     </row>
     <row r="55">
@@ -11800,13 +11800,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.567287</v>
+        <v>0.599452</v>
       </c>
       <c r="C55" t="n">
-        <v>0.396746</v>
+        <v>0.409451</v>
       </c>
       <c r="D55" t="n">
-        <v>0.287344</v>
+        <v>0.288851</v>
       </c>
     </row>
     <row r="56">
@@ -11814,13 +11814,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.510692</v>
+        <v>0.5581199999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>0.416145</v>
+        <v>0.450794</v>
       </c>
       <c r="D56" t="n">
-        <v>0.298033</v>
+        <v>0.297163</v>
       </c>
     </row>
     <row r="57">
@@ -11828,13 +11828,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.551773</v>
+        <v>0.568343</v>
       </c>
       <c r="C57" t="n">
-        <v>0.4421</v>
+        <v>0.454875</v>
       </c>
       <c r="D57" t="n">
-        <v>0.309106</v>
+        <v>0.316519</v>
       </c>
     </row>
     <row r="58">
@@ -11842,13 +11842,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.56541</v>
+        <v>0.586852</v>
       </c>
       <c r="C58" t="n">
-        <v>0.475542</v>
+        <v>0.492399</v>
       </c>
       <c r="D58" t="n">
-        <v>0.324267</v>
+        <v>0.317678</v>
       </c>
     </row>
     <row r="59">
@@ -11856,13 +11856,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.599057</v>
+        <v>0.633983</v>
       </c>
       <c r="C59" t="n">
-        <v>0.504777</v>
+        <v>0.518479</v>
       </c>
       <c r="D59" t="n">
-        <v>0.346046</v>
+        <v>0.345135</v>
       </c>
     </row>
     <row r="60">
@@ -11870,13 +11870,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.630333</v>
+        <v>0.668574</v>
       </c>
       <c r="C60" t="n">
-        <v>0.531341</v>
+        <v>0.547135</v>
       </c>
       <c r="D60" t="n">
-        <v>0.351475</v>
+        <v>0.351748</v>
       </c>
     </row>
     <row r="61">
@@ -11884,13 +11884,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.661528</v>
+        <v>0.681908</v>
       </c>
       <c r="C61" t="n">
-        <v>0.575309</v>
+        <v>0.603649</v>
       </c>
       <c r="D61" t="n">
-        <v>0.373814</v>
+        <v>0.372344</v>
       </c>
     </row>
     <row r="62">
@@ -11898,13 +11898,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.691785</v>
+        <v>0.6892779999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>0.615911</v>
+        <v>0.622927</v>
       </c>
       <c r="D62" t="n">
-        <v>0.402271</v>
+        <v>0.384518</v>
       </c>
     </row>
     <row r="63">
@@ -11912,13 +11912,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.73266</v>
+        <v>0.75784</v>
       </c>
       <c r="C63" t="n">
-        <v>0.639172</v>
+        <v>0.682014</v>
       </c>
       <c r="D63" t="n">
-        <v>0.404603</v>
+        <v>0.416049</v>
       </c>
     </row>
     <row r="64">
@@ -11926,13 +11926,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.764398</v>
+        <v>0.788432</v>
       </c>
       <c r="C64" t="n">
-        <v>0.536025</v>
+        <v>0.553554</v>
       </c>
       <c r="D64" t="n">
-        <v>0.379356</v>
+        <v>0.38301</v>
       </c>
     </row>
     <row r="65">
@@ -11940,13 +11940,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.814218</v>
+        <v>0.851668</v>
       </c>
       <c r="C65" t="n">
-        <v>0.542179</v>
+        <v>0.602714</v>
       </c>
       <c r="D65" t="n">
-        <v>0.400688</v>
+        <v>0.394626</v>
       </c>
     </row>
     <row r="66">
@@ -11954,13 +11954,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.80957</v>
+        <v>0.871308</v>
       </c>
       <c r="C66" t="n">
-        <v>0.574996</v>
+        <v>0.619164</v>
       </c>
       <c r="D66" t="n">
-        <v>0.405793</v>
+        <v>0.412984</v>
       </c>
     </row>
     <row r="67">
@@ -11968,13 +11968,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.888114</v>
+        <v>0.914744</v>
       </c>
       <c r="C67" t="n">
-        <v>0.609025</v>
+        <v>0.643578</v>
       </c>
       <c r="D67" t="n">
-        <v>0.439879</v>
+        <v>0.434321</v>
       </c>
     </row>
     <row r="68">
@@ -11982,13 +11982,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.93228</v>
+        <v>0.982284</v>
       </c>
       <c r="C68" t="n">
-        <v>0.624896</v>
+        <v>0.704894</v>
       </c>
       <c r="D68" t="n">
-        <v>0.440854</v>
+        <v>0.461577</v>
       </c>
     </row>
     <row r="69">
@@ -11996,13 +11996,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.97832</v>
+        <v>1.01178</v>
       </c>
       <c r="C69" t="n">
-        <v>0.6941000000000001</v>
+        <v>0.736748</v>
       </c>
       <c r="D69" t="n">
-        <v>0.473742</v>
+        <v>0.491522</v>
       </c>
     </row>
     <row r="70">
@@ -12010,13 +12010,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.7930199999999999</v>
+        <v>0.794527</v>
       </c>
       <c r="C70" t="n">
-        <v>0.723251</v>
+        <v>0.75513</v>
       </c>
       <c r="D70" t="n">
-        <v>0.475728</v>
+        <v>0.496427</v>
       </c>
     </row>
     <row r="71">
@@ -12024,13 +12024,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.831072</v>
+        <v>0.8573190000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>0.763404</v>
+        <v>0.793385</v>
       </c>
       <c r="D71" t="n">
-        <v>0.51922</v>
+        <v>0.515505</v>
       </c>
     </row>
     <row r="72">
@@ -12038,13 +12038,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.858591</v>
+        <v>0.8829939999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>0.799547</v>
+        <v>0.823156</v>
       </c>
       <c r="D72" t="n">
-        <v>0.543096</v>
+        <v>0.552894</v>
       </c>
     </row>
     <row r="73">
@@ -12052,13 +12052,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.874767</v>
+        <v>0.916553</v>
       </c>
       <c r="C73" t="n">
-        <v>0.853513</v>
+        <v>0.863548</v>
       </c>
       <c r="D73" t="n">
-        <v>0.547457</v>
+        <v>0.58345</v>
       </c>
     </row>
     <row r="74">
@@ -12066,13 +12066,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.907697</v>
+        <v>0.9227030000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>0.878589</v>
+        <v>0.892869</v>
       </c>
       <c r="D74" t="n">
-        <v>0.575318</v>
+        <v>0.570113</v>
       </c>
     </row>
     <row r="75">
@@ -12080,13 +12080,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.934554</v>
+        <v>0.9633930000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>0.936607</v>
+        <v>0.928584</v>
       </c>
       <c r="D75" t="n">
-        <v>0.604299</v>
+        <v>0.603707</v>
       </c>
     </row>
     <row r="76">
@@ -12094,13 +12094,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.968471</v>
+        <v>0.993653</v>
       </c>
       <c r="C76" t="n">
-        <v>0.983892</v>
+        <v>0.995663</v>
       </c>
       <c r="D76" t="n">
-        <v>0.61747</v>
+        <v>0.6286580000000001</v>
       </c>
     </row>
     <row r="77">
@@ -12108,13 +12108,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.02632</v>
+        <v>1.06684</v>
       </c>
       <c r="C77" t="n">
-        <v>1.03141</v>
+        <v>1.06355</v>
       </c>
       <c r="D77" t="n">
-        <v>0.654419</v>
+        <v>0.675475</v>
       </c>
     </row>
     <row r="78">
@@ -12122,13 +12122,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.05793</v>
+        <v>1.10193</v>
       </c>
       <c r="C78" t="n">
-        <v>0.8040890000000001</v>
+        <v>0.825392</v>
       </c>
       <c r="D78" t="n">
-        <v>0.5994080000000001</v>
+        <v>0.611567</v>
       </c>
     </row>
     <row r="79">
@@ -12136,13 +12136,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.10544</v>
+        <v>1.16327</v>
       </c>
       <c r="C79" t="n">
-        <v>0.851888</v>
+        <v>0.873991</v>
       </c>
       <c r="D79" t="n">
-        <v>0.626491</v>
+        <v>0.634816</v>
       </c>
     </row>
     <row r="80">
@@ -12150,13 +12150,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.13616</v>
+        <v>1.1561</v>
       </c>
       <c r="C80" t="n">
-        <v>0.856174</v>
+        <v>0.892509</v>
       </c>
       <c r="D80" t="n">
-        <v>0.664471</v>
+        <v>0.679463</v>
       </c>
     </row>
     <row r="81">
@@ -12164,13 +12164,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.17688</v>
+        <v>1.21288</v>
       </c>
       <c r="C81" t="n">
-        <v>0.892533</v>
+        <v>0.919368</v>
       </c>
       <c r="D81" t="n">
-        <v>0.6672400000000001</v>
+        <v>0.71841</v>
       </c>
     </row>
     <row r="82">
@@ -12178,13 +12178,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.25331</v>
+        <v>1.25655</v>
       </c>
       <c r="C82" t="n">
-        <v>0.944635</v>
+        <v>0.921311</v>
       </c>
       <c r="D82" t="n">
-        <v>0.7316510000000001</v>
+        <v>0.707656</v>
       </c>
     </row>
     <row r="83">
@@ -12192,13 +12192,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.2856</v>
+        <v>1.26573</v>
       </c>
       <c r="C83" t="n">
-        <v>0.9529029999999999</v>
+        <v>0.991022</v>
       </c>
       <c r="D83" t="n">
-        <v>0.732925</v>
+        <v>0.719369</v>
       </c>
     </row>
     <row r="84">
@@ -12206,13 +12206,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.972518</v>
+        <v>0.975166</v>
       </c>
       <c r="C84" t="n">
-        <v>0.980514</v>
+        <v>1.00752</v>
       </c>
       <c r="D84" t="n">
-        <v>0.78809</v>
+        <v>0.7446970000000001</v>
       </c>
     </row>
     <row r="85">
@@ -12220,13 +12220,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.00154</v>
+        <v>0.993931</v>
       </c>
       <c r="C85" t="n">
-        <v>1.03332</v>
+        <v>1.0628</v>
       </c>
       <c r="D85" t="n">
-        <v>0.809429</v>
+        <v>0.800852</v>
       </c>
     </row>
     <row r="86">
@@ -12234,13 +12234,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.04244</v>
+        <v>1.03801</v>
       </c>
       <c r="C86" t="n">
-        <v>1.05578</v>
+        <v>1.11085</v>
       </c>
       <c r="D86" t="n">
-        <v>0.7994059999999999</v>
+        <v>0.7800280000000001</v>
       </c>
     </row>
     <row r="87">
@@ -12248,13 +12248,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.05926</v>
+        <v>1.06246</v>
       </c>
       <c r="C87" t="n">
-        <v>1.12439</v>
+        <v>1.1384</v>
       </c>
       <c r="D87" t="n">
-        <v>0.822163</v>
+        <v>0.825084</v>
       </c>
     </row>
     <row r="88">
@@ -12262,13 +12262,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.0943</v>
+        <v>1.11674</v>
       </c>
       <c r="C88" t="n">
-        <v>1.15774</v>
+        <v>1.17559</v>
       </c>
       <c r="D88" t="n">
-        <v>0.828107</v>
+        <v>0.856096</v>
       </c>
     </row>
     <row r="89">
@@ -12276,13 +12276,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.1115</v>
+        <v>1.13265</v>
       </c>
       <c r="C89" t="n">
-        <v>1.21999</v>
+        <v>1.22116</v>
       </c>
       <c r="D89" t="n">
-        <v>0.864357</v>
+        <v>0.890921</v>
       </c>
     </row>
     <row r="90">
@@ -12290,13 +12290,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.1857</v>
+        <v>1.16203</v>
       </c>
       <c r="C90" t="n">
-        <v>1.25218</v>
+        <v>1.25986</v>
       </c>
       <c r="D90" t="n">
-        <v>0.9022520000000001</v>
+        <v>0.905907</v>
       </c>
     </row>
     <row r="91">
@@ -12304,13 +12304,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.21757</v>
+        <v>1.18548</v>
       </c>
       <c r="C91" t="n">
-        <v>1.30494</v>
+        <v>1.32005</v>
       </c>
       <c r="D91" t="n">
-        <v>0.9143520000000001</v>
+        <v>0.934323</v>
       </c>
     </row>
     <row r="92">
@@ -12318,13 +12318,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.21268</v>
+        <v>1.24149</v>
       </c>
       <c r="C92" t="n">
-        <v>0.961771</v>
+        <v>0.979981</v>
       </c>
       <c r="D92" t="n">
-        <v>0.789216</v>
+        <v>0.822767</v>
       </c>
     </row>
     <row r="93">
@@ -12332,13 +12332,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.26035</v>
+        <v>1.25231</v>
       </c>
       <c r="C93" t="n">
-        <v>1.00687</v>
+        <v>1.00633</v>
       </c>
       <c r="D93" t="n">
-        <v>0.8231579999999999</v>
+        <v>0.831799</v>
       </c>
     </row>
     <row r="94">
@@ -12346,13 +12346,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.35469</v>
+        <v>1.34185</v>
       </c>
       <c r="C94" t="n">
-        <v>1.02021</v>
+        <v>1.03925</v>
       </c>
       <c r="D94" t="n">
-        <v>0.891115</v>
+        <v>0.845258</v>
       </c>
     </row>
     <row r="95">
@@ -12360,13 +12360,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.36947</v>
+        <v>1.34236</v>
       </c>
       <c r="C95" t="n">
-        <v>1.06985</v>
+        <v>1.05496</v>
       </c>
       <c r="D95" t="n">
-        <v>0.85839</v>
+        <v>0.8689210000000001</v>
       </c>
     </row>
     <row r="96">
@@ -12374,13 +12374,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.43248</v>
+        <v>1.40939</v>
       </c>
       <c r="C96" t="n">
-        <v>1.08647</v>
+        <v>1.09171</v>
       </c>
       <c r="D96" t="n">
-        <v>0.877542</v>
+        <v>0.898747</v>
       </c>
     </row>
     <row r="97">
@@ -12388,13 +12388,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.46876</v>
+        <v>1.45085</v>
       </c>
       <c r="C97" t="n">
-        <v>1.09912</v>
+        <v>1.14831</v>
       </c>
       <c r="D97" t="n">
-        <v>0.910851</v>
+        <v>0.908836</v>
       </c>
     </row>
     <row r="98">
@@ -12402,13 +12402,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.04248</v>
+        <v>1.08539</v>
       </c>
       <c r="C98" t="n">
-        <v>1.14735</v>
+        <v>1.1841</v>
       </c>
       <c r="D98" t="n">
-        <v>0.9528489999999999</v>
+        <v>0.954391</v>
       </c>
     </row>
     <row r="99">
@@ -12416,13 +12416,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.10682</v>
+        <v>1.11966</v>
       </c>
       <c r="C99" t="n">
-        <v>1.18043</v>
+        <v>1.20676</v>
       </c>
       <c r="D99" t="n">
-        <v>0.9824580000000001</v>
+        <v>0.9816049999999999</v>
       </c>
     </row>
     <row r="100">
@@ -12430,13 +12430,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.13273</v>
+        <v>1.14388</v>
       </c>
       <c r="C100" t="n">
-        <v>1.22582</v>
+        <v>1.2584</v>
       </c>
       <c r="D100" t="n">
-        <v>1.004</v>
+        <v>0.993142</v>
       </c>
     </row>
     <row r="101">
@@ -12444,13 +12444,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.17324</v>
+        <v>1.1598</v>
       </c>
       <c r="C101" t="n">
-        <v>1.2628</v>
+        <v>1.29278</v>
       </c>
       <c r="D101" t="n">
-        <v>0.991887</v>
+        <v>1.04393</v>
       </c>
     </row>
     <row r="102">
@@ -12458,13 +12458,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.18867</v>
+        <v>1.19112</v>
       </c>
       <c r="C102" t="n">
-        <v>1.35743</v>
+        <v>1.30601</v>
       </c>
       <c r="D102" t="n">
-        <v>1.04594</v>
+        <v>1.04977</v>
       </c>
     </row>
     <row r="103">
@@ -12472,13 +12472,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.2186</v>
+        <v>1.24477</v>
       </c>
       <c r="C103" t="n">
-        <v>1.35329</v>
+        <v>1.39434</v>
       </c>
       <c r="D103" t="n">
-        <v>1.09511</v>
+        <v>1.05618</v>
       </c>
     </row>
     <row r="104">
@@ -12486,13 +12486,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.23474</v>
+        <v>1.24737</v>
       </c>
       <c r="C104" t="n">
-        <v>1.39984</v>
+        <v>1.41851</v>
       </c>
       <c r="D104" t="n">
-        <v>1.08548</v>
+        <v>1.08453</v>
       </c>
     </row>
     <row r="105">
@@ -12500,13 +12500,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.33237</v>
+        <v>1.28675</v>
       </c>
       <c r="C105" t="n">
-        <v>1.45977</v>
+        <v>1.48956</v>
       </c>
       <c r="D105" t="n">
-        <v>1.16131</v>
+        <v>1.14256</v>
       </c>
     </row>
     <row r="106">
@@ -12514,13 +12514,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.33411</v>
+        <v>1.39536</v>
       </c>
       <c r="C106" t="n">
-        <v>1.4928</v>
+        <v>1.53399</v>
       </c>
       <c r="D106" t="n">
-        <v>1.17385</v>
+        <v>1.181</v>
       </c>
     </row>
     <row r="107">
@@ -12528,13 +12528,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.3798</v>
+        <v>1.39112</v>
       </c>
       <c r="C107" t="n">
-        <v>1.09225</v>
+        <v>1.11483</v>
       </c>
       <c r="D107" t="n">
-        <v>0.932132</v>
+        <v>0.929926</v>
       </c>
     </row>
     <row r="108">
@@ -12542,13 +12542,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.42673</v>
+        <v>1.43484</v>
       </c>
       <c r="C108" t="n">
-        <v>1.11639</v>
+        <v>1.14558</v>
       </c>
       <c r="D108" t="n">
-        <v>0.9550149999999999</v>
+        <v>0.954832</v>
       </c>
     </row>
     <row r="109">
@@ -12556,13 +12556,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.43555</v>
+        <v>1.43635</v>
       </c>
       <c r="C109" t="n">
-        <v>1.16323</v>
+        <v>1.17951</v>
       </c>
       <c r="D109" t="n">
-        <v>0.981652</v>
+        <v>0.995438</v>
       </c>
     </row>
     <row r="110">
@@ -12570,13 +12570,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.48063</v>
+        <v>1.48849</v>
       </c>
       <c r="C110" t="n">
-        <v>1.19406</v>
+        <v>1.21527</v>
       </c>
       <c r="D110" t="n">
-        <v>0.9900640000000001</v>
+        <v>1.00282</v>
       </c>
     </row>
     <row r="111">
@@ -12584,13 +12584,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.55947</v>
+        <v>1.51462</v>
       </c>
       <c r="C111" t="n">
-        <v>1.20856</v>
+        <v>1.23482</v>
       </c>
       <c r="D111" t="n">
-        <v>1.02668</v>
+        <v>1.05381</v>
       </c>
     </row>
     <row r="112">
@@ -12598,13 +12598,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.14414</v>
+        <v>1.22504</v>
       </c>
       <c r="C112" t="n">
-        <v>1.24379</v>
+        <v>1.30124</v>
       </c>
       <c r="D112" t="n">
-        <v>1.05796</v>
+        <v>1.06234</v>
       </c>
     </row>
     <row r="113">
@@ -12612,13 +12612,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.13693</v>
+        <v>1.21885</v>
       </c>
       <c r="C113" t="n">
-        <v>1.25868</v>
+        <v>1.33145</v>
       </c>
       <c r="D113" t="n">
-        <v>1.04897</v>
+        <v>1.09105</v>
       </c>
     </row>
     <row r="114">
@@ -12626,13 +12626,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.19</v>
+        <v>1.21168</v>
       </c>
       <c r="C114" t="n">
-        <v>1.30421</v>
+        <v>1.3831</v>
       </c>
       <c r="D114" t="n">
-        <v>1.10661</v>
+        <v>1.12755</v>
       </c>
     </row>
     <row r="115">
@@ -12640,13 +12640,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.24815</v>
+        <v>1.26223</v>
       </c>
       <c r="C115" t="n">
-        <v>1.35531</v>
+        <v>1.41082</v>
       </c>
       <c r="D115" t="n">
-        <v>1.1227</v>
+        <v>1.13041</v>
       </c>
     </row>
     <row r="116">
@@ -12654,13 +12654,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.2778</v>
+        <v>1.31129</v>
       </c>
       <c r="C116" t="n">
-        <v>1.38345</v>
+        <v>1.42843</v>
       </c>
       <c r="D116" t="n">
-        <v>1.15772</v>
+        <v>1.16511</v>
       </c>
     </row>
     <row r="117">
@@ -12668,13 +12668,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.32001</v>
+        <v>1.33944</v>
       </c>
       <c r="C117" t="n">
-        <v>1.44809</v>
+        <v>1.49836</v>
       </c>
       <c r="D117" t="n">
-        <v>1.18298</v>
+        <v>1.19049</v>
       </c>
     </row>
     <row r="118">
@@ -12682,13 +12682,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.36313</v>
+        <v>1.36644</v>
       </c>
       <c r="C118" t="n">
-        <v>1.51266</v>
+        <v>1.53822</v>
       </c>
       <c r="D118" t="n">
-        <v>1.23806</v>
+        <v>1.26872</v>
       </c>
     </row>
     <row r="119">
@@ -12696,13 +12696,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.38899</v>
+        <v>1.40155</v>
       </c>
       <c r="C119" t="n">
-        <v>1.58454</v>
+        <v>1.61299</v>
       </c>
       <c r="D119" t="n">
-        <v>1.27182</v>
+        <v>1.27736</v>
       </c>
     </row>
   </sheetData>
@@ -12750,13 +12750,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.572006</v>
+        <v>0.556064</v>
       </c>
       <c r="C2" t="n">
-        <v>0.440208</v>
+        <v>0.432151</v>
       </c>
       <c r="D2" t="n">
-        <v>0.244075</v>
+        <v>0.239516</v>
       </c>
     </row>
     <row r="3">
@@ -12764,13 +12764,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.365484</v>
+        <v>0.364879</v>
       </c>
       <c r="C3" t="n">
-        <v>0.451968</v>
+        <v>0.460457</v>
       </c>
       <c r="D3" t="n">
-        <v>0.24996</v>
+        <v>0.256445</v>
       </c>
     </row>
     <row r="4">
@@ -12778,13 +12778,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.388275</v>
+        <v>0.390713</v>
       </c>
       <c r="C4" t="n">
-        <v>0.471363</v>
+        <v>0.489776</v>
       </c>
       <c r="D4" t="n">
-        <v>0.254835</v>
+        <v>0.258786</v>
       </c>
     </row>
     <row r="5">
@@ -12792,13 +12792,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.406736</v>
+        <v>0.41</v>
       </c>
       <c r="C5" t="n">
-        <v>0.492194</v>
+        <v>0.50013</v>
       </c>
       <c r="D5" t="n">
-        <v>0.263461</v>
+        <v>0.261984</v>
       </c>
     </row>
     <row r="6">
@@ -12806,13 +12806,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.419545</v>
+        <v>0.423203</v>
       </c>
       <c r="C6" t="n">
-        <v>0.518301</v>
+        <v>0.528523</v>
       </c>
       <c r="D6" t="n">
-        <v>0.272581</v>
+        <v>0.274043</v>
       </c>
     </row>
     <row r="7">
@@ -12820,13 +12820,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.450243</v>
+        <v>0.444019</v>
       </c>
       <c r="C7" t="n">
-        <v>0.565427</v>
+        <v>0.549148</v>
       </c>
       <c r="D7" t="n">
-        <v>0.28119</v>
+        <v>0.292593</v>
       </c>
     </row>
     <row r="8">
@@ -12834,13 +12834,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.48652</v>
+        <v>0.463553</v>
       </c>
       <c r="C8" t="n">
-        <v>0.583046</v>
+        <v>0.594767</v>
       </c>
       <c r="D8" t="n">
-        <v>0.313356</v>
+        <v>0.293053</v>
       </c>
     </row>
     <row r="9">
@@ -12848,13 +12848,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.495181</v>
+        <v>0.50639</v>
       </c>
       <c r="C9" t="n">
-        <v>0.595491</v>
+        <v>0.601399</v>
       </c>
       <c r="D9" t="n">
-        <v>0.31235</v>
+        <v>0.325998</v>
       </c>
     </row>
     <row r="10">
@@ -12862,13 +12862,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.529236</v>
+        <v>0.513481</v>
       </c>
       <c r="C10" t="n">
-        <v>0.649634</v>
+        <v>0.632275</v>
       </c>
       <c r="D10" t="n">
-        <v>0.317883</v>
+        <v>0.322873</v>
       </c>
     </row>
     <row r="11">
@@ -12876,13 +12876,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.562762</v>
+        <v>0.562742</v>
       </c>
       <c r="C11" t="n">
-        <v>0.411344</v>
+        <v>0.421531</v>
       </c>
       <c r="D11" t="n">
-        <v>0.241264</v>
+        <v>0.250555</v>
       </c>
     </row>
     <row r="12">
@@ -12890,13 +12890,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.57858</v>
+        <v>0.5661659999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.422401</v>
+        <v>0.432689</v>
       </c>
       <c r="D12" t="n">
-        <v>0.255194</v>
+        <v>0.248451</v>
       </c>
     </row>
     <row r="13">
@@ -12904,13 +12904,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.615255</v>
+        <v>0.606672</v>
       </c>
       <c r="C13" t="n">
-        <v>0.445016</v>
+        <v>0.465882</v>
       </c>
       <c r="D13" t="n">
-        <v>0.257789</v>
+        <v>0.258274</v>
       </c>
     </row>
     <row r="14">
@@ -12918,13 +12918,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.6205039999999999</v>
+        <v>0.620049</v>
       </c>
       <c r="C14" t="n">
-        <v>0.460119</v>
+        <v>0.465078</v>
       </c>
       <c r="D14" t="n">
-        <v>0.26464</v>
+        <v>0.265659</v>
       </c>
     </row>
     <row r="15">
@@ -12932,13 +12932,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.650775</v>
+        <v>0.6673289999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>0.485105</v>
+        <v>0.488832</v>
       </c>
       <c r="D15" t="n">
-        <v>0.273083</v>
+        <v>0.270834</v>
       </c>
     </row>
     <row r="16">
@@ -12946,13 +12946,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.693064</v>
+        <v>0.754374</v>
       </c>
       <c r="C16" t="n">
-        <v>0.507923</v>
+        <v>0.526647</v>
       </c>
       <c r="D16" t="n">
-        <v>0.298661</v>
+        <v>0.286093</v>
       </c>
     </row>
     <row r="17">
@@ -12960,13 +12960,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.444487</v>
+        <v>0.439859</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5509810000000001</v>
+        <v>0.552013</v>
       </c>
       <c r="D17" t="n">
-        <v>0.297199</v>
+        <v>0.296502</v>
       </c>
     </row>
     <row r="18">
@@ -12974,13 +12974,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.463506</v>
+        <v>0.466712</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5478420000000001</v>
+        <v>0.578721</v>
       </c>
       <c r="D18" t="n">
-        <v>0.305963</v>
+        <v>0.309348</v>
       </c>
     </row>
     <row r="19">
@@ -12988,13 +12988,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.467377</v>
+        <v>0.478237</v>
       </c>
       <c r="C19" t="n">
-        <v>0.56992</v>
+        <v>0.6104889999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>0.313216</v>
+        <v>0.323167</v>
       </c>
     </row>
     <row r="20">
@@ -13002,13 +13002,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.49441</v>
+        <v>0.49445</v>
       </c>
       <c r="C20" t="n">
-        <v>0.605704</v>
+        <v>0.619184</v>
       </c>
       <c r="D20" t="n">
-        <v>0.334761</v>
+        <v>0.331634</v>
       </c>
     </row>
     <row r="21">
@@ -13016,13 +13016,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5078</v>
+        <v>0.5077660000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.647663</v>
+        <v>0.640118</v>
       </c>
       <c r="D21" t="n">
-        <v>0.355442</v>
+        <v>0.347114</v>
       </c>
     </row>
     <row r="22">
@@ -13030,13 +13030,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.556689</v>
+        <v>0.570064</v>
       </c>
       <c r="C22" t="n">
-        <v>0.659927</v>
+        <v>0.6588540000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>0.367663</v>
+        <v>0.356467</v>
       </c>
     </row>
     <row r="23">
@@ -13044,13 +13044,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.581377</v>
+        <v>0.5704669999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>0.719349</v>
+        <v>0.710748</v>
       </c>
       <c r="D23" t="n">
-        <v>0.371341</v>
+        <v>0.367821</v>
       </c>
     </row>
     <row r="24">
@@ -13058,13 +13058,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.602306</v>
+        <v>0.596519</v>
       </c>
       <c r="C24" t="n">
-        <v>0.743249</v>
+        <v>0.721759</v>
       </c>
       <c r="D24" t="n">
-        <v>0.381718</v>
+        <v>0.398781</v>
       </c>
     </row>
     <row r="25">
@@ -13072,13 +13072,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.6099059999999999</v>
+        <v>0.643104</v>
       </c>
       <c r="C25" t="n">
-        <v>0.762606</v>
+        <v>0.793933</v>
       </c>
       <c r="D25" t="n">
-        <v>0.405986</v>
+        <v>0.398342</v>
       </c>
     </row>
     <row r="26">
@@ -13086,13 +13086,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.64091</v>
+        <v>0.663173</v>
       </c>
       <c r="C26" t="n">
-        <v>0.452943</v>
+        <v>0.479258</v>
       </c>
       <c r="D26" t="n">
-        <v>0.281237</v>
+        <v>0.278174</v>
       </c>
     </row>
     <row r="27">
@@ -13100,13 +13100,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.673353</v>
+        <v>0.711481</v>
       </c>
       <c r="C27" t="n">
-        <v>0.513571</v>
+        <v>0.492964</v>
       </c>
       <c r="D27" t="n">
-        <v>0.284203</v>
+        <v>0.29526</v>
       </c>
     </row>
     <row r="28">
@@ -13114,13 +13114,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.716406</v>
+        <v>0.722572</v>
       </c>
       <c r="C28" t="n">
-        <v>0.521325</v>
+        <v>0.516037</v>
       </c>
       <c r="D28" t="n">
-        <v>0.309127</v>
+        <v>0.300193</v>
       </c>
     </row>
     <row r="29">
@@ -13128,13 +13128,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.8009770000000001</v>
+        <v>0.743945</v>
       </c>
       <c r="C29" t="n">
-        <v>0.547156</v>
+        <v>0.5626719999999999</v>
       </c>
       <c r="D29" t="n">
-        <v>0.320088</v>
+        <v>0.316394</v>
       </c>
     </row>
     <row r="30">
@@ -13142,13 +13142,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.811423</v>
+        <v>0.833281</v>
       </c>
       <c r="C30" t="n">
-        <v>0.570166</v>
+        <v>0.611976</v>
       </c>
       <c r="D30" t="n">
-        <v>0.33919</v>
+        <v>0.328424</v>
       </c>
     </row>
     <row r="31">
@@ -13156,13 +13156,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.8345399999999999</v>
+        <v>0.857063</v>
       </c>
       <c r="C31" t="n">
-        <v>0.622463</v>
+        <v>0.611797</v>
       </c>
       <c r="D31" t="n">
-        <v>0.357499</v>
+        <v>0.342994</v>
       </c>
     </row>
     <row r="32">
@@ -13170,13 +13170,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5494289999999999</v>
+        <v>0.520972</v>
       </c>
       <c r="C32" t="n">
-        <v>0.657385</v>
+        <v>0.670912</v>
       </c>
       <c r="D32" t="n">
-        <v>0.352113</v>
+        <v>0.376582</v>
       </c>
     </row>
     <row r="33">
@@ -13184,13 +13184,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.569402</v>
+        <v>0.560132</v>
       </c>
       <c r="C33" t="n">
-        <v>0.688254</v>
+        <v>0.69003</v>
       </c>
       <c r="D33" t="n">
-        <v>0.373049</v>
+        <v>0.364543</v>
       </c>
     </row>
     <row r="34">
@@ -13198,13 +13198,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.601735</v>
+        <v>0.5784049999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>0.7161110000000001</v>
+        <v>0.749645</v>
       </c>
       <c r="D34" t="n">
-        <v>0.412818</v>
+        <v>0.382555</v>
       </c>
     </row>
     <row r="35">
@@ -13212,13 +13212,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.644248</v>
+        <v>0.593946</v>
       </c>
       <c r="C35" t="n">
-        <v>0.775057</v>
+        <v>0.733918</v>
       </c>
       <c r="D35" t="n">
-        <v>0.402449</v>
+        <v>0.397929</v>
       </c>
     </row>
     <row r="36">
@@ -13226,13 +13226,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.657701</v>
+        <v>0.653478</v>
       </c>
       <c r="C36" t="n">
-        <v>0.786558</v>
+        <v>0.759219</v>
       </c>
       <c r="D36" t="n">
-        <v>0.430039</v>
+        <v>0.431628</v>
       </c>
     </row>
     <row r="37">
@@ -13240,13 +13240,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.699144</v>
+        <v>0.688242</v>
       </c>
       <c r="C37" t="n">
-        <v>0.830058</v>
+        <v>0.854908</v>
       </c>
       <c r="D37" t="n">
-        <v>0.446403</v>
+        <v>0.437827</v>
       </c>
     </row>
     <row r="38">
@@ -13254,13 +13254,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.768859</v>
+        <v>0.748027</v>
       </c>
       <c r="C38" t="n">
-        <v>0.884319</v>
+        <v>0.864057</v>
       </c>
       <c r="D38" t="n">
-        <v>0.470842</v>
+        <v>0.444893</v>
       </c>
     </row>
     <row r="39">
@@ -13268,13 +13268,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.778598</v>
+        <v>0.789228</v>
       </c>
       <c r="C39" t="n">
-        <v>0.934178</v>
+        <v>0.8930439999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>0.463329</v>
+        <v>0.490346</v>
       </c>
     </row>
     <row r="40">
@@ -13282,13 +13282,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.825572</v>
+        <v>0.856046</v>
       </c>
       <c r="C40" t="n">
-        <v>0.590411</v>
+        <v>0.583598</v>
       </c>
       <c r="D40" t="n">
-        <v>0.355262</v>
+        <v>0.355293</v>
       </c>
     </row>
     <row r="41">
@@ -13296,13 +13296,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.91447</v>
+        <v>0.909987</v>
       </c>
       <c r="C41" t="n">
-        <v>0.613702</v>
+        <v>0.617718</v>
       </c>
       <c r="D41" t="n">
-        <v>0.377436</v>
+        <v>0.357559</v>
       </c>
     </row>
     <row r="42">
@@ -13310,13 +13310,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.966014</v>
+        <v>0.92693</v>
       </c>
       <c r="C42" t="n">
-        <v>0.66105</v>
+        <v>0.657498</v>
       </c>
       <c r="D42" t="n">
-        <v>0.392618</v>
+        <v>0.385579</v>
       </c>
     </row>
     <row r="43">
@@ -13324,13 +13324,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>1.00018</v>
+        <v>0.9743889999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>0.7072580000000001</v>
+        <v>0.712619</v>
       </c>
       <c r="D43" t="n">
-        <v>0.409127</v>
+        <v>0.412849</v>
       </c>
     </row>
     <row r="44">
@@ -13338,13 +13338,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>1.04639</v>
+        <v>1.03069</v>
       </c>
       <c r="C44" t="n">
-        <v>0.749298</v>
+        <v>0.756179</v>
       </c>
       <c r="D44" t="n">
-        <v>0.440923</v>
+        <v>0.43752</v>
       </c>
     </row>
     <row r="45">
@@ -13352,13 +13352,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>1.1374</v>
+        <v>1.14271</v>
       </c>
       <c r="C45" t="n">
-        <v>0.7844410000000001</v>
+        <v>0.790517</v>
       </c>
       <c r="D45" t="n">
-        <v>0.453923</v>
+        <v>0.450944</v>
       </c>
     </row>
     <row r="46">
@@ -13366,13 +13366,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.7005670000000001</v>
+        <v>0.70466</v>
       </c>
       <c r="C46" t="n">
-        <v>0.838468</v>
+        <v>0.87175</v>
       </c>
       <c r="D46" t="n">
-        <v>0.47475</v>
+        <v>0.482695</v>
       </c>
     </row>
     <row r="47">
@@ -13380,13 +13380,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.744001</v>
+        <v>0.7530019999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>0.9025339999999999</v>
+        <v>0.918005</v>
       </c>
       <c r="D47" t="n">
-        <v>0.50678</v>
+        <v>0.502816</v>
       </c>
     </row>
     <row r="48">
@@ -13394,13 +13394,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.795922</v>
+        <v>0.823719</v>
       </c>
       <c r="C48" t="n">
-        <v>0.946535</v>
+        <v>0.971162</v>
       </c>
       <c r="D48" t="n">
-        <v>0.540095</v>
+        <v>0.575529</v>
       </c>
     </row>
     <row r="49">
@@ -13408,13 +13408,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.860836</v>
+        <v>0.866413</v>
       </c>
       <c r="C49" t="n">
-        <v>1.00676</v>
+        <v>1.0741</v>
       </c>
       <c r="D49" t="n">
-        <v>0.5525330000000001</v>
+        <v>0.560571</v>
       </c>
     </row>
     <row r="50">
@@ -13422,13 +13422,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.896895</v>
+        <v>0.944613</v>
       </c>
       <c r="C50" t="n">
-        <v>1.11383</v>
+        <v>1.11942</v>
       </c>
       <c r="D50" t="n">
-        <v>0.596523</v>
+        <v>0.611766</v>
       </c>
     </row>
     <row r="51">
@@ -13436,13 +13436,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.944674</v>
+        <v>0.995108</v>
       </c>
       <c r="C51" t="n">
-        <v>1.15222</v>
+        <v>1.20472</v>
       </c>
       <c r="D51" t="n">
-        <v>0.634621</v>
+        <v>0.645788</v>
       </c>
     </row>
     <row r="52">
@@ -13450,13 +13450,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.02083</v>
+        <v>1.07766</v>
       </c>
       <c r="C52" t="n">
-        <v>1.24711</v>
+        <v>1.30597</v>
       </c>
       <c r="D52" t="n">
-        <v>0.662413</v>
+        <v>0.687948</v>
       </c>
     </row>
     <row r="53">
@@ -13464,13 +13464,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.11528</v>
+        <v>1.14067</v>
       </c>
       <c r="C53" t="n">
-        <v>1.37331</v>
+        <v>1.40675</v>
       </c>
       <c r="D53" t="n">
-        <v>0.709666</v>
+        <v>0.738861</v>
       </c>
     </row>
     <row r="54">
@@ -13478,13 +13478,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.27877</v>
+        <v>1.18777</v>
       </c>
       <c r="C54" t="n">
-        <v>0.856464</v>
+        <v>0.849127</v>
       </c>
       <c r="D54" t="n">
-        <v>0.498546</v>
+        <v>0.494939</v>
       </c>
     </row>
     <row r="55">
@@ -13492,13 +13492,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.20981</v>
+        <v>1.24475</v>
       </c>
       <c r="C55" t="n">
-        <v>0.902122</v>
+        <v>0.9083560000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>0.5296380000000001</v>
+        <v>0.520808</v>
       </c>
     </row>
     <row r="56">
@@ -13506,13 +13506,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.32837</v>
+        <v>1.3303</v>
       </c>
       <c r="C56" t="n">
-        <v>0.959606</v>
+        <v>0.974947</v>
       </c>
       <c r="D56" t="n">
-        <v>0.550393</v>
+        <v>0.545234</v>
       </c>
     </row>
     <row r="57">
@@ -13520,13 +13520,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.42182</v>
+        <v>1.46802</v>
       </c>
       <c r="C57" t="n">
-        <v>1.09698</v>
+        <v>1.06399</v>
       </c>
       <c r="D57" t="n">
-        <v>0.563503</v>
+        <v>0.581907</v>
       </c>
     </row>
     <row r="58">
@@ -13534,13 +13534,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.54525</v>
+        <v>1.57939</v>
       </c>
       <c r="C58" t="n">
-        <v>1.11735</v>
+        <v>1.1051</v>
       </c>
       <c r="D58" t="n">
-        <v>0.6097089999999999</v>
+        <v>0.610108</v>
       </c>
     </row>
     <row r="59">
@@ -13548,13 +13548,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.66907</v>
+        <v>1.72818</v>
       </c>
       <c r="C59" t="n">
-        <v>1.18429</v>
+        <v>1.22831</v>
       </c>
       <c r="D59" t="n">
-        <v>0.638222</v>
+        <v>0.660529</v>
       </c>
     </row>
     <row r="60">
@@ -13562,13 +13562,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.15775</v>
+        <v>1.1057</v>
       </c>
       <c r="C60" t="n">
-        <v>1.30766</v>
+        <v>1.33341</v>
       </c>
       <c r="D60" t="n">
-        <v>0.683871</v>
+        <v>0.703396</v>
       </c>
     </row>
     <row r="61">
@@ -13576,13 +13576,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.23498</v>
+        <v>1.18139</v>
       </c>
       <c r="C61" t="n">
-        <v>1.46769</v>
+        <v>1.43503</v>
       </c>
       <c r="D61" t="n">
-        <v>0.722512</v>
+        <v>0.735764</v>
       </c>
     </row>
     <row r="62">
@@ -13590,13 +13590,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.32312</v>
+        <v>1.3518</v>
       </c>
       <c r="C62" t="n">
-        <v>1.51809</v>
+        <v>1.6513</v>
       </c>
       <c r="D62" t="n">
-        <v>0.779271</v>
+        <v>0.802211</v>
       </c>
     </row>
     <row r="63">
@@ -13604,13 +13604,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.40809</v>
+        <v>1.47295</v>
       </c>
       <c r="C63" t="n">
-        <v>1.70095</v>
+        <v>1.78277</v>
       </c>
       <c r="D63" t="n">
-        <v>0.827481</v>
+        <v>0.8705270000000001</v>
       </c>
     </row>
     <row r="64">
@@ -13618,13 +13618,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.52968</v>
+        <v>1.5589</v>
       </c>
       <c r="C64" t="n">
-        <v>1.85762</v>
+        <v>1.92033</v>
       </c>
       <c r="D64" t="n">
-        <v>0.852437</v>
+        <v>0.870821</v>
       </c>
     </row>
     <row r="65">
@@ -13632,13 +13632,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.60483</v>
+        <v>1.71785</v>
       </c>
       <c r="C65" t="n">
-        <v>2.00633</v>
+        <v>2.15552</v>
       </c>
       <c r="D65" t="n">
-        <v>0.934379</v>
+        <v>0.94843</v>
       </c>
     </row>
     <row r="66">
@@ -13646,13 +13646,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.88604</v>
+        <v>1.84267</v>
       </c>
       <c r="C66" t="n">
-        <v>2.31434</v>
+        <v>2.32946</v>
       </c>
       <c r="D66" t="n">
-        <v>1.01065</v>
+        <v>1.03363</v>
       </c>
     </row>
     <row r="67">
@@ -13660,13 +13660,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.97721</v>
+        <v>2.00942</v>
       </c>
       <c r="C67" t="n">
-        <v>2.47447</v>
+        <v>2.56025</v>
       </c>
       <c r="D67" t="n">
-        <v>1.06016</v>
+        <v>1.06505</v>
       </c>
     </row>
     <row r="68">
@@ -13674,13 +13674,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>2.1009</v>
+        <v>2.22671</v>
       </c>
       <c r="C68" t="n">
-        <v>1.43227</v>
+        <v>1.51735</v>
       </c>
       <c r="D68" t="n">
-        <v>0.725441</v>
+        <v>0.7521870000000001</v>
       </c>
     </row>
     <row r="69">
@@ -13688,13 +13688,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>2.26292</v>
+        <v>2.45162</v>
       </c>
       <c r="C69" t="n">
-        <v>1.62301</v>
+        <v>1.65374</v>
       </c>
       <c r="D69" t="n">
-        <v>0.768255</v>
+        <v>0.801285</v>
       </c>
     </row>
     <row r="70">
@@ -13702,13 +13702,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>2.4268</v>
+        <v>2.62168</v>
       </c>
       <c r="C70" t="n">
-        <v>1.69515</v>
+        <v>1.79687</v>
       </c>
       <c r="D70" t="n">
-        <v>0.841434</v>
+        <v>0.884077</v>
       </c>
     </row>
     <row r="71">
@@ -13716,13 +13716,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>2.66923</v>
+        <v>2.85135</v>
       </c>
       <c r="C71" t="n">
-        <v>1.86071</v>
+        <v>1.95807</v>
       </c>
       <c r="D71" t="n">
-        <v>0.901805</v>
+        <v>0.926202</v>
       </c>
     </row>
     <row r="72">
@@ -13730,13 +13730,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>2.84365</v>
+        <v>3.0753</v>
       </c>
       <c r="C72" t="n">
-        <v>2.02634</v>
+        <v>2.09943</v>
       </c>
       <c r="D72" t="n">
-        <v>0.987784</v>
+        <v>0.994174</v>
       </c>
     </row>
     <row r="73">
@@ -13744,13 +13744,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>3.18295</v>
+        <v>3.2616</v>
       </c>
       <c r="C73" t="n">
-        <v>2.11679</v>
+        <v>2.24247</v>
       </c>
       <c r="D73" t="n">
-        <v>1.01582</v>
+        <v>1.04489</v>
       </c>
     </row>
     <row r="74">
@@ -13758,13 +13758,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.94655</v>
+        <v>2.04459</v>
       </c>
       <c r="C74" t="n">
-        <v>2.28083</v>
+        <v>2.45206</v>
       </c>
       <c r="D74" t="n">
-        <v>1.07875</v>
+        <v>1.13301</v>
       </c>
     </row>
     <row r="75">
@@ -13772,13 +13772,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>2.09139</v>
+        <v>2.15816</v>
       </c>
       <c r="C75" t="n">
-        <v>2.50942</v>
+        <v>2.63296</v>
       </c>
       <c r="D75" t="n">
-        <v>1.16753</v>
+        <v>1.17349</v>
       </c>
     </row>
     <row r="76">
@@ -13786,13 +13786,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>2.21595</v>
+        <v>2.37029</v>
       </c>
       <c r="C76" t="n">
-        <v>2.74442</v>
+        <v>2.81885</v>
       </c>
       <c r="D76" t="n">
-        <v>1.21644</v>
+        <v>1.24796</v>
       </c>
     </row>
     <row r="77">
@@ -13800,13 +13800,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>2.40386</v>
+        <v>2.47169</v>
       </c>
       <c r="C77" t="n">
-        <v>2.86801</v>
+        <v>3.05039</v>
       </c>
       <c r="D77" t="n">
-        <v>1.31192</v>
+        <v>1.35322</v>
       </c>
     </row>
     <row r="78">
@@ -13814,13 +13814,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>2.4556</v>
+        <v>2.58615</v>
       </c>
       <c r="C78" t="n">
-        <v>3.10798</v>
+        <v>3.35306</v>
       </c>
       <c r="D78" t="n">
-        <v>1.38679</v>
+        <v>1.42899</v>
       </c>
     </row>
     <row r="79">
@@ -13828,13 +13828,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>2.6163</v>
+        <v>2.77624</v>
       </c>
       <c r="C79" t="n">
-        <v>3.39749</v>
+        <v>3.56086</v>
       </c>
       <c r="D79" t="n">
-        <v>1.48582</v>
+        <v>1.55975</v>
       </c>
     </row>
     <row r="80">
@@ -13842,13 +13842,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>2.76228</v>
+        <v>2.90656</v>
       </c>
       <c r="C80" t="n">
-        <v>3.57785</v>
+        <v>3.7778</v>
       </c>
       <c r="D80" t="n">
-        <v>1.66164</v>
+        <v>1.64176</v>
       </c>
     </row>
     <row r="81">
@@ -13856,13 +13856,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>3.01335</v>
+        <v>3.08763</v>
       </c>
       <c r="C81" t="n">
-        <v>3.96328</v>
+        <v>4.03541</v>
       </c>
       <c r="D81" t="n">
-        <v>1.66183</v>
+        <v>1.75809</v>
       </c>
     </row>
     <row r="82">
@@ -13870,13 +13870,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>3.18931</v>
+        <v>3.2529</v>
       </c>
       <c r="C82" t="n">
-        <v>4.14488</v>
+        <v>4.19384</v>
       </c>
       <c r="D82" t="n">
-        <v>1.79171</v>
+        <v>1.84614</v>
       </c>
     </row>
     <row r="83">
@@ -13884,13 +13884,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>3.42989</v>
+        <v>3.56557</v>
       </c>
       <c r="C83" t="n">
-        <v>2.38253</v>
+        <v>2.4753</v>
       </c>
       <c r="D83" t="n">
-        <v>1.21688</v>
+        <v>1.27022</v>
       </c>
     </row>
     <row r="84">
@@ -13898,13 +13898,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>3.56032</v>
+        <v>3.8008</v>
       </c>
       <c r="C84" t="n">
-        <v>2.49763</v>
+        <v>2.58459</v>
       </c>
       <c r="D84" t="n">
-        <v>1.27824</v>
+        <v>1.32165</v>
       </c>
     </row>
     <row r="85">
@@ -13912,13 +13912,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>3.65311</v>
+        <v>3.89588</v>
       </c>
       <c r="C85" t="n">
-        <v>2.61622</v>
+        <v>2.70303</v>
       </c>
       <c r="D85" t="n">
-        <v>1.34118</v>
+        <v>1.37974</v>
       </c>
     </row>
     <row r="86">
@@ -13926,13 +13926,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>3.9526</v>
+        <v>4.11949</v>
       </c>
       <c r="C86" t="n">
-        <v>2.76608</v>
+        <v>2.93147</v>
       </c>
       <c r="D86" t="n">
-        <v>1.41573</v>
+        <v>1.44246</v>
       </c>
     </row>
     <row r="87">
@@ -13940,13 +13940,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>4.17327</v>
+        <v>4.32607</v>
       </c>
       <c r="C87" t="n">
-        <v>2.92081</v>
+        <v>3.10344</v>
       </c>
       <c r="D87" t="n">
-        <v>1.52124</v>
+        <v>1.56308</v>
       </c>
     </row>
     <row r="88">
@@ -13954,13 +13954,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>4.30253</v>
+        <v>4.50698</v>
       </c>
       <c r="C88" t="n">
-        <v>3.11998</v>
+        <v>3.24833</v>
       </c>
       <c r="D88" t="n">
-        <v>1.58317</v>
+        <v>1.65807</v>
       </c>
     </row>
     <row r="89">
@@ -13968,13 +13968,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.62417</v>
+        <v>2.7344</v>
       </c>
       <c r="C89" t="n">
-        <v>3.3583</v>
+        <v>3.41864</v>
       </c>
       <c r="D89" t="n">
-        <v>1.63662</v>
+        <v>1.67905</v>
       </c>
     </row>
     <row r="90">
@@ -13982,13 +13982,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.757</v>
+        <v>2.82358</v>
       </c>
       <c r="C90" t="n">
-        <v>3.44007</v>
+        <v>3.58831</v>
       </c>
       <c r="D90" t="n">
-        <v>1.69171</v>
+        <v>1.8293</v>
       </c>
     </row>
     <row r="91">
@@ -13996,13 +13996,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.86768</v>
+        <v>2.95018</v>
       </c>
       <c r="C91" t="n">
-        <v>3.7418</v>
+        <v>3.89086</v>
       </c>
       <c r="D91" t="n">
-        <v>1.82919</v>
+        <v>1.85755</v>
       </c>
     </row>
     <row r="92">
@@ -14010,13 +14010,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>3.0629</v>
+        <v>3.00892</v>
       </c>
       <c r="C92" t="n">
-        <v>3.87803</v>
+        <v>4.03127</v>
       </c>
       <c r="D92" t="n">
-        <v>1.94612</v>
+        <v>1.95384</v>
       </c>
     </row>
     <row r="93">
@@ -14024,13 +14024,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>3.16721</v>
+        <v>3.30506</v>
       </c>
       <c r="C93" t="n">
-        <v>4.09597</v>
+        <v>4.29181</v>
       </c>
       <c r="D93" t="n">
-        <v>1.99973</v>
+        <v>2.06273</v>
       </c>
     </row>
     <row r="94">
@@ -14038,13 +14038,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>3.38249</v>
+        <v>3.39327</v>
       </c>
       <c r="C94" t="n">
-        <v>4.33266</v>
+        <v>4.52979</v>
       </c>
       <c r="D94" t="n">
-        <v>2.10042</v>
+        <v>2.17726</v>
       </c>
     </row>
     <row r="95">
@@ -14052,13 +14052,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.48526</v>
+        <v>3.61679</v>
       </c>
       <c r="C95" t="n">
-        <v>4.55014</v>
+        <v>4.69073</v>
       </c>
       <c r="D95" t="n">
-        <v>2.23865</v>
+        <v>2.26688</v>
       </c>
     </row>
     <row r="96">
@@ -14066,13 +14066,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.61836</v>
+        <v>3.865</v>
       </c>
       <c r="C96" t="n">
-        <v>4.87288</v>
+        <v>4.98646</v>
       </c>
       <c r="D96" t="n">
-        <v>2.34958</v>
+        <v>2.37275</v>
       </c>
     </row>
     <row r="97">
@@ -14080,13 +14080,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.86759</v>
+        <v>3.98852</v>
       </c>
       <c r="C97" t="n">
-        <v>2.78301</v>
+        <v>2.87944</v>
       </c>
       <c r="D97" t="n">
-        <v>1.56526</v>
+        <v>1.64591</v>
       </c>
     </row>
     <row r="98">
@@ -14094,13 +14094,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>4.12809</v>
+        <v>4.16771</v>
       </c>
       <c r="C98" t="n">
-        <v>2.93445</v>
+        <v>3.04187</v>
       </c>
       <c r="D98" t="n">
-        <v>1.6254</v>
+        <v>1.66002</v>
       </c>
     </row>
     <row r="99">
@@ -14108,13 +14108,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>4.37</v>
+        <v>4.38931</v>
       </c>
       <c r="C99" t="n">
-        <v>3.12883</v>
+        <v>3.17174</v>
       </c>
       <c r="D99" t="n">
-        <v>1.73271</v>
+        <v>1.74094</v>
       </c>
     </row>
     <row r="100">
@@ -14122,13 +14122,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>4.6576</v>
+        <v>4.65937</v>
       </c>
       <c r="C100" t="n">
-        <v>3.25225</v>
+        <v>3.34689</v>
       </c>
       <c r="D100" t="n">
-        <v>1.84025</v>
+        <v>1.82315</v>
       </c>
     </row>
     <row r="101">
@@ -14136,13 +14136,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>4.9367</v>
+        <v>4.84023</v>
       </c>
       <c r="C101" t="n">
-        <v>3.42906</v>
+        <v>3.42274</v>
       </c>
       <c r="D101" t="n">
-        <v>1.89428</v>
+        <v>1.93492</v>
       </c>
     </row>
     <row r="102">
@@ -14150,13 +14150,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>5.05177</v>
+        <v>5.09744</v>
       </c>
       <c r="C102" t="n">
-        <v>3.6139</v>
+        <v>3.62728</v>
       </c>
       <c r="D102" t="n">
-        <v>1.96572</v>
+        <v>1.95939</v>
       </c>
     </row>
     <row r="103">
@@ -14164,13 +14164,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.93307</v>
+        <v>2.91974</v>
       </c>
       <c r="C103" t="n">
-        <v>3.80831</v>
+        <v>3.8943</v>
       </c>
       <c r="D103" t="n">
-        <v>2.0888</v>
+        <v>2.10939</v>
       </c>
     </row>
     <row r="104">
@@ -14178,13 +14178,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.07796</v>
+        <v>3.1403</v>
       </c>
       <c r="C104" t="n">
-        <v>4.06115</v>
+        <v>3.97937</v>
       </c>
       <c r="D104" t="n">
-        <v>2.22196</v>
+        <v>2.14951</v>
       </c>
     </row>
     <row r="105">
@@ -14192,13 +14192,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>3.23213</v>
+        <v>3.2217</v>
       </c>
       <c r="C105" t="n">
-        <v>4.24264</v>
+        <v>4.28696</v>
       </c>
       <c r="D105" t="n">
-        <v>2.24951</v>
+        <v>2.23556</v>
       </c>
     </row>
     <row r="106">
@@ -14206,13 +14206,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.44681</v>
+        <v>3.35806</v>
       </c>
       <c r="C106" t="n">
-        <v>4.51924</v>
+        <v>4.42968</v>
       </c>
       <c r="D106" t="n">
-        <v>2.34938</v>
+        <v>2.3273</v>
       </c>
     </row>
     <row r="107">
@@ -14220,13 +14220,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.54151</v>
+        <v>3.55633</v>
       </c>
       <c r="C107" t="n">
-        <v>4.775</v>
+        <v>4.76873</v>
       </c>
       <c r="D107" t="n">
-        <v>2.44328</v>
+        <v>2.44778</v>
       </c>
     </row>
     <row r="108">
@@ -14234,13 +14234,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.7912</v>
+        <v>3.7441</v>
       </c>
       <c r="C108" t="n">
-        <v>4.98772</v>
+        <v>4.99281</v>
       </c>
       <c r="D108" t="n">
-        <v>2.57531</v>
+        <v>2.51489</v>
       </c>
     </row>
     <row r="109">
@@ -14248,13 +14248,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.92167</v>
+        <v>3.95807</v>
       </c>
       <c r="C109" t="n">
-        <v>5.22458</v>
+        <v>5.26481</v>
       </c>
       <c r="D109" t="n">
-        <v>2.66717</v>
+        <v>2.60541</v>
       </c>
     </row>
     <row r="110">
@@ -14262,13 +14262,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>4.1021</v>
+        <v>4.10829</v>
       </c>
       <c r="C110" t="n">
-        <v>5.50961</v>
+        <v>5.50988</v>
       </c>
       <c r="D110" t="n">
-        <v>2.87497</v>
+        <v>2.76033</v>
       </c>
     </row>
     <row r="111">
@@ -14276,13 +14276,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>4.35198</v>
+        <v>4.30915</v>
       </c>
       <c r="C111" t="n">
-        <v>3.06795</v>
+        <v>3.03413</v>
       </c>
       <c r="D111" t="n">
-        <v>1.92266</v>
+        <v>1.9494</v>
       </c>
     </row>
     <row r="112">
@@ -14290,13 +14290,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.54898</v>
+        <v>4.53924</v>
       </c>
       <c r="C112" t="n">
-        <v>3.23802</v>
+        <v>3.22591</v>
       </c>
       <c r="D112" t="n">
-        <v>1.97714</v>
+        <v>1.99559</v>
       </c>
     </row>
     <row r="113">
@@ -14304,13 +14304,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.75069</v>
+        <v>4.70005</v>
       </c>
       <c r="C113" t="n">
-        <v>3.38535</v>
+        <v>3.39101</v>
       </c>
       <c r="D113" t="n">
-        <v>2.08662</v>
+        <v>2.04388</v>
       </c>
     </row>
     <row r="114">
@@ -14318,13 +14318,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.95922</v>
+        <v>4.96423</v>
       </c>
       <c r="C114" t="n">
-        <v>3.56294</v>
+        <v>3.58985</v>
       </c>
       <c r="D114" t="n">
-        <v>2.14286</v>
+        <v>2.13559</v>
       </c>
     </row>
     <row r="115">
@@ -14332,13 +14332,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>5.24829</v>
+        <v>5.23064</v>
       </c>
       <c r="C115" t="n">
-        <v>3.72556</v>
+        <v>3.73369</v>
       </c>
       <c r="D115" t="n">
-        <v>2.23143</v>
+        <v>2.21551</v>
       </c>
     </row>
     <row r="116">
@@ -14346,13 +14346,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>5.48063</v>
+        <v>5.45434</v>
       </c>
       <c r="C116" t="n">
-        <v>3.89501</v>
+        <v>3.88796</v>
       </c>
       <c r="D116" t="n">
-        <v>2.31002</v>
+        <v>2.27719</v>
       </c>
     </row>
     <row r="117">
@@ -14360,13 +14360,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>3.15886</v>
+        <v>3.14596</v>
       </c>
       <c r="C117" t="n">
-        <v>4.13657</v>
+        <v>4.05914</v>
       </c>
       <c r="D117" t="n">
-        <v>2.44186</v>
+        <v>2.43853</v>
       </c>
     </row>
     <row r="118">
@@ -14374,13 +14374,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>3.30874</v>
+        <v>3.30775</v>
       </c>
       <c r="C118" t="n">
-        <v>4.38953</v>
+        <v>4.31461</v>
       </c>
       <c r="D118" t="n">
-        <v>2.5843</v>
+        <v>2.48948</v>
       </c>
     </row>
     <row r="119">
@@ -14388,13 +14388,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>3.4911</v>
+        <v>3.45692</v>
       </c>
       <c r="C119" t="n">
-        <v>4.57708</v>
+        <v>4.59651</v>
       </c>
       <c r="D119" t="n">
-        <v>2.65222</v>
+        <v>2.67208</v>
       </c>
     </row>
   </sheetData>

--- a/vs/scattered unsuccessful looukp.xlsx
+++ b/vs/scattered unsuccessful looukp.xlsx
@@ -9366,13 +9366,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.229988</v>
+        <v>0.219712</v>
       </c>
       <c r="C2" t="n">
-        <v>0.216214</v>
+        <v>0.211765</v>
       </c>
       <c r="D2" t="n">
-        <v>0.238428</v>
+        <v>0.227663</v>
       </c>
     </row>
     <row r="3">
@@ -9380,13 +9380,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.225957</v>
+        <v>0.229111</v>
       </c>
       <c r="C3" t="n">
-        <v>0.219563</v>
+        <v>0.213299</v>
       </c>
       <c r="D3" t="n">
-        <v>0.237942</v>
+        <v>0.229704</v>
       </c>
     </row>
     <row r="4">
@@ -9394,13 +9394,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.232365</v>
+        <v>0.233402</v>
       </c>
       <c r="C4" t="n">
-        <v>0.227181</v>
+        <v>0.216805</v>
       </c>
       <c r="D4" t="n">
-        <v>0.241855</v>
+        <v>0.237895</v>
       </c>
     </row>
     <row r="5">
@@ -9408,13 +9408,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.237101</v>
+        <v>0.232732</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2298</v>
+        <v>0.220932</v>
       </c>
       <c r="D5" t="n">
-        <v>0.249643</v>
+        <v>0.242559</v>
       </c>
     </row>
     <row r="6">
@@ -9422,13 +9422,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.255687</v>
+        <v>0.236838</v>
       </c>
       <c r="C6" t="n">
-        <v>0.24047</v>
+        <v>0.226781</v>
       </c>
       <c r="D6" t="n">
-        <v>0.258477</v>
+        <v>0.250538</v>
       </c>
     </row>
     <row r="7">
@@ -9436,13 +9436,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.246538</v>
+        <v>0.243189</v>
       </c>
       <c r="C7" t="n">
-        <v>0.203016</v>
+        <v>0.186268</v>
       </c>
       <c r="D7" t="n">
-        <v>0.217014</v>
+        <v>0.207289</v>
       </c>
     </row>
     <row r="8">
@@ -9450,13 +9450,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.246469</v>
+        <v>0.245848</v>
       </c>
       <c r="C8" t="n">
-        <v>0.199975</v>
+        <v>0.190911</v>
       </c>
       <c r="D8" t="n">
-        <v>0.227921</v>
+        <v>0.217467</v>
       </c>
     </row>
     <row r="9">
@@ -9464,13 +9464,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.277422</v>
+        <v>0.246184</v>
       </c>
       <c r="C9" t="n">
-        <v>0.204827</v>
+        <v>0.195512</v>
       </c>
       <c r="D9" t="n">
-        <v>0.231235</v>
+        <v>0.218335</v>
       </c>
     </row>
     <row r="10">
@@ -9478,13 +9478,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.258997</v>
+        <v>0.251468</v>
       </c>
       <c r="C10" t="n">
-        <v>0.209436</v>
+        <v>0.200694</v>
       </c>
       <c r="D10" t="n">
-        <v>0.23649</v>
+        <v>0.225977</v>
       </c>
     </row>
     <row r="11">
@@ -9492,13 +9492,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.257731</v>
+        <v>0.252778</v>
       </c>
       <c r="C11" t="n">
-        <v>0.221623</v>
+        <v>0.20635</v>
       </c>
       <c r="D11" t="n">
-        <v>0.244848</v>
+        <v>0.235327</v>
       </c>
     </row>
     <row r="12">
@@ -9506,13 +9506,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.273697</v>
+        <v>0.257211</v>
       </c>
       <c r="C12" t="n">
-        <v>0.221477</v>
+        <v>0.211079</v>
       </c>
       <c r="D12" t="n">
-        <v>0.256107</v>
+        <v>0.239259</v>
       </c>
     </row>
     <row r="13">
@@ -9520,13 +9520,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.222043</v>
+        <v>0.21531</v>
       </c>
       <c r="C13" t="n">
-        <v>0.228509</v>
+        <v>0.217054</v>
       </c>
       <c r="D13" t="n">
-        <v>0.253683</v>
+        <v>0.248052</v>
       </c>
     </row>
     <row r="14">
@@ -9534,13 +9534,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.240344</v>
+        <v>0.221377</v>
       </c>
       <c r="C14" t="n">
-        <v>0.228965</v>
+        <v>0.22308</v>
       </c>
       <c r="D14" t="n">
-        <v>0.26165</v>
+        <v>0.252132</v>
       </c>
     </row>
     <row r="15">
@@ -9548,13 +9548,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.235381</v>
+        <v>0.224055</v>
       </c>
       <c r="C15" t="n">
-        <v>0.23159</v>
+        <v>0.227073</v>
       </c>
       <c r="D15" t="n">
-        <v>0.265948</v>
+        <v>0.260112</v>
       </c>
     </row>
     <row r="16">
@@ -9562,13 +9562,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.23613</v>
+        <v>0.230702</v>
       </c>
       <c r="C16" t="n">
-        <v>0.239751</v>
+        <v>0.232808</v>
       </c>
       <c r="D16" t="n">
-        <v>0.277384</v>
+        <v>0.270228</v>
       </c>
     </row>
     <row r="17">
@@ -9576,13 +9576,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.239568</v>
+        <v>0.233133</v>
       </c>
       <c r="C17" t="n">
-        <v>0.245591</v>
+        <v>0.238512</v>
       </c>
       <c r="D17" t="n">
-        <v>0.281917</v>
+        <v>0.275421</v>
       </c>
     </row>
     <row r="18">
@@ -9590,13 +9590,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.251669</v>
+        <v>0.237421</v>
       </c>
       <c r="C18" t="n">
-        <v>0.24835</v>
+        <v>0.250872</v>
       </c>
       <c r="D18" t="n">
-        <v>0.284189</v>
+        <v>0.279402</v>
       </c>
     </row>
     <row r="19">
@@ -9604,13 +9604,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.255644</v>
+        <v>0.241151</v>
       </c>
       <c r="C19" t="n">
-        <v>0.252967</v>
+        <v>0.246187</v>
       </c>
       <c r="D19" t="n">
-        <v>0.286164</v>
+        <v>0.295359</v>
       </c>
     </row>
     <row r="20">
@@ -9618,13 +9618,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.25493</v>
+        <v>0.248756</v>
       </c>
       <c r="C20" t="n">
-        <v>0.256035</v>
+        <v>0.251993</v>
       </c>
       <c r="D20" t="n">
-        <v>0.302216</v>
+        <v>0.288527</v>
       </c>
     </row>
     <row r="21">
@@ -9632,13 +9632,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.268132</v>
+        <v>0.24855</v>
       </c>
       <c r="C21" t="n">
-        <v>0.20806</v>
+        <v>0.197061</v>
       </c>
       <c r="D21" t="n">
-        <v>0.232643</v>
+        <v>0.230209</v>
       </c>
     </row>
     <row r="22">
@@ -9646,13 +9646,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.26293</v>
+        <v>0.275493</v>
       </c>
       <c r="C22" t="n">
-        <v>0.212969</v>
+        <v>0.204852</v>
       </c>
       <c r="D22" t="n">
-        <v>0.251915</v>
+        <v>0.232134</v>
       </c>
     </row>
     <row r="23">
@@ -9660,13 +9660,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.266248</v>
+        <v>0.259187</v>
       </c>
       <c r="C23" t="n">
-        <v>0.22381</v>
+        <v>0.212008</v>
       </c>
       <c r="D23" t="n">
-        <v>0.242333</v>
+        <v>0.239667</v>
       </c>
     </row>
     <row r="24">
@@ -9674,13 +9674,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.269454</v>
+        <v>0.262809</v>
       </c>
       <c r="C24" t="n">
-        <v>0.225889</v>
+        <v>0.213865</v>
       </c>
       <c r="D24" t="n">
-        <v>0.254223</v>
+        <v>0.244683</v>
       </c>
     </row>
     <row r="25">
@@ -9688,13 +9688,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.272947</v>
+        <v>0.269322</v>
       </c>
       <c r="C25" t="n">
-        <v>0.231076</v>
+        <v>0.217347</v>
       </c>
       <c r="D25" t="n">
-        <v>0.258185</v>
+        <v>0.248158</v>
       </c>
     </row>
     <row r="26">
@@ -9702,13 +9702,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.273379</v>
+        <v>0.270621</v>
       </c>
       <c r="C26" t="n">
-        <v>0.22722</v>
+        <v>0.226782</v>
       </c>
       <c r="D26" t="n">
-        <v>0.266078</v>
+        <v>0.257282</v>
       </c>
     </row>
     <row r="27">
@@ -9716,13 +9716,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.243378</v>
+        <v>0.235955</v>
       </c>
       <c r="C27" t="n">
-        <v>0.239039</v>
+        <v>0.250705</v>
       </c>
       <c r="D27" t="n">
-        <v>0.280402</v>
+        <v>0.267708</v>
       </c>
     </row>
     <row r="28">
@@ -9730,13 +9730,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.245256</v>
+        <v>0.25207</v>
       </c>
       <c r="C28" t="n">
-        <v>0.246202</v>
+        <v>0.238127</v>
       </c>
       <c r="D28" t="n">
-        <v>0.284919</v>
+        <v>0.284747</v>
       </c>
     </row>
     <row r="29">
@@ -9744,13 +9744,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.253851</v>
+        <v>0.249293</v>
       </c>
       <c r="C29" t="n">
-        <v>0.252059</v>
+        <v>0.25653</v>
       </c>
       <c r="D29" t="n">
-        <v>0.283885</v>
+        <v>0.279397</v>
       </c>
     </row>
     <row r="30">
@@ -9758,13 +9758,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.261728</v>
+        <v>0.258441</v>
       </c>
       <c r="C30" t="n">
-        <v>0.263266</v>
+        <v>0.249131</v>
       </c>
       <c r="D30" t="n">
-        <v>0.31205</v>
+        <v>0.293895</v>
       </c>
     </row>
     <row r="31">
@@ -9772,13 +9772,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.274138</v>
+        <v>0.270197</v>
       </c>
       <c r="C31" t="n">
-        <v>0.272326</v>
+        <v>0.277277</v>
       </c>
       <c r="D31" t="n">
-        <v>0.308632</v>
+        <v>0.300397</v>
       </c>
     </row>
     <row r="32">
@@ -9786,13 +9786,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.275116</v>
+        <v>0.280535</v>
       </c>
       <c r="C32" t="n">
-        <v>0.273962</v>
+        <v>0.266897</v>
       </c>
       <c r="D32" t="n">
-        <v>0.317415</v>
+        <v>0.312079</v>
       </c>
     </row>
     <row r="33">
@@ -9800,13 +9800,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.28679</v>
+        <v>0.281154</v>
       </c>
       <c r="C33" t="n">
-        <v>0.283479</v>
+        <v>0.278629</v>
       </c>
       <c r="D33" t="n">
-        <v>0.322661</v>
+        <v>0.339367</v>
       </c>
     </row>
     <row r="34">
@@ -9814,13 +9814,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.295541</v>
+        <v>0.291808</v>
       </c>
       <c r="C34" t="n">
-        <v>0.28355</v>
+        <v>0.283408</v>
       </c>
       <c r="D34" t="n">
-        <v>0.343918</v>
+        <v>0.333446</v>
       </c>
     </row>
     <row r="35">
@@ -9828,13 +9828,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.302886</v>
+        <v>0.309017</v>
       </c>
       <c r="C35" t="n">
-        <v>0.231474</v>
+        <v>0.228414</v>
       </c>
       <c r="D35" t="n">
-        <v>0.277109</v>
+        <v>0.271563</v>
       </c>
     </row>
     <row r="36">
@@ -9842,13 +9842,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.307253</v>
+        <v>0.311981</v>
       </c>
       <c r="C36" t="n">
-        <v>0.240313</v>
+        <v>0.24947</v>
       </c>
       <c r="D36" t="n">
-        <v>0.282704</v>
+        <v>0.274803</v>
       </c>
     </row>
     <row r="37">
@@ -9856,13 +9856,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.333845</v>
+        <v>0.322512</v>
       </c>
       <c r="C37" t="n">
-        <v>0.249227</v>
+        <v>0.257026</v>
       </c>
       <c r="D37" t="n">
-        <v>0.294443</v>
+        <v>0.284898</v>
       </c>
     </row>
     <row r="38">
@@ -9870,13 +9870,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.332588</v>
+        <v>0.328549</v>
       </c>
       <c r="C38" t="n">
-        <v>0.254807</v>
+        <v>0.254732</v>
       </c>
       <c r="D38" t="n">
-        <v>0.310404</v>
+        <v>0.310896</v>
       </c>
     </row>
     <row r="39">
@@ -9884,13 +9884,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.343226</v>
+        <v>0.339891</v>
       </c>
       <c r="C39" t="n">
-        <v>0.273933</v>
+        <v>0.259096</v>
       </c>
       <c r="D39" t="n">
-        <v>0.321899</v>
+        <v>0.309187</v>
       </c>
     </row>
     <row r="40">
@@ -9898,13 +9898,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.361383</v>
+        <v>0.363786</v>
       </c>
       <c r="C40" t="n">
-        <v>0.279565</v>
+        <v>0.270915</v>
       </c>
       <c r="D40" t="n">
-        <v>0.332354</v>
+        <v>0.320885</v>
       </c>
     </row>
     <row r="41">
@@ -9912,13 +9912,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.332297</v>
+        <v>0.315929</v>
       </c>
       <c r="C41" t="n">
-        <v>0.295541</v>
+        <v>0.2812</v>
       </c>
       <c r="D41" t="n">
-        <v>0.335894</v>
+        <v>0.337222</v>
       </c>
     </row>
     <row r="42">
@@ -9926,13 +9926,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.333177</v>
+        <v>0.330845</v>
       </c>
       <c r="C42" t="n">
-        <v>0.301704</v>
+        <v>0.295676</v>
       </c>
       <c r="D42" t="n">
-        <v>0.347958</v>
+        <v>0.343586</v>
       </c>
     </row>
     <row r="43">
@@ -9940,13 +9940,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.345832</v>
+        <v>0.335561</v>
       </c>
       <c r="C43" t="n">
-        <v>0.310254</v>
+        <v>0.301472</v>
       </c>
       <c r="D43" t="n">
-        <v>0.365573</v>
+        <v>0.368361</v>
       </c>
     </row>
     <row r="44">
@@ -9954,13 +9954,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.356054</v>
+        <v>0.358585</v>
       </c>
       <c r="C44" t="n">
-        <v>0.325715</v>
+        <v>0.317288</v>
       </c>
       <c r="D44" t="n">
-        <v>0.391786</v>
+        <v>0.386786</v>
       </c>
     </row>
     <row r="45">
@@ -9968,13 +9968,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.390772</v>
+        <v>0.363258</v>
       </c>
       <c r="C45" t="n">
-        <v>0.337429</v>
+        <v>0.327112</v>
       </c>
       <c r="D45" t="n">
-        <v>0.404238</v>
+        <v>0.389719</v>
       </c>
     </row>
     <row r="46">
@@ -9982,13 +9982,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.382403</v>
+        <v>0.392463</v>
       </c>
       <c r="C46" t="n">
-        <v>0.349371</v>
+        <v>0.339636</v>
       </c>
       <c r="D46" t="n">
-        <v>0.412203</v>
+        <v>0.409474</v>
       </c>
     </row>
     <row r="47">
@@ -9996,13 +9996,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.416597</v>
+        <v>0.390757</v>
       </c>
       <c r="C47" t="n">
-        <v>0.365058</v>
+        <v>0.356268</v>
       </c>
       <c r="D47" t="n">
-        <v>0.437971</v>
+        <v>0.423508</v>
       </c>
     </row>
     <row r="48">
@@ -10010,13 +10010,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.430197</v>
+        <v>0.400395</v>
       </c>
       <c r="C48" t="n">
-        <v>0.382017</v>
+        <v>0.368089</v>
       </c>
       <c r="D48" t="n">
-        <v>0.446174</v>
+        <v>0.43146</v>
       </c>
     </row>
     <row r="49">
@@ -10024,13 +10024,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.440034</v>
+        <v>0.422574</v>
       </c>
       <c r="C49" t="n">
-        <v>0.402447</v>
+        <v>0.379374</v>
       </c>
       <c r="D49" t="n">
-        <v>0.488953</v>
+        <v>0.452893</v>
       </c>
     </row>
     <row r="50">
@@ -10038,13 +10038,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.463484</v>
+        <v>0.444015</v>
       </c>
       <c r="C50" t="n">
-        <v>0.322571</v>
+        <v>0.310863</v>
       </c>
       <c r="D50" t="n">
-        <v>0.374938</v>
+        <v>0.3612</v>
       </c>
     </row>
     <row r="51">
@@ -10052,13 +10052,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.480923</v>
+        <v>0.447419</v>
       </c>
       <c r="C51" t="n">
-        <v>0.329842</v>
+        <v>0.321269</v>
       </c>
       <c r="D51" t="n">
-        <v>0.383612</v>
+        <v>0.389372</v>
       </c>
     </row>
     <row r="52">
@@ -10066,13 +10066,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.503028</v>
+        <v>0.468831</v>
       </c>
       <c r="C52" t="n">
-        <v>0.349943</v>
+        <v>0.33847</v>
       </c>
       <c r="D52" t="n">
-        <v>0.419441</v>
+        <v>0.397316</v>
       </c>
     </row>
     <row r="53">
@@ -10080,13 +10080,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.530063</v>
+        <v>0.496871</v>
       </c>
       <c r="C53" t="n">
-        <v>0.367061</v>
+        <v>0.362316</v>
       </c>
       <c r="D53" t="n">
-        <v>0.426362</v>
+        <v>0.410341</v>
       </c>
     </row>
     <row r="54">
@@ -10094,13 +10094,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.533139</v>
+        <v>0.5094109999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>0.384274</v>
+        <v>0.364032</v>
       </c>
       <c r="D54" t="n">
-        <v>0.446124</v>
+        <v>0.428311</v>
       </c>
     </row>
     <row r="55">
@@ -10108,13 +10108,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.550527</v>
+        <v>0.520644</v>
       </c>
       <c r="C55" t="n">
-        <v>0.39281</v>
+        <v>0.420437</v>
       </c>
       <c r="D55" t="n">
-        <v>0.468162</v>
+        <v>0.479408</v>
       </c>
     </row>
     <row r="56">
@@ -10122,13 +10122,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.520908</v>
+        <v>0.466037</v>
       </c>
       <c r="C56" t="n">
-        <v>0.424722</v>
+        <v>0.427345</v>
       </c>
       <c r="D56" t="n">
-        <v>0.507362</v>
+        <v>0.47908</v>
       </c>
     </row>
     <row r="57">
@@ -10136,13 +10136,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.523133</v>
+        <v>0.484311</v>
       </c>
       <c r="C57" t="n">
-        <v>0.436616</v>
+        <v>0.416067</v>
       </c>
       <c r="D57" t="n">
-        <v>0.515736</v>
+        <v>0.507448</v>
       </c>
     </row>
     <row r="58">
@@ -10150,13 +10150,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.557731</v>
+        <v>0.50667</v>
       </c>
       <c r="C58" t="n">
-        <v>0.466936</v>
+        <v>0.444017</v>
       </c>
       <c r="D58" t="n">
-        <v>0.53384</v>
+        <v>0.531105</v>
       </c>
     </row>
     <row r="59">
@@ -10164,13 +10164,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.58932</v>
+        <v>0.515408</v>
       </c>
       <c r="C59" t="n">
-        <v>0.477159</v>
+        <v>0.460708</v>
       </c>
       <c r="D59" t="n">
-        <v>0.574265</v>
+        <v>0.53653</v>
       </c>
     </row>
     <row r="60">
@@ -10178,13 +10178,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.616804</v>
+        <v>0.549594</v>
       </c>
       <c r="C60" t="n">
-        <v>0.527789</v>
+        <v>0.48231</v>
       </c>
       <c r="D60" t="n">
-        <v>0.654589</v>
+        <v>0.560215</v>
       </c>
     </row>
     <row r="61">
@@ -10192,13 +10192,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.657839</v>
+        <v>0.564221</v>
       </c>
       <c r="C61" t="n">
-        <v>0.551556</v>
+        <v>0.504556</v>
       </c>
       <c r="D61" t="n">
-        <v>0.644008</v>
+        <v>0.596021</v>
       </c>
     </row>
     <row r="62">
@@ -10206,13 +10206,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.667673</v>
+        <v>0.595061</v>
       </c>
       <c r="C62" t="n">
-        <v>0.595464</v>
+        <v>0.533493</v>
       </c>
       <c r="D62" t="n">
-        <v>0.688759</v>
+        <v>0.632182</v>
       </c>
     </row>
     <row r="63">
@@ -10220,13 +10220,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.708529</v>
+        <v>0.620151</v>
       </c>
       <c r="C63" t="n">
-        <v>0.630768</v>
+        <v>0.577675</v>
       </c>
       <c r="D63" t="n">
-        <v>0.718907</v>
+        <v>0.663977</v>
       </c>
     </row>
     <row r="64">
@@ -10234,13 +10234,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.7363690000000001</v>
+        <v>0.663903</v>
       </c>
       <c r="C64" t="n">
-        <v>0.51911</v>
+        <v>0.446253</v>
       </c>
       <c r="D64" t="n">
-        <v>0.610547</v>
+        <v>0.547126</v>
       </c>
     </row>
     <row r="65">
@@ -10248,13 +10248,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.768769</v>
+        <v>0.669029</v>
       </c>
       <c r="C65" t="n">
-        <v>0.539592</v>
+        <v>0.46986</v>
       </c>
       <c r="D65" t="n">
-        <v>0.670731</v>
+        <v>0.586738</v>
       </c>
     </row>
     <row r="66">
@@ -10262,13 +10262,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.783641</v>
+        <v>0.718797</v>
       </c>
       <c r="C66" t="n">
-        <v>0.535958</v>
+        <v>0.528778</v>
       </c>
       <c r="D66" t="n">
-        <v>0.666721</v>
+        <v>0.597039</v>
       </c>
     </row>
     <row r="67">
@@ -10276,13 +10276,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.805499</v>
+        <v>0.733588</v>
       </c>
       <c r="C67" t="n">
-        <v>0.5890339999999999</v>
+        <v>0.517756</v>
       </c>
       <c r="D67" t="n">
-        <v>0.702467</v>
+        <v>0.621737</v>
       </c>
     </row>
     <row r="68">
@@ -10290,13 +10290,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.875901</v>
+        <v>0.774289</v>
       </c>
       <c r="C68" t="n">
-        <v>0.61414</v>
+        <v>0.549668</v>
       </c>
       <c r="D68" t="n">
-        <v>0.7631559999999999</v>
+        <v>0.650348</v>
       </c>
     </row>
     <row r="69">
@@ -10304,13 +10304,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.909089</v>
+        <v>0.789249</v>
       </c>
       <c r="C69" t="n">
-        <v>0.672354</v>
+        <v>0.60083</v>
       </c>
       <c r="D69" t="n">
-        <v>0.772343</v>
+        <v>0.687017</v>
       </c>
     </row>
     <row r="70">
@@ -10318,13 +10318,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.7692369999999999</v>
+        <v>0.661702</v>
       </c>
       <c r="C70" t="n">
-        <v>0.708969</v>
+        <v>0.598932</v>
       </c>
       <c r="D70" t="n">
-        <v>0.827879</v>
+        <v>0.730662</v>
       </c>
     </row>
     <row r="71">
@@ -10332,13 +10332,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.8049809999999999</v>
+        <v>0.697124</v>
       </c>
       <c r="C71" t="n">
-        <v>0.7432260000000001</v>
+        <v>0.632135</v>
       </c>
       <c r="D71" t="n">
-        <v>0.864383</v>
+        <v>0.767537</v>
       </c>
     </row>
     <row r="72">
@@ -10346,13 +10346,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.824861</v>
+        <v>0.716848</v>
       </c>
       <c r="C72" t="n">
-        <v>0.761595</v>
+        <v>0.662776</v>
       </c>
       <c r="D72" t="n">
-        <v>0.908451</v>
+        <v>0.794319</v>
       </c>
     </row>
     <row r="73">
@@ -10360,13 +10360,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.826282</v>
+        <v>0.747258</v>
       </c>
       <c r="C73" t="n">
-        <v>0.779276</v>
+        <v>0.695796</v>
       </c>
       <c r="D73" t="n">
-        <v>0.924363</v>
+        <v>0.82568</v>
       </c>
     </row>
     <row r="74">
@@ -10374,13 +10374,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.861835</v>
+        <v>0.7870239999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>0.7942</v>
+        <v>0.7541099999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>0.963398</v>
+        <v>0.873214</v>
       </c>
     </row>
     <row r="75">
@@ -10388,13 +10388,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.893277</v>
+        <v>0.797892</v>
       </c>
       <c r="C75" t="n">
-        <v>0.871306</v>
+        <v>0.762699</v>
       </c>
       <c r="D75" t="n">
-        <v>0.9991679999999999</v>
+        <v>0.901047</v>
       </c>
     </row>
     <row r="76">
@@ -10402,13 +10402,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.9389690000000001</v>
+        <v>0.847068</v>
       </c>
       <c r="C76" t="n">
-        <v>0.87881</v>
+        <v>0.82291</v>
       </c>
       <c r="D76" t="n">
-        <v>1.03658</v>
+        <v>0.952561</v>
       </c>
     </row>
     <row r="77">
@@ -10416,13 +10416,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.935086</v>
+        <v>0.883308</v>
       </c>
       <c r="C77" t="n">
-        <v>0.904617</v>
+        <v>0.842992</v>
       </c>
       <c r="D77" t="n">
-        <v>1.07562</v>
+        <v>1.00271</v>
       </c>
     </row>
     <row r="78">
@@ -10430,13 +10430,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.964753</v>
+        <v>0.931179</v>
       </c>
       <c r="C78" t="n">
-        <v>0.72423</v>
+        <v>0.668251</v>
       </c>
       <c r="D78" t="n">
-        <v>0.9106340000000001</v>
+        <v>0.819341</v>
       </c>
     </row>
     <row r="79">
@@ -10444,13 +10444,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.02171</v>
+        <v>0.956998</v>
       </c>
       <c r="C79" t="n">
-        <v>0.802616</v>
+        <v>0.688418</v>
       </c>
       <c r="D79" t="n">
-        <v>0.961071</v>
+        <v>0.832768</v>
       </c>
     </row>
     <row r="80">
@@ -10458,13 +10458,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.03719</v>
+        <v>0.944272</v>
       </c>
       <c r="C80" t="n">
-        <v>0.791984</v>
+        <v>0.701664</v>
       </c>
       <c r="D80" t="n">
-        <v>0.97358</v>
+        <v>0.881389</v>
       </c>
     </row>
     <row r="81">
@@ -10472,13 +10472,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.07339</v>
+        <v>0.983469</v>
       </c>
       <c r="C81" t="n">
-        <v>0.84683</v>
+        <v>0.750407</v>
       </c>
       <c r="D81" t="n">
-        <v>1.01711</v>
+        <v>0.892023</v>
       </c>
     </row>
     <row r="82">
@@ -10486,13 +10486,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.09853</v>
+        <v>1.00403</v>
       </c>
       <c r="C82" t="n">
-        <v>0.840365</v>
+        <v>0.7640130000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>1.03732</v>
+        <v>0.928137</v>
       </c>
     </row>
     <row r="83">
@@ -10500,13 +10500,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.11793</v>
+        <v>1.06068</v>
       </c>
       <c r="C83" t="n">
-        <v>0.869838</v>
+        <v>0.7940469999999999</v>
       </c>
       <c r="D83" t="n">
-        <v>1.06451</v>
+        <v>0.963342</v>
       </c>
     </row>
     <row r="84">
@@ -10514,13 +10514,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.9028080000000001</v>
+        <v>0.839192</v>
       </c>
       <c r="C84" t="n">
-        <v>0.89559</v>
+        <v>0.8229959999999999</v>
       </c>
       <c r="D84" t="n">
-        <v>1.12087</v>
+        <v>1.03686</v>
       </c>
     </row>
     <row r="85">
@@ -10528,13 +10528,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.925592</v>
+        <v>0.857611</v>
       </c>
       <c r="C85" t="n">
-        <v>0.923583</v>
+        <v>0.865266</v>
       </c>
       <c r="D85" t="n">
-        <v>1.17948</v>
+        <v>1.02572</v>
       </c>
     </row>
     <row r="86">
@@ -10542,13 +10542,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.947052</v>
+        <v>0.929732</v>
       </c>
       <c r="C86" t="n">
-        <v>0.946803</v>
+        <v>0.922076</v>
       </c>
       <c r="D86" t="n">
-        <v>1.21995</v>
+        <v>1.1085</v>
       </c>
     </row>
     <row r="87">
@@ -10556,13 +10556,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.982318</v>
+        <v>0.9442390000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>1.01804</v>
+        <v>0.916139</v>
       </c>
       <c r="D87" t="n">
-        <v>1.2732</v>
+        <v>1.14522</v>
       </c>
     </row>
     <row r="88">
@@ -10570,13 +10570,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.01743</v>
+        <v>0.943793</v>
       </c>
       <c r="C88" t="n">
-        <v>1.02198</v>
+        <v>0.943913</v>
       </c>
       <c r="D88" t="n">
-        <v>1.28218</v>
+        <v>1.17956</v>
       </c>
     </row>
     <row r="89">
@@ -10584,13 +10584,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.02674</v>
+        <v>0.9829059999999999</v>
       </c>
       <c r="C89" t="n">
-        <v>1.06131</v>
+        <v>0.976428</v>
       </c>
       <c r="D89" t="n">
-        <v>1.32568</v>
+        <v>1.19007</v>
       </c>
     </row>
     <row r="90">
@@ -10598,13 +10598,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.05534</v>
+        <v>0.9871220000000001</v>
       </c>
       <c r="C90" t="n">
-        <v>1.10159</v>
+        <v>1.02002</v>
       </c>
       <c r="D90" t="n">
-        <v>1.38355</v>
+        <v>1.28588</v>
       </c>
     </row>
     <row r="91">
@@ -10612,13 +10612,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.07995</v>
+        <v>1.02126</v>
       </c>
       <c r="C91" t="n">
-        <v>1.11746</v>
+        <v>1.04881</v>
       </c>
       <c r="D91" t="n">
-        <v>1.41097</v>
+        <v>1.29955</v>
       </c>
     </row>
     <row r="92">
@@ -10626,13 +10626,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.08887</v>
+        <v>1.04942</v>
       </c>
       <c r="C92" t="n">
-        <v>0.897222</v>
+        <v>0.835071</v>
       </c>
       <c r="D92" t="n">
-        <v>1.12263</v>
+        <v>1.04915</v>
       </c>
     </row>
     <row r="93">
@@ -10640,13 +10640,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.11298</v>
+        <v>1.08958</v>
       </c>
       <c r="C93" t="n">
-        <v>0.92227</v>
+        <v>0.857231</v>
       </c>
       <c r="D93" t="n">
-        <v>1.14392</v>
+        <v>1.08544</v>
       </c>
     </row>
     <row r="94">
@@ -10654,13 +10654,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.14858</v>
+        <v>1.10508</v>
       </c>
       <c r="C94" t="n">
-        <v>0.9452199999999999</v>
+        <v>0.876986</v>
       </c>
       <c r="D94" t="n">
-        <v>1.17637</v>
+        <v>1.10791</v>
       </c>
     </row>
     <row r="95">
@@ -10668,13 +10668,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.18009</v>
+        <v>1.13836</v>
       </c>
       <c r="C95" t="n">
-        <v>0.9490229999999999</v>
+        <v>0.9093909999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>1.21162</v>
+        <v>1.14704</v>
       </c>
     </row>
     <row r="96">
@@ -10682,13 +10682,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.2249</v>
+        <v>1.20213</v>
       </c>
       <c r="C96" t="n">
-        <v>0.9724429999999999</v>
+        <v>0.962105</v>
       </c>
       <c r="D96" t="n">
-        <v>1.26308</v>
+        <v>1.19931</v>
       </c>
     </row>
     <row r="97">
@@ -10696,13 +10696,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.25541</v>
+        <v>1.23466</v>
       </c>
       <c r="C97" t="n">
-        <v>1.02301</v>
+        <v>0.959475</v>
       </c>
       <c r="D97" t="n">
-        <v>1.29508</v>
+        <v>1.23032</v>
       </c>
     </row>
     <row r="98">
@@ -10710,13 +10710,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.980356</v>
+        <v>0.945688</v>
       </c>
       <c r="C98" t="n">
-        <v>1.03162</v>
+        <v>0.985378</v>
       </c>
       <c r="D98" t="n">
-        <v>1.33163</v>
+        <v>1.25822</v>
       </c>
     </row>
     <row r="99">
@@ -10724,13 +10724,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.01033</v>
+        <v>0.968913</v>
       </c>
       <c r="C99" t="n">
-        <v>1.0588</v>
+        <v>1.00757</v>
       </c>
       <c r="D99" t="n">
-        <v>1.38873</v>
+        <v>1.30926</v>
       </c>
     </row>
     <row r="100">
@@ -10738,13 +10738,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.06675</v>
+        <v>0.979581</v>
       </c>
       <c r="C100" t="n">
-        <v>1.07347</v>
+        <v>1.03288</v>
       </c>
       <c r="D100" t="n">
-        <v>1.421</v>
+        <v>1.34214</v>
       </c>
     </row>
     <row r="101">
@@ -10752,13 +10752,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.05062</v>
+        <v>1.02128</v>
       </c>
       <c r="C101" t="n">
-        <v>1.10641</v>
+        <v>1.06717</v>
       </c>
       <c r="D101" t="n">
-        <v>1.4879</v>
+        <v>1.37667</v>
       </c>
     </row>
     <row r="102">
@@ -10766,13 +10766,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.10555</v>
+        <v>1.07822</v>
       </c>
       <c r="C102" t="n">
-        <v>1.14063</v>
+        <v>1.12202</v>
       </c>
       <c r="D102" t="n">
-        <v>1.50275</v>
+        <v>1.43567</v>
       </c>
     </row>
     <row r="103">
@@ -10780,13 +10780,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.12829</v>
+        <v>1.06382</v>
       </c>
       <c r="C103" t="n">
-        <v>1.19655</v>
+        <v>1.14209</v>
       </c>
       <c r="D103" t="n">
-        <v>1.51332</v>
+        <v>1.46613</v>
       </c>
     </row>
     <row r="104">
@@ -10794,13 +10794,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.15889</v>
+        <v>1.08056</v>
       </c>
       <c r="C104" t="n">
-        <v>1.21204</v>
+        <v>1.17681</v>
       </c>
       <c r="D104" t="n">
-        <v>1.58323</v>
+        <v>1.48587</v>
       </c>
     </row>
     <row r="105">
@@ -10808,13 +10808,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.18177</v>
+        <v>1.11801</v>
       </c>
       <c r="C105" t="n">
-        <v>1.27284</v>
+        <v>1.19866</v>
       </c>
       <c r="D105" t="n">
-        <v>1.63652</v>
+        <v>1.54667</v>
       </c>
     </row>
     <row r="106">
@@ -10822,13 +10822,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.20216</v>
+        <v>1.16911</v>
       </c>
       <c r="C106" t="n">
-        <v>1.32643</v>
+        <v>1.23907</v>
       </c>
       <c r="D106" t="n">
-        <v>1.69048</v>
+        <v>1.57242</v>
       </c>
     </row>
     <row r="107">
@@ -10836,13 +10836,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.26176</v>
+        <v>1.16465</v>
       </c>
       <c r="C107" t="n">
-        <v>1.01164</v>
+        <v>0.953178</v>
       </c>
       <c r="D107" t="n">
-        <v>1.31679</v>
+        <v>1.23741</v>
       </c>
     </row>
     <row r="108">
@@ -10850,13 +10850,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.29141</v>
+        <v>1.22291</v>
       </c>
       <c r="C108" t="n">
-        <v>1.0668</v>
+        <v>0.976519</v>
       </c>
       <c r="D108" t="n">
-        <v>1.3626</v>
+        <v>1.26631</v>
       </c>
     </row>
     <row r="109">
@@ -10864,13 +10864,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.33522</v>
+        <v>1.23105</v>
       </c>
       <c r="C109" t="n">
-        <v>1.07647</v>
+        <v>0.993293</v>
       </c>
       <c r="D109" t="n">
-        <v>1.39272</v>
+        <v>1.27029</v>
       </c>
     </row>
     <row r="110">
@@ -10878,13 +10878,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.38545</v>
+        <v>1.23557</v>
       </c>
       <c r="C110" t="n">
-        <v>1.08977</v>
+        <v>1.04667</v>
       </c>
       <c r="D110" t="n">
-        <v>1.44773</v>
+        <v>1.31819</v>
       </c>
     </row>
     <row r="111">
@@ -10892,13 +10892,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.4012</v>
+        <v>1.31184</v>
       </c>
       <c r="C111" t="n">
-        <v>1.14328</v>
+        <v>1.05193</v>
       </c>
       <c r="D111" t="n">
-        <v>1.50948</v>
+        <v>1.36869</v>
       </c>
     </row>
     <row r="112">
@@ -10906,13 +10906,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.14694</v>
+        <v>1.00482</v>
       </c>
       <c r="C112" t="n">
-        <v>1.15241</v>
+        <v>1.06427</v>
       </c>
       <c r="D112" t="n">
-        <v>1.49386</v>
+        <v>1.40623</v>
       </c>
     </row>
     <row r="113">
@@ -10920,13 +10920,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.16434</v>
+        <v>1.06952</v>
       </c>
       <c r="C113" t="n">
-        <v>1.22942</v>
+        <v>1.09389</v>
       </c>
       <c r="D113" t="n">
-        <v>1.59326</v>
+        <v>1.42753</v>
       </c>
     </row>
     <row r="114">
@@ -10934,13 +10934,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.22298</v>
+        <v>1.09628</v>
       </c>
       <c r="C114" t="n">
-        <v>1.22918</v>
+        <v>1.13697</v>
       </c>
       <c r="D114" t="n">
-        <v>1.57789</v>
+        <v>1.48204</v>
       </c>
     </row>
     <row r="115">
@@ -10948,13 +10948,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.15082</v>
+        <v>1.08837</v>
       </c>
       <c r="C115" t="n">
-        <v>1.26085</v>
+        <v>1.15857</v>
       </c>
       <c r="D115" t="n">
-        <v>1.71264</v>
+        <v>1.51845</v>
       </c>
     </row>
     <row r="116">
@@ -10962,13 +10962,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.17467</v>
+        <v>1.11728</v>
       </c>
       <c r="C116" t="n">
-        <v>1.31478</v>
+        <v>1.19903</v>
       </c>
       <c r="D116" t="n">
-        <v>1.77051</v>
+        <v>1.54444</v>
       </c>
     </row>
     <row r="117">
@@ -10976,13 +10976,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.18213</v>
+        <v>1.15245</v>
       </c>
       <c r="C117" t="n">
-        <v>1.3614</v>
+        <v>1.21348</v>
       </c>
       <c r="D117" t="n">
-        <v>1.83659</v>
+        <v>1.61666</v>
       </c>
     </row>
     <row r="118">
@@ -10990,13 +10990,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.24073</v>
+        <v>1.17766</v>
       </c>
       <c r="C118" t="n">
-        <v>1.41167</v>
+        <v>1.27278</v>
       </c>
       <c r="D118" t="n">
-        <v>1.90333</v>
+        <v>1.65248</v>
       </c>
     </row>
     <row r="119">
@@ -11004,13 +11004,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.30436</v>
+        <v>1.20657</v>
       </c>
       <c r="C119" t="n">
-        <v>1.47045</v>
+        <v>1.29615</v>
       </c>
       <c r="D119" t="n">
-        <v>2.00753</v>
+        <v>1.69462</v>
       </c>
     </row>
   </sheetData>
@@ -11058,13 +11058,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.189464</v>
+        <v>0.184753</v>
       </c>
       <c r="C2" t="n">
-        <v>0.188894</v>
+        <v>0.181717</v>
       </c>
       <c r="D2" t="n">
-        <v>0.14765</v>
+        <v>0.138965</v>
       </c>
     </row>
     <row r="3">
@@ -11072,13 +11072,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.189888</v>
+        <v>0.189835</v>
       </c>
       <c r="C3" t="n">
-        <v>0.190524</v>
+        <v>0.189178</v>
       </c>
       <c r="D3" t="n">
-        <v>0.143247</v>
+        <v>0.147072</v>
       </c>
     </row>
     <row r="4">
@@ -11086,13 +11086,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.198319</v>
+        <v>0.196946</v>
       </c>
       <c r="C4" t="n">
-        <v>0.206899</v>
+        <v>0.195237</v>
       </c>
       <c r="D4" t="n">
-        <v>0.15295</v>
+        <v>0.144493</v>
       </c>
     </row>
     <row r="5">
@@ -11100,13 +11100,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1988</v>
+        <v>0.196276</v>
       </c>
       <c r="C5" t="n">
-        <v>0.208948</v>
+        <v>0.207516</v>
       </c>
       <c r="D5" t="n">
-        <v>0.15232</v>
+        <v>0.147279</v>
       </c>
     </row>
     <row r="6">
@@ -11114,13 +11114,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.202951</v>
+        <v>0.200342</v>
       </c>
       <c r="C6" t="n">
-        <v>0.209943</v>
+        <v>0.206227</v>
       </c>
       <c r="D6" t="n">
-        <v>0.154359</v>
+        <v>0.152542</v>
       </c>
     </row>
     <row r="7">
@@ -11128,13 +11128,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.213298</v>
+        <v>0.204744</v>
       </c>
       <c r="C7" t="n">
-        <v>0.167884</v>
+        <v>0.164478</v>
       </c>
       <c r="D7" t="n">
-        <v>0.14264</v>
+        <v>0.140651</v>
       </c>
     </row>
     <row r="8">
@@ -11142,13 +11142,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.213217</v>
+        <v>0.210463</v>
       </c>
       <c r="C8" t="n">
-        <v>0.167977</v>
+        <v>0.166237</v>
       </c>
       <c r="D8" t="n">
-        <v>0.148853</v>
+        <v>0.141532</v>
       </c>
     </row>
     <row r="9">
@@ -11156,13 +11156,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.222927</v>
+        <v>0.216908</v>
       </c>
       <c r="C9" t="n">
-        <v>0.180659</v>
+        <v>0.173186</v>
       </c>
       <c r="D9" t="n">
-        <v>0.145769</v>
+        <v>0.145488</v>
       </c>
     </row>
     <row r="10">
@@ -11170,13 +11170,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.238278</v>
+        <v>0.221035</v>
       </c>
       <c r="C10" t="n">
-        <v>0.184524</v>
+        <v>0.177106</v>
       </c>
       <c r="D10" t="n">
-        <v>0.151174</v>
+        <v>0.146419</v>
       </c>
     </row>
     <row r="11">
@@ -11184,13 +11184,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.235513</v>
+        <v>0.230507</v>
       </c>
       <c r="C11" t="n">
-        <v>0.192098</v>
+        <v>0.179804</v>
       </c>
       <c r="D11" t="n">
-        <v>0.150518</v>
+        <v>0.147685</v>
       </c>
     </row>
     <row r="12">
@@ -11198,13 +11198,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.246801</v>
+        <v>0.234316</v>
       </c>
       <c r="C12" t="n">
-        <v>0.188879</v>
+        <v>0.186846</v>
       </c>
       <c r="D12" t="n">
-        <v>0.153666</v>
+        <v>0.149785</v>
       </c>
     </row>
     <row r="13">
@@ -11212,13 +11212,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.190984</v>
+        <v>0.184301</v>
       </c>
       <c r="C13" t="n">
-        <v>0.199508</v>
+        <v>0.189527</v>
       </c>
       <c r="D13" t="n">
-        <v>0.160117</v>
+        <v>0.152123</v>
       </c>
     </row>
     <row r="14">
@@ -11226,13 +11226,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.196513</v>
+        <v>0.188794</v>
       </c>
       <c r="C14" t="n">
-        <v>0.20136</v>
+        <v>0.196832</v>
       </c>
       <c r="D14" t="n">
-        <v>0.160798</v>
+        <v>0.155941</v>
       </c>
     </row>
     <row r="15">
@@ -11240,13 +11240,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.200544</v>
+        <v>0.194931</v>
       </c>
       <c r="C15" t="n">
-        <v>0.209066</v>
+        <v>0.19908</v>
       </c>
       <c r="D15" t="n">
-        <v>0.163473</v>
+        <v>0.157455</v>
       </c>
     </row>
     <row r="16">
@@ -11254,13 +11254,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.204789</v>
+        <v>0.200047</v>
       </c>
       <c r="C16" t="n">
-        <v>0.217478</v>
+        <v>0.209774</v>
       </c>
       <c r="D16" t="n">
-        <v>0.167432</v>
+        <v>0.162815</v>
       </c>
     </row>
     <row r="17">
@@ -11268,13 +11268,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.211404</v>
+        <v>0.206166</v>
       </c>
       <c r="C17" t="n">
-        <v>0.219658</v>
+        <v>0.217269</v>
       </c>
       <c r="D17" t="n">
-        <v>0.167273</v>
+        <v>0.172005</v>
       </c>
     </row>
     <row r="18">
@@ -11282,13 +11282,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.209736</v>
+        <v>0.209774</v>
       </c>
       <c r="C18" t="n">
-        <v>0.222949</v>
+        <v>0.226282</v>
       </c>
       <c r="D18" t="n">
-        <v>0.184081</v>
+        <v>0.171372</v>
       </c>
     </row>
     <row r="19">
@@ -11296,13 +11296,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.219511</v>
+        <v>0.208245</v>
       </c>
       <c r="C19" t="n">
-        <v>0.232385</v>
+        <v>0.233582</v>
       </c>
       <c r="D19" t="n">
-        <v>0.177066</v>
+        <v>0.172328</v>
       </c>
     </row>
     <row r="20">
@@ -11310,13 +11310,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.232836</v>
+        <v>0.221689</v>
       </c>
       <c r="C20" t="n">
-        <v>0.244179</v>
+        <v>0.23648</v>
       </c>
       <c r="D20" t="n">
-        <v>0.188685</v>
+        <v>0.176264</v>
       </c>
     </row>
     <row r="21">
@@ -11324,13 +11324,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.237512</v>
+        <v>0.221518</v>
       </c>
       <c r="C21" t="n">
-        <v>0.189473</v>
+        <v>0.188492</v>
       </c>
       <c r="D21" t="n">
-        <v>0.160446</v>
+        <v>0.156174</v>
       </c>
     </row>
     <row r="22">
@@ -11338,13 +11338,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.233498</v>
+        <v>0.233107</v>
       </c>
       <c r="C22" t="n">
-        <v>0.186701</v>
+        <v>0.183904</v>
       </c>
       <c r="D22" t="n">
-        <v>0.160525</v>
+        <v>0.157769</v>
       </c>
     </row>
     <row r="23">
@@ -11352,13 +11352,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.242837</v>
+        <v>0.233295</v>
       </c>
       <c r="C23" t="n">
-        <v>0.194748</v>
+        <v>0.193043</v>
       </c>
       <c r="D23" t="n">
-        <v>0.166585</v>
+        <v>0.159563</v>
       </c>
     </row>
     <row r="24">
@@ -11366,13 +11366,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.242943</v>
+        <v>0.239954</v>
       </c>
       <c r="C24" t="n">
-        <v>0.206234</v>
+        <v>0.192574</v>
       </c>
       <c r="D24" t="n">
-        <v>0.167292</v>
+        <v>0.160829</v>
       </c>
     </row>
     <row r="25">
@@ -11380,13 +11380,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.258548</v>
+        <v>0.249097</v>
       </c>
       <c r="C25" t="n">
-        <v>0.216036</v>
+        <v>0.202011</v>
       </c>
       <c r="D25" t="n">
-        <v>0.174551</v>
+        <v>0.165358</v>
       </c>
     </row>
     <row r="26">
@@ -11394,13 +11394,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.266986</v>
+        <v>0.253192</v>
       </c>
       <c r="C26" t="n">
-        <v>0.226136</v>
+        <v>0.210363</v>
       </c>
       <c r="D26" t="n">
-        <v>0.179666</v>
+        <v>0.168972</v>
       </c>
     </row>
     <row r="27">
@@ -11408,13 +11408,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.218363</v>
+        <v>0.215241</v>
       </c>
       <c r="C27" t="n">
-        <v>0.216517</v>
+        <v>0.214481</v>
       </c>
       <c r="D27" t="n">
-        <v>0.183061</v>
+        <v>0.169555</v>
       </c>
     </row>
     <row r="28">
@@ -11422,13 +11422,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.237856</v>
+        <v>0.224631</v>
       </c>
       <c r="C28" t="n">
-        <v>0.23267</v>
+        <v>0.224427</v>
       </c>
       <c r="D28" t="n">
-        <v>0.185612</v>
+        <v>0.178917</v>
       </c>
     </row>
     <row r="29">
@@ -11436,13 +11436,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.243807</v>
+        <v>0.230669</v>
       </c>
       <c r="C29" t="n">
-        <v>0.229119</v>
+        <v>0.229094</v>
       </c>
       <c r="D29" t="n">
-        <v>0.185731</v>
+        <v>0.178338</v>
       </c>
     </row>
     <row r="30">
@@ -11450,13 +11450,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.254721</v>
+        <v>0.239809</v>
       </c>
       <c r="C30" t="n">
-        <v>0.243171</v>
+        <v>0.235957</v>
       </c>
       <c r="D30" t="n">
-        <v>0.204523</v>
+        <v>0.181657</v>
       </c>
     </row>
     <row r="31">
@@ -11464,13 +11464,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.267783</v>
+        <v>0.246988</v>
       </c>
       <c r="C31" t="n">
-        <v>0.264765</v>
+        <v>0.245668</v>
       </c>
       <c r="D31" t="n">
-        <v>0.200905</v>
+        <v>0.191431</v>
       </c>
     </row>
     <row r="32">
@@ -11478,13 +11478,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.265835</v>
+        <v>0.256404</v>
       </c>
       <c r="C32" t="n">
-        <v>0.265917</v>
+        <v>0.257478</v>
       </c>
       <c r="D32" t="n">
-        <v>0.204803</v>
+        <v>0.197988</v>
       </c>
     </row>
     <row r="33">
@@ -11492,13 +11492,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.278651</v>
+        <v>0.269108</v>
       </c>
       <c r="C33" t="n">
-        <v>0.273348</v>
+        <v>0.265866</v>
       </c>
       <c r="D33" t="n">
-        <v>0.206003</v>
+        <v>0.197299</v>
       </c>
     </row>
     <row r="34">
@@ -11506,13 +11506,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.296937</v>
+        <v>0.274754</v>
       </c>
       <c r="C34" t="n">
-        <v>0.281423</v>
+        <v>0.278159</v>
       </c>
       <c r="D34" t="n">
-        <v>0.205822</v>
+        <v>0.207852</v>
       </c>
     </row>
     <row r="35">
@@ -11520,13 +11520,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.293665</v>
+        <v>0.284937</v>
       </c>
       <c r="C35" t="n">
-        <v>0.228854</v>
+        <v>0.214655</v>
       </c>
       <c r="D35" t="n">
-        <v>0.191358</v>
+        <v>0.179683</v>
       </c>
     </row>
     <row r="36">
@@ -11534,13 +11534,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.318088</v>
+        <v>0.299351</v>
       </c>
       <c r="C36" t="n">
-        <v>0.237381</v>
+        <v>0.227051</v>
       </c>
       <c r="D36" t="n">
-        <v>0.192664</v>
+        <v>0.18425</v>
       </c>
     </row>
     <row r="37">
@@ -11548,13 +11548,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.315935</v>
+        <v>0.306907</v>
       </c>
       <c r="C37" t="n">
-        <v>0.251611</v>
+        <v>0.2332</v>
       </c>
       <c r="D37" t="n">
-        <v>0.200155</v>
+        <v>0.187579</v>
       </c>
     </row>
     <row r="38">
@@ -11562,13 +11562,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.329541</v>
+        <v>0.317062</v>
       </c>
       <c r="C38" t="n">
-        <v>0.256222</v>
+        <v>0.240525</v>
       </c>
       <c r="D38" t="n">
-        <v>0.208236</v>
+        <v>0.192599</v>
       </c>
     </row>
     <row r="39">
@@ -11576,13 +11576,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.335829</v>
+        <v>0.329019</v>
       </c>
       <c r="C39" t="n">
-        <v>0.272874</v>
+        <v>0.252434</v>
       </c>
       <c r="D39" t="n">
-        <v>0.205725</v>
+        <v>0.20122</v>
       </c>
     </row>
     <row r="40">
@@ -11590,13 +11590,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.355131</v>
+        <v>0.34872</v>
       </c>
       <c r="C40" t="n">
-        <v>0.280018</v>
+        <v>0.260274</v>
       </c>
       <c r="D40" t="n">
-        <v>0.211088</v>
+        <v>0.213126</v>
       </c>
     </row>
     <row r="41">
@@ -11604,13 +11604,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.315402</v>
+        <v>0.299781</v>
       </c>
       <c r="C41" t="n">
-        <v>0.284648</v>
+        <v>0.274874</v>
       </c>
       <c r="D41" t="n">
-        <v>0.215593</v>
+        <v>0.209662</v>
       </c>
     </row>
     <row r="42">
@@ -11618,13 +11618,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.341677</v>
+        <v>0.310345</v>
       </c>
       <c r="C42" t="n">
-        <v>0.289161</v>
+        <v>0.292524</v>
       </c>
       <c r="D42" t="n">
-        <v>0.227995</v>
+        <v>0.218502</v>
       </c>
     </row>
     <row r="43">
@@ -11632,13 +11632,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.351042</v>
+        <v>0.32963</v>
       </c>
       <c r="C43" t="n">
-        <v>0.311871</v>
+        <v>0.299723</v>
       </c>
       <c r="D43" t="n">
-        <v>0.231809</v>
+        <v>0.221218</v>
       </c>
     </row>
     <row r="44">
@@ -11646,13 +11646,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.363287</v>
+        <v>0.334736</v>
       </c>
       <c r="C44" t="n">
-        <v>0.330863</v>
+        <v>0.304701</v>
       </c>
       <c r="D44" t="n">
-        <v>0.239724</v>
+        <v>0.232134</v>
       </c>
     </row>
     <row r="45">
@@ -11660,13 +11660,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.379853</v>
+        <v>0.344786</v>
       </c>
       <c r="C45" t="n">
-        <v>0.352224</v>
+        <v>0.318224</v>
       </c>
       <c r="D45" t="n">
-        <v>0.25869</v>
+        <v>0.236818</v>
       </c>
     </row>
     <row r="46">
@@ -11674,13 +11674,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.384809</v>
+        <v>0.35747</v>
       </c>
       <c r="C46" t="n">
-        <v>0.353278</v>
+        <v>0.33873</v>
       </c>
       <c r="D46" t="n">
-        <v>0.264066</v>
+        <v>0.274169</v>
       </c>
     </row>
     <row r="47">
@@ -11688,13 +11688,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.406928</v>
+        <v>0.397418</v>
       </c>
       <c r="C47" t="n">
-        <v>0.382358</v>
+        <v>0.34632</v>
       </c>
       <c r="D47" t="n">
-        <v>0.27297</v>
+        <v>0.251129</v>
       </c>
     </row>
     <row r="48">
@@ -11702,13 +11702,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.413329</v>
+        <v>0.389798</v>
       </c>
       <c r="C48" t="n">
-        <v>0.405739</v>
+        <v>0.366874</v>
       </c>
       <c r="D48" t="n">
-        <v>0.28977</v>
+        <v>0.264553</v>
       </c>
     </row>
     <row r="49">
@@ -11716,13 +11716,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.434225</v>
+        <v>0.402678</v>
       </c>
       <c r="C49" t="n">
-        <v>0.414669</v>
+        <v>0.386564</v>
       </c>
       <c r="D49" t="n">
-        <v>0.290572</v>
+        <v>0.271958</v>
       </c>
     </row>
     <row r="50">
@@ -11730,13 +11730,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.448759</v>
+        <v>0.418578</v>
       </c>
       <c r="C50" t="n">
-        <v>0.324741</v>
+        <v>0.311575</v>
       </c>
       <c r="D50" t="n">
-        <v>0.252526</v>
+        <v>0.238107</v>
       </c>
     </row>
     <row r="51">
@@ -11744,13 +11744,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.477845</v>
+        <v>0.443423</v>
       </c>
       <c r="C51" t="n">
-        <v>0.341776</v>
+        <v>0.321882</v>
       </c>
       <c r="D51" t="n">
-        <v>0.253075</v>
+        <v>0.242398</v>
       </c>
     </row>
     <row r="52">
@@ -11758,13 +11758,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.511893</v>
+        <v>0.474568</v>
       </c>
       <c r="C52" t="n">
-        <v>0.364385</v>
+        <v>0.336182</v>
       </c>
       <c r="D52" t="n">
-        <v>0.272992</v>
+        <v>0.249463</v>
       </c>
     </row>
     <row r="53">
@@ -11772,13 +11772,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.5315530000000001</v>
+        <v>0.483419</v>
       </c>
       <c r="C53" t="n">
-        <v>0.384668</v>
+        <v>0.346073</v>
       </c>
       <c r="D53" t="n">
-        <v>0.272094</v>
+        <v>0.25866</v>
       </c>
     </row>
     <row r="54">
@@ -11786,13 +11786,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.559454</v>
+        <v>0.533262</v>
       </c>
       <c r="C54" t="n">
-        <v>0.398865</v>
+        <v>0.36923</v>
       </c>
       <c r="D54" t="n">
-        <v>0.287223</v>
+        <v>0.26206</v>
       </c>
     </row>
     <row r="55">
@@ -11800,13 +11800,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.599452</v>
+        <v>0.536976</v>
       </c>
       <c r="C55" t="n">
-        <v>0.409451</v>
+        <v>0.387904</v>
       </c>
       <c r="D55" t="n">
-        <v>0.288851</v>
+        <v>0.280007</v>
       </c>
     </row>
     <row r="56">
@@ -11814,13 +11814,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5581199999999999</v>
+        <v>0.460527</v>
       </c>
       <c r="C56" t="n">
-        <v>0.450794</v>
+        <v>0.398112</v>
       </c>
       <c r="D56" t="n">
-        <v>0.297163</v>
+        <v>0.279675</v>
       </c>
     </row>
     <row r="57">
@@ -11828,13 +11828,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.568343</v>
+        <v>0.514826</v>
       </c>
       <c r="C57" t="n">
-        <v>0.454875</v>
+        <v>0.42908</v>
       </c>
       <c r="D57" t="n">
-        <v>0.316519</v>
+        <v>0.292992</v>
       </c>
     </row>
     <row r="58">
@@ -11842,13 +11842,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.586852</v>
+        <v>0.516822</v>
       </c>
       <c r="C58" t="n">
-        <v>0.492399</v>
+        <v>0.457132</v>
       </c>
       <c r="D58" t="n">
-        <v>0.317678</v>
+        <v>0.304407</v>
       </c>
     </row>
     <row r="59">
@@ -11856,13 +11856,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.633983</v>
+        <v>0.524598</v>
       </c>
       <c r="C59" t="n">
-        <v>0.518479</v>
+        <v>0.469596</v>
       </c>
       <c r="D59" t="n">
-        <v>0.345135</v>
+        <v>0.321036</v>
       </c>
     </row>
     <row r="60">
@@ -11870,13 +11870,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.668574</v>
+        <v>0.54351</v>
       </c>
       <c r="C60" t="n">
-        <v>0.547135</v>
+        <v>0.511789</v>
       </c>
       <c r="D60" t="n">
-        <v>0.351748</v>
+        <v>0.337566</v>
       </c>
     </row>
     <row r="61">
@@ -11884,13 +11884,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.681908</v>
+        <v>0.597588</v>
       </c>
       <c r="C61" t="n">
-        <v>0.603649</v>
+        <v>0.539343</v>
       </c>
       <c r="D61" t="n">
-        <v>0.372344</v>
+        <v>0.345662</v>
       </c>
     </row>
     <row r="62">
@@ -11898,13 +11898,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.6892779999999999</v>
+        <v>0.6062149999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>0.622927</v>
+        <v>0.568906</v>
       </c>
       <c r="D62" t="n">
-        <v>0.384518</v>
+        <v>0.35647</v>
       </c>
     </row>
     <row r="63">
@@ -11912,13 +11912,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.75784</v>
+        <v>0.631488</v>
       </c>
       <c r="C63" t="n">
-        <v>0.682014</v>
+        <v>0.615537</v>
       </c>
       <c r="D63" t="n">
-        <v>0.416049</v>
+        <v>0.403701</v>
       </c>
     </row>
     <row r="64">
@@ -11926,13 +11926,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.788432</v>
+        <v>0.668789</v>
       </c>
       <c r="C64" t="n">
-        <v>0.553554</v>
+        <v>0.483349</v>
       </c>
       <c r="D64" t="n">
-        <v>0.38301</v>
+        <v>0.356249</v>
       </c>
     </row>
     <row r="65">
@@ -11940,13 +11940,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.851668</v>
+        <v>0.708587</v>
       </c>
       <c r="C65" t="n">
-        <v>0.602714</v>
+        <v>0.492251</v>
       </c>
       <c r="D65" t="n">
-        <v>0.394626</v>
+        <v>0.356832</v>
       </c>
     </row>
     <row r="66">
@@ -11954,13 +11954,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.871308</v>
+        <v>0.764968</v>
       </c>
       <c r="C66" t="n">
-        <v>0.619164</v>
+        <v>0.5375180000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>0.412984</v>
+        <v>0.378589</v>
       </c>
     </row>
     <row r="67">
@@ -11968,13 +11968,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.914744</v>
+        <v>0.816066</v>
       </c>
       <c r="C67" t="n">
-        <v>0.643578</v>
+        <v>0.556813</v>
       </c>
       <c r="D67" t="n">
-        <v>0.434321</v>
+        <v>0.389093</v>
       </c>
     </row>
     <row r="68">
@@ -11982,13 +11982,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.982284</v>
+        <v>0.822516</v>
       </c>
       <c r="C68" t="n">
-        <v>0.704894</v>
+        <v>0.579005</v>
       </c>
       <c r="D68" t="n">
-        <v>0.461577</v>
+        <v>0.399846</v>
       </c>
     </row>
     <row r="69">
@@ -11996,13 +11996,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.01178</v>
+        <v>0.869757</v>
       </c>
       <c r="C69" t="n">
-        <v>0.736748</v>
+        <v>0.610425</v>
       </c>
       <c r="D69" t="n">
-        <v>0.491522</v>
+        <v>0.417034</v>
       </c>
     </row>
     <row r="70">
@@ -12010,13 +12010,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.794527</v>
+        <v>0.759907</v>
       </c>
       <c r="C70" t="n">
-        <v>0.75513</v>
+        <v>0.670658</v>
       </c>
       <c r="D70" t="n">
-        <v>0.496427</v>
+        <v>0.436217</v>
       </c>
     </row>
     <row r="71">
@@ -12024,13 +12024,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.8573190000000001</v>
+        <v>0.743682</v>
       </c>
       <c r="C71" t="n">
-        <v>0.793385</v>
+        <v>0.696796</v>
       </c>
       <c r="D71" t="n">
-        <v>0.515505</v>
+        <v>0.460355</v>
       </c>
     </row>
     <row r="72">
@@ -12038,13 +12038,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.8829939999999999</v>
+        <v>0.773279</v>
       </c>
       <c r="C72" t="n">
-        <v>0.823156</v>
+        <v>0.73767</v>
       </c>
       <c r="D72" t="n">
-        <v>0.552894</v>
+        <v>0.493985</v>
       </c>
     </row>
     <row r="73">
@@ -12052,13 +12052,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.916553</v>
+        <v>0.864661</v>
       </c>
       <c r="C73" t="n">
-        <v>0.863548</v>
+        <v>0.8210229999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>0.58345</v>
+        <v>0.513728</v>
       </c>
     </row>
     <row r="74">
@@ -12066,13 +12066,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.9227030000000001</v>
+        <v>0.845377</v>
       </c>
       <c r="C74" t="n">
-        <v>0.892869</v>
+        <v>0.811738</v>
       </c>
       <c r="D74" t="n">
-        <v>0.570113</v>
+        <v>0.524515</v>
       </c>
     </row>
     <row r="75">
@@ -12080,13 +12080,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.9633930000000001</v>
+        <v>0.914882</v>
       </c>
       <c r="C75" t="n">
-        <v>0.928584</v>
+        <v>0.962199</v>
       </c>
       <c r="D75" t="n">
-        <v>0.603707</v>
+        <v>0.540947</v>
       </c>
     </row>
     <row r="76">
@@ -12094,13 +12094,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.993653</v>
+        <v>0.911726</v>
       </c>
       <c r="C76" t="n">
-        <v>0.995663</v>
+        <v>0.966561</v>
       </c>
       <c r="D76" t="n">
-        <v>0.6286580000000001</v>
+        <v>0.639952</v>
       </c>
     </row>
     <row r="77">
@@ -12108,13 +12108,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.06684</v>
+        <v>0.946868</v>
       </c>
       <c r="C77" t="n">
-        <v>1.06355</v>
+        <v>1.03032</v>
       </c>
       <c r="D77" t="n">
-        <v>0.675475</v>
+        <v>0.602398</v>
       </c>
     </row>
     <row r="78">
@@ -12122,13 +12122,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.10193</v>
+        <v>0.980229</v>
       </c>
       <c r="C78" t="n">
-        <v>0.825392</v>
+        <v>0.755605</v>
       </c>
       <c r="D78" t="n">
-        <v>0.611567</v>
+        <v>0.608455</v>
       </c>
     </row>
     <row r="79">
@@ -12136,13 +12136,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.16327</v>
+        <v>1.06759</v>
       </c>
       <c r="C79" t="n">
-        <v>0.873991</v>
+        <v>0.762687</v>
       </c>
       <c r="D79" t="n">
-        <v>0.634816</v>
+        <v>0.598587</v>
       </c>
     </row>
     <row r="80">
@@ -12150,13 +12150,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.1561</v>
+        <v>1.1067</v>
       </c>
       <c r="C80" t="n">
-        <v>0.892509</v>
+        <v>0.8684809999999999</v>
       </c>
       <c r="D80" t="n">
-        <v>0.679463</v>
+        <v>0.648127</v>
       </c>
     </row>
     <row r="81">
@@ -12164,13 +12164,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.21288</v>
+        <v>1.13929</v>
       </c>
       <c r="C81" t="n">
-        <v>0.919368</v>
+        <v>0.912235</v>
       </c>
       <c r="D81" t="n">
-        <v>0.71841</v>
+        <v>0.65893</v>
       </c>
     </row>
     <row r="82">
@@ -12178,13 +12178,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.25655</v>
+        <v>1.19787</v>
       </c>
       <c r="C82" t="n">
-        <v>0.921311</v>
+        <v>0.91889</v>
       </c>
       <c r="D82" t="n">
-        <v>0.707656</v>
+        <v>0.6795949999999999</v>
       </c>
     </row>
     <row r="83">
@@ -12192,13 +12192,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.26573</v>
+        <v>1.23214</v>
       </c>
       <c r="C83" t="n">
-        <v>0.991022</v>
+        <v>0.919169</v>
       </c>
       <c r="D83" t="n">
-        <v>0.719369</v>
+        <v>0.699607</v>
       </c>
     </row>
     <row r="84">
@@ -12206,13 +12206,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.975166</v>
+        <v>0.949458</v>
       </c>
       <c r="C84" t="n">
-        <v>1.00752</v>
+        <v>0.9719179999999999</v>
       </c>
       <c r="D84" t="n">
-        <v>0.7446970000000001</v>
+        <v>0.720185</v>
       </c>
     </row>
     <row r="85">
@@ -12220,13 +12220,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.993931</v>
+        <v>0.968602</v>
       </c>
       <c r="C85" t="n">
-        <v>1.0628</v>
+        <v>1.00863</v>
       </c>
       <c r="D85" t="n">
-        <v>0.800852</v>
+        <v>0.750865</v>
       </c>
     </row>
     <row r="86">
@@ -12234,13 +12234,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.03801</v>
+        <v>0.987735</v>
       </c>
       <c r="C86" t="n">
-        <v>1.11085</v>
+        <v>1.0448</v>
       </c>
       <c r="D86" t="n">
-        <v>0.7800280000000001</v>
+        <v>0.779214</v>
       </c>
     </row>
     <row r="87">
@@ -12248,13 +12248,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.06246</v>
+        <v>1.03473</v>
       </c>
       <c r="C87" t="n">
-        <v>1.1384</v>
+        <v>1.08045</v>
       </c>
       <c r="D87" t="n">
-        <v>0.825084</v>
+        <v>0.775216</v>
       </c>
     </row>
     <row r="88">
@@ -12262,13 +12262,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.11674</v>
+        <v>1.04963</v>
       </c>
       <c r="C88" t="n">
-        <v>1.17559</v>
+        <v>1.132</v>
       </c>
       <c r="D88" t="n">
-        <v>0.856096</v>
+        <v>0.771252</v>
       </c>
     </row>
     <row r="89">
@@ -12276,13 +12276,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.13265</v>
+        <v>1.10024</v>
       </c>
       <c r="C89" t="n">
-        <v>1.22116</v>
+        <v>1.16848</v>
       </c>
       <c r="D89" t="n">
-        <v>0.890921</v>
+        <v>0.843589</v>
       </c>
     </row>
     <row r="90">
@@ -12290,13 +12290,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.16203</v>
+        <v>1.11217</v>
       </c>
       <c r="C90" t="n">
-        <v>1.25986</v>
+        <v>1.20687</v>
       </c>
       <c r="D90" t="n">
-        <v>0.905907</v>
+        <v>0.903022</v>
       </c>
     </row>
     <row r="91">
@@ -12304,13 +12304,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.18548</v>
+        <v>1.16328</v>
       </c>
       <c r="C91" t="n">
-        <v>1.32005</v>
+        <v>1.31993</v>
       </c>
       <c r="D91" t="n">
-        <v>0.934323</v>
+        <v>0.9072440000000001</v>
       </c>
     </row>
     <row r="92">
@@ -12318,13 +12318,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.24149</v>
+        <v>1.18181</v>
       </c>
       <c r="C92" t="n">
-        <v>0.979981</v>
+        <v>0.950599</v>
       </c>
       <c r="D92" t="n">
-        <v>0.822767</v>
+        <v>0.773162</v>
       </c>
     </row>
     <row r="93">
@@ -12332,13 +12332,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.25231</v>
+        <v>1.26124</v>
       </c>
       <c r="C93" t="n">
-        <v>1.00633</v>
+        <v>0.959279</v>
       </c>
       <c r="D93" t="n">
-        <v>0.831799</v>
+        <v>0.793133</v>
       </c>
     </row>
     <row r="94">
@@ -12346,13 +12346,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.34185</v>
+        <v>1.26278</v>
       </c>
       <c r="C94" t="n">
-        <v>1.03925</v>
+        <v>0.997929</v>
       </c>
       <c r="D94" t="n">
-        <v>0.845258</v>
+        <v>0.810369</v>
       </c>
     </row>
     <row r="95">
@@ -12360,13 +12360,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.34236</v>
+        <v>1.31072</v>
       </c>
       <c r="C95" t="n">
-        <v>1.05496</v>
+        <v>1.02868</v>
       </c>
       <c r="D95" t="n">
-        <v>0.8689210000000001</v>
+        <v>0.843351</v>
       </c>
     </row>
     <row r="96">
@@ -12374,13 +12374,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.40939</v>
+        <v>1.33796</v>
       </c>
       <c r="C96" t="n">
-        <v>1.09171</v>
+        <v>1.0606</v>
       </c>
       <c r="D96" t="n">
-        <v>0.898747</v>
+        <v>0.841525</v>
       </c>
     </row>
     <row r="97">
@@ -12388,13 +12388,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.45085</v>
+        <v>1.37253</v>
       </c>
       <c r="C97" t="n">
-        <v>1.14831</v>
+        <v>1.08307</v>
       </c>
       <c r="D97" t="n">
-        <v>0.908836</v>
+        <v>0.879157</v>
       </c>
     </row>
     <row r="98">
@@ -12402,13 +12402,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.08539</v>
+        <v>1.06185</v>
       </c>
       <c r="C98" t="n">
-        <v>1.1841</v>
+        <v>1.18786</v>
       </c>
       <c r="D98" t="n">
-        <v>0.954391</v>
+        <v>0.91851</v>
       </c>
     </row>
     <row r="99">
@@ -12416,13 +12416,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.11966</v>
+        <v>1.05355</v>
       </c>
       <c r="C99" t="n">
-        <v>1.20676</v>
+        <v>1.14601</v>
       </c>
       <c r="D99" t="n">
-        <v>0.9816049999999999</v>
+        <v>0.92012</v>
       </c>
     </row>
     <row r="100">
@@ -12430,13 +12430,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.14388</v>
+        <v>1.08835</v>
       </c>
       <c r="C100" t="n">
-        <v>1.2584</v>
+        <v>1.188</v>
       </c>
       <c r="D100" t="n">
-        <v>0.993142</v>
+        <v>0.950188</v>
       </c>
     </row>
     <row r="101">
@@ -12444,13 +12444,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.1598</v>
+        <v>1.10922</v>
       </c>
       <c r="C101" t="n">
-        <v>1.29278</v>
+        <v>1.22177</v>
       </c>
       <c r="D101" t="n">
-        <v>1.04393</v>
+        <v>0.976281</v>
       </c>
     </row>
     <row r="102">
@@ -12458,13 +12458,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.19112</v>
+        <v>1.13798</v>
       </c>
       <c r="C102" t="n">
-        <v>1.30601</v>
+        <v>1.26638</v>
       </c>
       <c r="D102" t="n">
-        <v>1.04977</v>
+        <v>0.978131</v>
       </c>
     </row>
     <row r="103">
@@ -12472,13 +12472,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.24477</v>
+        <v>1.19405</v>
       </c>
       <c r="C103" t="n">
-        <v>1.39434</v>
+        <v>1.30809</v>
       </c>
       <c r="D103" t="n">
-        <v>1.05618</v>
+        <v>1.02999</v>
       </c>
     </row>
     <row r="104">
@@ -12486,13 +12486,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.24737</v>
+        <v>1.22633</v>
       </c>
       <c r="C104" t="n">
-        <v>1.41851</v>
+        <v>1.35265</v>
       </c>
       <c r="D104" t="n">
-        <v>1.08453</v>
+        <v>1.05481</v>
       </c>
     </row>
     <row r="105">
@@ -12500,13 +12500,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.28675</v>
+        <v>1.27233</v>
       </c>
       <c r="C105" t="n">
-        <v>1.48956</v>
+        <v>1.39908</v>
       </c>
       <c r="D105" t="n">
-        <v>1.14256</v>
+        <v>1.08658</v>
       </c>
     </row>
     <row r="106">
@@ -12514,13 +12514,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.39536</v>
+        <v>1.28457</v>
       </c>
       <c r="C106" t="n">
-        <v>1.53399</v>
+        <v>1.43818</v>
       </c>
       <c r="D106" t="n">
-        <v>1.181</v>
+        <v>1.11198</v>
       </c>
     </row>
     <row r="107">
@@ -12528,13 +12528,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.39112</v>
+        <v>1.35802</v>
       </c>
       <c r="C107" t="n">
-        <v>1.11483</v>
+        <v>1.07264</v>
       </c>
       <c r="D107" t="n">
-        <v>0.929926</v>
+        <v>0.91065</v>
       </c>
     </row>
     <row r="108">
@@ -12542,13 +12542,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.43484</v>
+        <v>1.37639</v>
       </c>
       <c r="C108" t="n">
-        <v>1.14558</v>
+        <v>1.10084</v>
       </c>
       <c r="D108" t="n">
-        <v>0.954832</v>
+        <v>0.933956</v>
       </c>
     </row>
     <row r="109">
@@ -12556,13 +12556,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.43635</v>
+        <v>1.42836</v>
       </c>
       <c r="C109" t="n">
-        <v>1.17951</v>
+        <v>1.12928</v>
       </c>
       <c r="D109" t="n">
-        <v>0.995438</v>
+        <v>0.962969</v>
       </c>
     </row>
     <row r="110">
@@ -12570,13 +12570,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.48849</v>
+        <v>1.5079</v>
       </c>
       <c r="C110" t="n">
-        <v>1.21527</v>
+        <v>1.16231</v>
       </c>
       <c r="D110" t="n">
-        <v>1.00282</v>
+        <v>0.988887</v>
       </c>
     </row>
     <row r="111">
@@ -12584,13 +12584,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.51462</v>
+        <v>1.50783</v>
       </c>
       <c r="C111" t="n">
-        <v>1.23482</v>
+        <v>1.20458</v>
       </c>
       <c r="D111" t="n">
-        <v>1.05381</v>
+        <v>1.0242</v>
       </c>
     </row>
     <row r="112">
@@ -12598,13 +12598,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.22504</v>
+        <v>1.16693</v>
       </c>
       <c r="C112" t="n">
-        <v>1.30124</v>
+        <v>1.25466</v>
       </c>
       <c r="D112" t="n">
-        <v>1.06234</v>
+        <v>1.04503</v>
       </c>
     </row>
     <row r="113">
@@ -12612,13 +12612,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.21885</v>
+        <v>1.17916</v>
       </c>
       <c r="C113" t="n">
-        <v>1.33145</v>
+        <v>1.26193</v>
       </c>
       <c r="D113" t="n">
-        <v>1.09105</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="114">
@@ -12626,13 +12626,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.21168</v>
+        <v>1.22404</v>
       </c>
       <c r="C114" t="n">
-        <v>1.3831</v>
+        <v>1.32811</v>
       </c>
       <c r="D114" t="n">
-        <v>1.12755</v>
+        <v>1.07227</v>
       </c>
     </row>
     <row r="115">
@@ -12640,13 +12640,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.26223</v>
+        <v>1.26435</v>
       </c>
       <c r="C115" t="n">
-        <v>1.41082</v>
+        <v>1.30862</v>
       </c>
       <c r="D115" t="n">
-        <v>1.13041</v>
+        <v>1.12937</v>
       </c>
     </row>
     <row r="116">
@@ -12654,13 +12654,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.31129</v>
+        <v>1.31534</v>
       </c>
       <c r="C116" t="n">
-        <v>1.42843</v>
+        <v>1.37367</v>
       </c>
       <c r="D116" t="n">
-        <v>1.16511</v>
+        <v>1.13668</v>
       </c>
     </row>
     <row r="117">
@@ -12668,13 +12668,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.33944</v>
+        <v>1.28601</v>
       </c>
       <c r="C117" t="n">
-        <v>1.49836</v>
+        <v>1.45774</v>
       </c>
       <c r="D117" t="n">
-        <v>1.19049</v>
+        <v>1.16142</v>
       </c>
     </row>
     <row r="118">
@@ -12682,13 +12682,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.36644</v>
+        <v>1.36049</v>
       </c>
       <c r="C118" t="n">
-        <v>1.53822</v>
+        <v>1.52065</v>
       </c>
       <c r="D118" t="n">
-        <v>1.26872</v>
+        <v>1.22203</v>
       </c>
     </row>
     <row r="119">
@@ -12696,13 +12696,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.40155</v>
+        <v>1.31681</v>
       </c>
       <c r="C119" t="n">
-        <v>1.61299</v>
+        <v>1.60067</v>
       </c>
       <c r="D119" t="n">
-        <v>1.27736</v>
+        <v>1.25828</v>
       </c>
     </row>
   </sheetData>
@@ -12750,13 +12750,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.556064</v>
+        <v>0.544405</v>
       </c>
       <c r="C2" t="n">
-        <v>0.432151</v>
+        <v>0.416666</v>
       </c>
       <c r="D2" t="n">
-        <v>0.239516</v>
+        <v>0.234917</v>
       </c>
     </row>
     <row r="3">
@@ -12764,13 +12764,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.364879</v>
+        <v>0.369421</v>
       </c>
       <c r="C3" t="n">
-        <v>0.460457</v>
+        <v>0.443376</v>
       </c>
       <c r="D3" t="n">
-        <v>0.256445</v>
+        <v>0.243005</v>
       </c>
     </row>
     <row r="4">
@@ -12778,13 +12778,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.390713</v>
+        <v>0.368977</v>
       </c>
       <c r="C4" t="n">
-        <v>0.489776</v>
+        <v>0.47991</v>
       </c>
       <c r="D4" t="n">
-        <v>0.258786</v>
+        <v>0.249072</v>
       </c>
     </row>
     <row r="5">
@@ -12792,13 +12792,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.41</v>
+        <v>0.38987</v>
       </c>
       <c r="C5" t="n">
-        <v>0.50013</v>
+        <v>0.486571</v>
       </c>
       <c r="D5" t="n">
-        <v>0.261984</v>
+        <v>0.257287</v>
       </c>
     </row>
     <row r="6">
@@ -12806,13 +12806,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.423203</v>
+        <v>0.418753</v>
       </c>
       <c r="C6" t="n">
-        <v>0.528523</v>
+        <v>0.51063</v>
       </c>
       <c r="D6" t="n">
-        <v>0.274043</v>
+        <v>0.267122</v>
       </c>
     </row>
     <row r="7">
@@ -12820,13 +12820,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.444019</v>
+        <v>0.43406</v>
       </c>
       <c r="C7" t="n">
-        <v>0.549148</v>
+        <v>0.53621</v>
       </c>
       <c r="D7" t="n">
-        <v>0.292593</v>
+        <v>0.273686</v>
       </c>
     </row>
     <row r="8">
@@ -12834,13 +12834,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.463553</v>
+        <v>0.45374</v>
       </c>
       <c r="C8" t="n">
-        <v>0.594767</v>
+        <v>0.551458</v>
       </c>
       <c r="D8" t="n">
-        <v>0.293053</v>
+        <v>0.283425</v>
       </c>
     </row>
     <row r="9">
@@ -12848,13 +12848,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.50639</v>
+        <v>0.470064</v>
       </c>
       <c r="C9" t="n">
-        <v>0.601399</v>
+        <v>0.587741</v>
       </c>
       <c r="D9" t="n">
-        <v>0.325998</v>
+        <v>0.293291</v>
       </c>
     </row>
     <row r="10">
@@ -12862,13 +12862,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.513481</v>
+        <v>0.504823</v>
       </c>
       <c r="C10" t="n">
-        <v>0.632275</v>
+        <v>0.610256</v>
       </c>
       <c r="D10" t="n">
-        <v>0.322873</v>
+        <v>0.310165</v>
       </c>
     </row>
     <row r="11">
@@ -12876,13 +12876,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.562742</v>
+        <v>0.530093</v>
       </c>
       <c r="C11" t="n">
-        <v>0.421531</v>
+        <v>0.400705</v>
       </c>
       <c r="D11" t="n">
-        <v>0.250555</v>
+        <v>0.231371</v>
       </c>
     </row>
     <row r="12">
@@ -12890,13 +12890,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5661659999999999</v>
+        <v>0.5556489999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.432689</v>
+        <v>0.414728</v>
       </c>
       <c r="D12" t="n">
-        <v>0.248451</v>
+        <v>0.237268</v>
       </c>
     </row>
     <row r="13">
@@ -12904,13 +12904,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.606672</v>
+        <v>0.579565</v>
       </c>
       <c r="C13" t="n">
-        <v>0.465882</v>
+        <v>0.428079</v>
       </c>
       <c r="D13" t="n">
-        <v>0.258274</v>
+        <v>0.248033</v>
       </c>
     </row>
     <row r="14">
@@ -12918,13 +12918,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.620049</v>
+        <v>0.613488</v>
       </c>
       <c r="C14" t="n">
-        <v>0.465078</v>
+        <v>0.47408</v>
       </c>
       <c r="D14" t="n">
-        <v>0.265659</v>
+        <v>0.254717</v>
       </c>
     </row>
     <row r="15">
@@ -12932,13 +12932,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6673289999999999</v>
+        <v>0.639083</v>
       </c>
       <c r="C15" t="n">
-        <v>0.488832</v>
+        <v>0.488119</v>
       </c>
       <c r="D15" t="n">
-        <v>0.270834</v>
+        <v>0.265856</v>
       </c>
     </row>
     <row r="16">
@@ -12946,13 +12946,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.754374</v>
+        <v>0.668125</v>
       </c>
       <c r="C16" t="n">
-        <v>0.526647</v>
+        <v>0.492845</v>
       </c>
       <c r="D16" t="n">
-        <v>0.286093</v>
+        <v>0.274485</v>
       </c>
     </row>
     <row r="17">
@@ -12960,13 +12960,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.439859</v>
+        <v>0.425547</v>
       </c>
       <c r="C17" t="n">
-        <v>0.552013</v>
+        <v>0.517198</v>
       </c>
       <c r="D17" t="n">
-        <v>0.296502</v>
+        <v>0.285691</v>
       </c>
     </row>
     <row r="18">
@@ -12974,13 +12974,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.466712</v>
+        <v>0.44041</v>
       </c>
       <c r="C18" t="n">
-        <v>0.578721</v>
+        <v>0.548431</v>
       </c>
       <c r="D18" t="n">
-        <v>0.309348</v>
+        <v>0.296978</v>
       </c>
     </row>
     <row r="19">
@@ -12988,13 +12988,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.478237</v>
+        <v>0.461286</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6104889999999999</v>
+        <v>0.573655</v>
       </c>
       <c r="D19" t="n">
-        <v>0.323167</v>
+        <v>0.30576</v>
       </c>
     </row>
     <row r="20">
@@ -13002,13 +13002,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.49445</v>
+        <v>0.484193</v>
       </c>
       <c r="C20" t="n">
-        <v>0.619184</v>
+        <v>0.593202</v>
       </c>
       <c r="D20" t="n">
-        <v>0.331634</v>
+        <v>0.316858</v>
       </c>
     </row>
     <row r="21">
@@ -13016,13 +13016,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5077660000000001</v>
+        <v>0.503194</v>
       </c>
       <c r="C21" t="n">
-        <v>0.640118</v>
+        <v>0.6170330000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>0.347114</v>
+        <v>0.33151</v>
       </c>
     </row>
     <row r="22">
@@ -13030,13 +13030,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.570064</v>
+        <v>0.536313</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6588540000000001</v>
+        <v>0.642624</v>
       </c>
       <c r="D22" t="n">
-        <v>0.356467</v>
+        <v>0.343944</v>
       </c>
     </row>
     <row r="23">
@@ -13044,13 +13044,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5704669999999999</v>
+        <v>0.544512</v>
       </c>
       <c r="C23" t="n">
-        <v>0.710748</v>
+        <v>0.6828070000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>0.367821</v>
+        <v>0.351801</v>
       </c>
     </row>
     <row r="24">
@@ -13058,13 +13058,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.596519</v>
+        <v>0.588261</v>
       </c>
       <c r="C24" t="n">
-        <v>0.721759</v>
+        <v>0.712607</v>
       </c>
       <c r="D24" t="n">
-        <v>0.398781</v>
+        <v>0.36658</v>
       </c>
     </row>
     <row r="25">
@@ -13072,13 +13072,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.643104</v>
+        <v>0.596838</v>
       </c>
       <c r="C25" t="n">
-        <v>0.793933</v>
+        <v>0.751574</v>
       </c>
       <c r="D25" t="n">
-        <v>0.398342</v>
+        <v>0.380574</v>
       </c>
     </row>
     <row r="26">
@@ -13086,13 +13086,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.663173</v>
+        <v>0.62507</v>
       </c>
       <c r="C26" t="n">
-        <v>0.479258</v>
+        <v>0.456337</v>
       </c>
       <c r="D26" t="n">
-        <v>0.278174</v>
+        <v>0.267731</v>
       </c>
     </row>
     <row r="27">
@@ -13100,13 +13100,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.711481</v>
+        <v>0.65174</v>
       </c>
       <c r="C27" t="n">
-        <v>0.492964</v>
+        <v>0.474391</v>
       </c>
       <c r="D27" t="n">
-        <v>0.29526</v>
+        <v>0.281201</v>
       </c>
     </row>
     <row r="28">
@@ -13114,13 +13114,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.722572</v>
+        <v>0.67502</v>
       </c>
       <c r="C28" t="n">
-        <v>0.516037</v>
+        <v>0.498057</v>
       </c>
       <c r="D28" t="n">
-        <v>0.300193</v>
+        <v>0.289849</v>
       </c>
     </row>
     <row r="29">
@@ -13128,13 +13128,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.743945</v>
+        <v>0.703944</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5626719999999999</v>
+        <v>0.526427</v>
       </c>
       <c r="D29" t="n">
-        <v>0.316394</v>
+        <v>0.298922</v>
       </c>
     </row>
     <row r="30">
@@ -13142,13 +13142,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.833281</v>
+        <v>0.77224</v>
       </c>
       <c r="C30" t="n">
-        <v>0.611976</v>
+        <v>0.553132</v>
       </c>
       <c r="D30" t="n">
-        <v>0.328424</v>
+        <v>0.318454</v>
       </c>
     </row>
     <row r="31">
@@ -13156,13 +13156,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.857063</v>
+        <v>0.834519</v>
       </c>
       <c r="C31" t="n">
-        <v>0.611797</v>
+        <v>0.606511</v>
       </c>
       <c r="D31" t="n">
-        <v>0.342994</v>
+        <v>0.330243</v>
       </c>
     </row>
     <row r="32">
@@ -13170,13 +13170,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.520972</v>
+        <v>0.529022</v>
       </c>
       <c r="C32" t="n">
-        <v>0.670912</v>
+        <v>0.610972</v>
       </c>
       <c r="D32" t="n">
-        <v>0.376582</v>
+        <v>0.348765</v>
       </c>
     </row>
     <row r="33">
@@ -13184,13 +13184,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.560132</v>
+        <v>0.547945</v>
       </c>
       <c r="C33" t="n">
-        <v>0.69003</v>
+        <v>0.637281</v>
       </c>
       <c r="D33" t="n">
-        <v>0.364543</v>
+        <v>0.358363</v>
       </c>
     </row>
     <row r="34">
@@ -13198,13 +13198,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5784049999999999</v>
+        <v>0.584625</v>
       </c>
       <c r="C34" t="n">
-        <v>0.749645</v>
+        <v>0.669892</v>
       </c>
       <c r="D34" t="n">
-        <v>0.382555</v>
+        <v>0.374255</v>
       </c>
     </row>
     <row r="35">
@@ -13212,13 +13212,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.593946</v>
+        <v>0.592552</v>
       </c>
       <c r="C35" t="n">
-        <v>0.733918</v>
+        <v>0.733307</v>
       </c>
       <c r="D35" t="n">
-        <v>0.397929</v>
+        <v>0.370351</v>
       </c>
     </row>
     <row r="36">
@@ -13226,13 +13226,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.653478</v>
+        <v>0.630893</v>
       </c>
       <c r="C36" t="n">
-        <v>0.759219</v>
+        <v>0.747993</v>
       </c>
       <c r="D36" t="n">
-        <v>0.431628</v>
+        <v>0.395857</v>
       </c>
     </row>
     <row r="37">
@@ -13240,13 +13240,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.688242</v>
+        <v>0.669825</v>
       </c>
       <c r="C37" t="n">
-        <v>0.854908</v>
+        <v>0.796547</v>
       </c>
       <c r="D37" t="n">
-        <v>0.437827</v>
+        <v>0.42582</v>
       </c>
     </row>
     <row r="38">
@@ -13254,13 +13254,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.748027</v>
+        <v>0.715087</v>
       </c>
       <c r="C38" t="n">
-        <v>0.864057</v>
+        <v>0.847864</v>
       </c>
       <c r="D38" t="n">
-        <v>0.444893</v>
+        <v>0.431481</v>
       </c>
     </row>
     <row r="39">
@@ -13268,13 +13268,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.789228</v>
+        <v>0.745271</v>
       </c>
       <c r="C39" t="n">
-        <v>0.8930439999999999</v>
+        <v>0.8685659999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>0.490346</v>
+        <v>0.452464</v>
       </c>
     </row>
     <row r="40">
@@ -13282,13 +13282,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.856046</v>
+        <v>0.807435</v>
       </c>
       <c r="C40" t="n">
-        <v>0.583598</v>
+        <v>0.556938</v>
       </c>
       <c r="D40" t="n">
-        <v>0.355293</v>
+        <v>0.340841</v>
       </c>
     </row>
     <row r="41">
@@ -13296,13 +13296,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.909987</v>
+        <v>0.842397</v>
       </c>
       <c r="C41" t="n">
-        <v>0.617718</v>
+        <v>0.5935240000000001</v>
       </c>
       <c r="D41" t="n">
-        <v>0.357559</v>
+        <v>0.354861</v>
       </c>
     </row>
     <row r="42">
@@ -13310,13 +13310,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.92693</v>
+        <v>0.8825499999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>0.657498</v>
+        <v>0.6166740000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>0.385579</v>
+        <v>0.380165</v>
       </c>
     </row>
     <row r="43">
@@ -13324,13 +13324,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9743889999999999</v>
+        <v>0.9531500000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>0.712619</v>
+        <v>0.671468</v>
       </c>
       <c r="D43" t="n">
-        <v>0.412849</v>
+        <v>0.386557</v>
       </c>
     </row>
     <row r="44">
@@ -13338,13 +13338,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>1.03069</v>
+        <v>0.988306</v>
       </c>
       <c r="C44" t="n">
-        <v>0.756179</v>
+        <v>0.710506</v>
       </c>
       <c r="D44" t="n">
-        <v>0.43752</v>
+        <v>0.403428</v>
       </c>
     </row>
     <row r="45">
@@ -13352,13 +13352,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>1.14271</v>
+        <v>1.07305</v>
       </c>
       <c r="C45" t="n">
-        <v>0.790517</v>
+        <v>0.747234</v>
       </c>
       <c r="D45" t="n">
-        <v>0.450944</v>
+        <v>0.43399</v>
       </c>
     </row>
     <row r="46">
@@ -13366,13 +13366,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.70466</v>
+        <v>0.674058</v>
       </c>
       <c r="C46" t="n">
-        <v>0.87175</v>
+        <v>0.823404</v>
       </c>
       <c r="D46" t="n">
-        <v>0.482695</v>
+        <v>0.460086</v>
       </c>
     </row>
     <row r="47">
@@ -13380,13 +13380,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.7530019999999999</v>
+        <v>0.718348</v>
       </c>
       <c r="C47" t="n">
-        <v>0.918005</v>
+        <v>0.867866</v>
       </c>
       <c r="D47" t="n">
-        <v>0.502816</v>
+        <v>0.47381</v>
       </c>
     </row>
     <row r="48">
@@ -13394,13 +13394,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.823719</v>
+        <v>0.754937</v>
       </c>
       <c r="C48" t="n">
-        <v>0.971162</v>
+        <v>0.933459</v>
       </c>
       <c r="D48" t="n">
-        <v>0.575529</v>
+        <v>0.506487</v>
       </c>
     </row>
     <row r="49">
@@ -13408,13 +13408,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.866413</v>
+        <v>0.806209</v>
       </c>
       <c r="C49" t="n">
-        <v>1.0741</v>
+        <v>0.993347</v>
       </c>
       <c r="D49" t="n">
-        <v>0.560571</v>
+        <v>0.536226</v>
       </c>
     </row>
     <row r="50">
@@ -13422,13 +13422,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.944613</v>
+        <v>0.848595</v>
       </c>
       <c r="C50" t="n">
-        <v>1.11942</v>
+        <v>1.05136</v>
       </c>
       <c r="D50" t="n">
-        <v>0.611766</v>
+        <v>0.5735749999999999</v>
       </c>
     </row>
     <row r="51">
@@ -13436,13 +13436,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.995108</v>
+        <v>0.903647</v>
       </c>
       <c r="C51" t="n">
-        <v>1.20472</v>
+        <v>1.11224</v>
       </c>
       <c r="D51" t="n">
-        <v>0.645788</v>
+        <v>0.59132</v>
       </c>
     </row>
     <row r="52">
@@ -13450,13 +13450,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.07766</v>
+        <v>0.970209</v>
       </c>
       <c r="C52" t="n">
-        <v>1.30597</v>
+        <v>1.19348</v>
       </c>
       <c r="D52" t="n">
-        <v>0.687948</v>
+        <v>0.6594410000000001</v>
       </c>
     </row>
     <row r="53">
@@ -13464,13 +13464,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.14067</v>
+        <v>1.06459</v>
       </c>
       <c r="C53" t="n">
-        <v>1.40675</v>
+        <v>1.27628</v>
       </c>
       <c r="D53" t="n">
-        <v>0.738861</v>
+        <v>0.667968</v>
       </c>
     </row>
     <row r="54">
@@ -13478,13 +13478,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.18777</v>
+        <v>1.10557</v>
       </c>
       <c r="C54" t="n">
-        <v>0.849127</v>
+        <v>0.80564</v>
       </c>
       <c r="D54" t="n">
-        <v>0.494939</v>
+        <v>0.474405</v>
       </c>
     </row>
     <row r="55">
@@ -13492,13 +13492,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.24475</v>
+        <v>1.17186</v>
       </c>
       <c r="C55" t="n">
-        <v>0.9083560000000001</v>
+        <v>0.84611</v>
       </c>
       <c r="D55" t="n">
-        <v>0.520808</v>
+        <v>0.492327</v>
       </c>
     </row>
     <row r="56">
@@ -13506,13 +13506,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.3303</v>
+        <v>1.25994</v>
       </c>
       <c r="C56" t="n">
-        <v>0.974947</v>
+        <v>0.901491</v>
       </c>
       <c r="D56" t="n">
-        <v>0.545234</v>
+        <v>0.5145690000000001</v>
       </c>
     </row>
     <row r="57">
@@ -13520,13 +13520,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.46802</v>
+        <v>1.32245</v>
       </c>
       <c r="C57" t="n">
-        <v>1.06399</v>
+        <v>0.960446</v>
       </c>
       <c r="D57" t="n">
-        <v>0.581907</v>
+        <v>0.538821</v>
       </c>
     </row>
     <row r="58">
@@ -13534,13 +13534,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.57939</v>
+        <v>1.42345</v>
       </c>
       <c r="C58" t="n">
-        <v>1.1051</v>
+        <v>1.04111</v>
       </c>
       <c r="D58" t="n">
-        <v>0.610108</v>
+        <v>0.5801809999999999</v>
       </c>
     </row>
     <row r="59">
@@ -13548,13 +13548,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.72818</v>
+        <v>1.52645</v>
       </c>
       <c r="C59" t="n">
-        <v>1.22831</v>
+        <v>1.11986</v>
       </c>
       <c r="D59" t="n">
-        <v>0.660529</v>
+        <v>0.610523</v>
       </c>
     </row>
     <row r="60">
@@ -13562,13 +13562,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.1057</v>
+        <v>1.01479</v>
       </c>
       <c r="C60" t="n">
-        <v>1.33341</v>
+        <v>1.22628</v>
       </c>
       <c r="D60" t="n">
-        <v>0.703396</v>
+        <v>0.651369</v>
       </c>
     </row>
     <row r="61">
@@ -13576,13 +13576,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.18139</v>
+        <v>1.11312</v>
       </c>
       <c r="C61" t="n">
-        <v>1.43503</v>
+        <v>1.34268</v>
       </c>
       <c r="D61" t="n">
-        <v>0.735764</v>
+        <v>0.6965</v>
       </c>
     </row>
     <row r="62">
@@ -13590,13 +13590,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.3518</v>
+        <v>1.215</v>
       </c>
       <c r="C62" t="n">
-        <v>1.6513</v>
+        <v>1.43822</v>
       </c>
       <c r="D62" t="n">
-        <v>0.802211</v>
+        <v>0.71807</v>
       </c>
     </row>
     <row r="63">
@@ -13604,13 +13604,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.47295</v>
+        <v>1.31091</v>
       </c>
       <c r="C63" t="n">
-        <v>1.78277</v>
+        <v>1.53445</v>
       </c>
       <c r="D63" t="n">
-        <v>0.8705270000000001</v>
+        <v>0.765389</v>
       </c>
     </row>
     <row r="64">
@@ -13618,13 +13618,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.5589</v>
+        <v>1.38337</v>
       </c>
       <c r="C64" t="n">
-        <v>1.92033</v>
+        <v>1.67318</v>
       </c>
       <c r="D64" t="n">
-        <v>0.870821</v>
+        <v>0.8115599999999999</v>
       </c>
     </row>
     <row r="65">
@@ -13632,13 +13632,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.71785</v>
+        <v>1.49146</v>
       </c>
       <c r="C65" t="n">
-        <v>2.15552</v>
+        <v>1.89019</v>
       </c>
       <c r="D65" t="n">
-        <v>0.94843</v>
+        <v>0.86575</v>
       </c>
     </row>
     <row r="66">
@@ -13646,13 +13646,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.84267</v>
+        <v>1.70712</v>
       </c>
       <c r="C66" t="n">
-        <v>2.32946</v>
+        <v>2.02013</v>
       </c>
       <c r="D66" t="n">
-        <v>1.03363</v>
+        <v>0.938732</v>
       </c>
     </row>
     <row r="67">
@@ -13660,13 +13660,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>2.00942</v>
+        <v>1.82024</v>
       </c>
       <c r="C67" t="n">
-        <v>2.56025</v>
+        <v>2.21853</v>
       </c>
       <c r="D67" t="n">
-        <v>1.06505</v>
+        <v>1.00298</v>
       </c>
     </row>
     <row r="68">
@@ -13674,13 +13674,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>2.22671</v>
+        <v>1.94215</v>
       </c>
       <c r="C68" t="n">
-        <v>1.51735</v>
+        <v>1.32291</v>
       </c>
       <c r="D68" t="n">
-        <v>0.7521870000000001</v>
+        <v>0.68808</v>
       </c>
     </row>
     <row r="69">
@@ -13688,13 +13688,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>2.45162</v>
+        <v>2.1687</v>
       </c>
       <c r="C69" t="n">
-        <v>1.65374</v>
+        <v>1.51451</v>
       </c>
       <c r="D69" t="n">
-        <v>0.801285</v>
+        <v>0.717909</v>
       </c>
     </row>
     <row r="70">
@@ -13702,13 +13702,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>2.62168</v>
+        <v>2.33224</v>
       </c>
       <c r="C70" t="n">
-        <v>1.79687</v>
+        <v>1.5954</v>
       </c>
       <c r="D70" t="n">
-        <v>0.884077</v>
+        <v>0.773832</v>
       </c>
     </row>
     <row r="71">
@@ -13716,13 +13716,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>2.85135</v>
+        <v>2.57966</v>
       </c>
       <c r="C71" t="n">
-        <v>1.95807</v>
+        <v>1.75767</v>
       </c>
       <c r="D71" t="n">
-        <v>0.926202</v>
+        <v>0.839044</v>
       </c>
     </row>
     <row r="72">
@@ -13730,13 +13730,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>3.0753</v>
+        <v>2.70527</v>
       </c>
       <c r="C72" t="n">
-        <v>2.09943</v>
+        <v>1.89708</v>
       </c>
       <c r="D72" t="n">
-        <v>0.994174</v>
+        <v>0.914767</v>
       </c>
     </row>
     <row r="73">
@@ -13744,13 +13744,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>3.2616</v>
+        <v>2.88999</v>
       </c>
       <c r="C73" t="n">
-        <v>2.24247</v>
+        <v>2.03672</v>
       </c>
       <c r="D73" t="n">
-        <v>1.04489</v>
+        <v>0.9712460000000001</v>
       </c>
     </row>
     <row r="74">
@@ -13758,13 +13758,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>2.04459</v>
+        <v>1.83688</v>
       </c>
       <c r="C74" t="n">
-        <v>2.45206</v>
+        <v>2.25044</v>
       </c>
       <c r="D74" t="n">
-        <v>1.13301</v>
+        <v>1.08151</v>
       </c>
     </row>
     <row r="75">
@@ -13772,13 +13772,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>2.15816</v>
+        <v>1.96647</v>
       </c>
       <c r="C75" t="n">
-        <v>2.63296</v>
+        <v>2.39044</v>
       </c>
       <c r="D75" t="n">
-        <v>1.17349</v>
+        <v>1.07357</v>
       </c>
     </row>
     <row r="76">
@@ -13786,13 +13786,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>2.37029</v>
+        <v>2.07894</v>
       </c>
       <c r="C76" t="n">
-        <v>2.81885</v>
+        <v>2.56715</v>
       </c>
       <c r="D76" t="n">
-        <v>1.24796</v>
+        <v>1.14357</v>
       </c>
     </row>
     <row r="77">
@@ -13800,13 +13800,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>2.47169</v>
+        <v>2.2154</v>
       </c>
       <c r="C77" t="n">
-        <v>3.05039</v>
+        <v>2.74541</v>
       </c>
       <c r="D77" t="n">
-        <v>1.35322</v>
+        <v>1.2286</v>
       </c>
     </row>
     <row r="78">
@@ -13814,13 +13814,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>2.58615</v>
+        <v>2.38628</v>
       </c>
       <c r="C78" t="n">
-        <v>3.35306</v>
+        <v>2.97581</v>
       </c>
       <c r="D78" t="n">
-        <v>1.42899</v>
+        <v>1.35891</v>
       </c>
     </row>
     <row r="79">
@@ -13828,13 +13828,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>2.77624</v>
+        <v>2.57123</v>
       </c>
       <c r="C79" t="n">
-        <v>3.56086</v>
+        <v>3.1958</v>
       </c>
       <c r="D79" t="n">
-        <v>1.55975</v>
+        <v>1.43876</v>
       </c>
     </row>
     <row r="80">
@@ -13842,13 +13842,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>2.90656</v>
+        <v>2.66624</v>
       </c>
       <c r="C80" t="n">
-        <v>3.7778</v>
+        <v>3.36266</v>
       </c>
       <c r="D80" t="n">
-        <v>1.64176</v>
+        <v>1.49587</v>
       </c>
     </row>
     <row r="81">
@@ -13856,13 +13856,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>3.08763</v>
+        <v>2.86436</v>
       </c>
       <c r="C81" t="n">
-        <v>4.03541</v>
+        <v>3.71862</v>
       </c>
       <c r="D81" t="n">
-        <v>1.75809</v>
+        <v>1.63175</v>
       </c>
     </row>
     <row r="82">
@@ -13870,13 +13870,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>3.2529</v>
+        <v>3.01314</v>
       </c>
       <c r="C82" t="n">
-        <v>4.19384</v>
+        <v>3.82324</v>
       </c>
       <c r="D82" t="n">
-        <v>1.84614</v>
+        <v>1.71191</v>
       </c>
     </row>
     <row r="83">
@@ -13884,13 +13884,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>3.56557</v>
+        <v>3.28445</v>
       </c>
       <c r="C83" t="n">
-        <v>2.4753</v>
+        <v>2.25107</v>
       </c>
       <c r="D83" t="n">
-        <v>1.27022</v>
+        <v>1.16635</v>
       </c>
     </row>
     <row r="84">
@@ -13898,13 +13898,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>3.8008</v>
+        <v>3.46688</v>
       </c>
       <c r="C84" t="n">
-        <v>2.58459</v>
+        <v>2.36772</v>
       </c>
       <c r="D84" t="n">
-        <v>1.32165</v>
+        <v>1.22067</v>
       </c>
     </row>
     <row r="85">
@@ -13912,13 +13912,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>3.89588</v>
+        <v>3.55443</v>
       </c>
       <c r="C85" t="n">
-        <v>2.70303</v>
+        <v>2.51155</v>
       </c>
       <c r="D85" t="n">
-        <v>1.37974</v>
+        <v>1.28669</v>
       </c>
     </row>
     <row r="86">
@@ -13926,13 +13926,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>4.11949</v>
+        <v>3.75544</v>
       </c>
       <c r="C86" t="n">
-        <v>2.93147</v>
+        <v>2.6685</v>
       </c>
       <c r="D86" t="n">
-        <v>1.44246</v>
+        <v>1.36787</v>
       </c>
     </row>
     <row r="87">
@@ -13940,13 +13940,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>4.32607</v>
+        <v>3.98001</v>
       </c>
       <c r="C87" t="n">
-        <v>3.10344</v>
+        <v>2.81468</v>
       </c>
       <c r="D87" t="n">
-        <v>1.56308</v>
+        <v>1.4297</v>
       </c>
     </row>
     <row r="88">
@@ -13954,13 +13954,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>4.50698</v>
+        <v>4.56905</v>
       </c>
       <c r="C88" t="n">
-        <v>3.24833</v>
+        <v>2.99611</v>
       </c>
       <c r="D88" t="n">
-        <v>1.65807</v>
+        <v>1.51224</v>
       </c>
     </row>
     <row r="89">
@@ -13968,13 +13968,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.7344</v>
+        <v>2.48401</v>
       </c>
       <c r="C89" t="n">
-        <v>3.41864</v>
+        <v>3.16318</v>
       </c>
       <c r="D89" t="n">
-        <v>1.67905</v>
+        <v>1.5924</v>
       </c>
     </row>
     <row r="90">
@@ -13982,13 +13982,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.82358</v>
+        <v>2.60334</v>
       </c>
       <c r="C90" t="n">
-        <v>3.58831</v>
+        <v>3.39552</v>
       </c>
       <c r="D90" t="n">
-        <v>1.8293</v>
+        <v>1.68593</v>
       </c>
     </row>
     <row r="91">
@@ -13996,13 +13996,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.95018</v>
+        <v>2.74027</v>
       </c>
       <c r="C91" t="n">
-        <v>3.89086</v>
+        <v>3.54446</v>
       </c>
       <c r="D91" t="n">
-        <v>1.85755</v>
+        <v>1.7486</v>
       </c>
     </row>
     <row r="92">
@@ -14010,13 +14010,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>3.00892</v>
+        <v>2.91934</v>
       </c>
       <c r="C92" t="n">
-        <v>4.03127</v>
+        <v>3.88977</v>
       </c>
       <c r="D92" t="n">
-        <v>1.95384</v>
+        <v>1.89655</v>
       </c>
     </row>
     <row r="93">
@@ -14024,13 +14024,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>3.30506</v>
+        <v>3.02843</v>
       </c>
       <c r="C93" t="n">
-        <v>4.29181</v>
+        <v>3.94902</v>
       </c>
       <c r="D93" t="n">
-        <v>2.06273</v>
+        <v>1.89039</v>
       </c>
     </row>
     <row r="94">
@@ -14038,13 +14038,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>3.39327</v>
+        <v>3.17318</v>
       </c>
       <c r="C94" t="n">
-        <v>4.52979</v>
+        <v>4.19749</v>
       </c>
       <c r="D94" t="n">
-        <v>2.17726</v>
+        <v>2.0443</v>
       </c>
     </row>
     <row r="95">
@@ -14052,13 +14052,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.61679</v>
+        <v>3.36443</v>
       </c>
       <c r="C95" t="n">
-        <v>4.69073</v>
+        <v>4.41412</v>
       </c>
       <c r="D95" t="n">
-        <v>2.26688</v>
+        <v>2.13933</v>
       </c>
     </row>
     <row r="96">
@@ -14066,13 +14066,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.865</v>
+        <v>3.52923</v>
       </c>
       <c r="C96" t="n">
-        <v>4.98646</v>
+        <v>4.73379</v>
       </c>
       <c r="D96" t="n">
-        <v>2.37275</v>
+        <v>2.39947</v>
       </c>
     </row>
     <row r="97">
@@ -14080,13 +14080,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.98852</v>
+        <v>3.70419</v>
       </c>
       <c r="C97" t="n">
-        <v>2.87944</v>
+        <v>2.68736</v>
       </c>
       <c r="D97" t="n">
-        <v>1.64591</v>
+        <v>1.45992</v>
       </c>
     </row>
     <row r="98">
@@ -14094,13 +14094,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>4.16771</v>
+        <v>3.90278</v>
       </c>
       <c r="C98" t="n">
-        <v>3.04187</v>
+        <v>2.81327</v>
       </c>
       <c r="D98" t="n">
-        <v>1.66002</v>
+        <v>1.50901</v>
       </c>
     </row>
     <row r="99">
@@ -14108,13 +14108,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>4.38931</v>
+        <v>4.10763</v>
       </c>
       <c r="C99" t="n">
-        <v>3.17174</v>
+        <v>2.94042</v>
       </c>
       <c r="D99" t="n">
-        <v>1.74094</v>
+        <v>1.62792</v>
       </c>
     </row>
     <row r="100">
@@ -14122,13 +14122,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>4.65937</v>
+        <v>4.36513</v>
       </c>
       <c r="C100" t="n">
-        <v>3.34689</v>
+        <v>3.1072</v>
       </c>
       <c r="D100" t="n">
-        <v>1.82315</v>
+        <v>1.71644</v>
       </c>
     </row>
     <row r="101">
@@ -14136,13 +14136,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>4.84023</v>
+        <v>4.56584</v>
       </c>
       <c r="C101" t="n">
-        <v>3.42274</v>
+        <v>3.26271</v>
       </c>
       <c r="D101" t="n">
-        <v>1.93492</v>
+        <v>1.74522</v>
       </c>
     </row>
     <row r="102">
@@ -14150,13 +14150,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>5.09744</v>
+        <v>4.80265</v>
       </c>
       <c r="C102" t="n">
-        <v>3.62728</v>
+        <v>3.49286</v>
       </c>
       <c r="D102" t="n">
-        <v>1.95939</v>
+        <v>1.90258</v>
       </c>
     </row>
     <row r="103">
@@ -14164,13 +14164,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.91974</v>
+        <v>2.79581</v>
       </c>
       <c r="C103" t="n">
-        <v>3.8943</v>
+        <v>3.7106</v>
       </c>
       <c r="D103" t="n">
-        <v>2.10939</v>
+        <v>1.98365</v>
       </c>
     </row>
     <row r="104">
@@ -14178,13 +14178,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.1403</v>
+        <v>2.94402</v>
       </c>
       <c r="C104" t="n">
-        <v>3.97937</v>
+        <v>3.87151</v>
       </c>
       <c r="D104" t="n">
-        <v>2.14951</v>
+        <v>1.97558</v>
       </c>
     </row>
     <row r="105">
@@ -14192,13 +14192,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>3.2217</v>
+        <v>3.07734</v>
       </c>
       <c r="C105" t="n">
-        <v>4.28696</v>
+        <v>4.08015</v>
       </c>
       <c r="D105" t="n">
-        <v>2.23556</v>
+        <v>2.08729</v>
       </c>
     </row>
     <row r="106">
@@ -14206,13 +14206,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.35806</v>
+        <v>3.28977</v>
       </c>
       <c r="C106" t="n">
-        <v>4.42968</v>
+        <v>4.28107</v>
       </c>
       <c r="D106" t="n">
-        <v>2.3273</v>
+        <v>2.18181</v>
       </c>
     </row>
     <row r="107">
@@ -14220,13 +14220,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.55633</v>
+        <v>3.36142</v>
       </c>
       <c r="C107" t="n">
-        <v>4.76873</v>
+        <v>4.47377</v>
       </c>
       <c r="D107" t="n">
-        <v>2.44778</v>
+        <v>2.34075</v>
       </c>
     </row>
     <row r="108">
@@ -14234,13 +14234,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.7441</v>
+        <v>3.56135</v>
       </c>
       <c r="C108" t="n">
-        <v>4.99281</v>
+        <v>4.71317</v>
       </c>
       <c r="D108" t="n">
-        <v>2.51489</v>
+        <v>2.51051</v>
       </c>
     </row>
     <row r="109">
@@ -14248,13 +14248,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.95807</v>
+        <v>3.7098</v>
       </c>
       <c r="C109" t="n">
-        <v>5.26481</v>
+        <v>4.97186</v>
       </c>
       <c r="D109" t="n">
-        <v>2.60541</v>
+        <v>2.56579</v>
       </c>
     </row>
     <row r="110">
@@ -14262,13 +14262,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>4.10829</v>
+        <v>3.92406</v>
       </c>
       <c r="C110" t="n">
-        <v>5.50988</v>
+        <v>5.22993</v>
       </c>
       <c r="D110" t="n">
-        <v>2.76033</v>
+        <v>2.69538</v>
       </c>
     </row>
     <row r="111">
@@ -14276,13 +14276,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>4.30915</v>
+        <v>4.07144</v>
       </c>
       <c r="C111" t="n">
-        <v>3.03413</v>
+        <v>2.95054</v>
       </c>
       <c r="D111" t="n">
-        <v>1.9494</v>
+        <v>1.81511</v>
       </c>
     </row>
     <row r="112">
@@ -14290,13 +14290,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.53924</v>
+        <v>4.26958</v>
       </c>
       <c r="C112" t="n">
-        <v>3.22591</v>
+        <v>3.10793</v>
       </c>
       <c r="D112" t="n">
-        <v>1.99559</v>
+        <v>1.96549</v>
       </c>
     </row>
     <row r="113">
@@ -14304,13 +14304,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.70005</v>
+        <v>4.55207</v>
       </c>
       <c r="C113" t="n">
-        <v>3.39101</v>
+        <v>3.22857</v>
       </c>
       <c r="D113" t="n">
-        <v>2.04388</v>
+        <v>1.99236</v>
       </c>
     </row>
     <row r="114">
@@ -14318,13 +14318,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.96423</v>
+        <v>4.73264</v>
       </c>
       <c r="C114" t="n">
-        <v>3.58985</v>
+        <v>3.40933</v>
       </c>
       <c r="D114" t="n">
-        <v>2.13559</v>
+        <v>2.07791</v>
       </c>
     </row>
     <row r="115">
@@ -14332,13 +14332,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>5.23064</v>
+        <v>5.032</v>
       </c>
       <c r="C115" t="n">
-        <v>3.73369</v>
+        <v>3.57332</v>
       </c>
       <c r="D115" t="n">
-        <v>2.21551</v>
+        <v>2.16855</v>
       </c>
     </row>
     <row r="116">
@@ -14346,13 +14346,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>5.45434</v>
+        <v>5.27396</v>
       </c>
       <c r="C116" t="n">
-        <v>3.88796</v>
+        <v>3.75822</v>
       </c>
       <c r="D116" t="n">
-        <v>2.27719</v>
+        <v>2.2622</v>
       </c>
     </row>
     <row r="117">
@@ -14360,13 +14360,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>3.14596</v>
+        <v>3.06592</v>
       </c>
       <c r="C117" t="n">
-        <v>4.05914</v>
+        <v>3.97393</v>
       </c>
       <c r="D117" t="n">
-        <v>2.43853</v>
+        <v>2.35534</v>
       </c>
     </row>
     <row r="118">
@@ -14374,13 +14374,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>3.30775</v>
+        <v>3.2105</v>
       </c>
       <c r="C118" t="n">
-        <v>4.31461</v>
+        <v>4.20961</v>
       </c>
       <c r="D118" t="n">
-        <v>2.48948</v>
+        <v>2.46821</v>
       </c>
     </row>
     <row r="119">
@@ -14388,13 +14388,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>3.45692</v>
+        <v>3.40064</v>
       </c>
       <c r="C119" t="n">
-        <v>4.59651</v>
+        <v>4.45594</v>
       </c>
       <c r="D119" t="n">
-        <v>2.67208</v>
+        <v>2.4634</v>
       </c>
     </row>
   </sheetData>

--- a/vs/scattered unsuccessful looukp.xlsx
+++ b/vs/scattered unsuccessful looukp.xlsx
@@ -9366,13 +9366,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.219712</v>
+        <v>0.139146</v>
       </c>
       <c r="C2" t="n">
-        <v>0.211765</v>
+        <v>0.130402</v>
       </c>
       <c r="D2" t="n">
-        <v>0.227663</v>
+        <v>0.150186</v>
       </c>
     </row>
     <row r="3">
@@ -9380,13 +9380,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.229111</v>
+        <v>0.143283</v>
       </c>
       <c r="C3" t="n">
-        <v>0.213299</v>
+        <v>0.13389</v>
       </c>
       <c r="D3" t="n">
-        <v>0.229704</v>
+        <v>0.151454</v>
       </c>
     </row>
     <row r="4">
@@ -9394,13 +9394,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.233402</v>
+        <v>0.146159</v>
       </c>
       <c r="C4" t="n">
-        <v>0.216805</v>
+        <v>0.137305</v>
       </c>
       <c r="D4" t="n">
-        <v>0.237895</v>
+        <v>0.157207</v>
       </c>
     </row>
     <row r="5">
@@ -9408,13 +9408,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.232732</v>
+        <v>0.150289</v>
       </c>
       <c r="C5" t="n">
-        <v>0.220932</v>
+        <v>0.139449</v>
       </c>
       <c r="D5" t="n">
-        <v>0.242559</v>
+        <v>0.160441</v>
       </c>
     </row>
     <row r="6">
@@ -9422,13 +9422,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.236838</v>
+        <v>0.154296</v>
       </c>
       <c r="C6" t="n">
-        <v>0.226781</v>
+        <v>0.142822</v>
       </c>
       <c r="D6" t="n">
-        <v>0.250538</v>
+        <v>0.162083</v>
       </c>
     </row>
     <row r="7">
@@ -9436,13 +9436,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.243189</v>
+        <v>0.156618</v>
       </c>
       <c r="C7" t="n">
-        <v>0.186268</v>
+        <v>0.111707</v>
       </c>
       <c r="D7" t="n">
-        <v>0.207289</v>
+        <v>0.134381</v>
       </c>
     </row>
     <row r="8">
@@ -9450,13 +9450,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.245848</v>
+        <v>0.160434</v>
       </c>
       <c r="C8" t="n">
-        <v>0.190911</v>
+        <v>0.116232</v>
       </c>
       <c r="D8" t="n">
-        <v>0.217467</v>
+        <v>0.138997</v>
       </c>
     </row>
     <row r="9">
@@ -9464,13 +9464,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.246184</v>
+        <v>0.163204</v>
       </c>
       <c r="C9" t="n">
-        <v>0.195512</v>
+        <v>0.120114</v>
       </c>
       <c r="D9" t="n">
-        <v>0.218335</v>
+        <v>0.144877</v>
       </c>
     </row>
     <row r="10">
@@ -9478,13 +9478,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.251468</v>
+        <v>0.166419</v>
       </c>
       <c r="C10" t="n">
-        <v>0.200694</v>
+        <v>0.124909</v>
       </c>
       <c r="D10" t="n">
-        <v>0.225977</v>
+        <v>0.149413</v>
       </c>
     </row>
     <row r="11">
@@ -9492,13 +9492,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.252778</v>
+        <v>0.169092</v>
       </c>
       <c r="C11" t="n">
-        <v>0.20635</v>
+        <v>0.129291</v>
       </c>
       <c r="D11" t="n">
-        <v>0.235327</v>
+        <v>0.154525</v>
       </c>
     </row>
     <row r="12">
@@ -9506,13 +9506,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.257211</v>
+        <v>0.172642</v>
       </c>
       <c r="C12" t="n">
-        <v>0.211079</v>
+        <v>0.134419</v>
       </c>
       <c r="D12" t="n">
-        <v>0.239259</v>
+        <v>0.160601</v>
       </c>
     </row>
     <row r="13">
@@ -9520,13 +9520,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.21531</v>
+        <v>0.144933</v>
       </c>
       <c r="C13" t="n">
-        <v>0.217054</v>
+        <v>0.139053</v>
       </c>
       <c r="D13" t="n">
-        <v>0.248052</v>
+        <v>0.165637</v>
       </c>
     </row>
     <row r="14">
@@ -9534,13 +9534,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.221377</v>
+        <v>0.148206</v>
       </c>
       <c r="C14" t="n">
-        <v>0.22308</v>
+        <v>0.142629</v>
       </c>
       <c r="D14" t="n">
-        <v>0.252132</v>
+        <v>0.169839</v>
       </c>
     </row>
     <row r="15">
@@ -9548,13 +9548,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.224055</v>
+        <v>0.152462</v>
       </c>
       <c r="C15" t="n">
-        <v>0.227073</v>
+        <v>0.145707</v>
       </c>
       <c r="D15" t="n">
-        <v>0.260112</v>
+        <v>0.173911</v>
       </c>
     </row>
     <row r="16">
@@ -9562,13 +9562,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.230702</v>
+        <v>0.15657</v>
       </c>
       <c r="C16" t="n">
-        <v>0.232808</v>
+        <v>0.149817</v>
       </c>
       <c r="D16" t="n">
-        <v>0.270228</v>
+        <v>0.178154</v>
       </c>
     </row>
     <row r="17">
@@ -9576,13 +9576,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.233133</v>
+        <v>0.160545</v>
       </c>
       <c r="C17" t="n">
-        <v>0.238512</v>
+        <v>0.1543</v>
       </c>
       <c r="D17" t="n">
-        <v>0.275421</v>
+        <v>0.182988</v>
       </c>
     </row>
     <row r="18">
@@ -9590,13 +9590,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.237421</v>
+        <v>0.163671</v>
       </c>
       <c r="C18" t="n">
-        <v>0.250872</v>
+        <v>0.157156</v>
       </c>
       <c r="D18" t="n">
-        <v>0.279402</v>
+        <v>0.187208</v>
       </c>
     </row>
     <row r="19">
@@ -9604,13 +9604,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.241151</v>
+        <v>0.167528</v>
       </c>
       <c r="C19" t="n">
-        <v>0.246187</v>
+        <v>0.160746</v>
       </c>
       <c r="D19" t="n">
-        <v>0.295359</v>
+        <v>0.191576</v>
       </c>
     </row>
     <row r="20">
@@ -9618,13 +9618,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.248756</v>
+        <v>0.16998</v>
       </c>
       <c r="C20" t="n">
-        <v>0.251993</v>
+        <v>0.166037</v>
       </c>
       <c r="D20" t="n">
-        <v>0.288527</v>
+        <v>0.19693</v>
       </c>
     </row>
     <row r="21">
@@ -9632,13 +9632,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.24855</v>
+        <v>0.173173</v>
       </c>
       <c r="C21" t="n">
-        <v>0.197061</v>
+        <v>0.126111</v>
       </c>
       <c r="D21" t="n">
-        <v>0.230209</v>
+        <v>0.150705</v>
       </c>
     </row>
     <row r="22">
@@ -9646,13 +9646,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.275493</v>
+        <v>0.175681</v>
       </c>
       <c r="C22" t="n">
-        <v>0.204852</v>
+        <v>0.130251</v>
       </c>
       <c r="D22" t="n">
-        <v>0.232134</v>
+        <v>0.15667</v>
       </c>
     </row>
     <row r="23">
@@ -9660,13 +9660,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.259187</v>
+        <v>0.179273</v>
       </c>
       <c r="C23" t="n">
-        <v>0.212008</v>
+        <v>0.13398</v>
       </c>
       <c r="D23" t="n">
-        <v>0.239667</v>
+        <v>0.162104</v>
       </c>
     </row>
     <row r="24">
@@ -9674,13 +9674,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.262809</v>
+        <v>0.181492</v>
       </c>
       <c r="C24" t="n">
-        <v>0.213865</v>
+        <v>0.138049</v>
       </c>
       <c r="D24" t="n">
-        <v>0.244683</v>
+        <v>0.16588</v>
       </c>
     </row>
     <row r="25">
@@ -9688,13 +9688,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.269322</v>
+        <v>0.184122</v>
       </c>
       <c r="C25" t="n">
-        <v>0.217347</v>
+        <v>0.141888</v>
       </c>
       <c r="D25" t="n">
-        <v>0.248158</v>
+        <v>0.170645</v>
       </c>
     </row>
     <row r="26">
@@ -9702,13 +9702,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.270621</v>
+        <v>0.187034</v>
       </c>
       <c r="C26" t="n">
-        <v>0.226782</v>
+        <v>0.146275</v>
       </c>
       <c r="D26" t="n">
-        <v>0.257282</v>
+        <v>0.176119</v>
       </c>
     </row>
     <row r="27">
@@ -9716,13 +9716,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.235955</v>
+        <v>0.149549</v>
       </c>
       <c r="C27" t="n">
-        <v>0.250705</v>
+        <v>0.149729</v>
       </c>
       <c r="D27" t="n">
-        <v>0.267708</v>
+        <v>0.180786</v>
       </c>
     </row>
     <row r="28">
@@ -9730,13 +9730,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.25207</v>
+        <v>0.153556</v>
       </c>
       <c r="C28" t="n">
-        <v>0.238127</v>
+        <v>0.153433</v>
       </c>
       <c r="D28" t="n">
-        <v>0.284747</v>
+        <v>0.185385</v>
       </c>
     </row>
     <row r="29">
@@ -9744,13 +9744,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.249293</v>
+        <v>0.156704</v>
       </c>
       <c r="C29" t="n">
-        <v>0.25653</v>
+        <v>0.157291</v>
       </c>
       <c r="D29" t="n">
-        <v>0.279397</v>
+        <v>0.190415</v>
       </c>
     </row>
     <row r="30">
@@ -9758,13 +9758,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.258441</v>
+        <v>0.160646</v>
       </c>
       <c r="C30" t="n">
-        <v>0.249131</v>
+        <v>0.161212</v>
       </c>
       <c r="D30" t="n">
-        <v>0.293895</v>
+        <v>0.194491</v>
       </c>
     </row>
     <row r="31">
@@ -9772,13 +9772,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.270197</v>
+        <v>0.16562</v>
       </c>
       <c r="C31" t="n">
-        <v>0.277277</v>
+        <v>0.164906</v>
       </c>
       <c r="D31" t="n">
-        <v>0.300397</v>
+        <v>0.198953</v>
       </c>
     </row>
     <row r="32">
@@ -9786,13 +9786,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.280535</v>
+        <v>0.168973</v>
       </c>
       <c r="C32" t="n">
-        <v>0.266897</v>
+        <v>0.168549</v>
       </c>
       <c r="D32" t="n">
-        <v>0.312079</v>
+        <v>0.203881</v>
       </c>
     </row>
     <row r="33">
@@ -9800,13 +9800,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.281154</v>
+        <v>0.172543</v>
       </c>
       <c r="C33" t="n">
-        <v>0.278629</v>
+        <v>0.172384</v>
       </c>
       <c r="D33" t="n">
-        <v>0.339367</v>
+        <v>0.20808</v>
       </c>
     </row>
     <row r="34">
@@ -9814,13 +9814,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.291808</v>
+        <v>0.176858</v>
       </c>
       <c r="C34" t="n">
-        <v>0.283408</v>
+        <v>0.177115</v>
       </c>
       <c r="D34" t="n">
-        <v>0.333446</v>
+        <v>0.212815</v>
       </c>
     </row>
     <row r="35">
@@ -9828,13 +9828,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.309017</v>
+        <v>0.180054</v>
       </c>
       <c r="C35" t="n">
-        <v>0.228414</v>
+        <v>0.13272</v>
       </c>
       <c r="D35" t="n">
-        <v>0.271563</v>
+        <v>0.162699</v>
       </c>
     </row>
     <row r="36">
@@ -9842,13 +9842,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.311981</v>
+        <v>0.18139</v>
       </c>
       <c r="C36" t="n">
-        <v>0.24947</v>
+        <v>0.136316</v>
       </c>
       <c r="D36" t="n">
-        <v>0.274803</v>
+        <v>0.16745</v>
       </c>
     </row>
     <row r="37">
@@ -9856,13 +9856,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.322512</v>
+        <v>0.185298</v>
       </c>
       <c r="C37" t="n">
-        <v>0.257026</v>
+        <v>0.140044</v>
       </c>
       <c r="D37" t="n">
-        <v>0.284898</v>
+        <v>0.171567</v>
       </c>
     </row>
     <row r="38">
@@ -9870,13 +9870,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.328549</v>
+        <v>0.186499</v>
       </c>
       <c r="C38" t="n">
-        <v>0.254732</v>
+        <v>0.143866</v>
       </c>
       <c r="D38" t="n">
-        <v>0.310896</v>
+        <v>0.176997</v>
       </c>
     </row>
     <row r="39">
@@ -9884,13 +9884,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.339891</v>
+        <v>0.189201</v>
       </c>
       <c r="C39" t="n">
-        <v>0.259096</v>
+        <v>0.147807</v>
       </c>
       <c r="D39" t="n">
-        <v>0.309187</v>
+        <v>0.181172</v>
       </c>
     </row>
     <row r="40">
@@ -9898,13 +9898,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.363786</v>
+        <v>0.191883</v>
       </c>
       <c r="C40" t="n">
-        <v>0.270915</v>
+        <v>0.151557</v>
       </c>
       <c r="D40" t="n">
-        <v>0.320885</v>
+        <v>0.186415</v>
       </c>
     </row>
     <row r="41">
@@ -9912,13 +9912,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.315929</v>
+        <v>0.151538</v>
       </c>
       <c r="C41" t="n">
-        <v>0.2812</v>
+        <v>0.155968</v>
       </c>
       <c r="D41" t="n">
-        <v>0.337222</v>
+        <v>0.191302</v>
       </c>
     </row>
     <row r="42">
@@ -9926,13 +9926,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.330845</v>
+        <v>0.155416</v>
       </c>
       <c r="C42" t="n">
-        <v>0.295676</v>
+        <v>0.159257</v>
       </c>
       <c r="D42" t="n">
-        <v>0.343586</v>
+        <v>0.196046</v>
       </c>
     </row>
     <row r="43">
@@ -9940,13 +9940,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.335561</v>
+        <v>0.159497</v>
       </c>
       <c r="C43" t="n">
-        <v>0.301472</v>
+        <v>0.163152</v>
       </c>
       <c r="D43" t="n">
-        <v>0.368361</v>
+        <v>0.200299</v>
       </c>
     </row>
     <row r="44">
@@ -9954,13 +9954,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.358585</v>
+        <v>0.163503</v>
       </c>
       <c r="C44" t="n">
-        <v>0.317288</v>
+        <v>0.166906</v>
       </c>
       <c r="D44" t="n">
-        <v>0.386786</v>
+        <v>0.205188</v>
       </c>
     </row>
     <row r="45">
@@ -9968,13 +9968,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.363258</v>
+        <v>0.167353</v>
       </c>
       <c r="C45" t="n">
-        <v>0.327112</v>
+        <v>0.170416</v>
       </c>
       <c r="D45" t="n">
-        <v>0.389719</v>
+        <v>0.209604</v>
       </c>
     </row>
     <row r="46">
@@ -9982,13 +9982,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.392463</v>
+        <v>0.171935</v>
       </c>
       <c r="C46" t="n">
-        <v>0.339636</v>
+        <v>0.173811</v>
       </c>
       <c r="D46" t="n">
-        <v>0.409474</v>
+        <v>0.213914</v>
       </c>
     </row>
     <row r="47">
@@ -9996,13 +9996,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.390757</v>
+        <v>0.175441</v>
       </c>
       <c r="C47" t="n">
-        <v>0.356268</v>
+        <v>0.177345</v>
       </c>
       <c r="D47" t="n">
-        <v>0.423508</v>
+        <v>0.218098</v>
       </c>
     </row>
     <row r="48">
@@ -10010,13 +10010,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.400395</v>
+        <v>0.178664</v>
       </c>
       <c r="C48" t="n">
-        <v>0.368089</v>
+        <v>0.18129</v>
       </c>
       <c r="D48" t="n">
-        <v>0.43146</v>
+        <v>0.22309</v>
       </c>
     </row>
     <row r="49">
@@ -10024,13 +10024,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.422574</v>
+        <v>0.181972</v>
       </c>
       <c r="C49" t="n">
-        <v>0.379374</v>
+        <v>0.185261</v>
       </c>
       <c r="D49" t="n">
-        <v>0.452893</v>
+        <v>0.229558</v>
       </c>
     </row>
     <row r="50">
@@ -10038,13 +10038,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.444015</v>
+        <v>0.184506</v>
       </c>
       <c r="C50" t="n">
-        <v>0.310863</v>
+        <v>0.138005</v>
       </c>
       <c r="D50" t="n">
-        <v>0.3612</v>
+        <v>0.162438</v>
       </c>
     </row>
     <row r="51">
@@ -10052,13 +10052,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.447419</v>
+        <v>0.188892</v>
       </c>
       <c r="C51" t="n">
-        <v>0.321269</v>
+        <v>0.141799</v>
       </c>
       <c r="D51" t="n">
-        <v>0.389372</v>
+        <v>0.16774</v>
       </c>
     </row>
     <row r="52">
@@ -10066,13 +10066,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.468831</v>
+        <v>0.191181</v>
       </c>
       <c r="C52" t="n">
-        <v>0.33847</v>
+        <v>0.146261</v>
       </c>
       <c r="D52" t="n">
-        <v>0.397316</v>
+        <v>0.172697</v>
       </c>
     </row>
     <row r="53">
@@ -10080,13 +10080,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.496871</v>
+        <v>0.19368</v>
       </c>
       <c r="C53" t="n">
-        <v>0.362316</v>
+        <v>0.150006</v>
       </c>
       <c r="D53" t="n">
-        <v>0.410341</v>
+        <v>0.17783</v>
       </c>
     </row>
     <row r="54">
@@ -10094,13 +10094,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5094109999999999</v>
+        <v>0.19725</v>
       </c>
       <c r="C54" t="n">
-        <v>0.364032</v>
+        <v>0.153895</v>
       </c>
       <c r="D54" t="n">
-        <v>0.428311</v>
+        <v>0.183082</v>
       </c>
     </row>
     <row r="55">
@@ -10108,13 +10108,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.520644</v>
+        <v>0.199555</v>
       </c>
       <c r="C55" t="n">
-        <v>0.420437</v>
+        <v>0.158211</v>
       </c>
       <c r="D55" t="n">
-        <v>0.479408</v>
+        <v>0.188186</v>
       </c>
     </row>
     <row r="56">
@@ -10122,13 +10122,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.466037</v>
+        <v>0.15743</v>
       </c>
       <c r="C56" t="n">
-        <v>0.427345</v>
+        <v>0.162183</v>
       </c>
       <c r="D56" t="n">
-        <v>0.47908</v>
+        <v>0.193259</v>
       </c>
     </row>
     <row r="57">
@@ -10136,13 +10136,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.484311</v>
+        <v>0.162124</v>
       </c>
       <c r="C57" t="n">
-        <v>0.416067</v>
+        <v>0.165981</v>
       </c>
       <c r="D57" t="n">
-        <v>0.507448</v>
+        <v>0.198264</v>
       </c>
     </row>
     <row r="58">
@@ -10150,13 +10150,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.50667</v>
+        <v>0.16667</v>
       </c>
       <c r="C58" t="n">
-        <v>0.444017</v>
+        <v>0.170628</v>
       </c>
       <c r="D58" t="n">
-        <v>0.531105</v>
+        <v>0.202593</v>
       </c>
     </row>
     <row r="59">
@@ -10164,13 +10164,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.515408</v>
+        <v>0.171487</v>
       </c>
       <c r="C59" t="n">
-        <v>0.460708</v>
+        <v>0.174078</v>
       </c>
       <c r="D59" t="n">
-        <v>0.53653</v>
+        <v>0.20912</v>
       </c>
     </row>
     <row r="60">
@@ -10178,13 +10178,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.549594</v>
+        <v>0.175218</v>
       </c>
       <c r="C60" t="n">
-        <v>0.48231</v>
+        <v>0.177274</v>
       </c>
       <c r="D60" t="n">
-        <v>0.560215</v>
+        <v>0.213646</v>
       </c>
     </row>
     <row r="61">
@@ -10192,13 +10192,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.564221</v>
+        <v>0.179383</v>
       </c>
       <c r="C61" t="n">
-        <v>0.504556</v>
+        <v>0.180946</v>
       </c>
       <c r="D61" t="n">
-        <v>0.596021</v>
+        <v>0.218915</v>
       </c>
     </row>
     <row r="62">
@@ -10206,13 +10206,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.595061</v>
+        <v>0.183693</v>
       </c>
       <c r="C62" t="n">
-        <v>0.533493</v>
+        <v>0.185525</v>
       </c>
       <c r="D62" t="n">
-        <v>0.632182</v>
+        <v>0.224527</v>
       </c>
     </row>
     <row r="63">
@@ -10220,13 +10220,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.620151</v>
+        <v>0.188014</v>
       </c>
       <c r="C63" t="n">
-        <v>0.577675</v>
+        <v>0.190677</v>
       </c>
       <c r="D63" t="n">
-        <v>0.663977</v>
+        <v>0.231603</v>
       </c>
     </row>
     <row r="64">
@@ -10234,13 +10234,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.663903</v>
+        <v>0.192043</v>
       </c>
       <c r="C64" t="n">
-        <v>0.446253</v>
+        <v>0.142278</v>
       </c>
       <c r="D64" t="n">
-        <v>0.547126</v>
+        <v>0.168767</v>
       </c>
     </row>
     <row r="65">
@@ -10248,13 +10248,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.669029</v>
+        <v>0.196201</v>
       </c>
       <c r="C65" t="n">
-        <v>0.46986</v>
+        <v>0.147991</v>
       </c>
       <c r="D65" t="n">
-        <v>0.586738</v>
+        <v>0.175483</v>
       </c>
     </row>
     <row r="66">
@@ -10262,13 +10262,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.718797</v>
+        <v>0.200493</v>
       </c>
       <c r="C66" t="n">
-        <v>0.528778</v>
+        <v>0.152154</v>
       </c>
       <c r="D66" t="n">
-        <v>0.597039</v>
+        <v>0.18085</v>
       </c>
     </row>
     <row r="67">
@@ -10276,13 +10276,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.733588</v>
+        <v>0.204791</v>
       </c>
       <c r="C67" t="n">
-        <v>0.517756</v>
+        <v>0.157021</v>
       </c>
       <c r="D67" t="n">
-        <v>0.621737</v>
+        <v>0.187974</v>
       </c>
     </row>
     <row r="68">
@@ -10290,13 +10290,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.774289</v>
+        <v>0.208199</v>
       </c>
       <c r="C68" t="n">
-        <v>0.549668</v>
+        <v>0.161425</v>
       </c>
       <c r="D68" t="n">
-        <v>0.650348</v>
+        <v>0.19323</v>
       </c>
     </row>
     <row r="69">
@@ -10304,13 +10304,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.789249</v>
+        <v>0.213148</v>
       </c>
       <c r="C69" t="n">
-        <v>0.60083</v>
+        <v>0.166896</v>
       </c>
       <c r="D69" t="n">
-        <v>0.687017</v>
+        <v>0.200454</v>
       </c>
     </row>
     <row r="70">
@@ -10318,13 +10318,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.661702</v>
+        <v>0.19891</v>
       </c>
       <c r="C70" t="n">
-        <v>0.598932</v>
+        <v>0.171494</v>
       </c>
       <c r="D70" t="n">
-        <v>0.730662</v>
+        <v>0.207099</v>
       </c>
     </row>
     <row r="71">
@@ -10332,13 +10332,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.697124</v>
+        <v>0.224773</v>
       </c>
       <c r="C71" t="n">
-        <v>0.632135</v>
+        <v>0.176884</v>
       </c>
       <c r="D71" t="n">
-        <v>0.767537</v>
+        <v>0.214291</v>
       </c>
     </row>
     <row r="72">
@@ -10346,13 +10346,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.716848</v>
+        <v>0.237906</v>
       </c>
       <c r="C72" t="n">
-        <v>0.662776</v>
+        <v>0.183419</v>
       </c>
       <c r="D72" t="n">
-        <v>0.794319</v>
+        <v>0.222391</v>
       </c>
     </row>
     <row r="73">
@@ -10360,13 +10360,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.747258</v>
+        <v>0.258826</v>
       </c>
       <c r="C73" t="n">
-        <v>0.695796</v>
+        <v>0.188233</v>
       </c>
       <c r="D73" t="n">
-        <v>0.82568</v>
+        <v>0.230384</v>
       </c>
     </row>
     <row r="74">
@@ -10374,13 +10374,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.7870239999999999</v>
+        <v>0.274053</v>
       </c>
       <c r="C74" t="n">
-        <v>0.7541099999999999</v>
+        <v>0.19487</v>
       </c>
       <c r="D74" t="n">
-        <v>0.873214</v>
+        <v>0.239885</v>
       </c>
     </row>
     <row r="75">
@@ -10388,13 +10388,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.797892</v>
+        <v>0.2938</v>
       </c>
       <c r="C75" t="n">
-        <v>0.762699</v>
+        <v>0.205802</v>
       </c>
       <c r="D75" t="n">
-        <v>0.901047</v>
+        <v>0.25548</v>
       </c>
     </row>
     <row r="76">
@@ -10402,13 +10402,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.847068</v>
+        <v>0.316085</v>
       </c>
       <c r="C76" t="n">
-        <v>0.82291</v>
+        <v>0.212849</v>
       </c>
       <c r="D76" t="n">
-        <v>0.952561</v>
+        <v>0.263149</v>
       </c>
     </row>
     <row r="77">
@@ -10416,13 +10416,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.883308</v>
+        <v>0.338372</v>
       </c>
       <c r="C77" t="n">
-        <v>0.842992</v>
+        <v>0.232576</v>
       </c>
       <c r="D77" t="n">
-        <v>1.00271</v>
+        <v>0.285999</v>
       </c>
     </row>
     <row r="78">
@@ -10430,13 +10430,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.931179</v>
+        <v>0.354857</v>
       </c>
       <c r="C78" t="n">
-        <v>0.668251</v>
+        <v>0.200449</v>
       </c>
       <c r="D78" t="n">
-        <v>0.819341</v>
+        <v>0.250723</v>
       </c>
     </row>
     <row r="79">
@@ -10444,13 +10444,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.956998</v>
+        <v>0.376922</v>
       </c>
       <c r="C79" t="n">
-        <v>0.688418</v>
+        <v>0.212972</v>
       </c>
       <c r="D79" t="n">
-        <v>0.832768</v>
+        <v>0.265194</v>
       </c>
     </row>
     <row r="80">
@@ -10458,13 +10458,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.944272</v>
+        <v>0.402061</v>
       </c>
       <c r="C80" t="n">
-        <v>0.701664</v>
+        <v>0.232902</v>
       </c>
       <c r="D80" t="n">
-        <v>0.881389</v>
+        <v>0.289428</v>
       </c>
     </row>
     <row r="81">
@@ -10472,13 +10472,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.983469</v>
+        <v>0.428986</v>
       </c>
       <c r="C81" t="n">
-        <v>0.750407</v>
+        <v>0.250681</v>
       </c>
       <c r="D81" t="n">
-        <v>0.892023</v>
+        <v>0.314263</v>
       </c>
     </row>
     <row r="82">
@@ -10486,13 +10486,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.00403</v>
+        <v>0.450944</v>
       </c>
       <c r="C82" t="n">
-        <v>0.7640130000000001</v>
+        <v>0.268922</v>
       </c>
       <c r="D82" t="n">
-        <v>0.928137</v>
+        <v>0.334442</v>
       </c>
     </row>
     <row r="83">
@@ -10500,13 +10500,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.06068</v>
+        <v>0.473668</v>
       </c>
       <c r="C83" t="n">
-        <v>0.7940469999999999</v>
+        <v>0.287021</v>
       </c>
       <c r="D83" t="n">
-        <v>0.963342</v>
+        <v>0.355013</v>
       </c>
     </row>
     <row r="84">
@@ -10514,13 +10514,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.839192</v>
+        <v>0.463466</v>
       </c>
       <c r="C84" t="n">
-        <v>0.8229959999999999</v>
+        <v>0.307025</v>
       </c>
       <c r="D84" t="n">
-        <v>1.03686</v>
+        <v>0.379839</v>
       </c>
     </row>
     <row r="85">
@@ -10528,13 +10528,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.857611</v>
+        <v>0.478589</v>
       </c>
       <c r="C85" t="n">
-        <v>0.865266</v>
+        <v>0.324321</v>
       </c>
       <c r="D85" t="n">
-        <v>1.02572</v>
+        <v>0.406171</v>
       </c>
     </row>
     <row r="86">
@@ -10542,13 +10542,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.929732</v>
+        <v>0.495258</v>
       </c>
       <c r="C86" t="n">
-        <v>0.922076</v>
+        <v>0.342454</v>
       </c>
       <c r="D86" t="n">
-        <v>1.1085</v>
+        <v>0.4275</v>
       </c>
     </row>
     <row r="87">
@@ -10556,13 +10556,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.9442390000000001</v>
+        <v>0.511138</v>
       </c>
       <c r="C87" t="n">
-        <v>0.916139</v>
+        <v>0.364896</v>
       </c>
       <c r="D87" t="n">
-        <v>1.14522</v>
+        <v>0.451794</v>
       </c>
     </row>
     <row r="88">
@@ -10570,13 +10570,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.943793</v>
+        <v>0.526127</v>
       </c>
       <c r="C88" t="n">
-        <v>0.943913</v>
+        <v>0.38655</v>
       </c>
       <c r="D88" t="n">
-        <v>1.17956</v>
+        <v>0.475388</v>
       </c>
     </row>
     <row r="89">
@@ -10584,13 +10584,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.9829059999999999</v>
+        <v>0.543085</v>
       </c>
       <c r="C89" t="n">
-        <v>0.976428</v>
+        <v>0.406563</v>
       </c>
       <c r="D89" t="n">
-        <v>1.19007</v>
+        <v>0.500708</v>
       </c>
     </row>
     <row r="90">
@@ -10598,13 +10598,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.9871220000000001</v>
+        <v>0.559513</v>
       </c>
       <c r="C90" t="n">
-        <v>1.02002</v>
+        <v>0.430262</v>
       </c>
       <c r="D90" t="n">
-        <v>1.28588</v>
+        <v>0.526878</v>
       </c>
     </row>
     <row r="91">
@@ -10612,13 +10612,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.02126</v>
+        <v>0.575277</v>
       </c>
       <c r="C91" t="n">
-        <v>1.04881</v>
+        <v>0.453268</v>
       </c>
       <c r="D91" t="n">
-        <v>1.29955</v>
+        <v>0.553626</v>
       </c>
     </row>
     <row r="92">
@@ -10626,13 +10626,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.04942</v>
+        <v>0.595294</v>
       </c>
       <c r="C92" t="n">
-        <v>0.835071</v>
+        <v>0.377554</v>
       </c>
       <c r="D92" t="n">
-        <v>1.04915</v>
+        <v>0.490948</v>
       </c>
     </row>
     <row r="93">
@@ -10640,13 +10640,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.08958</v>
+        <v>0.61483</v>
       </c>
       <c r="C93" t="n">
-        <v>0.857231</v>
+        <v>0.389849</v>
       </c>
       <c r="D93" t="n">
-        <v>1.08544</v>
+        <v>0.50861</v>
       </c>
     </row>
     <row r="94">
@@ -10654,13 +10654,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.10508</v>
+        <v>0.632251</v>
       </c>
       <c r="C94" t="n">
-        <v>0.876986</v>
+        <v>0.404248</v>
       </c>
       <c r="D94" t="n">
-        <v>1.10791</v>
+        <v>0.529759</v>
       </c>
     </row>
     <row r="95">
@@ -10668,13 +10668,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.13836</v>
+        <v>0.648796</v>
       </c>
       <c r="C95" t="n">
-        <v>0.9093909999999999</v>
+        <v>0.417028</v>
       </c>
       <c r="D95" t="n">
-        <v>1.14704</v>
+        <v>0.547029</v>
       </c>
     </row>
     <row r="96">
@@ -10682,13 +10682,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.20213</v>
+        <v>0.6673</v>
       </c>
       <c r="C96" t="n">
-        <v>0.962105</v>
+        <v>0.43353</v>
       </c>
       <c r="D96" t="n">
-        <v>1.19931</v>
+        <v>0.570785</v>
       </c>
     </row>
     <row r="97">
@@ -10696,13 +10696,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.23466</v>
+        <v>0.691702</v>
       </c>
       <c r="C97" t="n">
-        <v>0.959475</v>
+        <v>0.448763</v>
       </c>
       <c r="D97" t="n">
-        <v>1.23032</v>
+        <v>0.592449</v>
       </c>
     </row>
     <row r="98">
@@ -10710,13 +10710,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.945688</v>
+        <v>0.584318</v>
       </c>
       <c r="C98" t="n">
-        <v>0.985378</v>
+        <v>0.465512</v>
       </c>
       <c r="D98" t="n">
-        <v>1.25822</v>
+        <v>0.6148709999999999</v>
       </c>
     </row>
     <row r="99">
@@ -10724,13 +10724,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.968913</v>
+        <v>0.597934</v>
       </c>
       <c r="C99" t="n">
-        <v>1.00757</v>
+        <v>0.483561</v>
       </c>
       <c r="D99" t="n">
-        <v>1.30926</v>
+        <v>0.637885</v>
       </c>
     </row>
     <row r="100">
@@ -10738,13 +10738,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.979581</v>
+        <v>0.609383</v>
       </c>
       <c r="C100" t="n">
-        <v>1.03288</v>
+        <v>0.500905</v>
       </c>
       <c r="D100" t="n">
-        <v>1.34214</v>
+        <v>0.6641089999999999</v>
       </c>
     </row>
     <row r="101">
@@ -10752,13 +10752,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.02128</v>
+        <v>0.627224</v>
       </c>
       <c r="C101" t="n">
-        <v>1.06717</v>
+        <v>0.520478</v>
       </c>
       <c r="D101" t="n">
-        <v>1.37667</v>
+        <v>0.687483</v>
       </c>
     </row>
     <row r="102">
@@ -10766,13 +10766,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.07822</v>
+        <v>0.644127</v>
       </c>
       <c r="C102" t="n">
-        <v>1.12202</v>
+        <v>0.537596</v>
       </c>
       <c r="D102" t="n">
-        <v>1.43567</v>
+        <v>0.712701</v>
       </c>
     </row>
     <row r="103">
@@ -10780,13 +10780,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.06382</v>
+        <v>0.654307</v>
       </c>
       <c r="C103" t="n">
-        <v>1.14209</v>
+        <v>0.558979</v>
       </c>
       <c r="D103" t="n">
-        <v>1.46613</v>
+        <v>0.739503</v>
       </c>
     </row>
     <row r="104">
@@ -10794,13 +10794,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.08056</v>
+        <v>0.673413</v>
       </c>
       <c r="C104" t="n">
-        <v>1.17681</v>
+        <v>0.583043</v>
       </c>
       <c r="D104" t="n">
-        <v>1.48587</v>
+        <v>0.765829</v>
       </c>
     </row>
     <row r="105">
@@ -10808,13 +10808,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.11801</v>
+        <v>0.6898</v>
       </c>
       <c r="C105" t="n">
-        <v>1.19866</v>
+        <v>0.606429</v>
       </c>
       <c r="D105" t="n">
-        <v>1.54667</v>
+        <v>0.794184</v>
       </c>
     </row>
     <row r="106">
@@ -10822,13 +10822,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.16911</v>
+        <v>0.707404</v>
       </c>
       <c r="C106" t="n">
-        <v>1.23907</v>
+        <v>0.632786</v>
       </c>
       <c r="D106" t="n">
-        <v>1.57242</v>
+        <v>0.8243509999999999</v>
       </c>
     </row>
     <row r="107">
@@ -10836,13 +10836,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.16465</v>
+        <v>0.724298</v>
       </c>
       <c r="C107" t="n">
-        <v>0.953178</v>
+        <v>0.484178</v>
       </c>
       <c r="D107" t="n">
-        <v>1.23741</v>
+        <v>0.697399</v>
       </c>
     </row>
     <row r="108">
@@ -10850,13 +10850,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.22291</v>
+        <v>0.744489</v>
       </c>
       <c r="C108" t="n">
-        <v>0.976519</v>
+        <v>0.498054</v>
       </c>
       <c r="D108" t="n">
-        <v>1.26631</v>
+        <v>0.717917</v>
       </c>
     </row>
     <row r="109">
@@ -10864,13 +10864,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.23105</v>
+        <v>0.7610980000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>0.993293</v>
+        <v>0.51081</v>
       </c>
       <c r="D109" t="n">
-        <v>1.27029</v>
+        <v>0.7363459999999999</v>
       </c>
     </row>
     <row r="110">
@@ -10878,13 +10878,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.23557</v>
+        <v>0.777291</v>
       </c>
       <c r="C110" t="n">
-        <v>1.04667</v>
+        <v>0.523814</v>
       </c>
       <c r="D110" t="n">
-        <v>1.31819</v>
+        <v>0.756171</v>
       </c>
     </row>
     <row r="111">
@@ -10892,13 +10892,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.31184</v>
+        <v>0.79697</v>
       </c>
       <c r="C111" t="n">
-        <v>1.05193</v>
+        <v>0.537447</v>
       </c>
       <c r="D111" t="n">
-        <v>1.36869</v>
+        <v>0.775044</v>
       </c>
     </row>
     <row r="112">
@@ -10906,13 +10906,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.00482</v>
+        <v>0.646894</v>
       </c>
       <c r="C112" t="n">
-        <v>1.06427</v>
+        <v>0.552919</v>
       </c>
       <c r="D112" t="n">
-        <v>1.40623</v>
+        <v>0.795782</v>
       </c>
     </row>
     <row r="113">
@@ -10920,13 +10920,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.06952</v>
+        <v>0.662587</v>
       </c>
       <c r="C113" t="n">
-        <v>1.09389</v>
+        <v>0.570099</v>
       </c>
       <c r="D113" t="n">
-        <v>1.42753</v>
+        <v>0.821097</v>
       </c>
     </row>
     <row r="114">
@@ -10934,13 +10934,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.09628</v>
+        <v>0.674018</v>
       </c>
       <c r="C114" t="n">
-        <v>1.13697</v>
+        <v>0.587305</v>
       </c>
       <c r="D114" t="n">
-        <v>1.48204</v>
+        <v>0.843499</v>
       </c>
     </row>
     <row r="115">
@@ -10948,13 +10948,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.08837</v>
+        <v>0.688719</v>
       </c>
       <c r="C115" t="n">
-        <v>1.15857</v>
+        <v>0.6049060000000001</v>
       </c>
       <c r="D115" t="n">
-        <v>1.51845</v>
+        <v>0.866299</v>
       </c>
     </row>
     <row r="116">
@@ -10962,13 +10962,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.11728</v>
+        <v>0.701056</v>
       </c>
       <c r="C116" t="n">
-        <v>1.19903</v>
+        <v>0.6233880000000001</v>
       </c>
       <c r="D116" t="n">
-        <v>1.54444</v>
+        <v>0.887508</v>
       </c>
     </row>
     <row r="117">
@@ -10976,13 +10976,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.15245</v>
+        <v>0.714801</v>
       </c>
       <c r="C117" t="n">
-        <v>1.21348</v>
+        <v>0.64579</v>
       </c>
       <c r="D117" t="n">
-        <v>1.61666</v>
+        <v>0.916438</v>
       </c>
     </row>
     <row r="118">
@@ -10990,13 +10990,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.17766</v>
+        <v>0.732931</v>
       </c>
       <c r="C118" t="n">
-        <v>1.27278</v>
+        <v>0.665874</v>
       </c>
       <c r="D118" t="n">
-        <v>1.65248</v>
+        <v>0.938014</v>
       </c>
     </row>
     <row r="119">
@@ -11004,13 +11004,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.20657</v>
+        <v>0.750945</v>
       </c>
       <c r="C119" t="n">
-        <v>1.29615</v>
+        <v>0.6865869999999999</v>
       </c>
       <c r="D119" t="n">
-        <v>1.69462</v>
+        <v>0.965739</v>
       </c>
     </row>
   </sheetData>
@@ -11058,13 +11058,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.184753</v>
+        <v>0.099192</v>
       </c>
       <c r="C2" t="n">
-        <v>0.181717</v>
+        <v>0.09465220000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>0.138965</v>
+        <v>0.0814883</v>
       </c>
     </row>
     <row r="3">
@@ -11072,13 +11072,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.189835</v>
+        <v>0.101088</v>
       </c>
       <c r="C3" t="n">
-        <v>0.189178</v>
+        <v>0.0974696</v>
       </c>
       <c r="D3" t="n">
-        <v>0.147072</v>
+        <v>0.0818596</v>
       </c>
     </row>
     <row r="4">
@@ -11086,13 +11086,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.196946</v>
+        <v>0.105719</v>
       </c>
       <c r="C4" t="n">
-        <v>0.195237</v>
+        <v>0.0994492</v>
       </c>
       <c r="D4" t="n">
-        <v>0.144493</v>
+        <v>0.0843177</v>
       </c>
     </row>
     <row r="5">
@@ -11100,13 +11100,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.196276</v>
+        <v>0.11077</v>
       </c>
       <c r="C5" t="n">
-        <v>0.207516</v>
+        <v>0.104505</v>
       </c>
       <c r="D5" t="n">
-        <v>0.147279</v>
+        <v>0.0868237</v>
       </c>
     </row>
     <row r="6">
@@ -11114,13 +11114,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.200342</v>
+        <v>0.113889</v>
       </c>
       <c r="C6" t="n">
-        <v>0.206227</v>
+        <v>0.107566</v>
       </c>
       <c r="D6" t="n">
-        <v>0.152542</v>
+        <v>0.0866944</v>
       </c>
     </row>
     <row r="7">
@@ -11128,13 +11128,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.204744</v>
+        <v>0.118058</v>
       </c>
       <c r="C7" t="n">
-        <v>0.164478</v>
+        <v>0.0857093</v>
       </c>
       <c r="D7" t="n">
-        <v>0.140651</v>
+        <v>0.0765438</v>
       </c>
     </row>
     <row r="8">
@@ -11142,13 +11142,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.210463</v>
+        <v>0.122654</v>
       </c>
       <c r="C8" t="n">
-        <v>0.166237</v>
+        <v>0.08740059999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>0.141532</v>
+        <v>0.0783652</v>
       </c>
     </row>
     <row r="9">
@@ -11156,13 +11156,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.216908</v>
+        <v>0.12779</v>
       </c>
       <c r="C9" t="n">
-        <v>0.173186</v>
+        <v>0.0909823</v>
       </c>
       <c r="D9" t="n">
-        <v>0.145488</v>
+        <v>0.07960540000000001</v>
       </c>
     </row>
     <row r="10">
@@ -11170,13 +11170,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.221035</v>
+        <v>0.133588</v>
       </c>
       <c r="C10" t="n">
-        <v>0.177106</v>
+        <v>0.09485250000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.146419</v>
+        <v>0.0810534</v>
       </c>
     </row>
     <row r="11">
@@ -11184,13 +11184,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.230507</v>
+        <v>0.138112</v>
       </c>
       <c r="C11" t="n">
-        <v>0.179804</v>
+        <v>0.0978174</v>
       </c>
       <c r="D11" t="n">
-        <v>0.147685</v>
+        <v>0.0839626</v>
       </c>
     </row>
     <row r="12">
@@ -11198,13 +11198,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.234316</v>
+        <v>0.146807</v>
       </c>
       <c r="C12" t="n">
-        <v>0.186846</v>
+        <v>0.101806</v>
       </c>
       <c r="D12" t="n">
-        <v>0.149785</v>
+        <v>0.08493149999999999</v>
       </c>
     </row>
     <row r="13">
@@ -11212,13 +11212,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.184301</v>
+        <v>0.117981</v>
       </c>
       <c r="C13" t="n">
-        <v>0.189527</v>
+        <v>0.107986</v>
       </c>
       <c r="D13" t="n">
-        <v>0.152123</v>
+        <v>0.08781460000000001</v>
       </c>
     </row>
     <row r="14">
@@ -11226,13 +11226,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.188794</v>
+        <v>0.120809</v>
       </c>
       <c r="C14" t="n">
-        <v>0.196832</v>
+        <v>0.112028</v>
       </c>
       <c r="D14" t="n">
-        <v>0.155941</v>
+        <v>0.0893675</v>
       </c>
     </row>
     <row r="15">
@@ -11240,13 +11240,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.194931</v>
+        <v>0.124174</v>
       </c>
       <c r="C15" t="n">
-        <v>0.19908</v>
+        <v>0.11626</v>
       </c>
       <c r="D15" t="n">
-        <v>0.157455</v>
+        <v>0.092263</v>
       </c>
     </row>
     <row r="16">
@@ -11254,13 +11254,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.200047</v>
+        <v>0.128125</v>
       </c>
       <c r="C16" t="n">
-        <v>0.209774</v>
+        <v>0.122567</v>
       </c>
       <c r="D16" t="n">
-        <v>0.162815</v>
+        <v>0.0943355</v>
       </c>
     </row>
     <row r="17">
@@ -11268,13 +11268,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.206166</v>
+        <v>0.131269</v>
       </c>
       <c r="C17" t="n">
-        <v>0.217269</v>
+        <v>0.127156</v>
       </c>
       <c r="D17" t="n">
-        <v>0.172005</v>
+        <v>0.09709230000000001</v>
       </c>
     </row>
     <row r="18">
@@ -11282,13 +11282,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.209774</v>
+        <v>0.133702</v>
       </c>
       <c r="C18" t="n">
-        <v>0.226282</v>
+        <v>0.133056</v>
       </c>
       <c r="D18" t="n">
-        <v>0.171372</v>
+        <v>0.0992184</v>
       </c>
     </row>
     <row r="19">
@@ -11296,13 +11296,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.208245</v>
+        <v>0.137053</v>
       </c>
       <c r="C19" t="n">
-        <v>0.233582</v>
+        <v>0.138171</v>
       </c>
       <c r="D19" t="n">
-        <v>0.172328</v>
+        <v>0.102353</v>
       </c>
     </row>
     <row r="20">
@@ -11310,13 +11310,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.221689</v>
+        <v>0.142604</v>
       </c>
       <c r="C20" t="n">
-        <v>0.23648</v>
+        <v>0.146847</v>
       </c>
       <c r="D20" t="n">
-        <v>0.176264</v>
+        <v>0.104733</v>
       </c>
     </row>
     <row r="21">
@@ -11324,13 +11324,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.221518</v>
+        <v>0.146573</v>
       </c>
       <c r="C21" t="n">
-        <v>0.188492</v>
+        <v>0.111761</v>
       </c>
       <c r="D21" t="n">
-        <v>0.156174</v>
+        <v>0.0934461</v>
       </c>
     </row>
     <row r="22">
@@ -11338,13 +11338,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.233107</v>
+        <v>0.151407</v>
       </c>
       <c r="C22" t="n">
-        <v>0.183904</v>
+        <v>0.115837</v>
       </c>
       <c r="D22" t="n">
-        <v>0.157769</v>
+        <v>0.0952336</v>
       </c>
     </row>
     <row r="23">
@@ -11352,13 +11352,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.233295</v>
+        <v>0.155672</v>
       </c>
       <c r="C23" t="n">
-        <v>0.193043</v>
+        <v>0.120016</v>
       </c>
       <c r="D23" t="n">
-        <v>0.159563</v>
+        <v>0.0972412</v>
       </c>
     </row>
     <row r="24">
@@ -11366,13 +11366,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.239954</v>
+        <v>0.159026</v>
       </c>
       <c r="C24" t="n">
-        <v>0.192574</v>
+        <v>0.122543</v>
       </c>
       <c r="D24" t="n">
-        <v>0.160829</v>
+        <v>0.0992063</v>
       </c>
     </row>
     <row r="25">
@@ -11380,13 +11380,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.249097</v>
+        <v>0.164937</v>
       </c>
       <c r="C25" t="n">
-        <v>0.202011</v>
+        <v>0.127336</v>
       </c>
       <c r="D25" t="n">
-        <v>0.165358</v>
+        <v>0.101312</v>
       </c>
     </row>
     <row r="26">
@@ -11394,13 +11394,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.253192</v>
+        <v>0.168581</v>
       </c>
       <c r="C26" t="n">
-        <v>0.210363</v>
+        <v>0.131177</v>
       </c>
       <c r="D26" t="n">
-        <v>0.168972</v>
+        <v>0.103276</v>
       </c>
     </row>
     <row r="27">
@@ -11408,13 +11408,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.215241</v>
+        <v>0.127076</v>
       </c>
       <c r="C27" t="n">
-        <v>0.214481</v>
+        <v>0.13416</v>
       </c>
       <c r="D27" t="n">
-        <v>0.169555</v>
+        <v>0.105378</v>
       </c>
     </row>
     <row r="28">
@@ -11422,13 +11422,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.224631</v>
+        <v>0.130512</v>
       </c>
       <c r="C28" t="n">
-        <v>0.224427</v>
+        <v>0.138309</v>
       </c>
       <c r="D28" t="n">
-        <v>0.178917</v>
+        <v>0.107263</v>
       </c>
     </row>
     <row r="29">
@@ -11436,13 +11436,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.230669</v>
+        <v>0.132312</v>
       </c>
       <c r="C29" t="n">
-        <v>0.229094</v>
+        <v>0.142835</v>
       </c>
       <c r="D29" t="n">
-        <v>0.178338</v>
+        <v>0.109716</v>
       </c>
     </row>
     <row r="30">
@@ -11450,13 +11450,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.239809</v>
+        <v>0.137006</v>
       </c>
       <c r="C30" t="n">
-        <v>0.235957</v>
+        <v>0.148731</v>
       </c>
       <c r="D30" t="n">
-        <v>0.181657</v>
+        <v>0.112323</v>
       </c>
     </row>
     <row r="31">
@@ -11464,13 +11464,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.246988</v>
+        <v>0.140479</v>
       </c>
       <c r="C31" t="n">
-        <v>0.245668</v>
+        <v>0.15097</v>
       </c>
       <c r="D31" t="n">
-        <v>0.191431</v>
+        <v>0.114417</v>
       </c>
     </row>
     <row r="32">
@@ -11478,13 +11478,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.256404</v>
+        <v>0.143745</v>
       </c>
       <c r="C32" t="n">
-        <v>0.257478</v>
+        <v>0.159329</v>
       </c>
       <c r="D32" t="n">
-        <v>0.197988</v>
+        <v>0.11728</v>
       </c>
     </row>
     <row r="33">
@@ -11492,13 +11492,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.269108</v>
+        <v>0.146438</v>
       </c>
       <c r="C33" t="n">
-        <v>0.265866</v>
+        <v>0.16415</v>
       </c>
       <c r="D33" t="n">
-        <v>0.197299</v>
+        <v>0.120049</v>
       </c>
     </row>
     <row r="34">
@@ -11506,13 +11506,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.274754</v>
+        <v>0.149905</v>
       </c>
       <c r="C34" t="n">
-        <v>0.278159</v>
+        <v>0.169802</v>
       </c>
       <c r="D34" t="n">
-        <v>0.207852</v>
+        <v>0.123132</v>
       </c>
     </row>
     <row r="35">
@@ -11520,13 +11520,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.284937</v>
+        <v>0.153449</v>
       </c>
       <c r="C35" t="n">
-        <v>0.214655</v>
+        <v>0.121227</v>
       </c>
       <c r="D35" t="n">
-        <v>0.179683</v>
+        <v>0.104043</v>
       </c>
     </row>
     <row r="36">
@@ -11534,13 +11534,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.299351</v>
+        <v>0.158396</v>
       </c>
       <c r="C36" t="n">
-        <v>0.227051</v>
+        <v>0.125252</v>
       </c>
       <c r="D36" t="n">
-        <v>0.18425</v>
+        <v>0.105944</v>
       </c>
     </row>
     <row r="37">
@@ -11548,13 +11548,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.306907</v>
+        <v>0.162302</v>
       </c>
       <c r="C37" t="n">
-        <v>0.2332</v>
+        <v>0.128583</v>
       </c>
       <c r="D37" t="n">
-        <v>0.187579</v>
+        <v>0.107853</v>
       </c>
     </row>
     <row r="38">
@@ -11562,13 +11562,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.317062</v>
+        <v>0.16803</v>
       </c>
       <c r="C38" t="n">
-        <v>0.240525</v>
+        <v>0.132163</v>
       </c>
       <c r="D38" t="n">
-        <v>0.192599</v>
+        <v>0.109953</v>
       </c>
     </row>
     <row r="39">
@@ -11576,13 +11576,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.329019</v>
+        <v>0.171213</v>
       </c>
       <c r="C39" t="n">
-        <v>0.252434</v>
+        <v>0.136127</v>
       </c>
       <c r="D39" t="n">
-        <v>0.20122</v>
+        <v>0.111694</v>
       </c>
     </row>
     <row r="40">
@@ -11590,13 +11590,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.34872</v>
+        <v>0.178505</v>
       </c>
       <c r="C40" t="n">
-        <v>0.260274</v>
+        <v>0.140757</v>
       </c>
       <c r="D40" t="n">
-        <v>0.213126</v>
+        <v>0.113932</v>
       </c>
     </row>
     <row r="41">
@@ -11604,13 +11604,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.299781</v>
+        <v>0.131478</v>
       </c>
       <c r="C41" t="n">
-        <v>0.274874</v>
+        <v>0.143945</v>
       </c>
       <c r="D41" t="n">
-        <v>0.209662</v>
+        <v>0.115529</v>
       </c>
     </row>
     <row r="42">
@@ -11618,13 +11618,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.310345</v>
+        <v>0.13404</v>
       </c>
       <c r="C42" t="n">
-        <v>0.292524</v>
+        <v>0.146762</v>
       </c>
       <c r="D42" t="n">
-        <v>0.218502</v>
+        <v>0.11778</v>
       </c>
     </row>
     <row r="43">
@@ -11632,13 +11632,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.32963</v>
+        <v>0.137823</v>
       </c>
       <c r="C43" t="n">
-        <v>0.299723</v>
+        <v>0.151726</v>
       </c>
       <c r="D43" t="n">
-        <v>0.221218</v>
+        <v>0.120099</v>
       </c>
     </row>
     <row r="44">
@@ -11646,13 +11646,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.334736</v>
+        <v>0.1408</v>
       </c>
       <c r="C44" t="n">
-        <v>0.304701</v>
+        <v>0.156934</v>
       </c>
       <c r="D44" t="n">
-        <v>0.232134</v>
+        <v>0.122546</v>
       </c>
     </row>
     <row r="45">
@@ -11660,13 +11660,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.344786</v>
+        <v>0.144752</v>
       </c>
       <c r="C45" t="n">
-        <v>0.318224</v>
+        <v>0.161036</v>
       </c>
       <c r="D45" t="n">
-        <v>0.236818</v>
+        <v>0.125106</v>
       </c>
     </row>
     <row r="46">
@@ -11674,13 +11674,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.35747</v>
+        <v>0.148737</v>
       </c>
       <c r="C46" t="n">
-        <v>0.33873</v>
+        <v>0.166804</v>
       </c>
       <c r="D46" t="n">
-        <v>0.274169</v>
+        <v>0.127494</v>
       </c>
     </row>
     <row r="47">
@@ -11688,13 +11688,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.397418</v>
+        <v>0.152017</v>
       </c>
       <c r="C47" t="n">
-        <v>0.34632</v>
+        <v>0.171386</v>
       </c>
       <c r="D47" t="n">
-        <v>0.251129</v>
+        <v>0.130294</v>
       </c>
     </row>
     <row r="48">
@@ -11702,13 +11702,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.389798</v>
+        <v>0.155682</v>
       </c>
       <c r="C48" t="n">
-        <v>0.366874</v>
+        <v>0.17709</v>
       </c>
       <c r="D48" t="n">
-        <v>0.264553</v>
+        <v>0.132991</v>
       </c>
     </row>
     <row r="49">
@@ -11716,13 +11716,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.402678</v>
+        <v>0.159964</v>
       </c>
       <c r="C49" t="n">
-        <v>0.386564</v>
+        <v>0.183794</v>
       </c>
       <c r="D49" t="n">
-        <v>0.271958</v>
+        <v>0.135984</v>
       </c>
     </row>
     <row r="50">
@@ -11730,13 +11730,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.418578</v>
+        <v>0.163807</v>
       </c>
       <c r="C50" t="n">
-        <v>0.311575</v>
+        <v>0.128677</v>
       </c>
       <c r="D50" t="n">
-        <v>0.238107</v>
+        <v>0.104844</v>
       </c>
     </row>
     <row r="51">
@@ -11744,13 +11744,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.443423</v>
+        <v>0.168733</v>
       </c>
       <c r="C51" t="n">
-        <v>0.321882</v>
+        <v>0.131844</v>
       </c>
       <c r="D51" t="n">
-        <v>0.242398</v>
+        <v>0.106933</v>
       </c>
     </row>
     <row r="52">
@@ -11758,13 +11758,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.474568</v>
+        <v>0.173313</v>
       </c>
       <c r="C52" t="n">
-        <v>0.336182</v>
+        <v>0.135633</v>
       </c>
       <c r="D52" t="n">
-        <v>0.249463</v>
+        <v>0.108639</v>
       </c>
     </row>
     <row r="53">
@@ -11772,13 +11772,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.483419</v>
+        <v>0.178768</v>
       </c>
       <c r="C53" t="n">
-        <v>0.346073</v>
+        <v>0.140614</v>
       </c>
       <c r="D53" t="n">
-        <v>0.25866</v>
+        <v>0.111008</v>
       </c>
     </row>
     <row r="54">
@@ -11786,13 +11786,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.533262</v>
+        <v>0.183723</v>
       </c>
       <c r="C54" t="n">
-        <v>0.36923</v>
+        <v>0.143999</v>
       </c>
       <c r="D54" t="n">
-        <v>0.26206</v>
+        <v>0.113051</v>
       </c>
     </row>
     <row r="55">
@@ -11800,13 +11800,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.536976</v>
+        <v>0.189754</v>
       </c>
       <c r="C55" t="n">
-        <v>0.387904</v>
+        <v>0.148043</v>
       </c>
       <c r="D55" t="n">
-        <v>0.280007</v>
+        <v>0.115552</v>
       </c>
     </row>
     <row r="56">
@@ -11814,13 +11814,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.460527</v>
+        <v>0.137266</v>
       </c>
       <c r="C56" t="n">
-        <v>0.398112</v>
+        <v>0.15147</v>
       </c>
       <c r="D56" t="n">
-        <v>0.279675</v>
+        <v>0.116691</v>
       </c>
     </row>
     <row r="57">
@@ -11828,13 +11828,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.514826</v>
+        <v>0.140345</v>
       </c>
       <c r="C57" t="n">
-        <v>0.42908</v>
+        <v>0.156781</v>
       </c>
       <c r="D57" t="n">
-        <v>0.292992</v>
+        <v>0.11961</v>
       </c>
     </row>
     <row r="58">
@@ -11842,13 +11842,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.516822</v>
+        <v>0.143862</v>
       </c>
       <c r="C58" t="n">
-        <v>0.457132</v>
+        <v>0.162333</v>
       </c>
       <c r="D58" t="n">
-        <v>0.304407</v>
+        <v>0.121998</v>
       </c>
     </row>
     <row r="59">
@@ -11856,13 +11856,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.524598</v>
+        <v>0.148222</v>
       </c>
       <c r="C59" t="n">
-        <v>0.469596</v>
+        <v>0.166357</v>
       </c>
       <c r="D59" t="n">
-        <v>0.321036</v>
+        <v>0.124374</v>
       </c>
     </row>
     <row r="60">
@@ -11870,13 +11870,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.54351</v>
+        <v>0.151473</v>
       </c>
       <c r="C60" t="n">
-        <v>0.511789</v>
+        <v>0.172362</v>
       </c>
       <c r="D60" t="n">
-        <v>0.337566</v>
+        <v>0.127551</v>
       </c>
     </row>
     <row r="61">
@@ -11884,13 +11884,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.597588</v>
+        <v>0.155881</v>
       </c>
       <c r="C61" t="n">
-        <v>0.539343</v>
+        <v>0.178568</v>
       </c>
       <c r="D61" t="n">
-        <v>0.345662</v>
+        <v>0.130086</v>
       </c>
     </row>
     <row r="62">
@@ -11898,13 +11898,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.6062149999999999</v>
+        <v>0.160544</v>
       </c>
       <c r="C62" t="n">
-        <v>0.568906</v>
+        <v>0.185061</v>
       </c>
       <c r="D62" t="n">
-        <v>0.35647</v>
+        <v>0.132254</v>
       </c>
     </row>
     <row r="63">
@@ -11912,13 +11912,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.631488</v>
+        <v>0.167668</v>
       </c>
       <c r="C63" t="n">
-        <v>0.615537</v>
+        <v>0.192544</v>
       </c>
       <c r="D63" t="n">
-        <v>0.403701</v>
+        <v>0.136369</v>
       </c>
     </row>
     <row r="64">
@@ -11926,13 +11926,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.668789</v>
+        <v>0.174384</v>
       </c>
       <c r="C64" t="n">
-        <v>0.483349</v>
+        <v>0.138989</v>
       </c>
       <c r="D64" t="n">
-        <v>0.356249</v>
+        <v>0.110656</v>
       </c>
     </row>
     <row r="65">
@@ -11940,13 +11940,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.708587</v>
+        <v>0.181881</v>
       </c>
       <c r="C65" t="n">
-        <v>0.492251</v>
+        <v>0.142823</v>
       </c>
       <c r="D65" t="n">
-        <v>0.356832</v>
+        <v>0.113398</v>
       </c>
     </row>
     <row r="66">
@@ -11954,13 +11954,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.764968</v>
+        <v>0.188007</v>
       </c>
       <c r="C66" t="n">
-        <v>0.5375180000000001</v>
+        <v>0.149008</v>
       </c>
       <c r="D66" t="n">
-        <v>0.378589</v>
+        <v>0.115927</v>
       </c>
     </row>
     <row r="67">
@@ -11968,13 +11968,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.816066</v>
+        <v>0.197971</v>
       </c>
       <c r="C67" t="n">
-        <v>0.556813</v>
+        <v>0.154864</v>
       </c>
       <c r="D67" t="n">
-        <v>0.389093</v>
+        <v>0.1194</v>
       </c>
     </row>
     <row r="68">
@@ -11982,13 +11982,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.822516</v>
+        <v>0.208244</v>
       </c>
       <c r="C68" t="n">
-        <v>0.579005</v>
+        <v>0.16109</v>
       </c>
       <c r="D68" t="n">
-        <v>0.399846</v>
+        <v>0.123135</v>
       </c>
     </row>
     <row r="69">
@@ -11996,13 +11996,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.869757</v>
+        <v>0.218604</v>
       </c>
       <c r="C69" t="n">
-        <v>0.610425</v>
+        <v>0.168617</v>
       </c>
       <c r="D69" t="n">
-        <v>0.417034</v>
+        <v>0.126719</v>
       </c>
     </row>
     <row r="70">
@@ -12010,13 +12010,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.759907</v>
+        <v>0.198993</v>
       </c>
       <c r="C70" t="n">
-        <v>0.670658</v>
+        <v>0.176142</v>
       </c>
       <c r="D70" t="n">
-        <v>0.436217</v>
+        <v>0.130944</v>
       </c>
     </row>
     <row r="71">
@@ -12024,13 +12024,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.743682</v>
+        <v>0.224403</v>
       </c>
       <c r="C71" t="n">
-        <v>0.696796</v>
+        <v>0.184862</v>
       </c>
       <c r="D71" t="n">
-        <v>0.460355</v>
+        <v>0.13507</v>
       </c>
     </row>
     <row r="72">
@@ -12038,13 +12038,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.773279</v>
+        <v>0.231134</v>
       </c>
       <c r="C72" t="n">
-        <v>0.73767</v>
+        <v>0.191721</v>
       </c>
       <c r="D72" t="n">
-        <v>0.493985</v>
+        <v>0.139652</v>
       </c>
     </row>
     <row r="73">
@@ -12052,13 +12052,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.864661</v>
+        <v>0.256814</v>
       </c>
       <c r="C73" t="n">
-        <v>0.8210229999999999</v>
+        <v>0.202003</v>
       </c>
       <c r="D73" t="n">
-        <v>0.513728</v>
+        <v>0.144044</v>
       </c>
     </row>
     <row r="74">
@@ -12066,13 +12066,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.845377</v>
+        <v>0.280293</v>
       </c>
       <c r="C74" t="n">
-        <v>0.811738</v>
+        <v>0.212085</v>
       </c>
       <c r="D74" t="n">
-        <v>0.524515</v>
+        <v>0.149421</v>
       </c>
     </row>
     <row r="75">
@@ -12080,13 +12080,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.914882</v>
+        <v>0.313646</v>
       </c>
       <c r="C75" t="n">
-        <v>0.962199</v>
+        <v>0.22393</v>
       </c>
       <c r="D75" t="n">
-        <v>0.540947</v>
+        <v>0.15408</v>
       </c>
     </row>
     <row r="76">
@@ -12094,13 +12094,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.911726</v>
+        <v>0.342401</v>
       </c>
       <c r="C76" t="n">
-        <v>0.966561</v>
+        <v>0.243813</v>
       </c>
       <c r="D76" t="n">
-        <v>0.639952</v>
+        <v>0.160624</v>
       </c>
     </row>
     <row r="77">
@@ -12108,13 +12108,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.946868</v>
+        <v>0.371825</v>
       </c>
       <c r="C77" t="n">
-        <v>1.03032</v>
+        <v>0.26227</v>
       </c>
       <c r="D77" t="n">
-        <v>0.602398</v>
+        <v>0.167146</v>
       </c>
     </row>
     <row r="78">
@@ -12122,13 +12122,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.980229</v>
+        <v>0.402568</v>
       </c>
       <c r="C78" t="n">
-        <v>0.755605</v>
+        <v>0.225095</v>
       </c>
       <c r="D78" t="n">
-        <v>0.608455</v>
+        <v>0.144482</v>
       </c>
     </row>
     <row r="79">
@@ -12136,13 +12136,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.06759</v>
+        <v>0.43262</v>
       </c>
       <c r="C79" t="n">
-        <v>0.762687</v>
+        <v>0.248037</v>
       </c>
       <c r="D79" t="n">
-        <v>0.598587</v>
+        <v>0.148734</v>
       </c>
     </row>
     <row r="80">
@@ -12150,13 +12150,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.1067</v>
+        <v>0.469328</v>
       </c>
       <c r="C80" t="n">
-        <v>0.8684809999999999</v>
+        <v>0.270516</v>
       </c>
       <c r="D80" t="n">
-        <v>0.648127</v>
+        <v>0.15953</v>
       </c>
     </row>
     <row r="81">
@@ -12164,13 +12164,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.13929</v>
+        <v>0.503251</v>
       </c>
       <c r="C81" t="n">
-        <v>0.912235</v>
+        <v>0.30006</v>
       </c>
       <c r="D81" t="n">
-        <v>0.65893</v>
+        <v>0.170385</v>
       </c>
     </row>
     <row r="82">
@@ -12178,13 +12178,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.19787</v>
+        <v>0.54142</v>
       </c>
       <c r="C82" t="n">
-        <v>0.91889</v>
+        <v>0.328635</v>
       </c>
       <c r="D82" t="n">
-        <v>0.6795949999999999</v>
+        <v>0.183336</v>
       </c>
     </row>
     <row r="83">
@@ -12192,13 +12192,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.23214</v>
+        <v>0.577778</v>
       </c>
       <c r="C83" t="n">
-        <v>0.919169</v>
+        <v>0.360818</v>
       </c>
       <c r="D83" t="n">
-        <v>0.699607</v>
+        <v>0.198537</v>
       </c>
     </row>
     <row r="84">
@@ -12206,13 +12206,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.949458</v>
+        <v>0.541394</v>
       </c>
       <c r="C84" t="n">
-        <v>0.9719179999999999</v>
+        <v>0.394668</v>
       </c>
       <c r="D84" t="n">
-        <v>0.720185</v>
+        <v>0.216011</v>
       </c>
     </row>
     <row r="85">
@@ -12220,13 +12220,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.968602</v>
+        <v>0.557594</v>
       </c>
       <c r="C85" t="n">
-        <v>1.00863</v>
+        <v>0.423192</v>
       </c>
       <c r="D85" t="n">
-        <v>0.750865</v>
+        <v>0.233091</v>
       </c>
     </row>
     <row r="86">
@@ -12234,13 +12234,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.987735</v>
+        <v>0.579557</v>
       </c>
       <c r="C86" t="n">
-        <v>1.0448</v>
+        <v>0.453098</v>
       </c>
       <c r="D86" t="n">
-        <v>0.779214</v>
+        <v>0.253802</v>
       </c>
     </row>
     <row r="87">
@@ -12248,13 +12248,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.03473</v>
+        <v>0.602012</v>
       </c>
       <c r="C87" t="n">
-        <v>1.08045</v>
+        <v>0.491383</v>
       </c>
       <c r="D87" t="n">
-        <v>0.775216</v>
+        <v>0.27501</v>
       </c>
     </row>
     <row r="88">
@@ -12262,13 +12262,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.04963</v>
+        <v>0.627738</v>
       </c>
       <c r="C88" t="n">
-        <v>1.132</v>
+        <v>0.527174</v>
       </c>
       <c r="D88" t="n">
-        <v>0.771252</v>
+        <v>0.294939</v>
       </c>
     </row>
     <row r="89">
@@ -12276,13 +12276,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.10024</v>
+        <v>0.65156</v>
       </c>
       <c r="C89" t="n">
-        <v>1.16848</v>
+        <v>0.560366</v>
       </c>
       <c r="D89" t="n">
-        <v>0.843589</v>
+        <v>0.314521</v>
       </c>
     </row>
     <row r="90">
@@ -12290,13 +12290,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.11217</v>
+        <v>0.6778459999999999</v>
       </c>
       <c r="C90" t="n">
-        <v>1.20687</v>
+        <v>0.600171</v>
       </c>
       <c r="D90" t="n">
-        <v>0.903022</v>
+        <v>0.336372</v>
       </c>
     </row>
     <row r="91">
@@ -12304,13 +12304,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.16328</v>
+        <v>0.703796</v>
       </c>
       <c r="C91" t="n">
-        <v>1.31993</v>
+        <v>0.642839</v>
       </c>
       <c r="D91" t="n">
-        <v>0.9072440000000001</v>
+        <v>0.357054</v>
       </c>
     </row>
     <row r="92">
@@ -12318,13 +12318,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.18181</v>
+        <v>0.727545</v>
       </c>
       <c r="C92" t="n">
-        <v>0.950599</v>
+        <v>0.5124030000000001</v>
       </c>
       <c r="D92" t="n">
-        <v>0.773162</v>
+        <v>0.350836</v>
       </c>
     </row>
     <row r="93">
@@ -12332,13 +12332,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.26124</v>
+        <v>0.757085</v>
       </c>
       <c r="C93" t="n">
-        <v>0.959279</v>
+        <v>0.5336340000000001</v>
       </c>
       <c r="D93" t="n">
-        <v>0.793133</v>
+        <v>0.36449</v>
       </c>
     </row>
     <row r="94">
@@ -12346,13 +12346,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.26278</v>
+        <v>0.792977</v>
       </c>
       <c r="C94" t="n">
-        <v>0.997929</v>
+        <v>0.558843</v>
       </c>
       <c r="D94" t="n">
-        <v>0.810369</v>
+        <v>0.379265</v>
       </c>
     </row>
     <row r="95">
@@ -12360,13 +12360,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.31072</v>
+        <v>0.825644</v>
       </c>
       <c r="C95" t="n">
-        <v>1.02868</v>
+        <v>0.583187</v>
       </c>
       <c r="D95" t="n">
-        <v>0.843351</v>
+        <v>0.39716</v>
       </c>
     </row>
     <row r="96">
@@ -12374,13 +12374,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.33796</v>
+        <v>0.863038</v>
       </c>
       <c r="C96" t="n">
-        <v>1.0606</v>
+        <v>0.608136</v>
       </c>
       <c r="D96" t="n">
-        <v>0.841525</v>
+        <v>0.412189</v>
       </c>
     </row>
     <row r="97">
@@ -12388,13 +12388,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.37253</v>
+        <v>0.89373</v>
       </c>
       <c r="C97" t="n">
-        <v>1.08307</v>
+        <v>0.633605</v>
       </c>
       <c r="D97" t="n">
-        <v>0.879157</v>
+        <v>0.42946</v>
       </c>
     </row>
     <row r="98">
@@ -12402,13 +12402,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.06185</v>
+        <v>0.688088</v>
       </c>
       <c r="C98" t="n">
-        <v>1.18786</v>
+        <v>0.657539</v>
       </c>
       <c r="D98" t="n">
-        <v>0.91851</v>
+        <v>0.443291</v>
       </c>
     </row>
     <row r="99">
@@ -12416,13 +12416,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.05355</v>
+        <v>0.713079</v>
       </c>
       <c r="C99" t="n">
-        <v>1.14601</v>
+        <v>0.689236</v>
       </c>
       <c r="D99" t="n">
-        <v>0.92012</v>
+        <v>0.464681</v>
       </c>
     </row>
     <row r="100">
@@ -12430,13 +12430,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.08835</v>
+        <v>0.733788</v>
       </c>
       <c r="C100" t="n">
-        <v>1.188</v>
+        <v>0.7199759999999999</v>
       </c>
       <c r="D100" t="n">
-        <v>0.950188</v>
+        <v>0.480189</v>
       </c>
     </row>
     <row r="101">
@@ -12444,13 +12444,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.10922</v>
+        <v>0.753758</v>
       </c>
       <c r="C101" t="n">
-        <v>1.22177</v>
+        <v>0.751317</v>
       </c>
       <c r="D101" t="n">
-        <v>0.976281</v>
+        <v>0.500376</v>
       </c>
     </row>
     <row r="102">
@@ -12458,13 +12458,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.13798</v>
+        <v>0.7757579999999999</v>
       </c>
       <c r="C102" t="n">
-        <v>1.26638</v>
+        <v>0.782089</v>
       </c>
       <c r="D102" t="n">
-        <v>0.978131</v>
+        <v>0.521047</v>
       </c>
     </row>
     <row r="103">
@@ -12472,13 +12472,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.19405</v>
+        <v>0.803403</v>
       </c>
       <c r="C103" t="n">
-        <v>1.30809</v>
+        <v>0.8187410000000001</v>
       </c>
       <c r="D103" t="n">
-        <v>1.02999</v>
+        <v>0.5413790000000001</v>
       </c>
     </row>
     <row r="104">
@@ -12486,13 +12486,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.22633</v>
+        <v>0.827337</v>
       </c>
       <c r="C104" t="n">
-        <v>1.35265</v>
+        <v>0.854842</v>
       </c>
       <c r="D104" t="n">
-        <v>1.05481</v>
+        <v>0.562423</v>
       </c>
     </row>
     <row r="105">
@@ -12500,13 +12500,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.27233</v>
+        <v>0.853749</v>
       </c>
       <c r="C105" t="n">
-        <v>1.39908</v>
+        <v>0.886441</v>
       </c>
       <c r="D105" t="n">
-        <v>1.08658</v>
+        <v>0.582823</v>
       </c>
     </row>
     <row r="106">
@@ -12514,13 +12514,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.28457</v>
+        <v>0.889033</v>
       </c>
       <c r="C106" t="n">
-        <v>1.43818</v>
+        <v>0.930112</v>
       </c>
       <c r="D106" t="n">
-        <v>1.11198</v>
+        <v>0.604001</v>
       </c>
     </row>
     <row r="107">
@@ -12528,13 +12528,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.35802</v>
+        <v>0.909938</v>
       </c>
       <c r="C107" t="n">
-        <v>1.07264</v>
+        <v>0.668137</v>
       </c>
       <c r="D107" t="n">
-        <v>0.91065</v>
+        <v>0.547022</v>
       </c>
     </row>
     <row r="108">
@@ -12542,13 +12542,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.37639</v>
+        <v>0.9446909999999999</v>
       </c>
       <c r="C108" t="n">
-        <v>1.10084</v>
+        <v>0.691265</v>
       </c>
       <c r="D108" t="n">
-        <v>0.933956</v>
+        <v>0.561739</v>
       </c>
     </row>
     <row r="109">
@@ -12556,13 +12556,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.42836</v>
+        <v>0.975254</v>
       </c>
       <c r="C109" t="n">
-        <v>1.12928</v>
+        <v>0.710232</v>
       </c>
       <c r="D109" t="n">
-        <v>0.962969</v>
+        <v>0.5749109999999999</v>
       </c>
     </row>
     <row r="110">
@@ -12570,13 +12570,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.5079</v>
+        <v>1.01324</v>
       </c>
       <c r="C110" t="n">
-        <v>1.16231</v>
+        <v>0.736462</v>
       </c>
       <c r="D110" t="n">
-        <v>0.988887</v>
+        <v>0.589421</v>
       </c>
     </row>
     <row r="111">
@@ -12584,13 +12584,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.50783</v>
+        <v>1.04496</v>
       </c>
       <c r="C111" t="n">
-        <v>1.20458</v>
+        <v>0.759655</v>
       </c>
       <c r="D111" t="n">
-        <v>1.0242</v>
+        <v>0.604539</v>
       </c>
     </row>
     <row r="112">
@@ -12598,13 +12598,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.16693</v>
+        <v>0.76018</v>
       </c>
       <c r="C112" t="n">
-        <v>1.25466</v>
+        <v>0.786214</v>
       </c>
       <c r="D112" t="n">
-        <v>1.04503</v>
+        <v>0.619443</v>
       </c>
     </row>
     <row r="113">
@@ -12612,13 +12612,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.17916</v>
+        <v>0.787505</v>
       </c>
       <c r="C113" t="n">
-        <v>1.26193</v>
+        <v>0.812422</v>
       </c>
       <c r="D113" t="n">
-        <v>1.04</v>
+        <v>0.636717</v>
       </c>
     </row>
     <row r="114">
@@ -12626,13 +12626,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.22404</v>
+        <v>0.802258</v>
       </c>
       <c r="C114" t="n">
-        <v>1.32811</v>
+        <v>0.843683</v>
       </c>
       <c r="D114" t="n">
-        <v>1.07227</v>
+        <v>0.65578</v>
       </c>
     </row>
     <row r="115">
@@ -12640,13 +12640,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.26435</v>
+        <v>0.828055</v>
       </c>
       <c r="C115" t="n">
-        <v>1.30862</v>
+        <v>0.877826</v>
       </c>
       <c r="D115" t="n">
-        <v>1.12937</v>
+        <v>0.677327</v>
       </c>
     </row>
     <row r="116">
@@ -12654,13 +12654,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.31534</v>
+        <v>0.857792</v>
       </c>
       <c r="C116" t="n">
-        <v>1.37367</v>
+        <v>0.906409</v>
       </c>
       <c r="D116" t="n">
-        <v>1.13668</v>
+        <v>0.69272</v>
       </c>
     </row>
     <row r="117">
@@ -12668,13 +12668,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.28601</v>
+        <v>0.876293</v>
       </c>
       <c r="C117" t="n">
-        <v>1.45774</v>
+        <v>0.939887</v>
       </c>
       <c r="D117" t="n">
-        <v>1.16142</v>
+        <v>0.709539</v>
       </c>
     </row>
     <row r="118">
@@ -12682,13 +12682,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.36049</v>
+        <v>0.8968660000000001</v>
       </c>
       <c r="C118" t="n">
-        <v>1.52065</v>
+        <v>0.9779099999999999</v>
       </c>
       <c r="D118" t="n">
-        <v>1.22203</v>
+        <v>0.73146</v>
       </c>
     </row>
     <row r="119">
@@ -12696,13 +12696,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.31681</v>
+        <v>0.924779</v>
       </c>
       <c r="C119" t="n">
-        <v>1.60067</v>
+        <v>1.01849</v>
       </c>
       <c r="D119" t="n">
-        <v>1.25828</v>
+        <v>0.750069</v>
       </c>
     </row>
   </sheetData>
@@ -12750,13 +12750,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.544405</v>
+        <v>0.337859</v>
       </c>
       <c r="C2" t="n">
-        <v>0.416666</v>
+        <v>0.242477</v>
       </c>
       <c r="D2" t="n">
-        <v>0.234917</v>
+        <v>0.152267</v>
       </c>
     </row>
     <row r="3">
@@ -12764,13 +12764,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.369421</v>
+        <v>0.210887</v>
       </c>
       <c r="C3" t="n">
-        <v>0.443376</v>
+        <v>0.252932</v>
       </c>
       <c r="D3" t="n">
-        <v>0.243005</v>
+        <v>0.158063</v>
       </c>
     </row>
     <row r="4">
@@ -12778,13 +12778,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.368977</v>
+        <v>0.225443</v>
       </c>
       <c r="C4" t="n">
-        <v>0.47991</v>
+        <v>0.265408</v>
       </c>
       <c r="D4" t="n">
-        <v>0.249072</v>
+        <v>0.162039</v>
       </c>
     </row>
     <row r="5">
@@ -12792,13 +12792,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.38987</v>
+        <v>0.235607</v>
       </c>
       <c r="C5" t="n">
-        <v>0.486571</v>
+        <v>0.28135</v>
       </c>
       <c r="D5" t="n">
-        <v>0.257287</v>
+        <v>0.169207</v>
       </c>
     </row>
     <row r="6">
@@ -12806,13 +12806,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.418753</v>
+        <v>0.250259</v>
       </c>
       <c r="C6" t="n">
-        <v>0.51063</v>
+        <v>0.287301</v>
       </c>
       <c r="D6" t="n">
-        <v>0.267122</v>
+        <v>0.175595</v>
       </c>
     </row>
     <row r="7">
@@ -12820,13 +12820,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.43406</v>
+        <v>0.264607</v>
       </c>
       <c r="C7" t="n">
-        <v>0.53621</v>
+        <v>0.302163</v>
       </c>
       <c r="D7" t="n">
-        <v>0.273686</v>
+        <v>0.177511</v>
       </c>
     </row>
     <row r="8">
@@ -12834,13 +12834,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.45374</v>
+        <v>0.280142</v>
       </c>
       <c r="C8" t="n">
-        <v>0.551458</v>
+        <v>0.316841</v>
       </c>
       <c r="D8" t="n">
-        <v>0.283425</v>
+        <v>0.181193</v>
       </c>
     </row>
     <row r="9">
@@ -12848,13 +12848,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.470064</v>
+        <v>0.29439</v>
       </c>
       <c r="C9" t="n">
-        <v>0.587741</v>
+        <v>0.337895</v>
       </c>
       <c r="D9" t="n">
-        <v>0.293291</v>
+        <v>0.187611</v>
       </c>
     </row>
     <row r="10">
@@ -12862,13 +12862,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.504823</v>
+        <v>0.311085</v>
       </c>
       <c r="C10" t="n">
-        <v>0.610256</v>
+        <v>0.351257</v>
       </c>
       <c r="D10" t="n">
-        <v>0.310165</v>
+        <v>0.196468</v>
       </c>
     </row>
     <row r="11">
@@ -12876,13 +12876,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.530093</v>
+        <v>0.33359</v>
       </c>
       <c r="C11" t="n">
-        <v>0.400705</v>
+        <v>0.230145</v>
       </c>
       <c r="D11" t="n">
-        <v>0.231371</v>
+        <v>0.142486</v>
       </c>
     </row>
     <row r="12">
@@ -12890,13 +12890,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5556489999999999</v>
+        <v>0.352507</v>
       </c>
       <c r="C12" t="n">
-        <v>0.414728</v>
+        <v>0.241659</v>
       </c>
       <c r="D12" t="n">
-        <v>0.237268</v>
+        <v>0.151018</v>
       </c>
     </row>
     <row r="13">
@@ -12904,13 +12904,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.579565</v>
+        <v>0.379552</v>
       </c>
       <c r="C13" t="n">
-        <v>0.428079</v>
+        <v>0.255524</v>
       </c>
       <c r="D13" t="n">
-        <v>0.248033</v>
+        <v>0.155609</v>
       </c>
     </row>
     <row r="14">
@@ -12918,13 +12918,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.613488</v>
+        <v>0.398903</v>
       </c>
       <c r="C14" t="n">
-        <v>0.47408</v>
+        <v>0.272363</v>
       </c>
       <c r="D14" t="n">
-        <v>0.254717</v>
+        <v>0.160607</v>
       </c>
     </row>
     <row r="15">
@@ -12932,13 +12932,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.639083</v>
+        <v>0.423321</v>
       </c>
       <c r="C15" t="n">
-        <v>0.488119</v>
+        <v>0.294377</v>
       </c>
       <c r="D15" t="n">
-        <v>0.265856</v>
+        <v>0.166498</v>
       </c>
     </row>
     <row r="16">
@@ -12946,13 +12946,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.668125</v>
+        <v>0.447823</v>
       </c>
       <c r="C16" t="n">
-        <v>0.492845</v>
+        <v>0.308819</v>
       </c>
       <c r="D16" t="n">
-        <v>0.274485</v>
+        <v>0.173744</v>
       </c>
     </row>
     <row r="17">
@@ -12960,13 +12960,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.425547</v>
+        <v>0.284293</v>
       </c>
       <c r="C17" t="n">
-        <v>0.517198</v>
+        <v>0.334594</v>
       </c>
       <c r="D17" t="n">
-        <v>0.285691</v>
+        <v>0.181508</v>
       </c>
     </row>
     <row r="18">
@@ -12974,13 +12974,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.44041</v>
+        <v>0.304716</v>
       </c>
       <c r="C18" t="n">
-        <v>0.548431</v>
+        <v>0.355714</v>
       </c>
       <c r="D18" t="n">
-        <v>0.296978</v>
+        <v>0.187572</v>
       </c>
     </row>
     <row r="19">
@@ -12988,13 +12988,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.461286</v>
+        <v>0.321046</v>
       </c>
       <c r="C19" t="n">
-        <v>0.573655</v>
+        <v>0.376699</v>
       </c>
       <c r="D19" t="n">
-        <v>0.30576</v>
+        <v>0.195328</v>
       </c>
     </row>
     <row r="20">
@@ -13002,13 +13002,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.484193</v>
+        <v>0.343817</v>
       </c>
       <c r="C20" t="n">
-        <v>0.593202</v>
+        <v>0.395593</v>
       </c>
       <c r="D20" t="n">
-        <v>0.316858</v>
+        <v>0.204041</v>
       </c>
     </row>
     <row r="21">
@@ -13016,13 +13016,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.503194</v>
+        <v>0.358744</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6170330000000001</v>
+        <v>0.418639</v>
       </c>
       <c r="D21" t="n">
-        <v>0.33151</v>
+        <v>0.212056</v>
       </c>
     </row>
     <row r="22">
@@ -13030,13 +13030,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.536313</v>
+        <v>0.381668</v>
       </c>
       <c r="C22" t="n">
-        <v>0.642624</v>
+        <v>0.444995</v>
       </c>
       <c r="D22" t="n">
-        <v>0.343944</v>
+        <v>0.22154</v>
       </c>
     </row>
     <row r="23">
@@ -13044,13 +13044,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.544512</v>
+        <v>0.40309</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6828070000000001</v>
+        <v>0.468079</v>
       </c>
       <c r="D23" t="n">
-        <v>0.351801</v>
+        <v>0.2285</v>
       </c>
     </row>
     <row r="24">
@@ -13058,13 +13058,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.588261</v>
+        <v>0.426883</v>
       </c>
       <c r="C24" t="n">
-        <v>0.712607</v>
+        <v>0.494867</v>
       </c>
       <c r="D24" t="n">
-        <v>0.36658</v>
+        <v>0.237977</v>
       </c>
     </row>
     <row r="25">
@@ -13072,13 +13072,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.596838</v>
+        <v>0.448262</v>
       </c>
       <c r="C25" t="n">
-        <v>0.751574</v>
+        <v>0.515942</v>
       </c>
       <c r="D25" t="n">
-        <v>0.380574</v>
+        <v>0.248104</v>
       </c>
     </row>
     <row r="26">
@@ -13086,13 +13086,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.62507</v>
+        <v>0.469865</v>
       </c>
       <c r="C26" t="n">
-        <v>0.456337</v>
+        <v>0.320558</v>
       </c>
       <c r="D26" t="n">
-        <v>0.267731</v>
+        <v>0.170009</v>
       </c>
     </row>
     <row r="27">
@@ -13100,13 +13100,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.65174</v>
+        <v>0.494906</v>
       </c>
       <c r="C27" t="n">
-        <v>0.474391</v>
+        <v>0.336124</v>
       </c>
       <c r="D27" t="n">
-        <v>0.281201</v>
+        <v>0.176871</v>
       </c>
     </row>
     <row r="28">
@@ -13114,13 +13114,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.67502</v>
+        <v>0.521443</v>
       </c>
       <c r="C28" t="n">
-        <v>0.498057</v>
+        <v>0.359612</v>
       </c>
       <c r="D28" t="n">
-        <v>0.289849</v>
+        <v>0.18431</v>
       </c>
     </row>
     <row r="29">
@@ -13128,13 +13128,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.703944</v>
+        <v>0.540458</v>
       </c>
       <c r="C29" t="n">
-        <v>0.526427</v>
+        <v>0.37587</v>
       </c>
       <c r="D29" t="n">
-        <v>0.298922</v>
+        <v>0.190113</v>
       </c>
     </row>
     <row r="30">
@@ -13142,13 +13142,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.77224</v>
+        <v>0.569277</v>
       </c>
       <c r="C30" t="n">
-        <v>0.553132</v>
+        <v>0.392255</v>
       </c>
       <c r="D30" t="n">
-        <v>0.318454</v>
+        <v>0.198302</v>
       </c>
     </row>
     <row r="31">
@@ -13156,13 +13156,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.834519</v>
+        <v>0.599975</v>
       </c>
       <c r="C31" t="n">
-        <v>0.606511</v>
+        <v>0.409485</v>
       </c>
       <c r="D31" t="n">
-        <v>0.330243</v>
+        <v>0.204685</v>
       </c>
     </row>
     <row r="32">
@@ -13170,13 +13170,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.529022</v>
+        <v>0.354119</v>
       </c>
       <c r="C32" t="n">
-        <v>0.610972</v>
+        <v>0.436732</v>
       </c>
       <c r="D32" t="n">
-        <v>0.348765</v>
+        <v>0.212174</v>
       </c>
     </row>
     <row r="33">
@@ -13184,13 +13184,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.547945</v>
+        <v>0.373476</v>
       </c>
       <c r="C33" t="n">
-        <v>0.637281</v>
+        <v>0.458057</v>
       </c>
       <c r="D33" t="n">
-        <v>0.358363</v>
+        <v>0.219441</v>
       </c>
     </row>
     <row r="34">
@@ -13198,13 +13198,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.584625</v>
+        <v>0.388317</v>
       </c>
       <c r="C34" t="n">
-        <v>0.669892</v>
+        <v>0.486484</v>
       </c>
       <c r="D34" t="n">
-        <v>0.374255</v>
+        <v>0.225678</v>
       </c>
     </row>
     <row r="35">
@@ -13212,13 +13212,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.592552</v>
+        <v>0.407838</v>
       </c>
       <c r="C35" t="n">
-        <v>0.733307</v>
+        <v>0.498336</v>
       </c>
       <c r="D35" t="n">
-        <v>0.370351</v>
+        <v>0.2338</v>
       </c>
     </row>
     <row r="36">
@@ -13226,13 +13226,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.630893</v>
+        <v>0.431436</v>
       </c>
       <c r="C36" t="n">
-        <v>0.747993</v>
+        <v>0.527782</v>
       </c>
       <c r="D36" t="n">
-        <v>0.395857</v>
+        <v>0.243487</v>
       </c>
     </row>
     <row r="37">
@@ -13240,13 +13240,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.669825</v>
+        <v>0.446411</v>
       </c>
       <c r="C37" t="n">
-        <v>0.796547</v>
+        <v>0.547401</v>
       </c>
       <c r="D37" t="n">
-        <v>0.42582</v>
+        <v>0.25176</v>
       </c>
     </row>
     <row r="38">
@@ -13254,13 +13254,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.715087</v>
+        <v>0.471333</v>
       </c>
       <c r="C38" t="n">
-        <v>0.847864</v>
+        <v>0.574729</v>
       </c>
       <c r="D38" t="n">
-        <v>0.431481</v>
+        <v>0.260638</v>
       </c>
     </row>
     <row r="39">
@@ -13268,13 +13268,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.745271</v>
+        <v>0.494616</v>
       </c>
       <c r="C39" t="n">
-        <v>0.8685659999999999</v>
+        <v>0.596803</v>
       </c>
       <c r="D39" t="n">
-        <v>0.452464</v>
+        <v>0.270713</v>
       </c>
     </row>
     <row r="40">
@@ -13282,13 +13282,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.807435</v>
+        <v>0.518954</v>
       </c>
       <c r="C40" t="n">
-        <v>0.556938</v>
+        <v>0.358159</v>
       </c>
       <c r="D40" t="n">
-        <v>0.340841</v>
+        <v>0.201707</v>
       </c>
     </row>
     <row r="41">
@@ -13296,13 +13296,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.842397</v>
+        <v>0.5486529999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>0.5935240000000001</v>
+        <v>0.375063</v>
       </c>
       <c r="D41" t="n">
-        <v>0.354861</v>
+        <v>0.206564</v>
       </c>
     </row>
     <row r="42">
@@ -13310,13 +13310,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.8825499999999999</v>
+        <v>0.568778</v>
       </c>
       <c r="C42" t="n">
-        <v>0.6166740000000001</v>
+        <v>0.392834</v>
       </c>
       <c r="D42" t="n">
-        <v>0.380165</v>
+        <v>0.214554</v>
       </c>
     </row>
     <row r="43">
@@ -13324,13 +13324,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9531500000000001</v>
+        <v>0.59627</v>
       </c>
       <c r="C43" t="n">
-        <v>0.671468</v>
+        <v>0.412362</v>
       </c>
       <c r="D43" t="n">
-        <v>0.386557</v>
+        <v>0.222305</v>
       </c>
     </row>
     <row r="44">
@@ -13338,13 +13338,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.988306</v>
+        <v>0.621827</v>
       </c>
       <c r="C44" t="n">
-        <v>0.710506</v>
+        <v>0.430644</v>
       </c>
       <c r="D44" t="n">
-        <v>0.403428</v>
+        <v>0.230024</v>
       </c>
     </row>
     <row r="45">
@@ -13352,13 +13352,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>1.07305</v>
+        <v>0.649659</v>
       </c>
       <c r="C45" t="n">
-        <v>0.747234</v>
+        <v>0.451877</v>
       </c>
       <c r="D45" t="n">
-        <v>0.43399</v>
+        <v>0.23857</v>
       </c>
     </row>
     <row r="46">
@@ -13366,13 +13366,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.674058</v>
+        <v>0.374832</v>
       </c>
       <c r="C46" t="n">
-        <v>0.823404</v>
+        <v>0.47789</v>
       </c>
       <c r="D46" t="n">
-        <v>0.460086</v>
+        <v>0.246102</v>
       </c>
     </row>
     <row r="47">
@@ -13380,13 +13380,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.718348</v>
+        <v>0.394416</v>
       </c>
       <c r="C47" t="n">
-        <v>0.867866</v>
+        <v>0.501768</v>
       </c>
       <c r="D47" t="n">
-        <v>0.47381</v>
+        <v>0.253635</v>
       </c>
     </row>
     <row r="48">
@@ -13394,13 +13394,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.754937</v>
+        <v>0.414476</v>
       </c>
       <c r="C48" t="n">
-        <v>0.933459</v>
+        <v>0.5236769999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>0.506487</v>
+        <v>0.261877</v>
       </c>
     </row>
     <row r="49">
@@ -13408,13 +13408,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.806209</v>
+        <v>0.431678</v>
       </c>
       <c r="C49" t="n">
-        <v>0.993347</v>
+        <v>0.550125</v>
       </c>
       <c r="D49" t="n">
-        <v>0.536226</v>
+        <v>0.270699</v>
       </c>
     </row>
     <row r="50">
@@ -13422,13 +13422,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.848595</v>
+        <v>0.453646</v>
       </c>
       <c r="C50" t="n">
-        <v>1.05136</v>
+        <v>0.581148</v>
       </c>
       <c r="D50" t="n">
-        <v>0.5735749999999999</v>
+        <v>0.280266</v>
       </c>
     </row>
     <row r="51">
@@ -13436,13 +13436,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.903647</v>
+        <v>0.477567</v>
       </c>
       <c r="C51" t="n">
-        <v>1.11224</v>
+        <v>0.597147</v>
       </c>
       <c r="D51" t="n">
-        <v>0.59132</v>
+        <v>0.288816</v>
       </c>
     </row>
     <row r="52">
@@ -13450,13 +13450,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.970209</v>
+        <v>0.502322</v>
       </c>
       <c r="C52" t="n">
-        <v>1.19348</v>
+        <v>0.624207</v>
       </c>
       <c r="D52" t="n">
-        <v>0.6594410000000001</v>
+        <v>0.298502</v>
       </c>
     </row>
     <row r="53">
@@ -13464,13 +13464,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.06459</v>
+        <v>0.525994</v>
       </c>
       <c r="C53" t="n">
-        <v>1.27628</v>
+        <v>0.653929</v>
       </c>
       <c r="D53" t="n">
-        <v>0.667968</v>
+        <v>0.306649</v>
       </c>
     </row>
     <row r="54">
@@ -13478,13 +13478,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.10557</v>
+        <v>0.5499810000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>0.80564</v>
+        <v>0.38621</v>
       </c>
       <c r="D54" t="n">
-        <v>0.474405</v>
+        <v>0.218612</v>
       </c>
     </row>
     <row r="55">
@@ -13492,13 +13492,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.17186</v>
+        <v>0.578363</v>
       </c>
       <c r="C55" t="n">
-        <v>0.84611</v>
+        <v>0.400896</v>
       </c>
       <c r="D55" t="n">
-        <v>0.492327</v>
+        <v>0.225973</v>
       </c>
     </row>
     <row r="56">
@@ -13506,13 +13506,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.25994</v>
+        <v>0.6086240000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>0.901491</v>
+        <v>0.422737</v>
       </c>
       <c r="D56" t="n">
-        <v>0.5145690000000001</v>
+        <v>0.235669</v>
       </c>
     </row>
     <row r="57">
@@ -13520,13 +13520,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.32245</v>
+        <v>0.6383799999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>0.960446</v>
+        <v>0.444876</v>
       </c>
       <c r="D57" t="n">
-        <v>0.538821</v>
+        <v>0.242704</v>
       </c>
     </row>
     <row r="58">
@@ -13534,13 +13534,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.42345</v>
+        <v>0.66645</v>
       </c>
       <c r="C58" t="n">
-        <v>1.04111</v>
+        <v>0.468779</v>
       </c>
       <c r="D58" t="n">
-        <v>0.5801809999999999</v>
+        <v>0.249387</v>
       </c>
     </row>
     <row r="59">
@@ -13548,13 +13548,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.52645</v>
+        <v>0.698731</v>
       </c>
       <c r="C59" t="n">
-        <v>1.11986</v>
+        <v>0.492211</v>
       </c>
       <c r="D59" t="n">
-        <v>0.610523</v>
+        <v>0.260335</v>
       </c>
     </row>
     <row r="60">
@@ -13562,13 +13562,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.01479</v>
+        <v>0.388954</v>
       </c>
       <c r="C60" t="n">
-        <v>1.22628</v>
+        <v>0.521481</v>
       </c>
       <c r="D60" t="n">
-        <v>0.651369</v>
+        <v>0.270255</v>
       </c>
     </row>
     <row r="61">
@@ -13576,13 +13576,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.11312</v>
+        <v>0.406665</v>
       </c>
       <c r="C61" t="n">
-        <v>1.34268</v>
+        <v>0.5452129999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>0.6965</v>
+        <v>0.277086</v>
       </c>
     </row>
     <row r="62">
@@ -13590,13 +13590,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.215</v>
+        <v>0.432168</v>
       </c>
       <c r="C62" t="n">
-        <v>1.43822</v>
+        <v>0.580009</v>
       </c>
       <c r="D62" t="n">
-        <v>0.71807</v>
+        <v>0.288156</v>
       </c>
     </row>
     <row r="63">
@@ -13604,13 +13604,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.31091</v>
+        <v>0.457183</v>
       </c>
       <c r="C63" t="n">
-        <v>1.53445</v>
+        <v>0.599341</v>
       </c>
       <c r="D63" t="n">
-        <v>0.765389</v>
+        <v>0.300347</v>
       </c>
     </row>
     <row r="64">
@@ -13618,13 +13618,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.38337</v>
+        <v>0.485387</v>
       </c>
       <c r="C64" t="n">
-        <v>1.67318</v>
+        <v>0.65097</v>
       </c>
       <c r="D64" t="n">
-        <v>0.8115599999999999</v>
+        <v>0.312367</v>
       </c>
     </row>
     <row r="65">
@@ -13632,13 +13632,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.49146</v>
+        <v>0.5193140000000001</v>
       </c>
       <c r="C65" t="n">
-        <v>1.89019</v>
+        <v>0.687316</v>
       </c>
       <c r="D65" t="n">
-        <v>0.86575</v>
+        <v>0.328613</v>
       </c>
     </row>
     <row r="66">
@@ -13646,13 +13646,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.70712</v>
+        <v>0.550685</v>
       </c>
       <c r="C66" t="n">
-        <v>2.02013</v>
+        <v>0.715226</v>
       </c>
       <c r="D66" t="n">
-        <v>0.938732</v>
+        <v>0.339391</v>
       </c>
     </row>
     <row r="67">
@@ -13660,13 +13660,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.82024</v>
+        <v>0.57864</v>
       </c>
       <c r="C67" t="n">
-        <v>2.21853</v>
+        <v>0.76408</v>
       </c>
       <c r="D67" t="n">
-        <v>1.00298</v>
+        <v>0.353529</v>
       </c>
     </row>
     <row r="68">
@@ -13674,13 +13674,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.94215</v>
+        <v>0.611069</v>
       </c>
       <c r="C68" t="n">
-        <v>1.32291</v>
+        <v>0.430971</v>
       </c>
       <c r="D68" t="n">
-        <v>0.68808</v>
+        <v>0.244337</v>
       </c>
     </row>
     <row r="69">
@@ -13688,13 +13688,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>2.1687</v>
+        <v>0.652454</v>
       </c>
       <c r="C69" t="n">
-        <v>1.51451</v>
+        <v>0.461514</v>
       </c>
       <c r="D69" t="n">
-        <v>0.717909</v>
+        <v>0.255684</v>
       </c>
     </row>
     <row r="70">
@@ -13702,13 +13702,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>2.33224</v>
+        <v>0.693047</v>
       </c>
       <c r="C70" t="n">
-        <v>1.5954</v>
+        <v>0.489183</v>
       </c>
       <c r="D70" t="n">
-        <v>0.773832</v>
+        <v>0.267176</v>
       </c>
     </row>
     <row r="71">
@@ -13716,13 +13716,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>2.57966</v>
+        <v>0.734937</v>
       </c>
       <c r="C71" t="n">
-        <v>1.75767</v>
+        <v>0.526902</v>
       </c>
       <c r="D71" t="n">
-        <v>0.839044</v>
+        <v>0.278196</v>
       </c>
     </row>
     <row r="72">
@@ -13730,13 +13730,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>2.70527</v>
+        <v>0.783266</v>
       </c>
       <c r="C72" t="n">
-        <v>1.89708</v>
+        <v>0.55802</v>
       </c>
       <c r="D72" t="n">
-        <v>0.914767</v>
+        <v>0.289722</v>
       </c>
     </row>
     <row r="73">
@@ -13744,13 +13744,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>2.88999</v>
+        <v>0.83161</v>
       </c>
       <c r="C73" t="n">
-        <v>2.03672</v>
+        <v>0.594176</v>
       </c>
       <c r="D73" t="n">
-        <v>0.9712460000000001</v>
+        <v>0.302876</v>
       </c>
     </row>
     <row r="74">
@@ -13758,13 +13758,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.83688</v>
+        <v>0.474701</v>
       </c>
       <c r="C74" t="n">
-        <v>2.25044</v>
+        <v>0.633367</v>
       </c>
       <c r="D74" t="n">
-        <v>1.08151</v>
+        <v>0.315178</v>
       </c>
     </row>
     <row r="75">
@@ -13772,13 +13772,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.96647</v>
+        <v>0.5088240000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>2.39044</v>
+        <v>0.667772</v>
       </c>
       <c r="D75" t="n">
-        <v>1.07357</v>
+        <v>0.329303</v>
       </c>
     </row>
     <row r="76">
@@ -13786,13 +13786,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>2.07894</v>
+        <v>0.549551</v>
       </c>
       <c r="C76" t="n">
-        <v>2.56715</v>
+        <v>0.730994</v>
       </c>
       <c r="D76" t="n">
-        <v>1.14357</v>
+        <v>0.347361</v>
       </c>
     </row>
     <row r="77">
@@ -13800,13 +13800,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>2.2154</v>
+        <v>0.599834</v>
       </c>
       <c r="C77" t="n">
-        <v>2.74541</v>
+        <v>0.790585</v>
       </c>
       <c r="D77" t="n">
-        <v>1.2286</v>
+        <v>0.362874</v>
       </c>
     </row>
     <row r="78">
@@ -13814,13 +13814,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>2.38628</v>
+        <v>0.650358</v>
       </c>
       <c r="C78" t="n">
-        <v>2.97581</v>
+        <v>0.852836</v>
       </c>
       <c r="D78" t="n">
-        <v>1.35891</v>
+        <v>0.381342</v>
       </c>
     </row>
     <row r="79">
@@ -13828,13 +13828,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>2.57123</v>
+        <v>0.744463</v>
       </c>
       <c r="C79" t="n">
-        <v>3.1958</v>
+        <v>0.925444</v>
       </c>
       <c r="D79" t="n">
-        <v>1.43876</v>
+        <v>0.39726</v>
       </c>
     </row>
     <row r="80">
@@ -13842,13 +13842,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>2.66624</v>
+        <v>0.807273</v>
       </c>
       <c r="C80" t="n">
-        <v>3.36266</v>
+        <v>1.01461</v>
       </c>
       <c r="D80" t="n">
-        <v>1.49587</v>
+        <v>0.422243</v>
       </c>
     </row>
     <row r="81">
@@ -13856,13 +13856,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>2.86436</v>
+        <v>0.918587</v>
       </c>
       <c r="C81" t="n">
-        <v>3.71862</v>
+        <v>1.14786</v>
       </c>
       <c r="D81" t="n">
-        <v>1.63175</v>
+        <v>0.449637</v>
       </c>
     </row>
     <row r="82">
@@ -13870,13 +13870,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>3.01314</v>
+        <v>1.01372</v>
       </c>
       <c r="C82" t="n">
-        <v>3.82324</v>
+        <v>1.21609</v>
       </c>
       <c r="D82" t="n">
-        <v>1.71191</v>
+        <v>0.473618</v>
       </c>
     </row>
     <row r="83">
@@ -13884,13 +13884,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>3.28445</v>
+        <v>1.12175</v>
       </c>
       <c r="C83" t="n">
-        <v>2.25107</v>
+        <v>0.753768</v>
       </c>
       <c r="D83" t="n">
-        <v>1.16635</v>
+        <v>0.331869</v>
       </c>
     </row>
     <row r="84">
@@ -13898,13 +13898,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>3.46688</v>
+        <v>1.29004</v>
       </c>
       <c r="C84" t="n">
-        <v>2.36772</v>
+        <v>0.849463</v>
       </c>
       <c r="D84" t="n">
-        <v>1.22067</v>
+        <v>0.358442</v>
       </c>
     </row>
     <row r="85">
@@ -13912,13 +13912,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>3.55443</v>
+        <v>1.44518</v>
       </c>
       <c r="C85" t="n">
-        <v>2.51155</v>
+        <v>0.960659</v>
       </c>
       <c r="D85" t="n">
-        <v>1.28669</v>
+        <v>0.398466</v>
       </c>
     </row>
     <row r="86">
@@ -13926,13 +13926,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>3.75544</v>
+        <v>1.64557</v>
       </c>
       <c r="C86" t="n">
-        <v>2.6685</v>
+        <v>1.0963</v>
       </c>
       <c r="D86" t="n">
-        <v>1.36787</v>
+        <v>0.424206</v>
       </c>
     </row>
     <row r="87">
@@ -13940,13 +13940,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>3.98001</v>
+        <v>1.81844</v>
       </c>
       <c r="C87" t="n">
-        <v>2.81468</v>
+        <v>1.22174</v>
       </c>
       <c r="D87" t="n">
-        <v>1.4297</v>
+        <v>0.474502</v>
       </c>
     </row>
     <row r="88">
@@ -13954,13 +13954,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>4.56905</v>
+        <v>2.02875</v>
       </c>
       <c r="C88" t="n">
-        <v>2.99611</v>
+        <v>1.38063</v>
       </c>
       <c r="D88" t="n">
-        <v>1.51224</v>
+        <v>0.527621</v>
       </c>
     </row>
     <row r="89">
@@ -13968,13 +13968,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.48401</v>
+        <v>1.2953</v>
       </c>
       <c r="C89" t="n">
-        <v>3.16318</v>
+        <v>1.52839</v>
       </c>
       <c r="D89" t="n">
-        <v>1.5924</v>
+        <v>0.5714399999999999</v>
       </c>
     </row>
     <row r="90">
@@ -13982,13 +13982,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.60334</v>
+        <v>1.41176</v>
       </c>
       <c r="C90" t="n">
-        <v>3.39552</v>
+        <v>1.67381</v>
       </c>
       <c r="D90" t="n">
-        <v>1.68593</v>
+        <v>0.6247470000000001</v>
       </c>
     </row>
     <row r="91">
@@ -13996,13 +13996,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.74027</v>
+        <v>1.53007</v>
       </c>
       <c r="C91" t="n">
-        <v>3.54446</v>
+        <v>1.86416</v>
       </c>
       <c r="D91" t="n">
-        <v>1.7486</v>
+        <v>0.679599</v>
       </c>
     </row>
     <row r="92">
@@ -14010,13 +14010,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.91934</v>
+        <v>1.65916</v>
       </c>
       <c r="C92" t="n">
-        <v>3.88977</v>
+        <v>2.04379</v>
       </c>
       <c r="D92" t="n">
-        <v>1.89655</v>
+        <v>0.737822</v>
       </c>
     </row>
     <row r="93">
@@ -14024,13 +14024,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>3.02843</v>
+        <v>1.78434</v>
       </c>
       <c r="C93" t="n">
-        <v>3.94902</v>
+        <v>2.21202</v>
       </c>
       <c r="D93" t="n">
-        <v>1.89039</v>
+        <v>0.798525</v>
       </c>
     </row>
     <row r="94">
@@ -14038,13 +14038,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>3.17318</v>
+        <v>1.93673</v>
       </c>
       <c r="C94" t="n">
-        <v>4.19749</v>
+        <v>2.44138</v>
       </c>
       <c r="D94" t="n">
-        <v>2.0443</v>
+        <v>0.862022</v>
       </c>
     </row>
     <row r="95">
@@ -14052,13 +14052,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.36443</v>
+        <v>2.09587</v>
       </c>
       <c r="C95" t="n">
-        <v>4.41412</v>
+        <v>2.634</v>
       </c>
       <c r="D95" t="n">
-        <v>2.13933</v>
+        <v>0.929584</v>
       </c>
     </row>
     <row r="96">
@@ -14066,13 +14066,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.52923</v>
+        <v>2.27739</v>
       </c>
       <c r="C96" t="n">
-        <v>4.73379</v>
+        <v>2.8651</v>
       </c>
       <c r="D96" t="n">
-        <v>2.39947</v>
+        <v>0.999439</v>
       </c>
     </row>
     <row r="97">
@@ -14080,13 +14080,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.70419</v>
+        <v>2.45539</v>
       </c>
       <c r="C97" t="n">
-        <v>2.68736</v>
+        <v>1.64235</v>
       </c>
       <c r="D97" t="n">
-        <v>1.45992</v>
+        <v>0.706447</v>
       </c>
     </row>
     <row r="98">
@@ -14094,13 +14094,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.90278</v>
+        <v>2.6118</v>
       </c>
       <c r="C98" t="n">
-        <v>2.81327</v>
+        <v>1.75566</v>
       </c>
       <c r="D98" t="n">
-        <v>1.50901</v>
+        <v>0.746802</v>
       </c>
     </row>
     <row r="99">
@@ -14108,13 +14108,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>4.10763</v>
+        <v>2.80844</v>
       </c>
       <c r="C99" t="n">
-        <v>2.94042</v>
+        <v>1.87449</v>
       </c>
       <c r="D99" t="n">
-        <v>1.62792</v>
+        <v>0.793023</v>
       </c>
     </row>
     <row r="100">
@@ -14122,13 +14122,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>4.36513</v>
+        <v>3.02181</v>
       </c>
       <c r="C100" t="n">
-        <v>3.1072</v>
+        <v>2.02735</v>
       </c>
       <c r="D100" t="n">
-        <v>1.71644</v>
+        <v>0.837477</v>
       </c>
     </row>
     <row r="101">
@@ -14136,13 +14136,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>4.56584</v>
+        <v>3.21251</v>
       </c>
       <c r="C101" t="n">
-        <v>3.26271</v>
+        <v>2.16474</v>
       </c>
       <c r="D101" t="n">
-        <v>1.74522</v>
+        <v>0.886831</v>
       </c>
     </row>
     <row r="102">
@@ -14150,13 +14150,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>4.80265</v>
+        <v>3.41802</v>
       </c>
       <c r="C102" t="n">
-        <v>3.49286</v>
+        <v>2.29533</v>
       </c>
       <c r="D102" t="n">
-        <v>1.90258</v>
+        <v>0.934625</v>
       </c>
     </row>
     <row r="103">
@@ -14164,13 +14164,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.79581</v>
+        <v>1.93543</v>
       </c>
       <c r="C103" t="n">
-        <v>3.7106</v>
+        <v>2.4563</v>
       </c>
       <c r="D103" t="n">
-        <v>1.98365</v>
+        <v>0.981904</v>
       </c>
     </row>
     <row r="104">
@@ -14178,13 +14178,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.94402</v>
+        <v>2.05565</v>
       </c>
       <c r="C104" t="n">
-        <v>3.87151</v>
+        <v>2.61561</v>
       </c>
       <c r="D104" t="n">
-        <v>1.97558</v>
+        <v>1.03339</v>
       </c>
     </row>
     <row r="105">
@@ -14192,13 +14192,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>3.07734</v>
+        <v>2.18607</v>
       </c>
       <c r="C105" t="n">
-        <v>4.08015</v>
+        <v>2.76416</v>
       </c>
       <c r="D105" t="n">
-        <v>2.08729</v>
+        <v>1.09192</v>
       </c>
     </row>
     <row r="106">
@@ -14206,13 +14206,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.28977</v>
+        <v>2.31032</v>
       </c>
       <c r="C106" t="n">
-        <v>4.28107</v>
+        <v>2.93636</v>
       </c>
       <c r="D106" t="n">
-        <v>2.18181</v>
+        <v>1.14827</v>
       </c>
     </row>
     <row r="107">
@@ -14220,13 +14220,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.36142</v>
+        <v>2.45744</v>
       </c>
       <c r="C107" t="n">
-        <v>4.47377</v>
+        <v>3.11022</v>
       </c>
       <c r="D107" t="n">
-        <v>2.34075</v>
+        <v>1.20396</v>
       </c>
     </row>
     <row r="108">
@@ -14234,13 +14234,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.56135</v>
+        <v>2.60286</v>
       </c>
       <c r="C108" t="n">
-        <v>4.71317</v>
+        <v>3.28487</v>
       </c>
       <c r="D108" t="n">
-        <v>2.51051</v>
+        <v>1.26654</v>
       </c>
     </row>
     <row r="109">
@@ -14248,13 +14248,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.7098</v>
+        <v>2.75955</v>
       </c>
       <c r="C109" t="n">
-        <v>4.97186</v>
+        <v>3.48923</v>
       </c>
       <c r="D109" t="n">
-        <v>2.56579</v>
+        <v>1.33083</v>
       </c>
     </row>
     <row r="110">
@@ -14262,13 +14262,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.92406</v>
+        <v>2.91569</v>
       </c>
       <c r="C110" t="n">
-        <v>5.22993</v>
+        <v>3.6934</v>
       </c>
       <c r="D110" t="n">
-        <v>2.69538</v>
+        <v>1.39688</v>
       </c>
     </row>
     <row r="111">
@@ -14276,13 +14276,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>4.07144</v>
+        <v>3.06112</v>
       </c>
       <c r="C111" t="n">
-        <v>2.95054</v>
+        <v>2.04088</v>
       </c>
       <c r="D111" t="n">
-        <v>1.81511</v>
+        <v>0.983581</v>
       </c>
     </row>
     <row r="112">
@@ -14290,13 +14290,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.26958</v>
+        <v>3.25964</v>
       </c>
       <c r="C112" t="n">
-        <v>3.10793</v>
+        <v>2.16769</v>
       </c>
       <c r="D112" t="n">
-        <v>1.96549</v>
+        <v>1.0286</v>
       </c>
     </row>
     <row r="113">
@@ -14304,13 +14304,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.55207</v>
+        <v>3.44966</v>
       </c>
       <c r="C113" t="n">
-        <v>3.22857</v>
+        <v>2.27853</v>
       </c>
       <c r="D113" t="n">
-        <v>1.99236</v>
+        <v>1.06961</v>
       </c>
     </row>
     <row r="114">
@@ -14318,13 +14318,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.73264</v>
+        <v>3.64574</v>
       </c>
       <c r="C114" t="n">
-        <v>3.40933</v>
+        <v>2.41856</v>
       </c>
       <c r="D114" t="n">
-        <v>2.07791</v>
+        <v>1.12121</v>
       </c>
     </row>
     <row r="115">
@@ -14332,13 +14332,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>5.032</v>
+        <v>3.83594</v>
       </c>
       <c r="C115" t="n">
-        <v>3.57332</v>
+        <v>2.55124</v>
       </c>
       <c r="D115" t="n">
-        <v>2.16855</v>
+        <v>1.17006</v>
       </c>
     </row>
     <row r="116">
@@ -14346,13 +14346,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>5.27396</v>
+        <v>4.06458</v>
       </c>
       <c r="C116" t="n">
-        <v>3.75822</v>
+        <v>2.70678</v>
       </c>
       <c r="D116" t="n">
-        <v>2.2622</v>
+        <v>1.22099</v>
       </c>
     </row>
     <row r="117">
@@ -14360,13 +14360,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>3.06592</v>
+        <v>2.24776</v>
       </c>
       <c r="C117" t="n">
-        <v>3.97393</v>
+        <v>2.89772</v>
       </c>
       <c r="D117" t="n">
-        <v>2.35534</v>
+        <v>1.26908</v>
       </c>
     </row>
     <row r="118">
@@ -14374,13 +14374,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>3.2105</v>
+        <v>2.35714</v>
       </c>
       <c r="C118" t="n">
-        <v>4.20961</v>
+        <v>3.05827</v>
       </c>
       <c r="D118" t="n">
-        <v>2.46821</v>
+        <v>1.32599</v>
       </c>
     </row>
     <row r="119">
@@ -14388,13 +14388,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>3.40064</v>
+        <v>2.48356</v>
       </c>
       <c r="C119" t="n">
-        <v>4.45594</v>
+        <v>3.2297</v>
       </c>
       <c r="D119" t="n">
-        <v>2.4634</v>
+        <v>1.3767</v>
       </c>
     </row>
   </sheetData>

--- a/vs/scattered unsuccessful looukp.xlsx
+++ b/vs/scattered unsuccessful looukp.xlsx
@@ -9366,13 +9366,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.139146</v>
+        <v>0.138606</v>
       </c>
       <c r="C2" t="n">
-        <v>0.130402</v>
+        <v>0.130507</v>
       </c>
       <c r="D2" t="n">
-        <v>0.150186</v>
+        <v>0.150568</v>
       </c>
     </row>
     <row r="3">
@@ -9380,13 +9380,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.143283</v>
+        <v>0.14249</v>
       </c>
       <c r="C3" t="n">
-        <v>0.13389</v>
+        <v>0.133699</v>
       </c>
       <c r="D3" t="n">
-        <v>0.151454</v>
+        <v>0.152399</v>
       </c>
     </row>
     <row r="4">
@@ -9394,13 +9394,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.146159</v>
+        <v>0.145578</v>
       </c>
       <c r="C4" t="n">
-        <v>0.137305</v>
+        <v>0.137799</v>
       </c>
       <c r="D4" t="n">
-        <v>0.157207</v>
+        <v>0.155612</v>
       </c>
     </row>
     <row r="5">
@@ -9408,13 +9408,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.150289</v>
+        <v>0.14969</v>
       </c>
       <c r="C5" t="n">
-        <v>0.139449</v>
+        <v>0.140756</v>
       </c>
       <c r="D5" t="n">
-        <v>0.160441</v>
+        <v>0.160083</v>
       </c>
     </row>
     <row r="6">
@@ -9422,13 +9422,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.154296</v>
+        <v>0.153764</v>
       </c>
       <c r="C6" t="n">
-        <v>0.142822</v>
+        <v>0.142935</v>
       </c>
       <c r="D6" t="n">
-        <v>0.162083</v>
+        <v>0.162919</v>
       </c>
     </row>
     <row r="7">
@@ -9436,13 +9436,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.156618</v>
+        <v>0.157309</v>
       </c>
       <c r="C7" t="n">
-        <v>0.111707</v>
+        <v>0.111853</v>
       </c>
       <c r="D7" t="n">
-        <v>0.134381</v>
+        <v>0.1332</v>
       </c>
     </row>
     <row r="8">
@@ -9450,13 +9450,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.160434</v>
+        <v>0.159976</v>
       </c>
       <c r="C8" t="n">
-        <v>0.116232</v>
+        <v>0.115934</v>
       </c>
       <c r="D8" t="n">
-        <v>0.138997</v>
+        <v>0.139059</v>
       </c>
     </row>
     <row r="9">
@@ -9464,13 +9464,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.163204</v>
+        <v>0.162206</v>
       </c>
       <c r="C9" t="n">
-        <v>0.120114</v>
+        <v>0.120828</v>
       </c>
       <c r="D9" t="n">
-        <v>0.144877</v>
+        <v>0.143946</v>
       </c>
     </row>
     <row r="10">
@@ -9478,13 +9478,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.166419</v>
+        <v>0.166169</v>
       </c>
       <c r="C10" t="n">
-        <v>0.124909</v>
+        <v>0.125126</v>
       </c>
       <c r="D10" t="n">
-        <v>0.149413</v>
+        <v>0.149481</v>
       </c>
     </row>
     <row r="11">
@@ -9492,13 +9492,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.169092</v>
+        <v>0.168692</v>
       </c>
       <c r="C11" t="n">
-        <v>0.129291</v>
+        <v>0.129245</v>
       </c>
       <c r="D11" t="n">
-        <v>0.154525</v>
+        <v>0.153355</v>
       </c>
     </row>
     <row r="12">
@@ -9506,13 +9506,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.172642</v>
+        <v>0.172983</v>
       </c>
       <c r="C12" t="n">
-        <v>0.134419</v>
+        <v>0.134125</v>
       </c>
       <c r="D12" t="n">
-        <v>0.160601</v>
+        <v>0.160026</v>
       </c>
     </row>
     <row r="13">
@@ -9520,13 +9520,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.144933</v>
+        <v>0.144814</v>
       </c>
       <c r="C13" t="n">
-        <v>0.139053</v>
+        <v>0.138684</v>
       </c>
       <c r="D13" t="n">
-        <v>0.165637</v>
+        <v>0.165053</v>
       </c>
     </row>
     <row r="14">
@@ -9534,13 +9534,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.148206</v>
+        <v>0.148148</v>
       </c>
       <c r="C14" t="n">
-        <v>0.142629</v>
+        <v>0.142761</v>
       </c>
       <c r="D14" t="n">
-        <v>0.169839</v>
+        <v>0.169546</v>
       </c>
     </row>
     <row r="15">
@@ -9548,13 +9548,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.152462</v>
+        <v>0.153008</v>
       </c>
       <c r="C15" t="n">
-        <v>0.145707</v>
+        <v>0.145709</v>
       </c>
       <c r="D15" t="n">
-        <v>0.173911</v>
+        <v>0.173854</v>
       </c>
     </row>
     <row r="16">
@@ -9562,13 +9562,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.15657</v>
+        <v>0.157137</v>
       </c>
       <c r="C16" t="n">
-        <v>0.149817</v>
+        <v>0.149398</v>
       </c>
       <c r="D16" t="n">
-        <v>0.178154</v>
+        <v>0.178885</v>
       </c>
     </row>
     <row r="17">
@@ -9576,13 +9576,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.160545</v>
+        <v>0.160331</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1543</v>
+        <v>0.153893</v>
       </c>
       <c r="D17" t="n">
-        <v>0.182988</v>
+        <v>0.182831</v>
       </c>
     </row>
     <row r="18">
@@ -9590,13 +9590,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.163671</v>
+        <v>0.163316</v>
       </c>
       <c r="C18" t="n">
-        <v>0.157156</v>
+        <v>0.156956</v>
       </c>
       <c r="D18" t="n">
-        <v>0.187208</v>
+        <v>0.187759</v>
       </c>
     </row>
     <row r="19">
@@ -9604,13 +9604,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.167528</v>
+        <v>0.167091</v>
       </c>
       <c r="C19" t="n">
-        <v>0.160746</v>
+        <v>0.160305</v>
       </c>
       <c r="D19" t="n">
-        <v>0.191576</v>
+        <v>0.190787</v>
       </c>
     </row>
     <row r="20">
@@ -9618,13 +9618,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.16998</v>
+        <v>0.170295</v>
       </c>
       <c r="C20" t="n">
-        <v>0.166037</v>
+        <v>0.16569</v>
       </c>
       <c r="D20" t="n">
-        <v>0.19693</v>
+        <v>0.196563</v>
       </c>
     </row>
     <row r="21">
@@ -9632,13 +9632,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.173173</v>
+        <v>0.173298</v>
       </c>
       <c r="C21" t="n">
-        <v>0.126111</v>
+        <v>0.126051</v>
       </c>
       <c r="D21" t="n">
-        <v>0.150705</v>
+        <v>0.151343</v>
       </c>
     </row>
     <row r="22">
@@ -9646,13 +9646,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.175681</v>
+        <v>0.17585</v>
       </c>
       <c r="C22" t="n">
-        <v>0.130251</v>
+        <v>0.130201</v>
       </c>
       <c r="D22" t="n">
-        <v>0.15667</v>
+        <v>0.156417</v>
       </c>
     </row>
     <row r="23">
@@ -9660,13 +9660,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.179273</v>
+        <v>0.179206</v>
       </c>
       <c r="C23" t="n">
-        <v>0.13398</v>
+        <v>0.134105</v>
       </c>
       <c r="D23" t="n">
-        <v>0.162104</v>
+        <v>0.162259</v>
       </c>
     </row>
     <row r="24">
@@ -9674,13 +9674,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.181492</v>
+        <v>0.18169</v>
       </c>
       <c r="C24" t="n">
-        <v>0.138049</v>
+        <v>0.137904</v>
       </c>
       <c r="D24" t="n">
-        <v>0.16588</v>
+        <v>0.166114</v>
       </c>
     </row>
     <row r="25">
@@ -9688,13 +9688,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.184122</v>
+        <v>0.184281</v>
       </c>
       <c r="C25" t="n">
-        <v>0.141888</v>
+        <v>0.141897</v>
       </c>
       <c r="D25" t="n">
-        <v>0.170645</v>
+        <v>0.171179</v>
       </c>
     </row>
     <row r="26">
@@ -9702,13 +9702,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.187034</v>
+        <v>0.187148</v>
       </c>
       <c r="C26" t="n">
-        <v>0.146275</v>
+        <v>0.145862</v>
       </c>
       <c r="D26" t="n">
-        <v>0.176119</v>
+        <v>0.176481</v>
       </c>
     </row>
     <row r="27">
@@ -9716,13 +9716,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.149549</v>
+        <v>0.14815</v>
       </c>
       <c r="C27" t="n">
-        <v>0.149729</v>
+        <v>0.149544</v>
       </c>
       <c r="D27" t="n">
-        <v>0.180786</v>
+        <v>0.180231</v>
       </c>
     </row>
     <row r="28">
@@ -9730,13 +9730,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.153556</v>
+        <v>0.15208</v>
       </c>
       <c r="C28" t="n">
-        <v>0.153433</v>
+        <v>0.153134</v>
       </c>
       <c r="D28" t="n">
-        <v>0.185385</v>
+        <v>0.18494</v>
       </c>
     </row>
     <row r="29">
@@ -9744,13 +9744,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.156704</v>
+        <v>0.156284</v>
       </c>
       <c r="C29" t="n">
-        <v>0.157291</v>
+        <v>0.157309</v>
       </c>
       <c r="D29" t="n">
-        <v>0.190415</v>
+        <v>0.18966</v>
       </c>
     </row>
     <row r="30">
@@ -9758,13 +9758,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.160646</v>
+        <v>0.160621</v>
       </c>
       <c r="C30" t="n">
-        <v>0.161212</v>
+        <v>0.16124</v>
       </c>
       <c r="D30" t="n">
-        <v>0.194491</v>
+        <v>0.194564</v>
       </c>
     </row>
     <row r="31">
@@ -9772,13 +9772,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.16562</v>
+        <v>0.164795</v>
       </c>
       <c r="C31" t="n">
-        <v>0.164906</v>
+        <v>0.164844</v>
       </c>
       <c r="D31" t="n">
-        <v>0.198953</v>
+        <v>0.19899</v>
       </c>
     </row>
     <row r="32">
@@ -9786,13 +9786,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.168973</v>
+        <v>0.168656</v>
       </c>
       <c r="C32" t="n">
-        <v>0.168549</v>
+        <v>0.169061</v>
       </c>
       <c r="D32" t="n">
-        <v>0.203881</v>
+        <v>0.203745</v>
       </c>
     </row>
     <row r="33">
@@ -9800,13 +9800,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.172543</v>
+        <v>0.172371</v>
       </c>
       <c r="C33" t="n">
-        <v>0.172384</v>
+        <v>0.172866</v>
       </c>
       <c r="D33" t="n">
-        <v>0.20808</v>
+        <v>0.20794</v>
       </c>
     </row>
     <row r="34">
@@ -9814,13 +9814,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.176858</v>
+        <v>0.176088</v>
       </c>
       <c r="C34" t="n">
-        <v>0.177115</v>
+        <v>0.177167</v>
       </c>
       <c r="D34" t="n">
-        <v>0.212815</v>
+        <v>0.212698</v>
       </c>
     </row>
     <row r="35">
@@ -9828,13 +9828,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.180054</v>
+        <v>0.179421</v>
       </c>
       <c r="C35" t="n">
-        <v>0.13272</v>
+        <v>0.132653</v>
       </c>
       <c r="D35" t="n">
-        <v>0.162699</v>
+        <v>0.162071</v>
       </c>
     </row>
     <row r="36">
@@ -9842,13 +9842,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.18139</v>
+        <v>0.181852</v>
       </c>
       <c r="C36" t="n">
-        <v>0.136316</v>
+        <v>0.136398</v>
       </c>
       <c r="D36" t="n">
-        <v>0.16745</v>
+        <v>0.167079</v>
       </c>
     </row>
     <row r="37">
@@ -9856,13 +9856,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.185298</v>
+        <v>0.185326</v>
       </c>
       <c r="C37" t="n">
-        <v>0.140044</v>
+        <v>0.140087</v>
       </c>
       <c r="D37" t="n">
-        <v>0.171567</v>
+        <v>0.171855</v>
       </c>
     </row>
     <row r="38">
@@ -9870,13 +9870,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.186499</v>
+        <v>0.186997</v>
       </c>
       <c r="C38" t="n">
-        <v>0.143866</v>
+        <v>0.144135</v>
       </c>
       <c r="D38" t="n">
-        <v>0.176997</v>
+        <v>0.176428</v>
       </c>
     </row>
     <row r="39">
@@ -9884,13 +9884,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.189201</v>
+        <v>0.189553</v>
       </c>
       <c r="C39" t="n">
-        <v>0.147807</v>
+        <v>0.148054</v>
       </c>
       <c r="D39" t="n">
-        <v>0.181172</v>
+        <v>0.181672</v>
       </c>
     </row>
     <row r="40">
@@ -9898,13 +9898,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.191883</v>
+        <v>0.191963</v>
       </c>
       <c r="C40" t="n">
-        <v>0.151557</v>
+        <v>0.151764</v>
       </c>
       <c r="D40" t="n">
-        <v>0.186415</v>
+        <v>0.186063</v>
       </c>
     </row>
     <row r="41">
@@ -9912,13 +9912,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.151538</v>
+        <v>0.15118</v>
       </c>
       <c r="C41" t="n">
-        <v>0.155968</v>
+        <v>0.155885</v>
       </c>
       <c r="D41" t="n">
-        <v>0.191302</v>
+        <v>0.19118</v>
       </c>
     </row>
     <row r="42">
@@ -9926,13 +9926,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.155416</v>
+        <v>0.155201</v>
       </c>
       <c r="C42" t="n">
-        <v>0.159257</v>
+        <v>0.159245</v>
       </c>
       <c r="D42" t="n">
-        <v>0.196046</v>
+        <v>0.195624</v>
       </c>
     </row>
     <row r="43">
@@ -9940,13 +9940,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.159497</v>
+        <v>0.159441</v>
       </c>
       <c r="C43" t="n">
-        <v>0.163152</v>
+        <v>0.163275</v>
       </c>
       <c r="D43" t="n">
-        <v>0.200299</v>
+        <v>0.20057</v>
       </c>
     </row>
     <row r="44">
@@ -9954,13 +9954,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.163503</v>
+        <v>0.163394</v>
       </c>
       <c r="C44" t="n">
-        <v>0.166906</v>
+        <v>0.166972</v>
       </c>
       <c r="D44" t="n">
-        <v>0.205188</v>
+        <v>0.205479</v>
       </c>
     </row>
     <row r="45">
@@ -9968,13 +9968,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.167353</v>
+        <v>0.167423</v>
       </c>
       <c r="C45" t="n">
-        <v>0.170416</v>
+        <v>0.170498</v>
       </c>
       <c r="D45" t="n">
-        <v>0.209604</v>
+        <v>0.209767</v>
       </c>
     </row>
     <row r="46">
@@ -9982,13 +9982,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.171935</v>
+        <v>0.171844</v>
       </c>
       <c r="C46" t="n">
-        <v>0.173811</v>
+        <v>0.173909</v>
       </c>
       <c r="D46" t="n">
-        <v>0.213914</v>
+        <v>0.213995</v>
       </c>
     </row>
     <row r="47">
@@ -9996,13 +9996,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.175441</v>
+        <v>0.175434</v>
       </c>
       <c r="C47" t="n">
-        <v>0.177345</v>
+        <v>0.177439</v>
       </c>
       <c r="D47" t="n">
-        <v>0.218098</v>
+        <v>0.218324</v>
       </c>
     </row>
     <row r="48">
@@ -10010,13 +10010,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.178664</v>
+        <v>0.178971</v>
       </c>
       <c r="C48" t="n">
-        <v>0.18129</v>
+        <v>0.181655</v>
       </c>
       <c r="D48" t="n">
-        <v>0.22309</v>
+        <v>0.223211</v>
       </c>
     </row>
     <row r="49">
@@ -10024,13 +10024,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.181972</v>
+        <v>0.18197</v>
       </c>
       <c r="C49" t="n">
-        <v>0.185261</v>
+        <v>0.185242</v>
       </c>
       <c r="D49" t="n">
-        <v>0.229558</v>
+        <v>0.229255</v>
       </c>
     </row>
     <row r="50">
@@ -10038,13 +10038,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.184506</v>
+        <v>0.184504</v>
       </c>
       <c r="C50" t="n">
-        <v>0.138005</v>
+        <v>0.137912</v>
       </c>
       <c r="D50" t="n">
-        <v>0.162438</v>
+        <v>0.162093</v>
       </c>
     </row>
     <row r="51">
@@ -10052,13 +10052,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.188892</v>
+        <v>0.188906</v>
       </c>
       <c r="C51" t="n">
-        <v>0.141799</v>
+        <v>0.141612</v>
       </c>
       <c r="D51" t="n">
-        <v>0.16774</v>
+        <v>0.167629</v>
       </c>
     </row>
     <row r="52">
@@ -10066,13 +10066,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.191181</v>
+        <v>0.191741</v>
       </c>
       <c r="C52" t="n">
-        <v>0.146261</v>
+        <v>0.145708</v>
       </c>
       <c r="D52" t="n">
-        <v>0.172697</v>
+        <v>0.172128</v>
       </c>
     </row>
     <row r="53">
@@ -10080,13 +10080,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.19368</v>
+        <v>0.194362</v>
       </c>
       <c r="C53" t="n">
-        <v>0.150006</v>
+        <v>0.150035</v>
       </c>
       <c r="D53" t="n">
-        <v>0.17783</v>
+        <v>0.178171</v>
       </c>
     </row>
     <row r="54">
@@ -10094,13 +10094,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.19725</v>
+        <v>0.197351</v>
       </c>
       <c r="C54" t="n">
-        <v>0.153895</v>
+        <v>0.153752</v>
       </c>
       <c r="D54" t="n">
-        <v>0.183082</v>
+        <v>0.18208</v>
       </c>
     </row>
     <row r="55">
@@ -10108,13 +10108,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.199555</v>
+        <v>0.199921</v>
       </c>
       <c r="C55" t="n">
-        <v>0.158211</v>
+        <v>0.157699</v>
       </c>
       <c r="D55" t="n">
-        <v>0.188186</v>
+        <v>0.187259</v>
       </c>
     </row>
     <row r="56">
@@ -10122,13 +10122,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.15743</v>
+        <v>0.157809</v>
       </c>
       <c r="C56" t="n">
-        <v>0.162183</v>
+        <v>0.162042</v>
       </c>
       <c r="D56" t="n">
-        <v>0.193259</v>
+        <v>0.192852</v>
       </c>
     </row>
     <row r="57">
@@ -10136,13 +10136,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.162124</v>
+        <v>0.161916</v>
       </c>
       <c r="C57" t="n">
-        <v>0.165981</v>
+        <v>0.165731</v>
       </c>
       <c r="D57" t="n">
-        <v>0.198264</v>
+        <v>0.196923</v>
       </c>
     </row>
     <row r="58">
@@ -10150,13 +10150,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.16667</v>
+        <v>0.16651</v>
       </c>
       <c r="C58" t="n">
-        <v>0.170628</v>
+        <v>0.169076</v>
       </c>
       <c r="D58" t="n">
-        <v>0.202593</v>
+        <v>0.201883</v>
       </c>
     </row>
     <row r="59">
@@ -10164,13 +10164,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.171487</v>
+        <v>0.170936</v>
       </c>
       <c r="C59" t="n">
-        <v>0.174078</v>
+        <v>0.172675</v>
       </c>
       <c r="D59" t="n">
-        <v>0.20912</v>
+        <v>0.206957</v>
       </c>
     </row>
     <row r="60">
@@ -10178,13 +10178,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.175218</v>
+        <v>0.175353</v>
       </c>
       <c r="C60" t="n">
-        <v>0.177274</v>
+        <v>0.176872</v>
       </c>
       <c r="D60" t="n">
-        <v>0.213646</v>
+        <v>0.212124</v>
       </c>
     </row>
     <row r="61">
@@ -10192,13 +10192,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.179383</v>
+        <v>0.179451</v>
       </c>
       <c r="C61" t="n">
-        <v>0.180946</v>
+        <v>0.1806</v>
       </c>
       <c r="D61" t="n">
-        <v>0.218915</v>
+        <v>0.217968</v>
       </c>
     </row>
     <row r="62">
@@ -10206,13 +10206,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.183693</v>
+        <v>0.183986</v>
       </c>
       <c r="C62" t="n">
-        <v>0.185525</v>
+        <v>0.185251</v>
       </c>
       <c r="D62" t="n">
-        <v>0.224527</v>
+        <v>0.224634</v>
       </c>
     </row>
     <row r="63">
@@ -10220,13 +10220,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.188014</v>
+        <v>0.187488</v>
       </c>
       <c r="C63" t="n">
-        <v>0.190677</v>
+        <v>0.189164</v>
       </c>
       <c r="D63" t="n">
-        <v>0.231603</v>
+        <v>0.229663</v>
       </c>
     </row>
     <row r="64">
@@ -10234,13 +10234,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.192043</v>
+        <v>0.191956</v>
       </c>
       <c r="C64" t="n">
-        <v>0.142278</v>
+        <v>0.143181</v>
       </c>
       <c r="D64" t="n">
-        <v>0.168767</v>
+        <v>0.16903</v>
       </c>
     </row>
     <row r="65">
@@ -10248,13 +10248,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.196201</v>
+        <v>0.196406</v>
       </c>
       <c r="C65" t="n">
-        <v>0.147991</v>
+        <v>0.147216</v>
       </c>
       <c r="D65" t="n">
-        <v>0.175483</v>
+        <v>0.174975</v>
       </c>
     </row>
     <row r="66">
@@ -10262,13 +10262,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.200493</v>
+        <v>0.200098</v>
       </c>
       <c r="C66" t="n">
-        <v>0.152154</v>
+        <v>0.152171</v>
       </c>
       <c r="D66" t="n">
-        <v>0.18085</v>
+        <v>0.181013</v>
       </c>
     </row>
     <row r="67">
@@ -10276,13 +10276,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.204791</v>
+        <v>0.204657</v>
       </c>
       <c r="C67" t="n">
-        <v>0.157021</v>
+        <v>0.15734</v>
       </c>
       <c r="D67" t="n">
-        <v>0.187974</v>
+        <v>0.187806</v>
       </c>
     </row>
     <row r="68">
@@ -10290,13 +10290,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.208199</v>
+        <v>0.208522</v>
       </c>
       <c r="C68" t="n">
-        <v>0.161425</v>
+        <v>0.162569</v>
       </c>
       <c r="D68" t="n">
-        <v>0.19323</v>
+        <v>0.194534</v>
       </c>
     </row>
     <row r="69">
@@ -10304,13 +10304,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.213148</v>
+        <v>0.213615</v>
       </c>
       <c r="C69" t="n">
-        <v>0.166896</v>
+        <v>0.167391</v>
       </c>
       <c r="D69" t="n">
-        <v>0.200454</v>
+        <v>0.201339</v>
       </c>
     </row>
     <row r="70">
@@ -10318,13 +10318,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.19891</v>
+        <v>0.205374</v>
       </c>
       <c r="C70" t="n">
-        <v>0.171494</v>
+        <v>0.172119</v>
       </c>
       <c r="D70" t="n">
-        <v>0.207099</v>
+        <v>0.20747</v>
       </c>
     </row>
     <row r="71">
@@ -10332,13 +10332,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.224773</v>
+        <v>0.221401</v>
       </c>
       <c r="C71" t="n">
-        <v>0.176884</v>
+        <v>0.177678</v>
       </c>
       <c r="D71" t="n">
-        <v>0.214291</v>
+        <v>0.214809</v>
       </c>
     </row>
     <row r="72">
@@ -10346,13 +10346,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.237906</v>
+        <v>0.231504</v>
       </c>
       <c r="C72" t="n">
-        <v>0.183419</v>
+        <v>0.182604</v>
       </c>
       <c r="D72" t="n">
-        <v>0.222391</v>
+        <v>0.222592</v>
       </c>
     </row>
     <row r="73">
@@ -10360,13 +10360,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.258826</v>
+        <v>0.255606</v>
       </c>
       <c r="C73" t="n">
-        <v>0.188233</v>
+        <v>0.188855</v>
       </c>
       <c r="D73" t="n">
-        <v>0.230384</v>
+        <v>0.230915</v>
       </c>
     </row>
     <row r="74">
@@ -10374,13 +10374,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.274053</v>
+        <v>0.277883</v>
       </c>
       <c r="C74" t="n">
-        <v>0.19487</v>
+        <v>0.196198</v>
       </c>
       <c r="D74" t="n">
-        <v>0.239885</v>
+        <v>0.242357</v>
       </c>
     </row>
     <row r="75">
@@ -10388,13 +10388,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.2938</v>
+        <v>0.297231</v>
       </c>
       <c r="C75" t="n">
-        <v>0.205802</v>
+        <v>0.21498</v>
       </c>
       <c r="D75" t="n">
-        <v>0.25548</v>
+        <v>0.260403</v>
       </c>
     </row>
     <row r="76">
@@ -10402,13 +10402,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.316085</v>
+        <v>0.320207</v>
       </c>
       <c r="C76" t="n">
-        <v>0.212849</v>
+        <v>0.224413</v>
       </c>
       <c r="D76" t="n">
-        <v>0.263149</v>
+        <v>0.275696</v>
       </c>
     </row>
     <row r="77">
@@ -10416,13 +10416,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.338372</v>
+        <v>0.337892</v>
       </c>
       <c r="C77" t="n">
-        <v>0.232576</v>
+        <v>0.232658</v>
       </c>
       <c r="D77" t="n">
-        <v>0.285999</v>
+        <v>0.294229</v>
       </c>
     </row>
     <row r="78">
@@ -10430,13 +10430,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.354857</v>
+        <v>0.362902</v>
       </c>
       <c r="C78" t="n">
-        <v>0.200449</v>
+        <v>0.20968</v>
       </c>
       <c r="D78" t="n">
-        <v>0.250723</v>
+        <v>0.254297</v>
       </c>
     </row>
     <row r="79">
@@ -10444,13 +10444,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.376922</v>
+        <v>0.38518</v>
       </c>
       <c r="C79" t="n">
-        <v>0.212972</v>
+        <v>0.22291</v>
       </c>
       <c r="D79" t="n">
-        <v>0.265194</v>
+        <v>0.272868</v>
       </c>
     </row>
     <row r="80">
@@ -10458,13 +10458,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.402061</v>
+        <v>0.406316</v>
       </c>
       <c r="C80" t="n">
-        <v>0.232902</v>
+        <v>0.234522</v>
       </c>
       <c r="D80" t="n">
-        <v>0.289428</v>
+        <v>0.297242</v>
       </c>
     </row>
     <row r="81">
@@ -10472,13 +10472,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.428986</v>
+        <v>0.428264</v>
       </c>
       <c r="C81" t="n">
-        <v>0.250681</v>
+        <v>0.255446</v>
       </c>
       <c r="D81" t="n">
-        <v>0.314263</v>
+        <v>0.314473</v>
       </c>
     </row>
     <row r="82">
@@ -10486,13 +10486,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.450944</v>
+        <v>0.449915</v>
       </c>
       <c r="C82" t="n">
-        <v>0.268922</v>
+        <v>0.269966</v>
       </c>
       <c r="D82" t="n">
-        <v>0.334442</v>
+        <v>0.338712</v>
       </c>
     </row>
     <row r="83">
@@ -10500,13 +10500,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.473668</v>
+        <v>0.474643</v>
       </c>
       <c r="C83" t="n">
-        <v>0.287021</v>
+        <v>0.288531</v>
       </c>
       <c r="D83" t="n">
-        <v>0.355013</v>
+        <v>0.361058</v>
       </c>
     </row>
     <row r="84">
@@ -10514,13 +10514,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.463466</v>
+        <v>0.464323</v>
       </c>
       <c r="C84" t="n">
-        <v>0.307025</v>
+        <v>0.307195</v>
       </c>
       <c r="D84" t="n">
-        <v>0.379839</v>
+        <v>0.382217</v>
       </c>
     </row>
     <row r="85">
@@ -10528,13 +10528,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.478589</v>
+        <v>0.477602</v>
       </c>
       <c r="C85" t="n">
-        <v>0.324321</v>
+        <v>0.326821</v>
       </c>
       <c r="D85" t="n">
-        <v>0.406171</v>
+        <v>0.404138</v>
       </c>
     </row>
     <row r="86">
@@ -10542,13 +10542,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.495258</v>
+        <v>0.494038</v>
       </c>
       <c r="C86" t="n">
-        <v>0.342454</v>
+        <v>0.346574</v>
       </c>
       <c r="D86" t="n">
-        <v>0.4275</v>
+        <v>0.429161</v>
       </c>
     </row>
     <row r="87">
@@ -10556,13 +10556,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.511138</v>
+        <v>0.509189</v>
       </c>
       <c r="C87" t="n">
-        <v>0.364896</v>
+        <v>0.366982</v>
       </c>
       <c r="D87" t="n">
-        <v>0.451794</v>
+        <v>0.453513</v>
       </c>
     </row>
     <row r="88">
@@ -10570,13 +10570,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.526127</v>
+        <v>0.52704</v>
       </c>
       <c r="C88" t="n">
-        <v>0.38655</v>
+        <v>0.385899</v>
       </c>
       <c r="D88" t="n">
-        <v>0.475388</v>
+        <v>0.477301</v>
       </c>
     </row>
     <row r="89">
@@ -10584,13 +10584,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.543085</v>
+        <v>0.542048</v>
       </c>
       <c r="C89" t="n">
-        <v>0.406563</v>
+        <v>0.406913</v>
       </c>
       <c r="D89" t="n">
-        <v>0.500708</v>
+        <v>0.500436</v>
       </c>
     </row>
     <row r="90">
@@ -10598,13 +10598,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.559513</v>
+        <v>0.559674</v>
       </c>
       <c r="C90" t="n">
-        <v>0.430262</v>
+        <v>0.429273</v>
       </c>
       <c r="D90" t="n">
-        <v>0.526878</v>
+        <v>0.530289</v>
       </c>
     </row>
     <row r="91">
@@ -10612,13 +10612,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.575277</v>
+        <v>0.577333</v>
       </c>
       <c r="C91" t="n">
-        <v>0.453268</v>
+        <v>0.453509</v>
       </c>
       <c r="D91" t="n">
-        <v>0.553626</v>
+        <v>0.553294</v>
       </c>
     </row>
     <row r="92">
@@ -10626,13 +10626,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.595294</v>
+        <v>0.594303</v>
       </c>
       <c r="C92" t="n">
-        <v>0.377554</v>
+        <v>0.378244</v>
       </c>
       <c r="D92" t="n">
-        <v>0.490948</v>
+        <v>0.48858</v>
       </c>
     </row>
     <row r="93">
@@ -10640,13 +10640,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.61483</v>
+        <v>0.612832</v>
       </c>
       <c r="C93" t="n">
-        <v>0.389849</v>
+        <v>0.391502</v>
       </c>
       <c r="D93" t="n">
-        <v>0.50861</v>
+        <v>0.512483</v>
       </c>
     </row>
     <row r="94">
@@ -10654,13 +10654,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.632251</v>
+        <v>0.631368</v>
       </c>
       <c r="C94" t="n">
-        <v>0.404248</v>
+        <v>0.403894</v>
       </c>
       <c r="D94" t="n">
-        <v>0.529759</v>
+        <v>0.530582</v>
       </c>
     </row>
     <row r="95">
@@ -10668,13 +10668,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.648796</v>
+        <v>0.651972</v>
       </c>
       <c r="C95" t="n">
-        <v>0.417028</v>
+        <v>0.418287</v>
       </c>
       <c r="D95" t="n">
-        <v>0.547029</v>
+        <v>0.551432</v>
       </c>
     </row>
     <row r="96">
@@ -10682,13 +10682,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.6673</v>
+        <v>0.673149</v>
       </c>
       <c r="C96" t="n">
-        <v>0.43353</v>
+        <v>0.435263</v>
       </c>
       <c r="D96" t="n">
-        <v>0.570785</v>
+        <v>0.57026</v>
       </c>
     </row>
     <row r="97">
@@ -10696,13 +10696,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.691702</v>
+        <v>0.691253</v>
       </c>
       <c r="C97" t="n">
-        <v>0.448763</v>
+        <v>0.450133</v>
       </c>
       <c r="D97" t="n">
-        <v>0.592449</v>
+        <v>0.594997</v>
       </c>
     </row>
     <row r="98">
@@ -10710,13 +10710,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.584318</v>
+        <v>0.582405</v>
       </c>
       <c r="C98" t="n">
-        <v>0.465512</v>
+        <v>0.466298</v>
       </c>
       <c r="D98" t="n">
-        <v>0.6148709999999999</v>
+        <v>0.6177820000000001</v>
       </c>
     </row>
     <row r="99">
@@ -10724,13 +10724,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.597934</v>
+        <v>0.598319</v>
       </c>
       <c r="C99" t="n">
-        <v>0.483561</v>
+        <v>0.483195</v>
       </c>
       <c r="D99" t="n">
-        <v>0.637885</v>
+        <v>0.640158</v>
       </c>
     </row>
     <row r="100">
@@ -10738,13 +10738,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.609383</v>
+        <v>0.611221</v>
       </c>
       <c r="C100" t="n">
-        <v>0.500905</v>
+        <v>0.501003</v>
       </c>
       <c r="D100" t="n">
-        <v>0.6641089999999999</v>
+        <v>0.663317</v>
       </c>
     </row>
     <row r="101">
@@ -10752,13 +10752,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.627224</v>
+        <v>0.625853</v>
       </c>
       <c r="C101" t="n">
-        <v>0.520478</v>
+        <v>0.519576</v>
       </c>
       <c r="D101" t="n">
-        <v>0.687483</v>
+        <v>0.686388</v>
       </c>
     </row>
     <row r="102">
@@ -10766,13 +10766,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.644127</v>
+        <v>0.641652</v>
       </c>
       <c r="C102" t="n">
-        <v>0.537596</v>
+        <v>0.539515</v>
       </c>
       <c r="D102" t="n">
-        <v>0.712701</v>
+        <v>0.712577</v>
       </c>
     </row>
     <row r="103">
@@ -10780,13 +10780,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.654307</v>
+        <v>0.656401</v>
       </c>
       <c r="C103" t="n">
-        <v>0.558979</v>
+        <v>0.560254</v>
       </c>
       <c r="D103" t="n">
-        <v>0.739503</v>
+        <v>0.73897</v>
       </c>
     </row>
     <row r="104">
@@ -10794,13 +10794,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.673413</v>
+        <v>0.672127</v>
       </c>
       <c r="C104" t="n">
-        <v>0.583043</v>
+        <v>0.583009</v>
       </c>
       <c r="D104" t="n">
-        <v>0.765829</v>
+        <v>0.7678970000000001</v>
       </c>
     </row>
     <row r="105">
@@ -10808,13 +10808,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.6898</v>
+        <v>0.688813</v>
       </c>
       <c r="C105" t="n">
-        <v>0.606429</v>
+        <v>0.606272</v>
       </c>
       <c r="D105" t="n">
-        <v>0.794184</v>
+        <v>0.795701</v>
       </c>
     </row>
     <row r="106">
@@ -10822,13 +10822,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.707404</v>
+        <v>0.706877</v>
       </c>
       <c r="C106" t="n">
-        <v>0.632786</v>
+        <v>0.629305</v>
       </c>
       <c r="D106" t="n">
-        <v>0.8243509999999999</v>
+        <v>0.824658</v>
       </c>
     </row>
     <row r="107">
@@ -10836,13 +10836,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.724298</v>
+        <v>0.723131</v>
       </c>
       <c r="C107" t="n">
-        <v>0.484178</v>
+        <v>0.484822</v>
       </c>
       <c r="D107" t="n">
-        <v>0.697399</v>
+        <v>0.702411</v>
       </c>
     </row>
     <row r="108">
@@ -10850,13 +10850,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.744489</v>
+        <v>0.744051</v>
       </c>
       <c r="C108" t="n">
-        <v>0.498054</v>
+        <v>0.498756</v>
       </c>
       <c r="D108" t="n">
-        <v>0.717917</v>
+        <v>0.720756</v>
       </c>
     </row>
     <row r="109">
@@ -10864,13 +10864,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.7610980000000001</v>
+        <v>0.762095</v>
       </c>
       <c r="C109" t="n">
-        <v>0.51081</v>
+        <v>0.509607</v>
       </c>
       <c r="D109" t="n">
-        <v>0.7363459999999999</v>
+        <v>0.739881</v>
       </c>
     </row>
     <row r="110">
@@ -10878,13 +10878,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.777291</v>
+        <v>0.781967</v>
       </c>
       <c r="C110" t="n">
-        <v>0.523814</v>
+        <v>0.523585</v>
       </c>
       <c r="D110" t="n">
-        <v>0.756171</v>
+        <v>0.759358</v>
       </c>
     </row>
     <row r="111">
@@ -10892,13 +10892,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.79697</v>
+        <v>0.799841</v>
       </c>
       <c r="C111" t="n">
-        <v>0.537447</v>
+        <v>0.538079</v>
       </c>
       <c r="D111" t="n">
-        <v>0.775044</v>
+        <v>0.776884</v>
       </c>
     </row>
     <row r="112">
@@ -10906,13 +10906,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.646894</v>
+        <v>0.6460900000000001</v>
       </c>
       <c r="C112" t="n">
-        <v>0.552919</v>
+        <v>0.553826</v>
       </c>
       <c r="D112" t="n">
-        <v>0.795782</v>
+        <v>0.8021740000000001</v>
       </c>
     </row>
     <row r="113">
@@ -10920,13 +10920,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.662587</v>
+        <v>0.658233</v>
       </c>
       <c r="C113" t="n">
-        <v>0.570099</v>
+        <v>0.570139</v>
       </c>
       <c r="D113" t="n">
-        <v>0.821097</v>
+        <v>0.820933</v>
       </c>
     </row>
     <row r="114">
@@ -10934,13 +10934,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.674018</v>
+        <v>0.670076</v>
       </c>
       <c r="C114" t="n">
-        <v>0.587305</v>
+        <v>0.587324</v>
       </c>
       <c r="D114" t="n">
-        <v>0.843499</v>
+        <v>0.844157</v>
       </c>
     </row>
     <row r="115">
@@ -10948,13 +10948,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.688719</v>
+        <v>0.687262</v>
       </c>
       <c r="C115" t="n">
-        <v>0.6049060000000001</v>
+        <v>0.60365</v>
       </c>
       <c r="D115" t="n">
-        <v>0.866299</v>
+        <v>0.863883</v>
       </c>
     </row>
     <row r="116">
@@ -10962,13 +10962,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.701056</v>
+        <v>0.702573</v>
       </c>
       <c r="C116" t="n">
-        <v>0.6233880000000001</v>
+        <v>0.623155</v>
       </c>
       <c r="D116" t="n">
-        <v>0.887508</v>
+        <v>0.894995</v>
       </c>
     </row>
     <row r="117">
@@ -10976,13 +10976,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.714801</v>
+        <v>0.716412</v>
       </c>
       <c r="C117" t="n">
-        <v>0.64579</v>
+        <v>0.644768</v>
       </c>
       <c r="D117" t="n">
-        <v>0.916438</v>
+        <v>0.918255</v>
       </c>
     </row>
     <row r="118">
@@ -10990,13 +10990,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.732931</v>
+        <v>0.7316589999999999</v>
       </c>
       <c r="C118" t="n">
-        <v>0.665874</v>
+        <v>0.666399</v>
       </c>
       <c r="D118" t="n">
-        <v>0.938014</v>
+        <v>0.941847</v>
       </c>
     </row>
     <row r="119">
@@ -11004,13 +11004,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.750945</v>
+        <v>0.747787</v>
       </c>
       <c r="C119" t="n">
-        <v>0.6865869999999999</v>
+        <v>0.690001</v>
       </c>
       <c r="D119" t="n">
-        <v>0.965739</v>
+        <v>0.9693000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -11058,13 +11058,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.099192</v>
+        <v>0.0981649</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09465220000000001</v>
+        <v>0.0941627</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0814883</v>
+        <v>0.0808532</v>
       </c>
     </row>
     <row r="3">
@@ -11072,13 +11072,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.101088</v>
+        <v>0.100891</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0974696</v>
+        <v>0.0963258</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0818596</v>
+        <v>0.0814163</v>
       </c>
     </row>
     <row r="4">
@@ -11086,13 +11086,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.105719</v>
+        <v>0.105843</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0994492</v>
+        <v>0.100339</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0843177</v>
+        <v>0.08437749999999999</v>
       </c>
     </row>
     <row r="5">
@@ -11100,13 +11100,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.11077</v>
+        <v>0.110853</v>
       </c>
       <c r="C5" t="n">
-        <v>0.104505</v>
+        <v>0.104828</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0868237</v>
+        <v>0.08458069999999999</v>
       </c>
     </row>
     <row r="6">
@@ -11114,13 +11114,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.113889</v>
+        <v>0.113931</v>
       </c>
       <c r="C6" t="n">
-        <v>0.107566</v>
+        <v>0.10757</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0866944</v>
+        <v>0.0857217</v>
       </c>
     </row>
     <row r="7">
@@ -11128,13 +11128,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.118058</v>
+        <v>0.118691</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0857093</v>
+        <v>0.0855721</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0765438</v>
+        <v>0.0779696</v>
       </c>
     </row>
     <row r="8">
@@ -11142,13 +11142,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.122654</v>
+        <v>0.122955</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08740059999999999</v>
+        <v>0.087117</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0783652</v>
+        <v>0.07877339999999999</v>
       </c>
     </row>
     <row r="9">
@@ -11156,13 +11156,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.12779</v>
+        <v>0.127974</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0909823</v>
+        <v>0.0926785</v>
       </c>
       <c r="D9" t="n">
-        <v>0.07960540000000001</v>
+        <v>0.08064830000000001</v>
       </c>
     </row>
     <row r="10">
@@ -11170,13 +11170,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.133588</v>
+        <v>0.134605</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09485250000000001</v>
+        <v>0.0963046</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0810534</v>
+        <v>0.0809918</v>
       </c>
     </row>
     <row r="11">
@@ -11184,13 +11184,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.138112</v>
+        <v>0.138691</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0978174</v>
+        <v>0.0984385</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0839626</v>
+        <v>0.0824088</v>
       </c>
     </row>
     <row r="12">
@@ -11198,13 +11198,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.146807</v>
+        <v>0.146268</v>
       </c>
       <c r="C12" t="n">
-        <v>0.101806</v>
+        <v>0.102312</v>
       </c>
       <c r="D12" t="n">
-        <v>0.08493149999999999</v>
+        <v>0.08428480000000001</v>
       </c>
     </row>
     <row r="13">
@@ -11212,13 +11212,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.117981</v>
+        <v>0.117649</v>
       </c>
       <c r="C13" t="n">
-        <v>0.107986</v>
+        <v>0.108055</v>
       </c>
       <c r="D13" t="n">
-        <v>0.08781460000000001</v>
+        <v>0.0860793</v>
       </c>
     </row>
     <row r="14">
@@ -11226,13 +11226,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.120809</v>
+        <v>0.120851</v>
       </c>
       <c r="C14" t="n">
-        <v>0.112028</v>
+        <v>0.111903</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0893675</v>
+        <v>0.0877352</v>
       </c>
     </row>
     <row r="15">
@@ -11240,13 +11240,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.124174</v>
+        <v>0.123935</v>
       </c>
       <c r="C15" t="n">
-        <v>0.11626</v>
+        <v>0.116385</v>
       </c>
       <c r="D15" t="n">
-        <v>0.092263</v>
+        <v>0.09075270000000001</v>
       </c>
     </row>
     <row r="16">
@@ -11254,13 +11254,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.128125</v>
+        <v>0.128</v>
       </c>
       <c r="C16" t="n">
-        <v>0.122567</v>
+        <v>0.122745</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0943355</v>
+        <v>0.09417150000000001</v>
       </c>
     </row>
     <row r="17">
@@ -11268,13 +11268,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.131269</v>
+        <v>0.131446</v>
       </c>
       <c r="C17" t="n">
-        <v>0.127156</v>
+        <v>0.127299</v>
       </c>
       <c r="D17" t="n">
-        <v>0.09709230000000001</v>
+        <v>0.0963243</v>
       </c>
     </row>
     <row r="18">
@@ -11282,13 +11282,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.133702</v>
+        <v>0.133496</v>
       </c>
       <c r="C18" t="n">
-        <v>0.133056</v>
+        <v>0.132758</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0992184</v>
+        <v>0.09863669999999999</v>
       </c>
     </row>
     <row r="19">
@@ -11296,13 +11296,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.137053</v>
+        <v>0.136831</v>
       </c>
       <c r="C19" t="n">
-        <v>0.138171</v>
+        <v>0.138052</v>
       </c>
       <c r="D19" t="n">
-        <v>0.102353</v>
+        <v>0.102498</v>
       </c>
     </row>
     <row r="20">
@@ -11310,13 +11310,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.142604</v>
+        <v>0.142975</v>
       </c>
       <c r="C20" t="n">
-        <v>0.146847</v>
+        <v>0.146893</v>
       </c>
       <c r="D20" t="n">
-        <v>0.104733</v>
+        <v>0.104302</v>
       </c>
     </row>
     <row r="21">
@@ -11324,13 +11324,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.146573</v>
+        <v>0.146759</v>
       </c>
       <c r="C21" t="n">
-        <v>0.111761</v>
+        <v>0.11209</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0934461</v>
+        <v>0.093414</v>
       </c>
     </row>
     <row r="22">
@@ -11338,13 +11338,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.151407</v>
+        <v>0.15102</v>
       </c>
       <c r="C22" t="n">
-        <v>0.115837</v>
+        <v>0.116003</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0952336</v>
+        <v>0.0951968</v>
       </c>
     </row>
     <row r="23">
@@ -11352,13 +11352,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.155672</v>
+        <v>0.155524</v>
       </c>
       <c r="C23" t="n">
-        <v>0.120016</v>
+        <v>0.120274</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0972412</v>
+        <v>0.09728290000000001</v>
       </c>
     </row>
     <row r="24">
@@ -11366,13 +11366,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.159026</v>
+        <v>0.158939</v>
       </c>
       <c r="C24" t="n">
-        <v>0.122543</v>
+        <v>0.122379</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0992063</v>
+        <v>0.0990771</v>
       </c>
     </row>
     <row r="25">
@@ -11380,13 +11380,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.164937</v>
+        <v>0.164793</v>
       </c>
       <c r="C25" t="n">
-        <v>0.127336</v>
+        <v>0.12741</v>
       </c>
       <c r="D25" t="n">
-        <v>0.101312</v>
+        <v>0.10117</v>
       </c>
     </row>
     <row r="26">
@@ -11394,13 +11394,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.168581</v>
+        <v>0.168369</v>
       </c>
       <c r="C26" t="n">
-        <v>0.131177</v>
+        <v>0.131447</v>
       </c>
       <c r="D26" t="n">
-        <v>0.103276</v>
+        <v>0.103602</v>
       </c>
     </row>
     <row r="27">
@@ -11408,13 +11408,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.127076</v>
+        <v>0.126148</v>
       </c>
       <c r="C27" t="n">
-        <v>0.13416</v>
+        <v>0.134099</v>
       </c>
       <c r="D27" t="n">
-        <v>0.105378</v>
+        <v>0.105231</v>
       </c>
     </row>
     <row r="28">
@@ -11422,13 +11422,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.130512</v>
+        <v>0.129729</v>
       </c>
       <c r="C28" t="n">
-        <v>0.138309</v>
+        <v>0.138536</v>
       </c>
       <c r="D28" t="n">
-        <v>0.107263</v>
+        <v>0.107277</v>
       </c>
     </row>
     <row r="29">
@@ -11436,13 +11436,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.132312</v>
+        <v>0.131898</v>
       </c>
       <c r="C29" t="n">
-        <v>0.142835</v>
+        <v>0.142826</v>
       </c>
       <c r="D29" t="n">
-        <v>0.109716</v>
+        <v>0.109564</v>
       </c>
     </row>
     <row r="30">
@@ -11450,13 +11450,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.137006</v>
+        <v>0.137028</v>
       </c>
       <c r="C30" t="n">
-        <v>0.148731</v>
+        <v>0.149016</v>
       </c>
       <c r="D30" t="n">
-        <v>0.112323</v>
+        <v>0.112215</v>
       </c>
     </row>
     <row r="31">
@@ -11464,13 +11464,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.140479</v>
+        <v>0.140111</v>
       </c>
       <c r="C31" t="n">
-        <v>0.15097</v>
+        <v>0.151278</v>
       </c>
       <c r="D31" t="n">
-        <v>0.114417</v>
+        <v>0.11426</v>
       </c>
     </row>
     <row r="32">
@@ -11478,13 +11478,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.143745</v>
+        <v>0.143515</v>
       </c>
       <c r="C32" t="n">
-        <v>0.159329</v>
+        <v>0.15921</v>
       </c>
       <c r="D32" t="n">
-        <v>0.11728</v>
+        <v>0.117503</v>
       </c>
     </row>
     <row r="33">
@@ -11492,13 +11492,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.146438</v>
+        <v>0.146805</v>
       </c>
       <c r="C33" t="n">
-        <v>0.16415</v>
+        <v>0.164379</v>
       </c>
       <c r="D33" t="n">
-        <v>0.120049</v>
+        <v>0.120119</v>
       </c>
     </row>
     <row r="34">
@@ -11506,13 +11506,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.149905</v>
+        <v>0.14969</v>
       </c>
       <c r="C34" t="n">
-        <v>0.169802</v>
+        <v>0.16987</v>
       </c>
       <c r="D34" t="n">
-        <v>0.123132</v>
+        <v>0.123206</v>
       </c>
     </row>
     <row r="35">
@@ -11520,13 +11520,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.153449</v>
+        <v>0.152409</v>
       </c>
       <c r="C35" t="n">
-        <v>0.121227</v>
+        <v>0.121173</v>
       </c>
       <c r="D35" t="n">
-        <v>0.104043</v>
+        <v>0.104105</v>
       </c>
     </row>
     <row r="36">
@@ -11534,13 +11534,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.158396</v>
+        <v>0.157238</v>
       </c>
       <c r="C36" t="n">
-        <v>0.125252</v>
+        <v>0.125512</v>
       </c>
       <c r="D36" t="n">
-        <v>0.105944</v>
+        <v>0.105953</v>
       </c>
     </row>
     <row r="37">
@@ -11548,13 +11548,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.162302</v>
+        <v>0.162422</v>
       </c>
       <c r="C37" t="n">
-        <v>0.128583</v>
+        <v>0.128904</v>
       </c>
       <c r="D37" t="n">
-        <v>0.107853</v>
+        <v>0.107827</v>
       </c>
     </row>
     <row r="38">
@@ -11562,13 +11562,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.16803</v>
+        <v>0.16758</v>
       </c>
       <c r="C38" t="n">
-        <v>0.132163</v>
+        <v>0.13244</v>
       </c>
       <c r="D38" t="n">
-        <v>0.109953</v>
+        <v>0.11003</v>
       </c>
     </row>
     <row r="39">
@@ -11576,13 +11576,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.171213</v>
+        <v>0.170697</v>
       </c>
       <c r="C39" t="n">
-        <v>0.136127</v>
+        <v>0.136163</v>
       </c>
       <c r="D39" t="n">
-        <v>0.111694</v>
+        <v>0.111959</v>
       </c>
     </row>
     <row r="40">
@@ -11590,13 +11590,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.178505</v>
+        <v>0.177724</v>
       </c>
       <c r="C40" t="n">
-        <v>0.140757</v>
+        <v>0.141187</v>
       </c>
       <c r="D40" t="n">
-        <v>0.113932</v>
+        <v>0.11415</v>
       </c>
     </row>
     <row r="41">
@@ -11604,13 +11604,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.131478</v>
+        <v>0.13105</v>
       </c>
       <c r="C41" t="n">
-        <v>0.143945</v>
+        <v>0.144034</v>
       </c>
       <c r="D41" t="n">
-        <v>0.115529</v>
+        <v>0.115793</v>
       </c>
     </row>
     <row r="42">
@@ -11618,13 +11618,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.13404</v>
+        <v>0.133827</v>
       </c>
       <c r="C42" t="n">
-        <v>0.146762</v>
+        <v>0.146832</v>
       </c>
       <c r="D42" t="n">
-        <v>0.11778</v>
+        <v>0.117842</v>
       </c>
     </row>
     <row r="43">
@@ -11632,13 +11632,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.137823</v>
+        <v>0.137813</v>
       </c>
       <c r="C43" t="n">
-        <v>0.151726</v>
+        <v>0.152153</v>
       </c>
       <c r="D43" t="n">
-        <v>0.120099</v>
+        <v>0.119939</v>
       </c>
     </row>
     <row r="44">
@@ -11646,13 +11646,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.1408</v>
+        <v>0.140408</v>
       </c>
       <c r="C44" t="n">
-        <v>0.156934</v>
+        <v>0.157076</v>
       </c>
       <c r="D44" t="n">
-        <v>0.122546</v>
+        <v>0.122438</v>
       </c>
     </row>
     <row r="45">
@@ -11660,13 +11660,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.144752</v>
+        <v>0.144331</v>
       </c>
       <c r="C45" t="n">
-        <v>0.161036</v>
+        <v>0.161198</v>
       </c>
       <c r="D45" t="n">
-        <v>0.125106</v>
+        <v>0.125142</v>
       </c>
     </row>
     <row r="46">
@@ -11674,13 +11674,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.148737</v>
+        <v>0.149006</v>
       </c>
       <c r="C46" t="n">
-        <v>0.166804</v>
+        <v>0.16718</v>
       </c>
       <c r="D46" t="n">
-        <v>0.127494</v>
+        <v>0.127595</v>
       </c>
     </row>
     <row r="47">
@@ -11688,13 +11688,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.152017</v>
+        <v>0.151926</v>
       </c>
       <c r="C47" t="n">
-        <v>0.171386</v>
+        <v>0.171959</v>
       </c>
       <c r="D47" t="n">
-        <v>0.130294</v>
+        <v>0.130816</v>
       </c>
     </row>
     <row r="48">
@@ -11702,13 +11702,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.155682</v>
+        <v>0.155837</v>
       </c>
       <c r="C48" t="n">
-        <v>0.17709</v>
+        <v>0.177437</v>
       </c>
       <c r="D48" t="n">
-        <v>0.132991</v>
+        <v>0.133616</v>
       </c>
     </row>
     <row r="49">
@@ -11716,13 +11716,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.159964</v>
+        <v>0.159934</v>
       </c>
       <c r="C49" t="n">
-        <v>0.183794</v>
+        <v>0.184305</v>
       </c>
       <c r="D49" t="n">
-        <v>0.135984</v>
+        <v>0.136406</v>
       </c>
     </row>
     <row r="50">
@@ -11730,13 +11730,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.163807</v>
+        <v>0.163295</v>
       </c>
       <c r="C50" t="n">
-        <v>0.128677</v>
+        <v>0.12869</v>
       </c>
       <c r="D50" t="n">
-        <v>0.104844</v>
+        <v>0.104966</v>
       </c>
     </row>
     <row r="51">
@@ -11744,13 +11744,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.168733</v>
+        <v>0.168698</v>
       </c>
       <c r="C51" t="n">
-        <v>0.131844</v>
+        <v>0.131922</v>
       </c>
       <c r="D51" t="n">
-        <v>0.106933</v>
+        <v>0.10692</v>
       </c>
     </row>
     <row r="52">
@@ -11758,13 +11758,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.173313</v>
+        <v>0.17309</v>
       </c>
       <c r="C52" t="n">
-        <v>0.135633</v>
+        <v>0.135655</v>
       </c>
       <c r="D52" t="n">
-        <v>0.108639</v>
+        <v>0.108692</v>
       </c>
     </row>
     <row r="53">
@@ -11772,13 +11772,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.178768</v>
+        <v>0.17892</v>
       </c>
       <c r="C53" t="n">
-        <v>0.140614</v>
+        <v>0.140873</v>
       </c>
       <c r="D53" t="n">
-        <v>0.111008</v>
+        <v>0.110904</v>
       </c>
     </row>
     <row r="54">
@@ -11786,13 +11786,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.183723</v>
+        <v>0.18403</v>
       </c>
       <c r="C54" t="n">
-        <v>0.143999</v>
+        <v>0.143634</v>
       </c>
       <c r="D54" t="n">
-        <v>0.113051</v>
+        <v>0.112755</v>
       </c>
     </row>
     <row r="55">
@@ -11800,13 +11800,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.189754</v>
+        <v>0.190105</v>
       </c>
       <c r="C55" t="n">
-        <v>0.148043</v>
+        <v>0.148199</v>
       </c>
       <c r="D55" t="n">
-        <v>0.115552</v>
+        <v>0.114924</v>
       </c>
     </row>
     <row r="56">
@@ -11814,13 +11814,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.137266</v>
+        <v>0.137775</v>
       </c>
       <c r="C56" t="n">
-        <v>0.15147</v>
+        <v>0.151422</v>
       </c>
       <c r="D56" t="n">
-        <v>0.116691</v>
+        <v>0.116855</v>
       </c>
     </row>
     <row r="57">
@@ -11828,13 +11828,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.140345</v>
+        <v>0.140961</v>
       </c>
       <c r="C57" t="n">
-        <v>0.156781</v>
+        <v>0.156404</v>
       </c>
       <c r="D57" t="n">
-        <v>0.11961</v>
+        <v>0.119008</v>
       </c>
     </row>
     <row r="58">
@@ -11842,13 +11842,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.143862</v>
+        <v>0.144513</v>
       </c>
       <c r="C58" t="n">
-        <v>0.162333</v>
+        <v>0.162315</v>
       </c>
       <c r="D58" t="n">
-        <v>0.121998</v>
+        <v>0.121651</v>
       </c>
     </row>
     <row r="59">
@@ -11856,13 +11856,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.148222</v>
+        <v>0.149326</v>
       </c>
       <c r="C59" t="n">
-        <v>0.166357</v>
+        <v>0.166208</v>
       </c>
       <c r="D59" t="n">
-        <v>0.124374</v>
+        <v>0.123975</v>
       </c>
     </row>
     <row r="60">
@@ -11870,13 +11870,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.151473</v>
+        <v>0.153373</v>
       </c>
       <c r="C60" t="n">
-        <v>0.172362</v>
+        <v>0.172252</v>
       </c>
       <c r="D60" t="n">
-        <v>0.127551</v>
+        <v>0.128087</v>
       </c>
     </row>
     <row r="61">
@@ -11884,13 +11884,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.155881</v>
+        <v>0.15906</v>
       </c>
       <c r="C61" t="n">
-        <v>0.178568</v>
+        <v>0.181675</v>
       </c>
       <c r="D61" t="n">
-        <v>0.130086</v>
+        <v>0.130389</v>
       </c>
     </row>
     <row r="62">
@@ -11898,13 +11898,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.160544</v>
+        <v>0.164708</v>
       </c>
       <c r="C62" t="n">
-        <v>0.185061</v>
+        <v>0.18913</v>
       </c>
       <c r="D62" t="n">
-        <v>0.132254</v>
+        <v>0.13449</v>
       </c>
     </row>
     <row r="63">
@@ -11912,13 +11912,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.167668</v>
+        <v>0.170894</v>
       </c>
       <c r="C63" t="n">
-        <v>0.192544</v>
+        <v>0.196894</v>
       </c>
       <c r="D63" t="n">
-        <v>0.136369</v>
+        <v>0.138028</v>
       </c>
     </row>
     <row r="64">
@@ -11926,13 +11926,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.174384</v>
+        <v>0.176043</v>
       </c>
       <c r="C64" t="n">
-        <v>0.138989</v>
+        <v>0.139007</v>
       </c>
       <c r="D64" t="n">
-        <v>0.110656</v>
+        <v>0.111096</v>
       </c>
     </row>
     <row r="65">
@@ -11940,13 +11940,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.181881</v>
+        <v>0.184064</v>
       </c>
       <c r="C65" t="n">
-        <v>0.142823</v>
+        <v>0.144137</v>
       </c>
       <c r="D65" t="n">
-        <v>0.113398</v>
+        <v>0.114116</v>
       </c>
     </row>
     <row r="66">
@@ -11954,13 +11954,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.188007</v>
+        <v>0.192382</v>
       </c>
       <c r="C66" t="n">
-        <v>0.149008</v>
+        <v>0.150878</v>
       </c>
       <c r="D66" t="n">
-        <v>0.115927</v>
+        <v>0.117455</v>
       </c>
     </row>
     <row r="67">
@@ -11968,13 +11968,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.197971</v>
+        <v>0.201238</v>
       </c>
       <c r="C67" t="n">
-        <v>0.154864</v>
+        <v>0.157344</v>
       </c>
       <c r="D67" t="n">
-        <v>0.1194</v>
+        <v>0.120708</v>
       </c>
     </row>
     <row r="68">
@@ -11982,13 +11982,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.208244</v>
+        <v>0.210157</v>
       </c>
       <c r="C68" t="n">
-        <v>0.16109</v>
+        <v>0.162305</v>
       </c>
       <c r="D68" t="n">
-        <v>0.123135</v>
+        <v>0.124164</v>
       </c>
     </row>
     <row r="69">
@@ -11996,13 +11996,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.218604</v>
+        <v>0.220209</v>
       </c>
       <c r="C69" t="n">
-        <v>0.168617</v>
+        <v>0.169129</v>
       </c>
       <c r="D69" t="n">
-        <v>0.126719</v>
+        <v>0.127404</v>
       </c>
     </row>
     <row r="70">
@@ -12010,13 +12010,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.198993</v>
+        <v>0.200252</v>
       </c>
       <c r="C70" t="n">
-        <v>0.176142</v>
+        <v>0.175895</v>
       </c>
       <c r="D70" t="n">
-        <v>0.130944</v>
+        <v>0.13123</v>
       </c>
     </row>
     <row r="71">
@@ -12024,13 +12024,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.224403</v>
+        <v>0.214796</v>
       </c>
       <c r="C71" t="n">
-        <v>0.184862</v>
+        <v>0.183306</v>
       </c>
       <c r="D71" t="n">
-        <v>0.13507</v>
+        <v>0.135484</v>
       </c>
     </row>
     <row r="72">
@@ -12038,13 +12038,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.231134</v>
+        <v>0.236158</v>
       </c>
       <c r="C72" t="n">
-        <v>0.191721</v>
+        <v>0.193122</v>
       </c>
       <c r="D72" t="n">
-        <v>0.139652</v>
+        <v>0.139527</v>
       </c>
     </row>
     <row r="73">
@@ -12052,13 +12052,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.256814</v>
+        <v>0.270707</v>
       </c>
       <c r="C73" t="n">
-        <v>0.202003</v>
+        <v>0.205404</v>
       </c>
       <c r="D73" t="n">
-        <v>0.144044</v>
+        <v>0.143852</v>
       </c>
     </row>
     <row r="74">
@@ -12066,13 +12066,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.280293</v>
+        <v>0.287719</v>
       </c>
       <c r="C74" t="n">
-        <v>0.212085</v>
+        <v>0.21219</v>
       </c>
       <c r="D74" t="n">
-        <v>0.149421</v>
+        <v>0.149276</v>
       </c>
     </row>
     <row r="75">
@@ -12080,13 +12080,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.313646</v>
+        <v>0.317954</v>
       </c>
       <c r="C75" t="n">
-        <v>0.22393</v>
+        <v>0.222216</v>
       </c>
       <c r="D75" t="n">
-        <v>0.15408</v>
+        <v>0.154883</v>
       </c>
     </row>
     <row r="76">
@@ -12094,13 +12094,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.342401</v>
+        <v>0.345666</v>
       </c>
       <c r="C76" t="n">
-        <v>0.243813</v>
+        <v>0.247855</v>
       </c>
       <c r="D76" t="n">
-        <v>0.160624</v>
+        <v>0.160508</v>
       </c>
     </row>
     <row r="77">
@@ -12108,13 +12108,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.371825</v>
+        <v>0.378714</v>
       </c>
       <c r="C77" t="n">
-        <v>0.26227</v>
+        <v>0.262939</v>
       </c>
       <c r="D77" t="n">
-        <v>0.167146</v>
+        <v>0.166588</v>
       </c>
     </row>
     <row r="78">
@@ -12122,13 +12122,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.402568</v>
+        <v>0.403867</v>
       </c>
       <c r="C78" t="n">
-        <v>0.225095</v>
+        <v>0.226055</v>
       </c>
       <c r="D78" t="n">
-        <v>0.144482</v>
+        <v>0.140966</v>
       </c>
     </row>
     <row r="79">
@@ -12136,13 +12136,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.43262</v>
+        <v>0.433334</v>
       </c>
       <c r="C79" t="n">
-        <v>0.248037</v>
+        <v>0.252896</v>
       </c>
       <c r="D79" t="n">
-        <v>0.148734</v>
+        <v>0.148455</v>
       </c>
     </row>
     <row r="80">
@@ -12150,13 +12150,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.469328</v>
+        <v>0.472066</v>
       </c>
       <c r="C80" t="n">
-        <v>0.270516</v>
+        <v>0.27404</v>
       </c>
       <c r="D80" t="n">
-        <v>0.15953</v>
+        <v>0.162843</v>
       </c>
     </row>
     <row r="81">
@@ -12164,13 +12164,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.503251</v>
+        <v>0.508812</v>
       </c>
       <c r="C81" t="n">
-        <v>0.30006</v>
+        <v>0.302192</v>
       </c>
       <c r="D81" t="n">
-        <v>0.170385</v>
+        <v>0.168511</v>
       </c>
     </row>
     <row r="82">
@@ -12178,13 +12178,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.54142</v>
+        <v>0.544617</v>
       </c>
       <c r="C82" t="n">
-        <v>0.328635</v>
+        <v>0.336324</v>
       </c>
       <c r="D82" t="n">
-        <v>0.183336</v>
+        <v>0.190458</v>
       </c>
     </row>
     <row r="83">
@@ -12192,13 +12192,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.577778</v>
+        <v>0.5826789999999999</v>
       </c>
       <c r="C83" t="n">
-        <v>0.360818</v>
+        <v>0.362882</v>
       </c>
       <c r="D83" t="n">
-        <v>0.198537</v>
+        <v>0.204415</v>
       </c>
     </row>
     <row r="84">
@@ -12206,13 +12206,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.541394</v>
+        <v>0.541273</v>
       </c>
       <c r="C84" t="n">
-        <v>0.394668</v>
+        <v>0.393883</v>
       </c>
       <c r="D84" t="n">
-        <v>0.216011</v>
+        <v>0.22126</v>
       </c>
     </row>
     <row r="85">
@@ -12220,13 +12220,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.557594</v>
+        <v>0.561661</v>
       </c>
       <c r="C85" t="n">
-        <v>0.423192</v>
+        <v>0.430892</v>
       </c>
       <c r="D85" t="n">
-        <v>0.233091</v>
+        <v>0.237102</v>
       </c>
     </row>
     <row r="86">
@@ -12234,13 +12234,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.579557</v>
+        <v>0.583076</v>
       </c>
       <c r="C86" t="n">
-        <v>0.453098</v>
+        <v>0.458189</v>
       </c>
       <c r="D86" t="n">
-        <v>0.253802</v>
+        <v>0.256596</v>
       </c>
     </row>
     <row r="87">
@@ -12248,13 +12248,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.602012</v>
+        <v>0.6026010000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>0.491383</v>
+        <v>0.493374</v>
       </c>
       <c r="D87" t="n">
-        <v>0.27501</v>
+        <v>0.276187</v>
       </c>
     </row>
     <row r="88">
@@ -12262,13 +12262,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.627738</v>
+        <v>0.627285</v>
       </c>
       <c r="C88" t="n">
-        <v>0.527174</v>
+        <v>0.529297</v>
       </c>
       <c r="D88" t="n">
-        <v>0.294939</v>
+        <v>0.296669</v>
       </c>
     </row>
     <row r="89">
@@ -12276,13 +12276,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.65156</v>
+        <v>0.652128</v>
       </c>
       <c r="C89" t="n">
-        <v>0.560366</v>
+        <v>0.568213</v>
       </c>
       <c r="D89" t="n">
-        <v>0.314521</v>
+        <v>0.318685</v>
       </c>
     </row>
     <row r="90">
@@ -12290,13 +12290,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.6778459999999999</v>
+        <v>0.676559</v>
       </c>
       <c r="C90" t="n">
-        <v>0.600171</v>
+        <v>0.603642</v>
       </c>
       <c r="D90" t="n">
-        <v>0.336372</v>
+        <v>0.337101</v>
       </c>
     </row>
     <row r="91">
@@ -12304,13 +12304,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.703796</v>
+        <v>0.703388</v>
       </c>
       <c r="C91" t="n">
-        <v>0.642839</v>
+        <v>0.645891</v>
       </c>
       <c r="D91" t="n">
-        <v>0.357054</v>
+        <v>0.360646</v>
       </c>
     </row>
     <row r="92">
@@ -12318,13 +12318,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.727545</v>
+        <v>0.73321</v>
       </c>
       <c r="C92" t="n">
-        <v>0.5124030000000001</v>
+        <v>0.513714</v>
       </c>
       <c r="D92" t="n">
-        <v>0.350836</v>
+        <v>0.352373</v>
       </c>
     </row>
     <row r="93">
@@ -12332,13 +12332,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.757085</v>
+        <v>0.76156</v>
       </c>
       <c r="C93" t="n">
-        <v>0.5336340000000001</v>
+        <v>0.535599</v>
       </c>
       <c r="D93" t="n">
-        <v>0.36449</v>
+        <v>0.365193</v>
       </c>
     </row>
     <row r="94">
@@ -12346,13 +12346,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.792977</v>
+        <v>0.790273</v>
       </c>
       <c r="C94" t="n">
-        <v>0.558843</v>
+        <v>0.560351</v>
       </c>
       <c r="D94" t="n">
-        <v>0.379265</v>
+        <v>0.383059</v>
       </c>
     </row>
     <row r="95">
@@ -12360,13 +12360,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.825644</v>
+        <v>0.823308</v>
       </c>
       <c r="C95" t="n">
-        <v>0.583187</v>
+        <v>0.58355</v>
       </c>
       <c r="D95" t="n">
-        <v>0.39716</v>
+        <v>0.397996</v>
       </c>
     </row>
     <row r="96">
@@ -12374,13 +12374,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.863038</v>
+        <v>0.858504</v>
       </c>
       <c r="C96" t="n">
-        <v>0.608136</v>
+        <v>0.607769</v>
       </c>
       <c r="D96" t="n">
-        <v>0.412189</v>
+        <v>0.415222</v>
       </c>
     </row>
     <row r="97">
@@ -12388,13 +12388,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.89373</v>
+        <v>0.897061</v>
       </c>
       <c r="C97" t="n">
-        <v>0.633605</v>
+        <v>0.634674</v>
       </c>
       <c r="D97" t="n">
-        <v>0.42946</v>
+        <v>0.430097</v>
       </c>
     </row>
     <row r="98">
@@ -12402,13 +12402,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.688088</v>
+        <v>0.690709</v>
       </c>
       <c r="C98" t="n">
-        <v>0.657539</v>
+        <v>0.660427</v>
       </c>
       <c r="D98" t="n">
-        <v>0.443291</v>
+        <v>0.447228</v>
       </c>
     </row>
     <row r="99">
@@ -12416,13 +12416,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.713079</v>
+        <v>0.712817</v>
       </c>
       <c r="C99" t="n">
-        <v>0.689236</v>
+        <v>0.691542</v>
       </c>
       <c r="D99" t="n">
-        <v>0.464681</v>
+        <v>0.466535</v>
       </c>
     </row>
     <row r="100">
@@ -12430,13 +12430,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.733788</v>
+        <v>0.729761</v>
       </c>
       <c r="C100" t="n">
-        <v>0.7199759999999999</v>
+        <v>0.716224</v>
       </c>
       <c r="D100" t="n">
-        <v>0.480189</v>
+        <v>0.485945</v>
       </c>
     </row>
     <row r="101">
@@ -12444,13 +12444,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.753758</v>
+        <v>0.757845</v>
       </c>
       <c r="C101" t="n">
-        <v>0.751317</v>
+        <v>0.75031</v>
       </c>
       <c r="D101" t="n">
-        <v>0.500376</v>
+        <v>0.5042410000000001</v>
       </c>
     </row>
     <row r="102">
@@ -12458,13 +12458,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.7757579999999999</v>
+        <v>0.775946</v>
       </c>
       <c r="C102" t="n">
-        <v>0.782089</v>
+        <v>0.784455</v>
       </c>
       <c r="D102" t="n">
-        <v>0.521047</v>
+        <v>0.525139</v>
       </c>
     </row>
     <row r="103">
@@ -12472,13 +12472,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.803403</v>
+        <v>0.800543</v>
       </c>
       <c r="C103" t="n">
-        <v>0.8187410000000001</v>
+        <v>0.818419</v>
       </c>
       <c r="D103" t="n">
-        <v>0.5413790000000001</v>
+        <v>0.544482</v>
       </c>
     </row>
     <row r="104">
@@ -12486,13 +12486,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.827337</v>
+        <v>0.828253</v>
       </c>
       <c r="C104" t="n">
-        <v>0.854842</v>
+        <v>0.859109</v>
       </c>
       <c r="D104" t="n">
-        <v>0.562423</v>
+        <v>0.561222</v>
       </c>
     </row>
     <row r="105">
@@ -12500,13 +12500,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.853749</v>
+        <v>0.855482</v>
       </c>
       <c r="C105" t="n">
-        <v>0.886441</v>
+        <v>0.893317</v>
       </c>
       <c r="D105" t="n">
-        <v>0.582823</v>
+        <v>0.582908</v>
       </c>
     </row>
     <row r="106">
@@ -12514,13 +12514,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.889033</v>
+        <v>0.88262</v>
       </c>
       <c r="C106" t="n">
-        <v>0.930112</v>
+        <v>0.932413</v>
       </c>
       <c r="D106" t="n">
-        <v>0.604001</v>
+        <v>0.606721</v>
       </c>
     </row>
     <row r="107">
@@ -12528,13 +12528,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.909938</v>
+        <v>0.917147</v>
       </c>
       <c r="C107" t="n">
-        <v>0.668137</v>
+        <v>0.667247</v>
       </c>
       <c r="D107" t="n">
-        <v>0.547022</v>
+        <v>0.544997</v>
       </c>
     </row>
     <row r="108">
@@ -12542,13 +12542,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.9446909999999999</v>
+        <v>0.9445480000000001</v>
       </c>
       <c r="C108" t="n">
-        <v>0.691265</v>
+        <v>0.687754</v>
       </c>
       <c r="D108" t="n">
-        <v>0.561739</v>
+        <v>0.561895</v>
       </c>
     </row>
     <row r="109">
@@ -12556,13 +12556,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.975254</v>
+        <v>0.974573</v>
       </c>
       <c r="C109" t="n">
-        <v>0.710232</v>
+        <v>0.713107</v>
       </c>
       <c r="D109" t="n">
-        <v>0.5749109999999999</v>
+        <v>0.574202</v>
       </c>
     </row>
     <row r="110">
@@ -12570,13 +12570,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.01324</v>
+        <v>1.01417</v>
       </c>
       <c r="C110" t="n">
-        <v>0.736462</v>
+        <v>0.73656</v>
       </c>
       <c r="D110" t="n">
-        <v>0.589421</v>
+        <v>0.591677</v>
       </c>
     </row>
     <row r="111">
@@ -12584,13 +12584,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.04496</v>
+        <v>1.04581</v>
       </c>
       <c r="C111" t="n">
-        <v>0.759655</v>
+        <v>0.762422</v>
       </c>
       <c r="D111" t="n">
-        <v>0.604539</v>
+        <v>0.605948</v>
       </c>
     </row>
     <row r="112">
@@ -12598,13 +12598,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.76018</v>
+        <v>0.759159</v>
       </c>
       <c r="C112" t="n">
-        <v>0.786214</v>
+        <v>0.787394</v>
       </c>
       <c r="D112" t="n">
-        <v>0.619443</v>
+        <v>0.621101</v>
       </c>
     </row>
     <row r="113">
@@ -12612,13 +12612,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.787505</v>
+        <v>0.784684</v>
       </c>
       <c r="C113" t="n">
-        <v>0.812422</v>
+        <v>0.818015</v>
       </c>
       <c r="D113" t="n">
-        <v>0.636717</v>
+        <v>0.636172</v>
       </c>
     </row>
     <row r="114">
@@ -12626,13 +12626,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.802258</v>
+        <v>0.806207</v>
       </c>
       <c r="C114" t="n">
-        <v>0.843683</v>
+        <v>0.844061</v>
       </c>
       <c r="D114" t="n">
-        <v>0.65578</v>
+        <v>0.6570009999999999</v>
       </c>
     </row>
     <row r="115">
@@ -12640,13 +12640,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.828055</v>
+        <v>0.829275</v>
       </c>
       <c r="C115" t="n">
-        <v>0.877826</v>
+        <v>0.872663</v>
       </c>
       <c r="D115" t="n">
-        <v>0.677327</v>
+        <v>0.67233</v>
       </c>
     </row>
     <row r="116">
@@ -12654,13 +12654,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.857792</v>
+        <v>0.84937</v>
       </c>
       <c r="C116" t="n">
-        <v>0.906409</v>
+        <v>0.9105490000000001</v>
       </c>
       <c r="D116" t="n">
-        <v>0.69272</v>
+        <v>0.690856</v>
       </c>
     </row>
     <row r="117">
@@ -12668,13 +12668,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.876293</v>
+        <v>0.876509</v>
       </c>
       <c r="C117" t="n">
-        <v>0.939887</v>
+        <v>0.94062</v>
       </c>
       <c r="D117" t="n">
-        <v>0.709539</v>
+        <v>0.712551</v>
       </c>
     </row>
     <row r="118">
@@ -12682,13 +12682,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.8968660000000001</v>
+        <v>0.897856</v>
       </c>
       <c r="C118" t="n">
-        <v>0.9779099999999999</v>
+        <v>0.9827399999999999</v>
       </c>
       <c r="D118" t="n">
-        <v>0.73146</v>
+        <v>0.729878</v>
       </c>
     </row>
     <row r="119">
@@ -12696,13 +12696,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.924779</v>
+        <v>0.924499</v>
       </c>
       <c r="C119" t="n">
-        <v>1.01849</v>
+        <v>1.02168</v>
       </c>
       <c r="D119" t="n">
-        <v>0.750069</v>
+        <v>0.7518899999999999</v>
       </c>
     </row>
   </sheetData>
@@ -12750,13 +12750,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.337859</v>
+        <v>0.327938</v>
       </c>
       <c r="C2" t="n">
-        <v>0.242477</v>
+        <v>0.246443</v>
       </c>
       <c r="D2" t="n">
-        <v>0.152267</v>
+        <v>0.15323</v>
       </c>
     </row>
     <row r="3">
@@ -12764,13 +12764,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.210887</v>
+        <v>0.208889</v>
       </c>
       <c r="C3" t="n">
-        <v>0.252932</v>
+        <v>0.252061</v>
       </c>
       <c r="D3" t="n">
-        <v>0.158063</v>
+        <v>0.156766</v>
       </c>
     </row>
     <row r="4">
@@ -12778,13 +12778,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.225443</v>
+        <v>0.226597</v>
       </c>
       <c r="C4" t="n">
-        <v>0.265408</v>
+        <v>0.268378</v>
       </c>
       <c r="D4" t="n">
-        <v>0.162039</v>
+        <v>0.162607</v>
       </c>
     </row>
     <row r="5">
@@ -12792,13 +12792,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.235607</v>
+        <v>0.235064</v>
       </c>
       <c r="C5" t="n">
-        <v>0.28135</v>
+        <v>0.279003</v>
       </c>
       <c r="D5" t="n">
-        <v>0.169207</v>
+        <v>0.167288</v>
       </c>
     </row>
     <row r="6">
@@ -12806,13 +12806,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.250259</v>
+        <v>0.249948</v>
       </c>
       <c r="C6" t="n">
-        <v>0.287301</v>
+        <v>0.287259</v>
       </c>
       <c r="D6" t="n">
-        <v>0.175595</v>
+        <v>0.174918</v>
       </c>
     </row>
     <row r="7">
@@ -12820,13 +12820,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.264607</v>
+        <v>0.257045</v>
       </c>
       <c r="C7" t="n">
-        <v>0.302163</v>
+        <v>0.302768</v>
       </c>
       <c r="D7" t="n">
-        <v>0.177511</v>
+        <v>0.177009</v>
       </c>
     </row>
     <row r="8">
@@ -12834,13 +12834,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.280142</v>
+        <v>0.274368</v>
       </c>
       <c r="C8" t="n">
-        <v>0.316841</v>
+        <v>0.314411</v>
       </c>
       <c r="D8" t="n">
-        <v>0.181193</v>
+        <v>0.183076</v>
       </c>
     </row>
     <row r="9">
@@ -12848,13 +12848,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.29439</v>
+        <v>0.292753</v>
       </c>
       <c r="C9" t="n">
-        <v>0.337895</v>
+        <v>0.335406</v>
       </c>
       <c r="D9" t="n">
-        <v>0.187611</v>
+        <v>0.188866</v>
       </c>
     </row>
     <row r="10">
@@ -12862,13 +12862,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.311085</v>
+        <v>0.316072</v>
       </c>
       <c r="C10" t="n">
-        <v>0.351257</v>
+        <v>0.349917</v>
       </c>
       <c r="D10" t="n">
-        <v>0.196468</v>
+        <v>0.196932</v>
       </c>
     </row>
     <row r="11">
@@ -12876,13 +12876,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.33359</v>
+        <v>0.334277</v>
       </c>
       <c r="C11" t="n">
-        <v>0.230145</v>
+        <v>0.234055</v>
       </c>
       <c r="D11" t="n">
-        <v>0.142486</v>
+        <v>0.143416</v>
       </c>
     </row>
     <row r="12">
@@ -12890,13 +12890,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.352507</v>
+        <v>0.355689</v>
       </c>
       <c r="C12" t="n">
-        <v>0.241659</v>
+        <v>0.245489</v>
       </c>
       <c r="D12" t="n">
-        <v>0.151018</v>
+        <v>0.15074</v>
       </c>
     </row>
     <row r="13">
@@ -12904,13 +12904,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.379552</v>
+        <v>0.377944</v>
       </c>
       <c r="C13" t="n">
-        <v>0.255524</v>
+        <v>0.25784</v>
       </c>
       <c r="D13" t="n">
-        <v>0.155609</v>
+        <v>0.155367</v>
       </c>
     </row>
     <row r="14">
@@ -12918,13 +12918,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.398903</v>
+        <v>0.405639</v>
       </c>
       <c r="C14" t="n">
-        <v>0.272363</v>
+        <v>0.277735</v>
       </c>
       <c r="D14" t="n">
-        <v>0.160607</v>
+        <v>0.160498</v>
       </c>
     </row>
     <row r="15">
@@ -12932,13 +12932,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.423321</v>
+        <v>0.431017</v>
       </c>
       <c r="C15" t="n">
-        <v>0.294377</v>
+        <v>0.294152</v>
       </c>
       <c r="D15" t="n">
-        <v>0.166498</v>
+        <v>0.166801</v>
       </c>
     </row>
     <row r="16">
@@ -12946,13 +12946,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.447823</v>
+        <v>0.445896</v>
       </c>
       <c r="C16" t="n">
-        <v>0.308819</v>
+        <v>0.309801</v>
       </c>
       <c r="D16" t="n">
-        <v>0.173744</v>
+        <v>0.175217</v>
       </c>
     </row>
     <row r="17">
@@ -12960,13 +12960,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.284293</v>
+        <v>0.284676</v>
       </c>
       <c r="C17" t="n">
-        <v>0.334594</v>
+        <v>0.337749</v>
       </c>
       <c r="D17" t="n">
-        <v>0.181508</v>
+        <v>0.180048</v>
       </c>
     </row>
     <row r="18">
@@ -12974,13 +12974,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.304716</v>
+        <v>0.303194</v>
       </c>
       <c r="C18" t="n">
-        <v>0.355714</v>
+        <v>0.354204</v>
       </c>
       <c r="D18" t="n">
-        <v>0.187572</v>
+        <v>0.187596</v>
       </c>
     </row>
     <row r="19">
@@ -12988,13 +12988,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.321046</v>
+        <v>0.321553</v>
       </c>
       <c r="C19" t="n">
-        <v>0.376699</v>
+        <v>0.375013</v>
       </c>
       <c r="D19" t="n">
-        <v>0.195328</v>
+        <v>0.19516</v>
       </c>
     </row>
     <row r="20">
@@ -13002,13 +13002,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.343817</v>
+        <v>0.34212</v>
       </c>
       <c r="C20" t="n">
-        <v>0.395593</v>
+        <v>0.394188</v>
       </c>
       <c r="D20" t="n">
-        <v>0.204041</v>
+        <v>0.203007</v>
       </c>
     </row>
     <row r="21">
@@ -13016,13 +13016,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.358744</v>
+        <v>0.359577</v>
       </c>
       <c r="C21" t="n">
-        <v>0.418639</v>
+        <v>0.421517</v>
       </c>
       <c r="D21" t="n">
-        <v>0.212056</v>
+        <v>0.21186</v>
       </c>
     </row>
     <row r="22">
@@ -13030,13 +13030,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.381668</v>
+        <v>0.381431</v>
       </c>
       <c r="C22" t="n">
-        <v>0.444995</v>
+        <v>0.43965</v>
       </c>
       <c r="D22" t="n">
-        <v>0.22154</v>
+        <v>0.220569</v>
       </c>
     </row>
     <row r="23">
@@ -13044,13 +13044,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.40309</v>
+        <v>0.401728</v>
       </c>
       <c r="C23" t="n">
-        <v>0.468079</v>
+        <v>0.467763</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2285</v>
+        <v>0.228243</v>
       </c>
     </row>
     <row r="24">
@@ -13058,13 +13058,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.426883</v>
+        <v>0.424639</v>
       </c>
       <c r="C24" t="n">
-        <v>0.494867</v>
+        <v>0.488302</v>
       </c>
       <c r="D24" t="n">
-        <v>0.237977</v>
+        <v>0.238245</v>
       </c>
     </row>
     <row r="25">
@@ -13072,13 +13072,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.448262</v>
+        <v>0.448831</v>
       </c>
       <c r="C25" t="n">
-        <v>0.515942</v>
+        <v>0.52019</v>
       </c>
       <c r="D25" t="n">
-        <v>0.248104</v>
+        <v>0.246885</v>
       </c>
     </row>
     <row r="26">
@@ -13086,13 +13086,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.469865</v>
+        <v>0.465387</v>
       </c>
       <c r="C26" t="n">
-        <v>0.320558</v>
+        <v>0.318308</v>
       </c>
       <c r="D26" t="n">
-        <v>0.170009</v>
+        <v>0.170181</v>
       </c>
     </row>
     <row r="27">
@@ -13100,13 +13100,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.494906</v>
+        <v>0.490753</v>
       </c>
       <c r="C27" t="n">
-        <v>0.336124</v>
+        <v>0.336053</v>
       </c>
       <c r="D27" t="n">
-        <v>0.176871</v>
+        <v>0.176938</v>
       </c>
     </row>
     <row r="28">
@@ -13114,13 +13114,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.521443</v>
+        <v>0.5117620000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>0.359612</v>
+        <v>0.356443</v>
       </c>
       <c r="D28" t="n">
-        <v>0.18431</v>
+        <v>0.183935</v>
       </c>
     </row>
     <row r="29">
@@ -13128,13 +13128,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.540458</v>
+        <v>0.539869</v>
       </c>
       <c r="C29" t="n">
-        <v>0.37587</v>
+        <v>0.375778</v>
       </c>
       <c r="D29" t="n">
-        <v>0.190113</v>
+        <v>0.18941</v>
       </c>
     </row>
     <row r="30">
@@ -13142,13 +13142,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.569277</v>
+        <v>0.56662</v>
       </c>
       <c r="C30" t="n">
-        <v>0.392255</v>
+        <v>0.393291</v>
       </c>
       <c r="D30" t="n">
-        <v>0.198302</v>
+        <v>0.197572</v>
       </c>
     </row>
     <row r="31">
@@ -13156,13 +13156,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.599975</v>
+        <v>0.5957710000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>0.409485</v>
+        <v>0.408835</v>
       </c>
       <c r="D31" t="n">
-        <v>0.204685</v>
+        <v>0.204086</v>
       </c>
     </row>
     <row r="32">
@@ -13170,13 +13170,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.354119</v>
+        <v>0.353493</v>
       </c>
       <c r="C32" t="n">
-        <v>0.436732</v>
+        <v>0.437909</v>
       </c>
       <c r="D32" t="n">
-        <v>0.212174</v>
+        <v>0.211528</v>
       </c>
     </row>
     <row r="33">
@@ -13184,13 +13184,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.373476</v>
+        <v>0.372344</v>
       </c>
       <c r="C33" t="n">
-        <v>0.458057</v>
+        <v>0.457518</v>
       </c>
       <c r="D33" t="n">
-        <v>0.219441</v>
+        <v>0.218962</v>
       </c>
     </row>
     <row r="34">
@@ -13198,13 +13198,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.388317</v>
+        <v>0.38563</v>
       </c>
       <c r="C34" t="n">
-        <v>0.486484</v>
+        <v>0.481981</v>
       </c>
       <c r="D34" t="n">
-        <v>0.225678</v>
+        <v>0.225694</v>
       </c>
     </row>
     <row r="35">
@@ -13212,13 +13212,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.407838</v>
+        <v>0.406864</v>
       </c>
       <c r="C35" t="n">
-        <v>0.498336</v>
+        <v>0.497926</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2338</v>
+        <v>0.233766</v>
       </c>
     </row>
     <row r="36">
@@ -13226,13 +13226,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.431436</v>
+        <v>0.428779</v>
       </c>
       <c r="C36" t="n">
-        <v>0.527782</v>
+        <v>0.523608</v>
       </c>
       <c r="D36" t="n">
-        <v>0.243487</v>
+        <v>0.243141</v>
       </c>
     </row>
     <row r="37">
@@ -13240,13 +13240,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.446411</v>
+        <v>0.44574</v>
       </c>
       <c r="C37" t="n">
-        <v>0.547401</v>
+        <v>0.5545</v>
       </c>
       <c r="D37" t="n">
-        <v>0.25176</v>
+        <v>0.250945</v>
       </c>
     </row>
     <row r="38">
@@ -13254,13 +13254,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.471333</v>
+        <v>0.470912</v>
       </c>
       <c r="C38" t="n">
-        <v>0.574729</v>
+        <v>0.571401</v>
       </c>
       <c r="D38" t="n">
-        <v>0.260638</v>
+        <v>0.25969</v>
       </c>
     </row>
     <row r="39">
@@ -13268,13 +13268,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.494616</v>
+        <v>0.490894</v>
       </c>
       <c r="C39" t="n">
-        <v>0.596803</v>
+        <v>0.5959449999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>0.270713</v>
+        <v>0.270141</v>
       </c>
     </row>
     <row r="40">
@@ -13282,13 +13282,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.518954</v>
+        <v>0.518369</v>
       </c>
       <c r="C40" t="n">
-        <v>0.358159</v>
+        <v>0.359024</v>
       </c>
       <c r="D40" t="n">
-        <v>0.201707</v>
+        <v>0.199733</v>
       </c>
     </row>
     <row r="41">
@@ -13296,13 +13296,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5486529999999999</v>
+        <v>0.5463479999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>0.375063</v>
+        <v>0.373633</v>
       </c>
       <c r="D41" t="n">
-        <v>0.206564</v>
+        <v>0.206301</v>
       </c>
     </row>
     <row r="42">
@@ -13310,13 +13310,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.568778</v>
+        <v>0.568686</v>
       </c>
       <c r="C42" t="n">
-        <v>0.392834</v>
+        <v>0.391542</v>
       </c>
       <c r="D42" t="n">
-        <v>0.214554</v>
+        <v>0.21373</v>
       </c>
     </row>
     <row r="43">
@@ -13324,13 +13324,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.59627</v>
+        <v>0.594181</v>
       </c>
       <c r="C43" t="n">
-        <v>0.412362</v>
+        <v>0.410362</v>
       </c>
       <c r="D43" t="n">
-        <v>0.222305</v>
+        <v>0.220933</v>
       </c>
     </row>
     <row r="44">
@@ -13338,13 +13338,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.621827</v>
+        <v>0.618101</v>
       </c>
       <c r="C44" t="n">
-        <v>0.430644</v>
+        <v>0.431584</v>
       </c>
       <c r="D44" t="n">
-        <v>0.230024</v>
+        <v>0.228595</v>
       </c>
     </row>
     <row r="45">
@@ -13352,13 +13352,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.649659</v>
+        <v>0.648563</v>
       </c>
       <c r="C45" t="n">
-        <v>0.451877</v>
+        <v>0.452936</v>
       </c>
       <c r="D45" t="n">
-        <v>0.23857</v>
+        <v>0.23727</v>
       </c>
     </row>
     <row r="46">
@@ -13366,13 +13366,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.374832</v>
+        <v>0.374128</v>
       </c>
       <c r="C46" t="n">
-        <v>0.47789</v>
+        <v>0.47965</v>
       </c>
       <c r="D46" t="n">
-        <v>0.246102</v>
+        <v>0.244837</v>
       </c>
     </row>
     <row r="47">
@@ -13380,13 +13380,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.394416</v>
+        <v>0.391291</v>
       </c>
       <c r="C47" t="n">
-        <v>0.501768</v>
+        <v>0.495732</v>
       </c>
       <c r="D47" t="n">
-        <v>0.253635</v>
+        <v>0.252403</v>
       </c>
     </row>
     <row r="48">
@@ -13394,13 +13394,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.414476</v>
+        <v>0.412482</v>
       </c>
       <c r="C48" t="n">
-        <v>0.5236769999999999</v>
+        <v>0.521502</v>
       </c>
       <c r="D48" t="n">
-        <v>0.261877</v>
+        <v>0.260612</v>
       </c>
     </row>
     <row r="49">
@@ -13408,13 +13408,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.431678</v>
+        <v>0.430122</v>
       </c>
       <c r="C49" t="n">
-        <v>0.550125</v>
+        <v>0.541366</v>
       </c>
       <c r="D49" t="n">
-        <v>0.270699</v>
+        <v>0.269133</v>
       </c>
     </row>
     <row r="50">
@@ -13422,13 +13422,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.453646</v>
+        <v>0.447377</v>
       </c>
       <c r="C50" t="n">
-        <v>0.581148</v>
+        <v>0.5700730000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>0.280266</v>
+        <v>0.277644</v>
       </c>
     </row>
     <row r="51">
@@ -13436,13 +13436,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.477567</v>
+        <v>0.472621</v>
       </c>
       <c r="C51" t="n">
-        <v>0.597147</v>
+        <v>0.593271</v>
       </c>
       <c r="D51" t="n">
-        <v>0.288816</v>
+        <v>0.286883</v>
       </c>
     </row>
     <row r="52">
@@ -13450,13 +13450,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.502322</v>
+        <v>0.495318</v>
       </c>
       <c r="C52" t="n">
-        <v>0.624207</v>
+        <v>0.619826</v>
       </c>
       <c r="D52" t="n">
-        <v>0.298502</v>
+        <v>0.296375</v>
       </c>
     </row>
     <row r="53">
@@ -13464,13 +13464,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.525994</v>
+        <v>0.519525</v>
       </c>
       <c r="C53" t="n">
-        <v>0.653929</v>
+        <v>0.644822</v>
       </c>
       <c r="D53" t="n">
-        <v>0.306649</v>
+        <v>0.305498</v>
       </c>
     </row>
     <row r="54">
@@ -13478,13 +13478,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5499810000000001</v>
+        <v>0.541937</v>
       </c>
       <c r="C54" t="n">
-        <v>0.38621</v>
+        <v>0.382137</v>
       </c>
       <c r="D54" t="n">
-        <v>0.218612</v>
+        <v>0.21796</v>
       </c>
     </row>
     <row r="55">
@@ -13492,13 +13492,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.578363</v>
+        <v>0.571336</v>
       </c>
       <c r="C55" t="n">
-        <v>0.400896</v>
+        <v>0.39788</v>
       </c>
       <c r="D55" t="n">
-        <v>0.225973</v>
+        <v>0.224289</v>
       </c>
     </row>
     <row r="56">
@@ -13506,13 +13506,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.6086240000000001</v>
+        <v>0.592808</v>
       </c>
       <c r="C56" t="n">
-        <v>0.422737</v>
+        <v>0.416151</v>
       </c>
       <c r="D56" t="n">
-        <v>0.235669</v>
+        <v>0.23207</v>
       </c>
     </row>
     <row r="57">
@@ -13520,13 +13520,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.6383799999999999</v>
+        <v>0.618279</v>
       </c>
       <c r="C57" t="n">
-        <v>0.444876</v>
+        <v>0.432578</v>
       </c>
       <c r="D57" t="n">
-        <v>0.242704</v>
+        <v>0.238719</v>
       </c>
     </row>
     <row r="58">
@@ -13534,13 +13534,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.66645</v>
+        <v>0.644884</v>
       </c>
       <c r="C58" t="n">
-        <v>0.468779</v>
+        <v>0.459494</v>
       </c>
       <c r="D58" t="n">
-        <v>0.249387</v>
+        <v>0.247145</v>
       </c>
     </row>
     <row r="59">
@@ -13548,13 +13548,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.698731</v>
+        <v>0.673285</v>
       </c>
       <c r="C59" t="n">
-        <v>0.492211</v>
+        <v>0.477689</v>
       </c>
       <c r="D59" t="n">
-        <v>0.260335</v>
+        <v>0.256991</v>
       </c>
     </row>
     <row r="60">
@@ -13562,13 +13562,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.388954</v>
+        <v>0.387345</v>
       </c>
       <c r="C60" t="n">
-        <v>0.521481</v>
+        <v>0.5058049999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>0.270255</v>
+        <v>0.265064</v>
       </c>
     </row>
     <row r="61">
@@ -13576,13 +13576,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.406665</v>
+        <v>0.404846</v>
       </c>
       <c r="C61" t="n">
-        <v>0.5452129999999999</v>
+        <v>0.522865</v>
       </c>
       <c r="D61" t="n">
-        <v>0.277086</v>
+        <v>0.272781</v>
       </c>
     </row>
     <row r="62">
@@ -13590,13 +13590,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.432168</v>
+        <v>0.42933</v>
       </c>
       <c r="C62" t="n">
-        <v>0.580009</v>
+        <v>0.55904</v>
       </c>
       <c r="D62" t="n">
-        <v>0.288156</v>
+        <v>0.285785</v>
       </c>
     </row>
     <row r="63">
@@ -13604,13 +13604,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.457183</v>
+        <v>0.46037</v>
       </c>
       <c r="C63" t="n">
-        <v>0.599341</v>
+        <v>0.5944390000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>0.300347</v>
+        <v>0.295039</v>
       </c>
     </row>
     <row r="64">
@@ -13618,13 +13618,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.485387</v>
+        <v>0.480684</v>
       </c>
       <c r="C64" t="n">
-        <v>0.65097</v>
+        <v>0.631588</v>
       </c>
       <c r="D64" t="n">
-        <v>0.312367</v>
+        <v>0.308702</v>
       </c>
     </row>
     <row r="65">
@@ -13632,13 +13632,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5193140000000001</v>
+        <v>0.519064</v>
       </c>
       <c r="C65" t="n">
-        <v>0.687316</v>
+        <v>0.667497</v>
       </c>
       <c r="D65" t="n">
-        <v>0.328613</v>
+        <v>0.322553</v>
       </c>
     </row>
     <row r="66">
@@ -13646,13 +13646,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.550685</v>
+        <v>0.546423</v>
       </c>
       <c r="C66" t="n">
-        <v>0.715226</v>
+        <v>0.704978</v>
       </c>
       <c r="D66" t="n">
-        <v>0.339391</v>
+        <v>0.333153</v>
       </c>
     </row>
     <row r="67">
@@ -13660,13 +13660,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.57864</v>
+        <v>0.5800110000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>0.76408</v>
+        <v>0.749536</v>
       </c>
       <c r="D67" t="n">
-        <v>0.353529</v>
+        <v>0.347362</v>
       </c>
     </row>
     <row r="68">
@@ -13674,13 +13674,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.611069</v>
+        <v>0.621063</v>
       </c>
       <c r="C68" t="n">
-        <v>0.430971</v>
+        <v>0.435384</v>
       </c>
       <c r="D68" t="n">
-        <v>0.244337</v>
+        <v>0.245245</v>
       </c>
     </row>
     <row r="69">
@@ -13688,13 +13688,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.652454</v>
+        <v>0.653956</v>
       </c>
       <c r="C69" t="n">
-        <v>0.461514</v>
+        <v>0.461925</v>
       </c>
       <c r="D69" t="n">
-        <v>0.255684</v>
+        <v>0.254866</v>
       </c>
     </row>
     <row r="70">
@@ -13702,13 +13702,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.693047</v>
+        <v>0.694207</v>
       </c>
       <c r="C70" t="n">
-        <v>0.489183</v>
+        <v>0.490481</v>
       </c>
       <c r="D70" t="n">
-        <v>0.267176</v>
+        <v>0.266557</v>
       </c>
     </row>
     <row r="71">
@@ -13716,13 +13716,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.734937</v>
+        <v>0.73804</v>
       </c>
       <c r="C71" t="n">
-        <v>0.526902</v>
+        <v>0.523258</v>
       </c>
       <c r="D71" t="n">
-        <v>0.278196</v>
+        <v>0.278343</v>
       </c>
     </row>
     <row r="72">
@@ -13730,13 +13730,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.783266</v>
+        <v>0.7839120000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>0.55802</v>
+        <v>0.557729</v>
       </c>
       <c r="D72" t="n">
-        <v>0.289722</v>
+        <v>0.290866</v>
       </c>
     </row>
     <row r="73">
@@ -13744,13 +13744,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.83161</v>
+        <v>0.8386710000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>0.594176</v>
+        <v>0.594036</v>
       </c>
       <c r="D73" t="n">
-        <v>0.302876</v>
+        <v>0.303209</v>
       </c>
     </row>
     <row r="74">
@@ -13758,13 +13758,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.474701</v>
+        <v>0.476301</v>
       </c>
       <c r="C74" t="n">
-        <v>0.633367</v>
+        <v>0.6309630000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>0.315178</v>
+        <v>0.316098</v>
       </c>
     </row>
     <row r="75">
@@ -13772,13 +13772,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.5088240000000001</v>
+        <v>0.511482</v>
       </c>
       <c r="C75" t="n">
-        <v>0.667772</v>
+        <v>0.668538</v>
       </c>
       <c r="D75" t="n">
-        <v>0.329303</v>
+        <v>0.329424</v>
       </c>
     </row>
     <row r="76">
@@ -13786,13 +13786,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.549551</v>
+        <v>0.542757</v>
       </c>
       <c r="C76" t="n">
-        <v>0.730994</v>
+        <v>0.712252</v>
       </c>
       <c r="D76" t="n">
-        <v>0.347361</v>
+        <v>0.342649</v>
       </c>
     </row>
     <row r="77">
@@ -13800,13 +13800,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.599834</v>
+        <v>0.603446</v>
       </c>
       <c r="C77" t="n">
-        <v>0.790585</v>
+        <v>0.7574610000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>0.362874</v>
+        <v>0.356247</v>
       </c>
     </row>
     <row r="78">
@@ -13814,13 +13814,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.650358</v>
+        <v>0.676544</v>
       </c>
       <c r="C78" t="n">
-        <v>0.852836</v>
+        <v>0.83526</v>
       </c>
       <c r="D78" t="n">
-        <v>0.381342</v>
+        <v>0.376579</v>
       </c>
     </row>
     <row r="79">
@@ -13828,13 +13828,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.744463</v>
+        <v>0.734826</v>
       </c>
       <c r="C79" t="n">
-        <v>0.925444</v>
+        <v>0.8849</v>
       </c>
       <c r="D79" t="n">
-        <v>0.39726</v>
+        <v>0.390454</v>
       </c>
     </row>
     <row r="80">
@@ -13842,13 +13842,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.807273</v>
+        <v>0.816219</v>
       </c>
       <c r="C80" t="n">
-        <v>1.01461</v>
+        <v>0.988582</v>
       </c>
       <c r="D80" t="n">
-        <v>0.422243</v>
+        <v>0.417</v>
       </c>
     </row>
     <row r="81">
@@ -13856,13 +13856,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.918587</v>
+        <v>0.900425</v>
       </c>
       <c r="C81" t="n">
-        <v>1.14786</v>
+        <v>1.10857</v>
       </c>
       <c r="D81" t="n">
-        <v>0.449637</v>
+        <v>0.442915</v>
       </c>
     </row>
     <row r="82">
@@ -13870,13 +13870,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.01372</v>
+        <v>1.02497</v>
       </c>
       <c r="C82" t="n">
-        <v>1.21609</v>
+        <v>1.2058</v>
       </c>
       <c r="D82" t="n">
-        <v>0.473618</v>
+        <v>0.468087</v>
       </c>
     </row>
     <row r="83">
@@ -13884,13 +13884,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.12175</v>
+        <v>1.16387</v>
       </c>
       <c r="C83" t="n">
-        <v>0.753768</v>
+        <v>0.77662</v>
       </c>
       <c r="D83" t="n">
-        <v>0.331869</v>
+        <v>0.342117</v>
       </c>
     </row>
     <row r="84">
@@ -13898,13 +13898,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.29004</v>
+        <v>1.3018</v>
       </c>
       <c r="C84" t="n">
-        <v>0.849463</v>
+        <v>0.850472</v>
       </c>
       <c r="D84" t="n">
-        <v>0.358442</v>
+        <v>0.367984</v>
       </c>
     </row>
     <row r="85">
@@ -13912,13 +13912,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.44518</v>
+        <v>1.47743</v>
       </c>
       <c r="C85" t="n">
-        <v>0.960659</v>
+        <v>0.9737209999999999</v>
       </c>
       <c r="D85" t="n">
-        <v>0.398466</v>
+        <v>0.393826</v>
       </c>
     </row>
     <row r="86">
@@ -13926,13 +13926,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.64557</v>
+        <v>1.659</v>
       </c>
       <c r="C86" t="n">
-        <v>1.0963</v>
+        <v>1.101</v>
       </c>
       <c r="D86" t="n">
-        <v>0.424206</v>
+        <v>0.433032</v>
       </c>
     </row>
     <row r="87">
@@ -13940,13 +13940,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.81844</v>
+        <v>1.83162</v>
       </c>
       <c r="C87" t="n">
-        <v>1.22174</v>
+        <v>1.2497</v>
       </c>
       <c r="D87" t="n">
-        <v>0.474502</v>
+        <v>0.477663</v>
       </c>
     </row>
     <row r="88">
@@ -13954,13 +13954,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.02875</v>
+        <v>2.05176</v>
       </c>
       <c r="C88" t="n">
-        <v>1.38063</v>
+        <v>1.3858</v>
       </c>
       <c r="D88" t="n">
-        <v>0.527621</v>
+        <v>0.524417</v>
       </c>
     </row>
     <row r="89">
@@ -13968,13 +13968,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.2953</v>
+        <v>1.30105</v>
       </c>
       <c r="C89" t="n">
-        <v>1.52839</v>
+        <v>1.54839</v>
       </c>
       <c r="D89" t="n">
-        <v>0.5714399999999999</v>
+        <v>0.574025</v>
       </c>
     </row>
     <row r="90">
@@ -13982,13 +13982,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.41176</v>
+        <v>1.4165</v>
       </c>
       <c r="C90" t="n">
-        <v>1.67381</v>
+        <v>1.69291</v>
       </c>
       <c r="D90" t="n">
-        <v>0.6247470000000001</v>
+        <v>0.63352</v>
       </c>
     </row>
     <row r="91">
@@ -13996,13 +13996,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.53007</v>
+        <v>1.54738</v>
       </c>
       <c r="C91" t="n">
-        <v>1.86416</v>
+        <v>1.89806</v>
       </c>
       <c r="D91" t="n">
-        <v>0.679599</v>
+        <v>0.686693</v>
       </c>
     </row>
     <row r="92">
@@ -14010,13 +14010,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.65916</v>
+        <v>1.6648</v>
       </c>
       <c r="C92" t="n">
-        <v>2.04379</v>
+        <v>2.05642</v>
       </c>
       <c r="D92" t="n">
-        <v>0.737822</v>
+        <v>0.747827</v>
       </c>
     </row>
     <row r="93">
@@ -14024,13 +14024,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.78434</v>
+        <v>1.794</v>
       </c>
       <c r="C93" t="n">
-        <v>2.21202</v>
+        <v>2.24627</v>
       </c>
       <c r="D93" t="n">
-        <v>0.798525</v>
+        <v>0.802931</v>
       </c>
     </row>
     <row r="94">
@@ -14038,13 +14038,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.93673</v>
+        <v>1.9471</v>
       </c>
       <c r="C94" t="n">
-        <v>2.44138</v>
+        <v>2.44471</v>
       </c>
       <c r="D94" t="n">
-        <v>0.862022</v>
+        <v>0.865632</v>
       </c>
     </row>
     <row r="95">
@@ -14052,13 +14052,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.09587</v>
+        <v>2.10117</v>
       </c>
       <c r="C95" t="n">
-        <v>2.634</v>
+        <v>2.64974</v>
       </c>
       <c r="D95" t="n">
-        <v>0.929584</v>
+        <v>0.934094</v>
       </c>
     </row>
     <row r="96">
@@ -14066,13 +14066,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.27739</v>
+        <v>2.27815</v>
       </c>
       <c r="C96" t="n">
-        <v>2.8651</v>
+        <v>2.86334</v>
       </c>
       <c r="D96" t="n">
-        <v>0.999439</v>
+        <v>1.00502</v>
       </c>
     </row>
     <row r="97">
@@ -14080,13 +14080,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.45539</v>
+        <v>2.43882</v>
       </c>
       <c r="C97" t="n">
-        <v>1.64235</v>
+        <v>1.6364</v>
       </c>
       <c r="D97" t="n">
-        <v>0.706447</v>
+        <v>0.706318</v>
       </c>
     </row>
     <row r="98">
@@ -14094,13 +14094,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.6118</v>
+        <v>2.63477</v>
       </c>
       <c r="C98" t="n">
-        <v>1.75566</v>
+        <v>1.76252</v>
       </c>
       <c r="D98" t="n">
-        <v>0.746802</v>
+        <v>0.74896</v>
       </c>
     </row>
     <row r="99">
@@ -14108,13 +14108,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.80844</v>
+        <v>2.80404</v>
       </c>
       <c r="C99" t="n">
-        <v>1.87449</v>
+        <v>1.88204</v>
       </c>
       <c r="D99" t="n">
-        <v>0.793023</v>
+        <v>0.792994</v>
       </c>
     </row>
     <row r="100">
@@ -14122,13 +14122,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.02181</v>
+        <v>3.01815</v>
       </c>
       <c r="C100" t="n">
-        <v>2.02735</v>
+        <v>2.00928</v>
       </c>
       <c r="D100" t="n">
-        <v>0.837477</v>
+        <v>0.837647</v>
       </c>
     </row>
     <row r="101">
@@ -14136,13 +14136,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.21251</v>
+        <v>3.22043</v>
       </c>
       <c r="C101" t="n">
-        <v>2.16474</v>
+        <v>2.15208</v>
       </c>
       <c r="D101" t="n">
-        <v>0.886831</v>
+        <v>0.888458</v>
       </c>
     </row>
     <row r="102">
@@ -14150,13 +14150,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.41802</v>
+        <v>3.43472</v>
       </c>
       <c r="C102" t="n">
-        <v>2.29533</v>
+        <v>2.31146</v>
       </c>
       <c r="D102" t="n">
-        <v>0.934625</v>
+        <v>0.9353669999999999</v>
       </c>
     </row>
     <row r="103">
@@ -14164,13 +14164,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.93543</v>
+        <v>1.93248</v>
       </c>
       <c r="C103" t="n">
-        <v>2.4563</v>
+        <v>2.46464</v>
       </c>
       <c r="D103" t="n">
-        <v>0.981904</v>
+        <v>0.987075</v>
       </c>
     </row>
     <row r="104">
@@ -14178,13 +14178,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.05565</v>
+        <v>2.06465</v>
       </c>
       <c r="C104" t="n">
-        <v>2.61561</v>
+        <v>2.61181</v>
       </c>
       <c r="D104" t="n">
-        <v>1.03339</v>
+        <v>1.03726</v>
       </c>
     </row>
     <row r="105">
@@ -14192,13 +14192,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.18607</v>
+        <v>2.19077</v>
       </c>
       <c r="C105" t="n">
-        <v>2.76416</v>
+        <v>2.77813</v>
       </c>
       <c r="D105" t="n">
-        <v>1.09192</v>
+        <v>1.09211</v>
       </c>
     </row>
     <row r="106">
@@ -14206,13 +14206,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.31032</v>
+        <v>2.31465</v>
       </c>
       <c r="C106" t="n">
-        <v>2.93636</v>
+        <v>2.95789</v>
       </c>
       <c r="D106" t="n">
-        <v>1.14827</v>
+        <v>1.15148</v>
       </c>
     </row>
     <row r="107">
@@ -14220,13 +14220,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>2.45744</v>
+        <v>2.4562</v>
       </c>
       <c r="C107" t="n">
-        <v>3.11022</v>
+        <v>3.11578</v>
       </c>
       <c r="D107" t="n">
-        <v>1.20396</v>
+        <v>1.20991</v>
       </c>
     </row>
     <row r="108">
@@ -14234,13 +14234,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>2.60286</v>
+        <v>2.61304</v>
       </c>
       <c r="C108" t="n">
-        <v>3.28487</v>
+        <v>3.34274</v>
       </c>
       <c r="D108" t="n">
-        <v>1.26654</v>
+        <v>1.2719</v>
       </c>
     </row>
     <row r="109">
@@ -14248,13 +14248,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>2.75955</v>
+        <v>2.76354</v>
       </c>
       <c r="C109" t="n">
-        <v>3.48923</v>
+        <v>3.50526</v>
       </c>
       <c r="D109" t="n">
-        <v>1.33083</v>
+        <v>1.33382</v>
       </c>
     </row>
     <row r="110">
@@ -14262,13 +14262,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>2.91569</v>
+        <v>2.91252</v>
       </c>
       <c r="C110" t="n">
-        <v>3.6934</v>
+        <v>3.72734</v>
       </c>
       <c r="D110" t="n">
-        <v>1.39688</v>
+        <v>1.40402</v>
       </c>
     </row>
     <row r="111">
@@ -14276,13 +14276,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.06112</v>
+        <v>3.07718</v>
       </c>
       <c r="C111" t="n">
-        <v>2.04088</v>
+        <v>2.05808</v>
       </c>
       <c r="D111" t="n">
-        <v>0.983581</v>
+        <v>0.983237</v>
       </c>
     </row>
     <row r="112">
@@ -14290,13 +14290,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.25964</v>
+        <v>3.26151</v>
       </c>
       <c r="C112" t="n">
-        <v>2.16769</v>
+        <v>2.17323</v>
       </c>
       <c r="D112" t="n">
-        <v>1.0286</v>
+        <v>1.02961</v>
       </c>
     </row>
     <row r="113">
@@ -14304,13 +14304,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.44966</v>
+        <v>3.44813</v>
       </c>
       <c r="C113" t="n">
-        <v>2.27853</v>
+        <v>2.30159</v>
       </c>
       <c r="D113" t="n">
-        <v>1.06961</v>
+        <v>1.07803</v>
       </c>
     </row>
     <row r="114">
@@ -14318,13 +14318,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.64574</v>
+        <v>3.64349</v>
       </c>
       <c r="C114" t="n">
-        <v>2.41856</v>
+        <v>2.43153</v>
       </c>
       <c r="D114" t="n">
-        <v>1.12121</v>
+        <v>1.12148</v>
       </c>
     </row>
     <row r="115">
@@ -14332,13 +14332,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.83594</v>
+        <v>3.84825</v>
       </c>
       <c r="C115" t="n">
-        <v>2.55124</v>
+        <v>2.56593</v>
       </c>
       <c r="D115" t="n">
-        <v>1.17006</v>
+        <v>1.17078</v>
       </c>
     </row>
     <row r="116">
@@ -14346,13 +14346,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.06458</v>
+        <v>4.0546</v>
       </c>
       <c r="C116" t="n">
-        <v>2.70678</v>
+        <v>2.71895</v>
       </c>
       <c r="D116" t="n">
-        <v>1.22099</v>
+        <v>1.22312</v>
       </c>
     </row>
     <row r="117">
@@ -14360,13 +14360,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.24776</v>
+        <v>2.26101</v>
       </c>
       <c r="C117" t="n">
-        <v>2.89772</v>
+        <v>2.87011</v>
       </c>
       <c r="D117" t="n">
-        <v>1.26908</v>
+        <v>1.27377</v>
       </c>
     </row>
     <row r="118">
@@ -14374,13 +14374,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.35714</v>
+        <v>2.37928</v>
       </c>
       <c r="C118" t="n">
-        <v>3.05827</v>
+        <v>3.05669</v>
       </c>
       <c r="D118" t="n">
-        <v>1.32599</v>
+        <v>1.32733</v>
       </c>
     </row>
     <row r="119">
@@ -14388,13 +14388,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.48356</v>
+        <v>2.50914</v>
       </c>
       <c r="C119" t="n">
-        <v>3.2297</v>
+        <v>3.23963</v>
       </c>
       <c r="D119" t="n">
-        <v>1.3767</v>
+        <v>1.38611</v>
       </c>
     </row>
   </sheetData>

--- a/vs/scattered unsuccessful looukp.xlsx
+++ b/vs/scattered unsuccessful looukp.xlsx
@@ -7673,13 +7673,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>13.5871</v>
+        <v>13.9353</v>
       </c>
       <c r="C2" t="n">
-        <v>13.2984</v>
+        <v>13.0602</v>
       </c>
       <c r="D2" t="n">
-        <v>14.894</v>
+        <v>14.8222</v>
       </c>
     </row>
     <row r="3">
@@ -7687,13 +7687,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>13.965</v>
+        <v>14.1744</v>
       </c>
       <c r="C3" t="n">
-        <v>13.5531</v>
+        <v>13.3193</v>
       </c>
       <c r="D3" t="n">
-        <v>15.0797</v>
+        <v>14.8767</v>
       </c>
     </row>
     <row r="4">
@@ -7701,13 +7701,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>14.396</v>
+        <v>14.5685</v>
       </c>
       <c r="C4" t="n">
-        <v>13.7613</v>
+        <v>13.6801</v>
       </c>
       <c r="D4" t="n">
-        <v>15.6403</v>
+        <v>15.4552</v>
       </c>
     </row>
     <row r="5">
@@ -7715,13 +7715,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>14.7207</v>
+        <v>14.8998</v>
       </c>
       <c r="C5" t="n">
-        <v>13.9899</v>
+        <v>13.9841</v>
       </c>
       <c r="D5" t="n">
-        <v>15.931</v>
+        <v>15.6953</v>
       </c>
     </row>
     <row r="6">
@@ -7729,13 +7729,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>15.2114</v>
+        <v>15.347</v>
       </c>
       <c r="C6" t="n">
-        <v>14.241</v>
+        <v>14.2488</v>
       </c>
       <c r="D6" t="n">
-        <v>16.259</v>
+        <v>16.1249</v>
       </c>
     </row>
     <row r="7">
@@ -7743,13 +7743,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>15.5685</v>
+        <v>15.5757</v>
       </c>
       <c r="C7" t="n">
-        <v>11.4327</v>
+        <v>11.0862</v>
       </c>
       <c r="D7" t="n">
-        <v>13.1926</v>
+        <v>12.9694</v>
       </c>
     </row>
     <row r="8">
@@ -7757,13 +7757,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>15.8887</v>
+        <v>15.9692</v>
       </c>
       <c r="C8" t="n">
-        <v>11.8721</v>
+        <v>11.5352</v>
       </c>
       <c r="D8" t="n">
-        <v>13.5199</v>
+        <v>13.5026</v>
       </c>
     </row>
     <row r="9">
@@ -7771,13 +7771,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>16.1545</v>
+        <v>16.2748</v>
       </c>
       <c r="C9" t="n">
-        <v>12.2635</v>
+        <v>12.084</v>
       </c>
       <c r="D9" t="n">
-        <v>14.0866</v>
+        <v>14.0364</v>
       </c>
     </row>
     <row r="10">
@@ -7785,13 +7785,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>16.5623</v>
+        <v>16.6571</v>
       </c>
       <c r="C10" t="n">
-        <v>12.8005</v>
+        <v>12.4857</v>
       </c>
       <c r="D10" t="n">
-        <v>14.6194</v>
+        <v>14.5366</v>
       </c>
     </row>
     <row r="11">
@@ -7799,13 +7799,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>16.7711</v>
+        <v>16.8266</v>
       </c>
       <c r="C11" t="n">
-        <v>13.1615</v>
+        <v>12.936</v>
       </c>
       <c r="D11" t="n">
-        <v>15.1299</v>
+        <v>15.1411</v>
       </c>
     </row>
     <row r="12">
@@ -7813,13 +7813,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>17.1709</v>
+        <v>17.3188</v>
       </c>
       <c r="C12" t="n">
-        <v>13.6695</v>
+        <v>13.4589</v>
       </c>
       <c r="D12" t="n">
-        <v>15.7864</v>
+        <v>15.6373</v>
       </c>
     </row>
     <row r="13">
@@ -7827,13 +7827,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>14.2961</v>
+        <v>14.4968</v>
       </c>
       <c r="C13" t="n">
-        <v>14.1</v>
+        <v>13.8833</v>
       </c>
       <c r="D13" t="n">
-        <v>16.2889</v>
+        <v>16.2183</v>
       </c>
     </row>
     <row r="14">
@@ -7841,13 +7841,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>14.6681</v>
+        <v>14.8965</v>
       </c>
       <c r="C14" t="n">
-        <v>14.3735</v>
+        <v>14.2345</v>
       </c>
       <c r="D14" t="n">
-        <v>16.8083</v>
+        <v>16.6807</v>
       </c>
     </row>
     <row r="15">
@@ -7855,13 +7855,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>15.1026</v>
+        <v>15.2787</v>
       </c>
       <c r="C15" t="n">
-        <v>14.7737</v>
+        <v>14.5489</v>
       </c>
       <c r="D15" t="n">
-        <v>17.2839</v>
+        <v>17.063</v>
       </c>
     </row>
     <row r="16">
@@ -7869,13 +7869,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>15.4946</v>
+        <v>15.7136</v>
       </c>
       <c r="C16" t="n">
-        <v>15.0779</v>
+        <v>14.9054</v>
       </c>
       <c r="D16" t="n">
-        <v>17.7708</v>
+        <v>17.5347</v>
       </c>
     </row>
     <row r="17">
@@ -7883,13 +7883,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>15.904</v>
+        <v>16.049</v>
       </c>
       <c r="C17" t="n">
-        <v>15.4994</v>
+        <v>15.3078</v>
       </c>
       <c r="D17" t="n">
-        <v>18.2301</v>
+        <v>17.9172</v>
       </c>
     </row>
     <row r="18">
@@ -7897,13 +7897,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>16.2422</v>
+        <v>16.3614</v>
       </c>
       <c r="C18" t="n">
-        <v>15.7095</v>
+        <v>15.6078</v>
       </c>
       <c r="D18" t="n">
-        <v>18.6742</v>
+        <v>18.4694</v>
       </c>
     </row>
     <row r="19">
@@ -7911,13 +7911,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>16.6081</v>
+        <v>16.7976</v>
       </c>
       <c r="C19" t="n">
-        <v>16.0025</v>
+        <v>15.9758</v>
       </c>
       <c r="D19" t="n">
-        <v>19.1775</v>
+        <v>18.8724</v>
       </c>
     </row>
     <row r="20">
@@ -7925,13 +7925,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>16.9659</v>
+        <v>17.097</v>
       </c>
       <c r="C20" t="n">
-        <v>16.4396</v>
+        <v>16.4173</v>
       </c>
       <c r="D20" t="n">
-        <v>19.5491</v>
+        <v>19.4052</v>
       </c>
     </row>
     <row r="21">
@@ -7939,13 +7939,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>17.23</v>
+        <v>17.3967</v>
       </c>
       <c r="C21" t="n">
-        <v>12.7906</v>
+        <v>12.5638</v>
       </c>
       <c r="D21" t="n">
-        <v>14.8683</v>
+        <v>14.8099</v>
       </c>
     </row>
     <row r="22">
@@ -7953,13 +7953,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>17.5329</v>
+        <v>17.6241</v>
       </c>
       <c r="C22" t="n">
-        <v>13.2008</v>
+        <v>12.9725</v>
       </c>
       <c r="D22" t="n">
-        <v>15.3885</v>
+        <v>15.3346</v>
       </c>
     </row>
     <row r="23">
@@ -7967,13 +7967,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>17.8463</v>
+        <v>17.9324</v>
       </c>
       <c r="C23" t="n">
-        <v>13.6107</v>
+        <v>13.36</v>
       </c>
       <c r="D23" t="n">
-        <v>15.861</v>
+        <v>15.8225</v>
       </c>
     </row>
     <row r="24">
@@ -7981,13 +7981,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>18.1029</v>
+        <v>18.1692</v>
       </c>
       <c r="C24" t="n">
-        <v>14.0119</v>
+        <v>13.7277</v>
       </c>
       <c r="D24" t="n">
-        <v>16.3405</v>
+        <v>16.297</v>
       </c>
     </row>
     <row r="25">
@@ -7995,13 +7995,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>18.3874</v>
+        <v>18.4576</v>
       </c>
       <c r="C25" t="n">
-        <v>14.3919</v>
+        <v>14.192</v>
       </c>
       <c r="D25" t="n">
-        <v>16.8453</v>
+        <v>16.7342</v>
       </c>
     </row>
     <row r="26">
@@ -8009,13 +8009,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>18.681</v>
+        <v>18.7276</v>
       </c>
       <c r="C26" t="n">
-        <v>14.802</v>
+        <v>14.5966</v>
       </c>
       <c r="D26" t="n">
-        <v>17.3991</v>
+        <v>17.2109</v>
       </c>
     </row>
     <row r="27">
@@ -8023,13 +8023,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>14.7318</v>
+        <v>14.8446</v>
       </c>
       <c r="C27" t="n">
-        <v>15.1471</v>
+        <v>14.9494</v>
       </c>
       <c r="D27" t="n">
-        <v>17.7778</v>
+        <v>17.6877</v>
       </c>
     </row>
     <row r="28">
@@ -8037,13 +8037,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>15.0491</v>
+        <v>15.2705</v>
       </c>
       <c r="C28" t="n">
-        <v>15.4861</v>
+        <v>15.3215</v>
       </c>
       <c r="D28" t="n">
-        <v>18.2993</v>
+        <v>18.1709</v>
       </c>
     </row>
     <row r="29">
@@ -8051,13 +8051,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>15.5282</v>
+        <v>15.6301</v>
       </c>
       <c r="C29" t="n">
-        <v>15.8787</v>
+        <v>15.706</v>
       </c>
       <c r="D29" t="n">
-        <v>18.8326</v>
+        <v>18.6512</v>
       </c>
     </row>
     <row r="30">
@@ -8065,13 +8065,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>15.9533</v>
+        <v>16.119</v>
       </c>
       <c r="C30" t="n">
-        <v>16.2389</v>
+        <v>16.09</v>
       </c>
       <c r="D30" t="n">
-        <v>19.3296</v>
+        <v>19.059</v>
       </c>
     </row>
     <row r="31">
@@ -8079,13 +8079,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>16.3198</v>
+        <v>16.4596</v>
       </c>
       <c r="C31" t="n">
-        <v>16.5662</v>
+        <v>16.4317</v>
       </c>
       <c r="D31" t="n">
-        <v>19.7415</v>
+        <v>19.4993</v>
       </c>
     </row>
     <row r="32">
@@ -8093,13 +8093,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>16.7234</v>
+        <v>16.9201</v>
       </c>
       <c r="C32" t="n">
-        <v>16.9064</v>
+        <v>16.8347</v>
       </c>
       <c r="D32" t="n">
-        <v>20.301</v>
+        <v>20.021</v>
       </c>
     </row>
     <row r="33">
@@ -8107,13 +8107,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>17.1045</v>
+        <v>17.3274</v>
       </c>
       <c r="C33" t="n">
-        <v>17.2594</v>
+        <v>17.2121</v>
       </c>
       <c r="D33" t="n">
-        <v>20.7736</v>
+        <v>20.4266</v>
       </c>
     </row>
     <row r="34">
@@ -8121,13 +8121,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>17.4131</v>
+        <v>17.6528</v>
       </c>
       <c r="C34" t="n">
-        <v>17.5999</v>
+        <v>17.5765</v>
       </c>
       <c r="D34" t="n">
-        <v>21.242</v>
+        <v>20.9093</v>
       </c>
     </row>
     <row r="35">
@@ -8135,13 +8135,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>17.8108</v>
+        <v>17.916</v>
       </c>
       <c r="C35" t="n">
-        <v>13.4515</v>
+        <v>13.2241</v>
       </c>
       <c r="D35" t="n">
-        <v>16.0324</v>
+        <v>15.8835</v>
       </c>
     </row>
     <row r="36">
@@ -8149,13 +8149,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>18.1496</v>
+        <v>18.1427</v>
       </c>
       <c r="C36" t="n">
-        <v>13.8389</v>
+        <v>13.6088</v>
       </c>
       <c r="D36" t="n">
-        <v>16.5358</v>
+        <v>16.3745</v>
       </c>
     </row>
     <row r="37">
@@ -8163,13 +8163,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>18.384</v>
+        <v>18.4336</v>
       </c>
       <c r="C37" t="n">
-        <v>14.2035</v>
+        <v>13.9936</v>
       </c>
       <c r="D37" t="n">
-        <v>16.9487</v>
+        <v>16.7982</v>
       </c>
     </row>
     <row r="38">
@@ -8177,13 +8177,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>18.6073</v>
+        <v>18.6605</v>
       </c>
       <c r="C38" t="n">
-        <v>14.6117</v>
+        <v>14.3749</v>
       </c>
       <c r="D38" t="n">
-        <v>17.451</v>
+        <v>17.3164</v>
       </c>
     </row>
     <row r="39">
@@ -8191,13 +8191,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>18.8851</v>
+        <v>18.8643</v>
       </c>
       <c r="C39" t="n">
-        <v>14.9943</v>
+        <v>14.7648</v>
       </c>
       <c r="D39" t="n">
-        <v>17.9903</v>
+        <v>17.801</v>
       </c>
     </row>
     <row r="40">
@@ -8205,13 +8205,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>19.1614</v>
+        <v>19.1695</v>
       </c>
       <c r="C40" t="n">
-        <v>15.3775</v>
+        <v>15.1676</v>
       </c>
       <c r="D40" t="n">
-        <v>18.3962</v>
+        <v>18.2892</v>
       </c>
     </row>
     <row r="41">
@@ -8219,13 +8219,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>14.9818</v>
+        <v>15.1247</v>
       </c>
       <c r="C41" t="n">
-        <v>15.7905</v>
+        <v>15.5605</v>
       </c>
       <c r="D41" t="n">
-        <v>18.9155</v>
+        <v>18.7116</v>
       </c>
     </row>
     <row r="42">
@@ -8233,13 +8233,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>15.3881</v>
+        <v>15.5374</v>
       </c>
       <c r="C42" t="n">
-        <v>16.1151</v>
+        <v>15.924</v>
       </c>
       <c r="D42" t="n">
-        <v>19.411</v>
+        <v>19.179</v>
       </c>
     </row>
     <row r="43">
@@ -8247,13 +8247,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>15.8047</v>
+        <v>15.9178</v>
       </c>
       <c r="C43" t="n">
-        <v>16.5087</v>
+        <v>16.3263</v>
       </c>
       <c r="D43" t="n">
-        <v>19.8331</v>
+        <v>19.6572</v>
       </c>
     </row>
     <row r="44">
@@ -8261,13 +8261,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>16.1761</v>
+        <v>16.3446</v>
       </c>
       <c r="C44" t="n">
-        <v>16.8309</v>
+        <v>16.692</v>
       </c>
       <c r="D44" t="n">
-        <v>20.3203</v>
+        <v>20.128</v>
       </c>
     </row>
     <row r="45">
@@ -8275,13 +8275,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>16.6088</v>
+        <v>16.7414</v>
       </c>
       <c r="C45" t="n">
-        <v>17.1343</v>
+        <v>17.0188</v>
       </c>
       <c r="D45" t="n">
-        <v>20.79</v>
+        <v>20.6074</v>
       </c>
     </row>
     <row r="46">
@@ -8289,13 +8289,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>17.0677</v>
+        <v>17.194</v>
       </c>
       <c r="C46" t="n">
-        <v>17.462</v>
+        <v>17.3611</v>
       </c>
       <c r="D46" t="n">
-        <v>21.2461</v>
+        <v>20.9956</v>
       </c>
     </row>
     <row r="47">
@@ -8303,13 +8303,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>17.4529</v>
+        <v>17.5904</v>
       </c>
       <c r="C47" t="n">
-        <v>17.7567</v>
+        <v>17.7122</v>
       </c>
       <c r="D47" t="n">
-        <v>21.7068</v>
+        <v>21.3871</v>
       </c>
     </row>
     <row r="48">
@@ -8317,13 +8317,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>17.7705</v>
+        <v>17.895</v>
       </c>
       <c r="C48" t="n">
-        <v>18.1191</v>
+        <v>18.0813</v>
       </c>
       <c r="D48" t="n">
-        <v>22.2079</v>
+        <v>21.9548</v>
       </c>
     </row>
     <row r="49">
@@ -8331,13 +8331,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>18.122</v>
+        <v>18.2406</v>
       </c>
       <c r="C49" t="n">
-        <v>18.5991</v>
+        <v>18.4592</v>
       </c>
       <c r="D49" t="n">
-        <v>22.6675</v>
+        <v>22.6461</v>
       </c>
     </row>
     <row r="50">
@@ -8345,13 +8345,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>18.4008</v>
+        <v>18.5042</v>
       </c>
       <c r="C50" t="n">
-        <v>13.9977</v>
+        <v>13.7323</v>
       </c>
       <c r="D50" t="n">
-        <v>15.8612</v>
+        <v>15.8336</v>
       </c>
     </row>
     <row r="51">
@@ -8359,13 +8359,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>18.6639</v>
+        <v>18.8447</v>
       </c>
       <c r="C51" t="n">
-        <v>14.417</v>
+        <v>14.1302</v>
       </c>
       <c r="D51" t="n">
-        <v>16.3325</v>
+        <v>16.3237</v>
       </c>
     </row>
     <row r="52">
@@ -8373,13 +8373,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>18.96</v>
+        <v>19.1775</v>
       </c>
       <c r="C52" t="n">
-        <v>14.8316</v>
+        <v>14.5341</v>
       </c>
       <c r="D52" t="n">
-        <v>16.7822</v>
+        <v>16.7557</v>
       </c>
     </row>
     <row r="53">
@@ -8387,13 +8387,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>19.1949</v>
+        <v>19.4082</v>
       </c>
       <c r="C53" t="n">
-        <v>15.272</v>
+        <v>14.9428</v>
       </c>
       <c r="D53" t="n">
-        <v>17.314</v>
+        <v>17.2657</v>
       </c>
     </row>
     <row r="54">
@@ -8401,13 +8401,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>19.4937</v>
+        <v>19.6417</v>
       </c>
       <c r="C54" t="n">
-        <v>15.6543</v>
+        <v>15.3643</v>
       </c>
       <c r="D54" t="n">
-        <v>17.8463</v>
+        <v>17.7549</v>
       </c>
     </row>
     <row r="55">
@@ -8415,13 +8415,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>19.7515</v>
+        <v>19.9985</v>
       </c>
       <c r="C55" t="n">
-        <v>16.0737</v>
+        <v>15.7897</v>
       </c>
       <c r="D55" t="n">
-        <v>18.359</v>
+        <v>18.3135</v>
       </c>
     </row>
     <row r="56">
@@ -8429,13 +8429,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>15.5801</v>
+        <v>15.7629</v>
       </c>
       <c r="C56" t="n">
-        <v>16.4991</v>
+        <v>16.1679</v>
       </c>
       <c r="D56" t="n">
-        <v>18.8542</v>
+        <v>18.7813</v>
       </c>
     </row>
     <row r="57">
@@ -8443,13 +8443,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>15.9911</v>
+        <v>16.1666</v>
       </c>
       <c r="C57" t="n">
-        <v>16.9139</v>
+        <v>16.5457</v>
       </c>
       <c r="D57" t="n">
-        <v>19.325</v>
+        <v>19.2981</v>
       </c>
     </row>
     <row r="58">
@@ -8457,13 +8457,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>16.4205</v>
+        <v>16.6801</v>
       </c>
       <c r="C58" t="n">
-        <v>17.2404</v>
+        <v>16.8833</v>
       </c>
       <c r="D58" t="n">
-        <v>19.7836</v>
+        <v>19.681</v>
       </c>
     </row>
     <row r="59">
@@ -8471,13 +8471,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>16.8882</v>
+        <v>17.0557</v>
       </c>
       <c r="C59" t="n">
-        <v>17.5932</v>
+        <v>17.2355</v>
       </c>
       <c r="D59" t="n">
-        <v>20.3433</v>
+        <v>20.228</v>
       </c>
     </row>
     <row r="60">
@@ -8485,13 +8485,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>17.3516</v>
+        <v>17.5054</v>
       </c>
       <c r="C60" t="n">
-        <v>17.8967</v>
+        <v>17.6469</v>
       </c>
       <c r="D60" t="n">
-        <v>20.7949</v>
+        <v>20.6899</v>
       </c>
     </row>
     <row r="61">
@@ -8499,13 +8499,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>17.7677</v>
+        <v>17.9178</v>
       </c>
       <c r="C61" t="n">
-        <v>18.2718</v>
+        <v>18.0144</v>
       </c>
       <c r="D61" t="n">
-        <v>21.4125</v>
+        <v>21.2342</v>
       </c>
     </row>
     <row r="62">
@@ -8513,13 +8513,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>18.1659</v>
+        <v>18.3736</v>
       </c>
       <c r="C62" t="n">
-        <v>18.7046</v>
+        <v>18.427</v>
       </c>
       <c r="D62" t="n">
-        <v>21.8661</v>
+        <v>21.8441</v>
       </c>
     </row>
     <row r="63">
@@ -8527,13 +8527,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>18.5431</v>
+        <v>18.7721</v>
       </c>
       <c r="C63" t="n">
-        <v>19.199</v>
+        <v>18.9294</v>
       </c>
       <c r="D63" t="n">
-        <v>22.5981</v>
+        <v>22.6226</v>
       </c>
     </row>
     <row r="64">
@@ -8541,13 +8541,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>18.9125</v>
+        <v>19.1109</v>
       </c>
       <c r="C64" t="n">
-        <v>14.3937</v>
+        <v>14.246</v>
       </c>
       <c r="D64" t="n">
-        <v>16.6551</v>
+        <v>16.6862</v>
       </c>
     </row>
     <row r="65">
@@ -8555,13 +8555,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>19.2327</v>
+        <v>19.4913</v>
       </c>
       <c r="C65" t="n">
-        <v>14.8191</v>
+        <v>14.6997</v>
       </c>
       <c r="D65" t="n">
-        <v>17.1418</v>
+        <v>17.2627</v>
       </c>
     </row>
     <row r="66">
@@ -8569,13 +8569,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>19.6025</v>
+        <v>19.8771</v>
       </c>
       <c r="C66" t="n">
-        <v>15.2858</v>
+        <v>15.1122</v>
       </c>
       <c r="D66" t="n">
-        <v>17.6826</v>
+        <v>17.7867</v>
       </c>
     </row>
     <row r="67">
@@ -8583,13 +8583,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>20.1079</v>
+        <v>20.1908</v>
       </c>
       <c r="C67" t="n">
-        <v>15.7981</v>
+        <v>15.6208</v>
       </c>
       <c r="D67" t="n">
-        <v>18.2852</v>
+        <v>18.3523</v>
       </c>
     </row>
     <row r="68">
@@ -8597,13 +8597,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>20.4254</v>
+        <v>20.6394</v>
       </c>
       <c r="C68" t="n">
-        <v>16.2262</v>
+        <v>16.2011</v>
       </c>
       <c r="D68" t="n">
-        <v>18.9471</v>
+        <v>19.0569</v>
       </c>
     </row>
     <row r="69">
@@ -8611,13 +8611,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>20.9415</v>
+        <v>21.126</v>
       </c>
       <c r="C69" t="n">
-        <v>16.7699</v>
+        <v>16.6286</v>
       </c>
       <c r="D69" t="n">
-        <v>19.5961</v>
+        <v>19.7209</v>
       </c>
     </row>
     <row r="70">
@@ -8625,13 +8625,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>20.7912</v>
+        <v>20.1071</v>
       </c>
       <c r="C70" t="n">
-        <v>17.3247</v>
+        <v>17.1415</v>
       </c>
       <c r="D70" t="n">
-        <v>20.3262</v>
+        <v>20.3513</v>
       </c>
     </row>
     <row r="71">
@@ -8639,13 +8639,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>22.1997</v>
+        <v>21.5194</v>
       </c>
       <c r="C71" t="n">
-        <v>17.7486</v>
+        <v>17.6519</v>
       </c>
       <c r="D71" t="n">
-        <v>21.238</v>
+        <v>21.0806</v>
       </c>
     </row>
     <row r="72">
@@ -8653,13 +8653,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>23.5982</v>
+        <v>23.0206</v>
       </c>
       <c r="C72" t="n">
-        <v>18.2099</v>
+        <v>18.1496</v>
       </c>
       <c r="D72" t="n">
-        <v>21.7589</v>
+        <v>21.6989</v>
       </c>
     </row>
     <row r="73">
@@ -8667,13 +8667,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>24.2311</v>
+        <v>24.8545</v>
       </c>
       <c r="C73" t="n">
-        <v>18.9024</v>
+        <v>18.6916</v>
       </c>
       <c r="D73" t="n">
-        <v>22.3297</v>
+        <v>22.4765</v>
       </c>
     </row>
     <row r="74">
@@ -8681,13 +8681,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>27.1689</v>
+        <v>26.6043</v>
       </c>
       <c r="C74" t="n">
-        <v>19.639</v>
+        <v>19.2975</v>
       </c>
       <c r="D74" t="n">
-        <v>23.627</v>
+        <v>23.2975</v>
       </c>
     </row>
     <row r="75">
@@ -8695,13 +8695,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>29.3511</v>
+        <v>29.0481</v>
       </c>
       <c r="C75" t="n">
-        <v>20.5795</v>
+        <v>20.0553</v>
       </c>
       <c r="D75" t="n">
-        <v>24.8455</v>
+        <v>24.2369</v>
       </c>
     </row>
     <row r="76">
@@ -8709,13 +8709,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>31.3895</v>
+        <v>31.1445</v>
       </c>
       <c r="C76" t="n">
-        <v>21.1743</v>
+        <v>21.0085</v>
       </c>
       <c r="D76" t="n">
-        <v>25.7678</v>
+        <v>25.467</v>
       </c>
     </row>
     <row r="77">
@@ -8723,13 +8723,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>33.0363</v>
+        <v>33.5544</v>
       </c>
       <c r="C77" t="n">
-        <v>22.6464</v>
+        <v>22.2622</v>
       </c>
       <c r="D77" t="n">
-        <v>27.6465</v>
+        <v>27.3584</v>
       </c>
     </row>
     <row r="78">
@@ -8737,13 +8737,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>35.5259</v>
+        <v>35.6696</v>
       </c>
       <c r="C78" t="n">
-        <v>20.3001</v>
+        <v>19.9636</v>
       </c>
       <c r="D78" t="n">
-        <v>24.7308</v>
+        <v>24.3647</v>
       </c>
     </row>
     <row r="79">
@@ -8751,13 +8751,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>37.7673</v>
+        <v>37.8988</v>
       </c>
       <c r="C79" t="n">
-        <v>22.0526</v>
+        <v>21.7329</v>
       </c>
       <c r="D79" t="n">
-        <v>26.7044</v>
+        <v>27.1204</v>
       </c>
     </row>
     <row r="80">
@@ -8765,13 +8765,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>39.8267</v>
+        <v>40.1778</v>
       </c>
       <c r="C80" t="n">
-        <v>23.4754</v>
+        <v>22.8617</v>
       </c>
       <c r="D80" t="n">
-        <v>28.6435</v>
+        <v>28.821</v>
       </c>
     </row>
     <row r="81">
@@ -8779,13 +8779,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>42.1298</v>
+        <v>42.4995</v>
       </c>
       <c r="C81" t="n">
-        <v>25.1489</v>
+        <v>25.3126</v>
       </c>
       <c r="D81" t="n">
-        <v>30.9047</v>
+        <v>30.7041</v>
       </c>
     </row>
     <row r="82">
@@ -8793,13 +8793,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>44.985</v>
+        <v>44.6966</v>
       </c>
       <c r="C82" t="n">
-        <v>27.2629</v>
+        <v>27.018</v>
       </c>
       <c r="D82" t="n">
-        <v>33.0316</v>
+        <v>33.0322</v>
       </c>
     </row>
     <row r="83">
@@ -8807,13 +8807,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>47.0847</v>
+        <v>46.9933</v>
       </c>
       <c r="C83" t="n">
-        <v>28.6803</v>
+        <v>28.7496</v>
       </c>
       <c r="D83" t="n">
-        <v>35.4616</v>
+        <v>35.3609</v>
       </c>
     </row>
     <row r="84">
@@ -8821,13 +8821,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>46.1925</v>
+        <v>46.0215</v>
       </c>
       <c r="C84" t="n">
-        <v>30.6626</v>
+        <v>30.5865</v>
       </c>
       <c r="D84" t="n">
-        <v>37.2309</v>
+        <v>37.4793</v>
       </c>
     </row>
     <row r="85">
@@ -8835,13 +8835,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>47.6341</v>
+        <v>47.6859</v>
       </c>
       <c r="C85" t="n">
-        <v>32.634</v>
+        <v>32.5153</v>
       </c>
       <c r="D85" t="n">
-        <v>39.6659</v>
+        <v>39.695</v>
       </c>
     </row>
     <row r="86">
@@ -8849,13 +8849,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>48.8768</v>
+        <v>49.0845</v>
       </c>
       <c r="C86" t="n">
-        <v>34.7111</v>
+        <v>34.4275</v>
       </c>
       <c r="D86" t="n">
-        <v>42.272</v>
+        <v>42.1067</v>
       </c>
     </row>
     <row r="87">
@@ -8863,13 +8863,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>50.6291</v>
+        <v>50.7025</v>
       </c>
       <c r="C87" t="n">
-        <v>36.7332</v>
+        <v>36.4001</v>
       </c>
       <c r="D87" t="n">
-        <v>44.4875</v>
+        <v>44.59</v>
       </c>
     </row>
     <row r="88">
@@ -8877,13 +8877,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>52.1747</v>
+        <v>52.3704</v>
       </c>
       <c r="C88" t="n">
-        <v>38.7093</v>
+        <v>38.5716</v>
       </c>
       <c r="D88" t="n">
-        <v>46.9585</v>
+        <v>46.9766</v>
       </c>
     </row>
     <row r="89">
@@ -8891,13 +8891,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>53.9141</v>
+        <v>53.9346</v>
       </c>
       <c r="C89" t="n">
-        <v>40.7833</v>
+        <v>40.6747</v>
       </c>
       <c r="D89" t="n">
-        <v>49.4873</v>
+        <v>49.3933</v>
       </c>
     </row>
     <row r="90">
@@ -8905,13 +8905,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>55.2708</v>
+        <v>55.5291</v>
       </c>
       <c r="C90" t="n">
-        <v>43.019</v>
+        <v>42.8642</v>
       </c>
       <c r="D90" t="n">
-        <v>52.1619</v>
+        <v>51.7498</v>
       </c>
     </row>
     <row r="91">
@@ -8919,13 +8919,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>57.265</v>
+        <v>57.2445</v>
       </c>
       <c r="C91" t="n">
-        <v>45.389</v>
+        <v>45.3249</v>
       </c>
       <c r="D91" t="n">
-        <v>54.7711</v>
+        <v>54.5645</v>
       </c>
     </row>
     <row r="92">
@@ -8933,13 +8933,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>58.9964</v>
+        <v>59.0598</v>
       </c>
       <c r="C92" t="n">
-        <v>37.5545</v>
+        <v>37.6342</v>
       </c>
       <c r="D92" t="n">
-        <v>48.6607</v>
+        <v>48.3734</v>
       </c>
     </row>
     <row r="93">
@@ -8947,13 +8947,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>60.6196</v>
+        <v>60.629</v>
       </c>
       <c r="C93" t="n">
-        <v>38.9566</v>
+        <v>38.7206</v>
       </c>
       <c r="D93" t="n">
-        <v>50.7594</v>
+        <v>50.4437</v>
       </c>
     </row>
     <row r="94">
@@ -8961,13 +8961,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>62.4049</v>
+        <v>62.5328</v>
       </c>
       <c r="C94" t="n">
-        <v>40.3936</v>
+        <v>40.2715</v>
       </c>
       <c r="D94" t="n">
-        <v>52.6047</v>
+        <v>52.6462</v>
       </c>
     </row>
     <row r="95">
@@ -8975,13 +8975,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>64.5917</v>
+        <v>64.7278</v>
       </c>
       <c r="C95" t="n">
-        <v>41.7568</v>
+        <v>41.6168</v>
       </c>
       <c r="D95" t="n">
-        <v>54.7336</v>
+        <v>54.5642</v>
       </c>
     </row>
     <row r="96">
@@ -8989,13 +8989,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>66.5136</v>
+        <v>66.7503</v>
       </c>
       <c r="C96" t="n">
-        <v>43.4029</v>
+        <v>43.1752</v>
       </c>
       <c r="D96" t="n">
-        <v>56.6659</v>
+        <v>56.7296</v>
       </c>
     </row>
     <row r="97">
@@ -9003,13 +9003,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>68.2021</v>
+        <v>68.8259</v>
       </c>
       <c r="C97" t="n">
-        <v>44.8718</v>
+        <v>44.8362</v>
       </c>
       <c r="D97" t="n">
-        <v>58.8848</v>
+        <v>59.0001</v>
       </c>
     </row>
     <row r="98">
@@ -9017,13 +9017,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>57.6662</v>
+        <v>57.7307</v>
       </c>
       <c r="C98" t="n">
-        <v>46.5751</v>
+        <v>46.5288</v>
       </c>
       <c r="D98" t="n">
-        <v>61.2398</v>
+        <v>60.944</v>
       </c>
     </row>
     <row r="99">
@@ -9031,13 +9031,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>59.0518</v>
+        <v>59.1063</v>
       </c>
       <c r="C99" t="n">
-        <v>48.3431</v>
+        <v>48.1395</v>
       </c>
       <c r="D99" t="n">
-        <v>63.7727</v>
+        <v>63.3476</v>
       </c>
     </row>
     <row r="100">
@@ -9045,13 +9045,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>60.5205</v>
+        <v>60.8049</v>
       </c>
       <c r="C100" t="n">
-        <v>49.9393</v>
+        <v>50.0265</v>
       </c>
       <c r="D100" t="n">
-        <v>65.6836</v>
+        <v>65.5879</v>
       </c>
     </row>
     <row r="101">
@@ -9059,13 +9059,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>62.1058</v>
+        <v>61.9768</v>
       </c>
       <c r="C101" t="n">
-        <v>52.0692</v>
+        <v>51.9916</v>
       </c>
       <c r="D101" t="n">
-        <v>68.413</v>
+        <v>68.2389</v>
       </c>
     </row>
     <row r="102">
@@ -9073,13 +9073,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>63.6064</v>
+        <v>63.7028</v>
       </c>
       <c r="C102" t="n">
-        <v>54.1588</v>
+        <v>53.9294</v>
       </c>
       <c r="D102" t="n">
-        <v>70.71559999999999</v>
+        <v>70.9799</v>
       </c>
     </row>
     <row r="103">
@@ -9087,13 +9087,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>64.97110000000001</v>
+        <v>65.02509999999999</v>
       </c>
       <c r="C103" t="n">
-        <v>56.2568</v>
+        <v>56.0291</v>
       </c>
       <c r="D103" t="n">
-        <v>73.3222</v>
+        <v>73.4173</v>
       </c>
     </row>
     <row r="104">
@@ -9101,13 +9101,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>66.4825</v>
+        <v>66.6032</v>
       </c>
       <c r="C104" t="n">
-        <v>58.2191</v>
+        <v>58.231</v>
       </c>
       <c r="D104" t="n">
-        <v>76.0783</v>
+        <v>76.05589999999999</v>
       </c>
     </row>
     <row r="105">
@@ -9115,13 +9115,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>68.34399999999999</v>
+        <v>68.2642</v>
       </c>
       <c r="C105" t="n">
-        <v>60.6508</v>
+        <v>60.3343</v>
       </c>
       <c r="D105" t="n">
-        <v>78.89700000000001</v>
+        <v>78.7831</v>
       </c>
     </row>
     <row r="106">
@@ -9129,13 +9129,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>70.01860000000001</v>
+        <v>69.9388</v>
       </c>
       <c r="C106" t="n">
-        <v>63.3286</v>
+        <v>62.7863</v>
       </c>
       <c r="D106" t="n">
-        <v>81.87820000000001</v>
+        <v>81.6887</v>
       </c>
     </row>
     <row r="107">
@@ -9143,13 +9143,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>71.6611</v>
+        <v>72.1387</v>
       </c>
       <c r="C107" t="n">
-        <v>48.2237</v>
+        <v>48.2546</v>
       </c>
       <c r="D107" t="n">
-        <v>69.40389999999999</v>
+        <v>69.5924</v>
       </c>
     </row>
     <row r="108">
@@ -9157,13 +9157,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>73.54349999999999</v>
+        <v>73.8505</v>
       </c>
       <c r="C108" t="n">
-        <v>49.5284</v>
+        <v>49.5086</v>
       </c>
       <c r="D108" t="n">
-        <v>71.1515</v>
+        <v>71.4901</v>
       </c>
     </row>
     <row r="109">
@@ -9171,13 +9171,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>75.3462</v>
+        <v>75.7578</v>
       </c>
       <c r="C109" t="n">
-        <v>50.7706</v>
+        <v>50.9121</v>
       </c>
       <c r="D109" t="n">
-        <v>73.2526</v>
+        <v>73.01009999999999</v>
       </c>
     </row>
     <row r="110">
@@ -9185,13 +9185,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>77.29730000000001</v>
+        <v>77.6619</v>
       </c>
       <c r="C110" t="n">
-        <v>52.2214</v>
+        <v>52.2846</v>
       </c>
       <c r="D110" t="n">
-        <v>75.3518</v>
+        <v>75.46250000000001</v>
       </c>
     </row>
     <row r="111">
@@ -9199,13 +9199,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>79.2289</v>
+        <v>79.6095</v>
       </c>
       <c r="C111" t="n">
-        <v>53.8456</v>
+        <v>53.6784</v>
       </c>
       <c r="D111" t="n">
-        <v>77.1872</v>
+        <v>77.574</v>
       </c>
     </row>
     <row r="112">
@@ -9213,13 +9213,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>63.8943</v>
+        <v>64.04000000000001</v>
       </c>
       <c r="C112" t="n">
-        <v>55.3282</v>
+        <v>55.1068</v>
       </c>
       <c r="D112" t="n">
-        <v>79.1737</v>
+        <v>79.34999999999999</v>
       </c>
     </row>
     <row r="113">
@@ -9227,13 +9227,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>64.9622</v>
+        <v>65.2657</v>
       </c>
       <c r="C113" t="n">
-        <v>57.0958</v>
+        <v>56.9087</v>
       </c>
       <c r="D113" t="n">
-        <v>81.11020000000001</v>
+        <v>81.25830000000001</v>
       </c>
     </row>
     <row r="114">
@@ -9241,13 +9241,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>66.5472</v>
+        <v>66.60469999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>58.8829</v>
+        <v>58.6148</v>
       </c>
       <c r="D114" t="n">
-        <v>83.3922</v>
+        <v>83.72490000000001</v>
       </c>
     </row>
     <row r="115">
@@ -9255,13 +9255,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>68.2403</v>
+        <v>68.315</v>
       </c>
       <c r="C115" t="n">
-        <v>60.6032</v>
+        <v>60.6074</v>
       </c>
       <c r="D115" t="n">
-        <v>85.55240000000001</v>
+        <v>85.9301</v>
       </c>
     </row>
     <row r="116">
@@ -9269,13 +9269,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>69.55200000000001</v>
+        <v>69.8657</v>
       </c>
       <c r="C116" t="n">
-        <v>62.4892</v>
+        <v>62.3348</v>
       </c>
       <c r="D116" t="n">
-        <v>88.0382</v>
+        <v>88.7037</v>
       </c>
     </row>
     <row r="117">
@@ -9283,13 +9283,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>70.8595</v>
+        <v>71.13039999999999</v>
       </c>
       <c r="C117" t="n">
-        <v>64.64749999999999</v>
+        <v>64.31140000000001</v>
       </c>
       <c r="D117" t="n">
-        <v>90.79519999999999</v>
+        <v>91.08069999999999</v>
       </c>
     </row>
     <row r="118">
@@ -9297,13 +9297,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>72.4472</v>
+        <v>73.0244</v>
       </c>
       <c r="C118" t="n">
-        <v>67.06780000000001</v>
+        <v>66.69540000000001</v>
       </c>
       <c r="D118" t="n">
-        <v>93.1127</v>
+        <v>93.1572</v>
       </c>
     </row>
     <row r="119">
@@ -9311,13 +9311,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>73.8605</v>
+        <v>74.23990000000001</v>
       </c>
       <c r="C119" t="n">
-        <v>69.3527</v>
+        <v>69.04600000000001</v>
       </c>
       <c r="D119" t="n">
-        <v>95.8177</v>
+        <v>95.91500000000001</v>
       </c>
     </row>
   </sheetData>
@@ -9365,13 +9365,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>9.88575</v>
+        <v>10.0147</v>
       </c>
       <c r="C2" t="n">
-        <v>9.73165</v>
+        <v>9.273899999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>7.86898</v>
+        <v>8.006169999999999</v>
       </c>
     </row>
     <row r="3">
@@ -9379,13 +9379,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>10.1641</v>
+        <v>10.1272</v>
       </c>
       <c r="C3" t="n">
-        <v>9.72662</v>
+        <v>9.45956</v>
       </c>
       <c r="D3" t="n">
-        <v>7.85501</v>
+        <v>8.057689999999999</v>
       </c>
     </row>
     <row r="4">
@@ -9393,13 +9393,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>10.6308</v>
+        <v>10.6824</v>
       </c>
       <c r="C4" t="n">
-        <v>10.3841</v>
+        <v>9.85741</v>
       </c>
       <c r="D4" t="n">
-        <v>8.12078</v>
+        <v>8.17352</v>
       </c>
     </row>
     <row r="5">
@@ -9407,13 +9407,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>11.1274</v>
+        <v>11.0816</v>
       </c>
       <c r="C5" t="n">
-        <v>10.7239</v>
+        <v>10.3021</v>
       </c>
       <c r="D5" t="n">
-        <v>8.23324</v>
+        <v>8.27197</v>
       </c>
     </row>
     <row r="6">
@@ -9421,13 +9421,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>11.4444</v>
+        <v>11.3785</v>
       </c>
       <c r="C6" t="n">
-        <v>11.3668</v>
+        <v>10.4913</v>
       </c>
       <c r="D6" t="n">
-        <v>8.511749999999999</v>
+        <v>8.48986</v>
       </c>
     </row>
     <row r="7">
@@ -9435,13 +9435,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>11.8248</v>
+        <v>11.8231</v>
       </c>
       <c r="C7" t="n">
-        <v>8.64561</v>
+        <v>8.47575</v>
       </c>
       <c r="D7" t="n">
-        <v>7.47963</v>
+        <v>7.53592</v>
       </c>
     </row>
     <row r="8">
@@ -9449,13 +9449,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>12.4182</v>
+        <v>12.2009</v>
       </c>
       <c r="C8" t="n">
-        <v>8.843349999999999</v>
+        <v>8.776120000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>7.56681</v>
+        <v>7.61583</v>
       </c>
     </row>
     <row r="9">
@@ -9463,13 +9463,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>12.7855</v>
+        <v>12.7008</v>
       </c>
       <c r="C9" t="n">
-        <v>9.224410000000001</v>
+        <v>9.08925</v>
       </c>
       <c r="D9" t="n">
-        <v>7.68132</v>
+        <v>7.75027</v>
       </c>
     </row>
     <row r="10">
@@ -9477,13 +9477,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>13.3358</v>
+        <v>13.3395</v>
       </c>
       <c r="C10" t="n">
-        <v>9.54308</v>
+        <v>9.497210000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>7.86403</v>
+        <v>7.84168</v>
       </c>
     </row>
     <row r="11">
@@ -9491,13 +9491,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>13.8596</v>
+        <v>13.8542</v>
       </c>
       <c r="C11" t="n">
-        <v>9.74174</v>
+        <v>9.65551</v>
       </c>
       <c r="D11" t="n">
-        <v>8.00436</v>
+        <v>8.031230000000001</v>
       </c>
     </row>
     <row r="12">
@@ -9505,13 +9505,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>14.5572</v>
+        <v>14.4861</v>
       </c>
       <c r="C12" t="n">
-        <v>10.2002</v>
+        <v>10.0761</v>
       </c>
       <c r="D12" t="n">
-        <v>8.232229999999999</v>
+        <v>8.303599999999999</v>
       </c>
     </row>
     <row r="13">
@@ -9519,13 +9519,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>11.7129</v>
+        <v>11.7083</v>
       </c>
       <c r="C13" t="n">
-        <v>10.7844</v>
+        <v>10.7026</v>
       </c>
       <c r="D13" t="n">
-        <v>8.341390000000001</v>
+        <v>8.397679999999999</v>
       </c>
     </row>
     <row r="14">
@@ -9533,13 +9533,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>12.0475</v>
+        <v>12.0674</v>
       </c>
       <c r="C14" t="n">
-        <v>11.2056</v>
+        <v>11.0603</v>
       </c>
       <c r="D14" t="n">
-        <v>8.612489999999999</v>
+        <v>8.674759999999999</v>
       </c>
     </row>
     <row r="15">
@@ -9547,13 +9547,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>12.3788</v>
+        <v>12.3993</v>
       </c>
       <c r="C15" t="n">
-        <v>11.5772</v>
+        <v>11.4761</v>
       </c>
       <c r="D15" t="n">
-        <v>8.901020000000001</v>
+        <v>8.855880000000001</v>
       </c>
     </row>
     <row r="16">
@@ -9561,13 +9561,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>12.7642</v>
+        <v>12.778</v>
       </c>
       <c r="C16" t="n">
-        <v>12.2487</v>
+        <v>12.1969</v>
       </c>
       <c r="D16" t="n">
-        <v>9.18497</v>
+        <v>9.215350000000001</v>
       </c>
     </row>
     <row r="17">
@@ -9575,13 +9575,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>13.0554</v>
+        <v>13.0399</v>
       </c>
       <c r="C17" t="n">
-        <v>12.7209</v>
+        <v>12.5788</v>
       </c>
       <c r="D17" t="n">
-        <v>9.426119999999999</v>
+        <v>9.414260000000001</v>
       </c>
     </row>
     <row r="18">
@@ -9589,13 +9589,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>13.3471</v>
+        <v>13.2955</v>
       </c>
       <c r="C18" t="n">
-        <v>13.2241</v>
+        <v>13.1967</v>
       </c>
       <c r="D18" t="n">
-        <v>9.682180000000001</v>
+        <v>9.682040000000001</v>
       </c>
     </row>
     <row r="19">
@@ -9603,13 +9603,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>13.6418</v>
+        <v>13.6734</v>
       </c>
       <c r="C19" t="n">
-        <v>13.759</v>
+        <v>13.6145</v>
       </c>
       <c r="D19" t="n">
-        <v>9.99067</v>
+        <v>9.987679999999999</v>
       </c>
     </row>
     <row r="20">
@@ -9617,13 +9617,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>14.2761</v>
+        <v>14.236</v>
       </c>
       <c r="C20" t="n">
-        <v>14.6378</v>
+        <v>14.4895</v>
       </c>
       <c r="D20" t="n">
-        <v>10.2758</v>
+        <v>10.2577</v>
       </c>
     </row>
     <row r="21">
@@ -9631,13 +9631,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>14.6104</v>
+        <v>14.5267</v>
       </c>
       <c r="C21" t="n">
-        <v>11.2194</v>
+        <v>11.098</v>
       </c>
       <c r="D21" t="n">
-        <v>9.23216</v>
+        <v>9.2811</v>
       </c>
     </row>
     <row r="22">
@@ -9645,13 +9645,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>15.0187</v>
+        <v>14.9812</v>
       </c>
       <c r="C22" t="n">
-        <v>11.5623</v>
+        <v>11.445</v>
       </c>
       <c r="D22" t="n">
-        <v>9.43052</v>
+        <v>9.50553</v>
       </c>
     </row>
     <row r="23">
@@ -9659,13 +9659,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>15.5518</v>
+        <v>15.5056</v>
       </c>
       <c r="C23" t="n">
-        <v>11.9608</v>
+        <v>11.857</v>
       </c>
       <c r="D23" t="n">
-        <v>9.6411</v>
+        <v>9.696669999999999</v>
       </c>
     </row>
     <row r="24">
@@ -9673,13 +9673,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>15.8509</v>
+        <v>15.7957</v>
       </c>
       <c r="C24" t="n">
-        <v>12.2171</v>
+        <v>12.1009</v>
       </c>
       <c r="D24" t="n">
-        <v>9.825799999999999</v>
+        <v>9.880229999999999</v>
       </c>
     </row>
     <row r="25">
@@ -9687,13 +9687,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>16.4988</v>
+        <v>16.4498</v>
       </c>
       <c r="C25" t="n">
-        <v>12.7312</v>
+        <v>12.6203</v>
       </c>
       <c r="D25" t="n">
-        <v>10.0327</v>
+        <v>10.0795</v>
       </c>
     </row>
     <row r="26">
@@ -9701,13 +9701,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>16.7968</v>
+        <v>16.7551</v>
       </c>
       <c r="C26" t="n">
-        <v>13.1303</v>
+        <v>13.0358</v>
       </c>
       <c r="D26" t="n">
-        <v>10.2386</v>
+        <v>10.3195</v>
       </c>
     </row>
     <row r="27">
@@ -9715,13 +9715,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>12.5909</v>
+        <v>12.5567</v>
       </c>
       <c r="C27" t="n">
-        <v>13.3338</v>
+        <v>13.245</v>
       </c>
       <c r="D27" t="n">
-        <v>10.426</v>
+        <v>10.4856</v>
       </c>
     </row>
     <row r="28">
@@ -9729,13 +9729,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>12.935</v>
+        <v>12.9286</v>
       </c>
       <c r="C28" t="n">
-        <v>13.7161</v>
+        <v>13.6901</v>
       </c>
       <c r="D28" t="n">
-        <v>10.6682</v>
+        <v>10.7111</v>
       </c>
     </row>
     <row r="29">
@@ -9743,13 +9743,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>13.2898</v>
+        <v>13.1608</v>
       </c>
       <c r="C29" t="n">
-        <v>14.2623</v>
+        <v>14.0812</v>
       </c>
       <c r="D29" t="n">
-        <v>10.8621</v>
+        <v>10.9526</v>
       </c>
     </row>
     <row r="30">
@@ -9757,13 +9757,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>13.6033</v>
+        <v>13.6367</v>
       </c>
       <c r="C30" t="n">
-        <v>14.852</v>
+        <v>14.7343</v>
       </c>
       <c r="D30" t="n">
-        <v>11.129</v>
+        <v>11.1605</v>
       </c>
     </row>
     <row r="31">
@@ -9771,13 +9771,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>13.9505</v>
+        <v>13.9522</v>
       </c>
       <c r="C31" t="n">
-        <v>15.0612</v>
+        <v>14.9654</v>
       </c>
       <c r="D31" t="n">
-        <v>11.3429</v>
+        <v>11.4008</v>
       </c>
     </row>
     <row r="32">
@@ -9785,13 +9785,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>14.295</v>
+        <v>14.282</v>
       </c>
       <c r="C32" t="n">
-        <v>15.9156</v>
+        <v>15.7582</v>
       </c>
       <c r="D32" t="n">
-        <v>11.6222</v>
+        <v>11.6617</v>
       </c>
     </row>
     <row r="33">
@@ -9799,13 +9799,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>14.6118</v>
+        <v>14.5786</v>
       </c>
       <c r="C33" t="n">
-        <v>16.2927</v>
+        <v>16.1863</v>
       </c>
       <c r="D33" t="n">
-        <v>11.877</v>
+        <v>11.9432</v>
       </c>
     </row>
     <row r="34">
@@ -9813,13 +9813,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>14.9346</v>
+        <v>14.8951</v>
       </c>
       <c r="C34" t="n">
-        <v>16.9695</v>
+        <v>16.8126</v>
       </c>
       <c r="D34" t="n">
-        <v>12.2123</v>
+        <v>12.2583</v>
       </c>
     </row>
     <row r="35">
@@ -9827,13 +9827,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>15.2462</v>
+        <v>15.201</v>
       </c>
       <c r="C35" t="n">
-        <v>12.1108</v>
+        <v>11.9876</v>
       </c>
       <c r="D35" t="n">
-        <v>10.3687</v>
+        <v>10.364</v>
       </c>
     </row>
     <row r="36">
@@ -9841,13 +9841,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>15.6826</v>
+        <v>15.6628</v>
       </c>
       <c r="C36" t="n">
-        <v>12.5019</v>
+        <v>12.4013</v>
       </c>
       <c r="D36" t="n">
-        <v>10.5584</v>
+        <v>10.5543</v>
       </c>
     </row>
     <row r="37">
@@ -9855,13 +9855,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>16.1634</v>
+        <v>16.0973</v>
       </c>
       <c r="C37" t="n">
-        <v>12.8488</v>
+        <v>12.746</v>
       </c>
       <c r="D37" t="n">
-        <v>10.7375</v>
+        <v>10.7328</v>
       </c>
     </row>
     <row r="38">
@@ -9869,13 +9869,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>16.7329</v>
+        <v>16.6848</v>
       </c>
       <c r="C38" t="n">
-        <v>13.2056</v>
+        <v>13.1217</v>
       </c>
       <c r="D38" t="n">
-        <v>10.9241</v>
+        <v>10.944</v>
       </c>
     </row>
     <row r="39">
@@ -9883,13 +9883,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>17.0023</v>
+        <v>16.9485</v>
       </c>
       <c r="C39" t="n">
-        <v>13.568</v>
+        <v>13.4507</v>
       </c>
       <c r="D39" t="n">
-        <v>11.1346</v>
+        <v>11.1308</v>
       </c>
     </row>
     <row r="40">
@@ -9897,13 +9897,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>17.8508</v>
+        <v>17.7218</v>
       </c>
       <c r="C40" t="n">
-        <v>14.025</v>
+        <v>13.9769</v>
       </c>
       <c r="D40" t="n">
-        <v>11.3544</v>
+        <v>11.3596</v>
       </c>
     </row>
     <row r="41">
@@ -9911,13 +9911,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>13.0507</v>
+        <v>13.0857</v>
       </c>
       <c r="C41" t="n">
-        <v>14.3193</v>
+        <v>14.2476</v>
       </c>
       <c r="D41" t="n">
-        <v>11.5222</v>
+        <v>11.5135</v>
       </c>
     </row>
     <row r="42">
@@ -9925,13 +9925,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>13.36</v>
+        <v>13.3103</v>
       </c>
       <c r="C42" t="n">
-        <v>14.6216</v>
+        <v>14.4938</v>
       </c>
       <c r="D42" t="n">
-        <v>11.7365</v>
+        <v>11.7437</v>
       </c>
     </row>
     <row r="43">
@@ -9939,13 +9939,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>13.8444</v>
+        <v>13.7202</v>
       </c>
       <c r="C43" t="n">
-        <v>15.1185</v>
+        <v>15.0086</v>
       </c>
       <c r="D43" t="n">
-        <v>11.9705</v>
+        <v>11.941</v>
       </c>
     </row>
     <row r="44">
@@ -9953,13 +9953,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>14.0832</v>
+        <v>14.0592</v>
       </c>
       <c r="C44" t="n">
-        <v>15.6304</v>
+        <v>15.5527</v>
       </c>
       <c r="D44" t="n">
-        <v>12.2114</v>
+        <v>12.188</v>
       </c>
     </row>
     <row r="45">
@@ -9967,13 +9967,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>14.4447</v>
+        <v>14.3689</v>
       </c>
       <c r="C45" t="n">
-        <v>16.0607</v>
+        <v>15.9295</v>
       </c>
       <c r="D45" t="n">
-        <v>12.4807</v>
+        <v>12.486</v>
       </c>
     </row>
     <row r="46">
@@ -9981,13 +9981,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>14.8266</v>
+        <v>14.8318</v>
       </c>
       <c r="C46" t="n">
-        <v>16.6149</v>
+        <v>16.5327</v>
       </c>
       <c r="D46" t="n">
-        <v>12.7257</v>
+        <v>12.6988</v>
       </c>
     </row>
     <row r="47">
@@ -9995,13 +9995,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>15.129</v>
+        <v>15.1015</v>
       </c>
       <c r="C47" t="n">
-        <v>17.1174</v>
+        <v>17.0282</v>
       </c>
       <c r="D47" t="n">
-        <v>13.0231</v>
+        <v>13.0352</v>
       </c>
     </row>
     <row r="48">
@@ -10009,13 +10009,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>15.5121</v>
+        <v>15.5191</v>
       </c>
       <c r="C48" t="n">
-        <v>17.7624</v>
+        <v>17.6186</v>
       </c>
       <c r="D48" t="n">
-        <v>13.2884</v>
+        <v>13.2928</v>
       </c>
     </row>
     <row r="49">
@@ -10023,13 +10023,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>15.933</v>
+        <v>15.873</v>
       </c>
       <c r="C49" t="n">
-        <v>18.3057</v>
+        <v>18.1974</v>
       </c>
       <c r="D49" t="n">
-        <v>13.5921</v>
+        <v>13.5927</v>
       </c>
     </row>
     <row r="50">
@@ -10037,13 +10037,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>16.3471</v>
+        <v>16.2644</v>
       </c>
       <c r="C50" t="n">
-        <v>12.873</v>
+        <v>12.7631</v>
       </c>
       <c r="D50" t="n">
-        <v>10.4659</v>
+        <v>10.3555</v>
       </c>
     </row>
     <row r="51">
@@ -10051,13 +10051,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>16.8403</v>
+        <v>16.7777</v>
       </c>
       <c r="C51" t="n">
-        <v>13.2249</v>
+        <v>13.1834</v>
       </c>
       <c r="D51" t="n">
-        <v>10.6093</v>
+        <v>10.525</v>
       </c>
     </row>
     <row r="52">
@@ -10065,13 +10065,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>17.2791</v>
+        <v>17.2869</v>
       </c>
       <c r="C52" t="n">
-        <v>13.5831</v>
+        <v>13.3983</v>
       </c>
       <c r="D52" t="n">
-        <v>10.8259</v>
+        <v>10.7257</v>
       </c>
     </row>
     <row r="53">
@@ -10079,13 +10079,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>17.9119</v>
+        <v>17.7936</v>
       </c>
       <c r="C53" t="n">
-        <v>14.1307</v>
+        <v>13.9071</v>
       </c>
       <c r="D53" t="n">
-        <v>11.044</v>
+        <v>10.911</v>
       </c>
     </row>
     <row r="54">
@@ -10093,13 +10093,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>18.4119</v>
+        <v>18.3216</v>
       </c>
       <c r="C54" t="n">
-        <v>14.461</v>
+        <v>14.2558</v>
       </c>
       <c r="D54" t="n">
-        <v>11.2243</v>
+        <v>11.1125</v>
       </c>
     </row>
     <row r="55">
@@ -10107,13 +10107,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>19.064</v>
+        <v>18.8876</v>
       </c>
       <c r="C55" t="n">
-        <v>14.9724</v>
+        <v>14.6966</v>
       </c>
       <c r="D55" t="n">
-        <v>11.4216</v>
+        <v>11.3185</v>
       </c>
     </row>
     <row r="56">
@@ -10121,13 +10121,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>13.8075</v>
+        <v>13.7435</v>
       </c>
       <c r="C56" t="n">
-        <v>15.2905</v>
+        <v>14.9692</v>
       </c>
       <c r="D56" t="n">
-        <v>11.5769</v>
+        <v>11.5185</v>
       </c>
     </row>
     <row r="57">
@@ -10135,13 +10135,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>14.1071</v>
+        <v>14.0465</v>
       </c>
       <c r="C57" t="n">
-        <v>15.8198</v>
+        <v>15.4972</v>
       </c>
       <c r="D57" t="n">
-        <v>11.9216</v>
+        <v>11.7306</v>
       </c>
     </row>
     <row r="58">
@@ -10149,13 +10149,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>14.4461</v>
+        <v>14.4443</v>
       </c>
       <c r="C58" t="n">
-        <v>16.5335</v>
+        <v>16.081</v>
       </c>
       <c r="D58" t="n">
-        <v>12.1914</v>
+        <v>12.0068</v>
       </c>
     </row>
     <row r="59">
@@ -10163,13 +10163,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>15.0899</v>
+        <v>14.9793</v>
       </c>
       <c r="C59" t="n">
-        <v>17.0059</v>
+        <v>16.4744</v>
       </c>
       <c r="D59" t="n">
-        <v>12.4754</v>
+        <v>12.2563</v>
       </c>
     </row>
     <row r="60">
@@ -10177,13 +10177,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>15.4005</v>
+        <v>15.4108</v>
       </c>
       <c r="C60" t="n">
-        <v>17.5443</v>
+        <v>17.1987</v>
       </c>
       <c r="D60" t="n">
-        <v>12.678</v>
+        <v>12.5267</v>
       </c>
     </row>
     <row r="61">
@@ -10191,13 +10191,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>15.8484</v>
+        <v>15.8249</v>
       </c>
       <c r="C61" t="n">
-        <v>18.0919</v>
+        <v>17.656</v>
       </c>
       <c r="D61" t="n">
-        <v>12.9748</v>
+        <v>12.803</v>
       </c>
     </row>
     <row r="62">
@@ -10205,13 +10205,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>16.2022</v>
+        <v>16.3611</v>
       </c>
       <c r="C62" t="n">
-        <v>18.7167</v>
+        <v>18.4961</v>
       </c>
       <c r="D62" t="n">
-        <v>13.2649</v>
+        <v>13.1365</v>
       </c>
     </row>
     <row r="63">
@@ -10219,13 +10219,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>16.7646</v>
+        <v>16.8429</v>
       </c>
       <c r="C63" t="n">
-        <v>19.4166</v>
+        <v>19.3233</v>
       </c>
       <c r="D63" t="n">
-        <v>13.5847</v>
+        <v>13.5684</v>
       </c>
     </row>
     <row r="64">
@@ -10233,13 +10233,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>17.1603</v>
+        <v>17.546</v>
       </c>
       <c r="C64" t="n">
-        <v>13.6687</v>
+        <v>13.8053</v>
       </c>
       <c r="D64" t="n">
-        <v>10.9612</v>
+        <v>11.0845</v>
       </c>
     </row>
     <row r="65">
@@ -10247,13 +10247,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>17.8769</v>
+        <v>18.2107</v>
       </c>
       <c r="C65" t="n">
-        <v>14.2</v>
+        <v>14.2873</v>
       </c>
       <c r="D65" t="n">
-        <v>11.2003</v>
+        <v>11.3212</v>
       </c>
     </row>
     <row r="66">
@@ -10261,13 +10261,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>18.7666</v>
+        <v>18.9282</v>
       </c>
       <c r="C66" t="n">
-        <v>14.6953</v>
+        <v>14.744</v>
       </c>
       <c r="D66" t="n">
-        <v>11.4917</v>
+        <v>11.6216</v>
       </c>
     </row>
     <row r="67">
@@ -10275,13 +10275,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>19.5145</v>
+        <v>19.5482</v>
       </c>
       <c r="C67" t="n">
-        <v>15.3711</v>
+        <v>15.2017</v>
       </c>
       <c r="D67" t="n">
-        <v>11.8098</v>
+        <v>11.8355</v>
       </c>
     </row>
     <row r="68">
@@ -10289,13 +10289,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>20.4434</v>
+        <v>20.5242</v>
       </c>
       <c r="C68" t="n">
-        <v>15.971</v>
+        <v>15.874</v>
       </c>
       <c r="D68" t="n">
-        <v>12.1738</v>
+        <v>12.1192</v>
       </c>
     </row>
     <row r="69">
@@ -10303,13 +10303,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>21.5619</v>
+        <v>21.653</v>
       </c>
       <c r="C69" t="n">
-        <v>16.4042</v>
+        <v>16.5224</v>
       </c>
       <c r="D69" t="n">
-        <v>12.393</v>
+        <v>12.4505</v>
       </c>
     </row>
     <row r="70">
@@ -10317,13 +10317,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>19.2627</v>
+        <v>20.5169</v>
       </c>
       <c r="C70" t="n">
-        <v>16.9207</v>
+        <v>17.0794</v>
       </c>
       <c r="D70" t="n">
-        <v>12.7542</v>
+        <v>12.8537</v>
       </c>
     </row>
     <row r="71">
@@ -10331,13 +10331,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>21.5906</v>
+        <v>22.5165</v>
       </c>
       <c r="C71" t="n">
-        <v>17.604</v>
+        <v>18.0961</v>
       </c>
       <c r="D71" t="n">
-        <v>13.0876</v>
+        <v>13.286</v>
       </c>
     </row>
     <row r="72">
@@ -10345,13 +10345,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>22.9468</v>
+        <v>23.7823</v>
       </c>
       <c r="C72" t="n">
-        <v>18.6659</v>
+        <v>18.9198</v>
       </c>
       <c r="D72" t="n">
-        <v>13.4836</v>
+        <v>13.6979</v>
       </c>
     </row>
     <row r="73">
@@ -10359,13 +10359,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>26.4839</v>
+        <v>26.251</v>
       </c>
       <c r="C73" t="n">
-        <v>19.4577</v>
+        <v>19.8148</v>
       </c>
       <c r="D73" t="n">
-        <v>13.9374</v>
+        <v>14.1658</v>
       </c>
     </row>
     <row r="74">
@@ -10373,13 +10373,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>28.7083</v>
+        <v>27.8601</v>
       </c>
       <c r="C74" t="n">
-        <v>20.9389</v>
+        <v>20.9361</v>
       </c>
       <c r="D74" t="n">
-        <v>14.421</v>
+        <v>14.5857</v>
       </c>
     </row>
     <row r="75">
@@ -10387,13 +10387,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>31.3933</v>
+        <v>30.6075</v>
       </c>
       <c r="C75" t="n">
-        <v>21.9117</v>
+        <v>22.022</v>
       </c>
       <c r="D75" t="n">
-        <v>14.8441</v>
+        <v>15.0971</v>
       </c>
     </row>
     <row r="76">
@@ -10401,13 +10401,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>33.8598</v>
+        <v>33.9491</v>
       </c>
       <c r="C76" t="n">
-        <v>22.9475</v>
+        <v>23.5258</v>
       </c>
       <c r="D76" t="n">
-        <v>15.5052</v>
+        <v>15.7019</v>
       </c>
     </row>
     <row r="77">
@@ -10415,13 +10415,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>36.4024</v>
+        <v>36.6373</v>
       </c>
       <c r="C77" t="n">
-        <v>26.4091</v>
+        <v>25.0389</v>
       </c>
       <c r="D77" t="n">
-        <v>16.312</v>
+        <v>16.2241</v>
       </c>
     </row>
     <row r="78">
@@ -10429,13 +10429,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>40.7282</v>
+        <v>39.5017</v>
       </c>
       <c r="C78" t="n">
-        <v>22.8612</v>
+        <v>22.1355</v>
       </c>
       <c r="D78" t="n">
-        <v>13.8959</v>
+        <v>13.7719</v>
       </c>
     </row>
     <row r="79">
@@ -10443,13 +10443,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>43.2759</v>
+        <v>43.0452</v>
       </c>
       <c r="C79" t="n">
-        <v>25.0146</v>
+        <v>24.5101</v>
       </c>
       <c r="D79" t="n">
-        <v>14.2265</v>
+        <v>14.5201</v>
       </c>
     </row>
     <row r="80">
@@ -10457,13 +10457,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>45.8527</v>
+        <v>46.2822</v>
       </c>
       <c r="C80" t="n">
-        <v>27.4102</v>
+        <v>27.073</v>
       </c>
       <c r="D80" t="n">
-        <v>15.6275</v>
+        <v>15.7129</v>
       </c>
     </row>
     <row r="81">
@@ -10471,13 +10471,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>50.2215</v>
+        <v>49.9629</v>
       </c>
       <c r="C81" t="n">
-        <v>30.4516</v>
+        <v>29.8174</v>
       </c>
       <c r="D81" t="n">
-        <v>16.9866</v>
+        <v>16.7445</v>
       </c>
     </row>
     <row r="82">
@@ -10485,13 +10485,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>53.992</v>
+        <v>53.9977</v>
       </c>
       <c r="C82" t="n">
-        <v>32.8111</v>
+        <v>32.3088</v>
       </c>
       <c r="D82" t="n">
-        <v>18.6716</v>
+        <v>17.9924</v>
       </c>
     </row>
     <row r="83">
@@ -10499,13 +10499,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>57.2039</v>
+        <v>57.7364</v>
       </c>
       <c r="C83" t="n">
-        <v>35.7796</v>
+        <v>35.4589</v>
       </c>
       <c r="D83" t="n">
-        <v>19.9116</v>
+        <v>19.5131</v>
       </c>
     </row>
     <row r="84">
@@ -10513,13 +10513,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>53.7104</v>
+        <v>53.8695</v>
       </c>
       <c r="C84" t="n">
-        <v>39.3895</v>
+        <v>39.0373</v>
       </c>
       <c r="D84" t="n">
-        <v>21.7737</v>
+        <v>21.5681</v>
       </c>
     </row>
     <row r="85">
@@ -10527,13 +10527,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>55.4255</v>
+        <v>55.6127</v>
       </c>
       <c r="C85" t="n">
-        <v>42.185</v>
+        <v>41.6578</v>
       </c>
       <c r="D85" t="n">
-        <v>23.3602</v>
+        <v>22.9982</v>
       </c>
     </row>
     <row r="86">
@@ -10541,13 +10541,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>57.5085</v>
+        <v>58.0705</v>
       </c>
       <c r="C86" t="n">
-        <v>45.086</v>
+        <v>44.6979</v>
       </c>
       <c r="D86" t="n">
-        <v>25.1357</v>
+        <v>25.1879</v>
       </c>
     </row>
     <row r="87">
@@ -10555,13 +10555,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>59.7814</v>
+        <v>60.0641</v>
       </c>
       <c r="C87" t="n">
-        <v>48.7639</v>
+        <v>48.9724</v>
       </c>
       <c r="D87" t="n">
-        <v>27.0595</v>
+        <v>27.0759</v>
       </c>
     </row>
     <row r="88">
@@ -10569,13 +10569,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>62.1591</v>
+        <v>62.5354</v>
       </c>
       <c r="C88" t="n">
-        <v>51.8976</v>
+        <v>52.3099</v>
       </c>
       <c r="D88" t="n">
-        <v>28.8931</v>
+        <v>29.3112</v>
       </c>
     </row>
     <row r="89">
@@ -10583,13 +10583,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>64.345</v>
+        <v>64.7393</v>
       </c>
       <c r="C89" t="n">
-        <v>55.962</v>
+        <v>56.0135</v>
       </c>
       <c r="D89" t="n">
-        <v>30.9931</v>
+        <v>31.0405</v>
       </c>
     </row>
     <row r="90">
@@ -10597,13 +10597,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>67.3304</v>
+        <v>67.45350000000001</v>
       </c>
       <c r="C90" t="n">
-        <v>59.391</v>
+        <v>59.3554</v>
       </c>
       <c r="D90" t="n">
-        <v>33.1504</v>
+        <v>33.1801</v>
       </c>
     </row>
     <row r="91">
@@ -10611,13 +10611,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>70.0145</v>
+        <v>69.8694</v>
       </c>
       <c r="C91" t="n">
-        <v>63.6308</v>
+        <v>64.0025</v>
       </c>
       <c r="D91" t="n">
-        <v>35.0551</v>
+        <v>35.2574</v>
       </c>
     </row>
     <row r="92">
@@ -10625,13 +10625,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>72.6375</v>
+        <v>72.63639999999999</v>
       </c>
       <c r="C92" t="n">
-        <v>50.8415</v>
+        <v>50.9703</v>
       </c>
       <c r="D92" t="n">
-        <v>34.3392</v>
+        <v>34.7177</v>
       </c>
     </row>
     <row r="93">
@@ -10639,13 +10639,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>75.12949999999999</v>
+        <v>75.496</v>
       </c>
       <c r="C93" t="n">
-        <v>52.9749</v>
+        <v>53.064</v>
       </c>
       <c r="D93" t="n">
-        <v>35.8692</v>
+        <v>36.2592</v>
       </c>
     </row>
     <row r="94">
@@ -10653,13 +10653,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>78.02930000000001</v>
+        <v>78.77209999999999</v>
       </c>
       <c r="C94" t="n">
-        <v>55.4132</v>
+        <v>55.4679</v>
       </c>
       <c r="D94" t="n">
-        <v>37.4357</v>
+        <v>37.7819</v>
       </c>
     </row>
     <row r="95">
@@ -10667,13 +10667,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>81.5347</v>
+        <v>81.8683</v>
       </c>
       <c r="C95" t="n">
-        <v>57.6853</v>
+        <v>57.8126</v>
       </c>
       <c r="D95" t="n">
-        <v>38.9362</v>
+        <v>39.4659</v>
       </c>
     </row>
     <row r="96">
@@ -10681,13 +10681,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>85.37860000000001</v>
+        <v>85.312</v>
       </c>
       <c r="C96" t="n">
-        <v>60.2365</v>
+        <v>60.2763</v>
       </c>
       <c r="D96" t="n">
-        <v>40.3655</v>
+        <v>40.8658</v>
       </c>
     </row>
     <row r="97">
@@ -10695,13 +10695,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>88.3262</v>
+        <v>88.8796</v>
       </c>
       <c r="C97" t="n">
-        <v>62.796</v>
+        <v>62.8282</v>
       </c>
       <c r="D97" t="n">
-        <v>42.0352</v>
+        <v>42.7586</v>
       </c>
     </row>
     <row r="98">
@@ -10709,13 +10709,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>68.2944</v>
+        <v>68.62130000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>65.3832</v>
+        <v>65.3223</v>
       </c>
       <c r="D98" t="n">
-        <v>43.7383</v>
+        <v>44.3254</v>
       </c>
     </row>
     <row r="99">
@@ -10723,13 +10723,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>70.54040000000001</v>
+        <v>70.96850000000001</v>
       </c>
       <c r="C99" t="n">
-        <v>68.4532</v>
+        <v>68.5476</v>
       </c>
       <c r="D99" t="n">
-        <v>45.5309</v>
+        <v>46.1315</v>
       </c>
     </row>
     <row r="100">
@@ -10737,13 +10737,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>72.4483</v>
+        <v>72.9584</v>
       </c>
       <c r="C100" t="n">
-        <v>71.4053</v>
+        <v>71.6521</v>
       </c>
       <c r="D100" t="n">
-        <v>47.2398</v>
+        <v>47.8689</v>
       </c>
     </row>
     <row r="101">
@@ -10751,13 +10751,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>74.6769</v>
+        <v>74.97190000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>74.242</v>
+        <v>74.6096</v>
       </c>
       <c r="D101" t="n">
-        <v>49.3089</v>
+        <v>49.561</v>
       </c>
     </row>
     <row r="102">
@@ -10765,13 +10765,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>76.8967</v>
+        <v>77.0904</v>
       </c>
       <c r="C102" t="n">
-        <v>77.6143</v>
+        <v>77.9508</v>
       </c>
       <c r="D102" t="n">
-        <v>51.1211</v>
+        <v>51.8273</v>
       </c>
     </row>
     <row r="103">
@@ -10779,13 +10779,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>79.39190000000001</v>
+        <v>79.5121</v>
       </c>
       <c r="C103" t="n">
-        <v>81.31270000000001</v>
+        <v>81.2139</v>
       </c>
       <c r="D103" t="n">
-        <v>53.0239</v>
+        <v>54.1061</v>
       </c>
     </row>
     <row r="104">
@@ -10793,13 +10793,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>81.8596</v>
+        <v>81.995</v>
       </c>
       <c r="C104" t="n">
-        <v>84.849</v>
+        <v>84.867</v>
       </c>
       <c r="D104" t="n">
-        <v>54.9589</v>
+        <v>56.1389</v>
       </c>
     </row>
     <row r="105">
@@ -10807,13 +10807,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>84.6866</v>
+        <v>84.4862</v>
       </c>
       <c r="C105" t="n">
-        <v>88.3614</v>
+        <v>88.5879</v>
       </c>
       <c r="D105" t="n">
-        <v>57.2703</v>
+        <v>58.4668</v>
       </c>
     </row>
     <row r="106">
@@ -10821,13 +10821,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>87.486</v>
+        <v>87.6743</v>
       </c>
       <c r="C106" t="n">
-        <v>92.3603</v>
+        <v>92.3434</v>
       </c>
       <c r="D106" t="n">
-        <v>59.2147</v>
+        <v>60.5099</v>
       </c>
     </row>
     <row r="107">
@@ -10835,13 +10835,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>90.5313</v>
+        <v>90.70229999999999</v>
       </c>
       <c r="C107" t="n">
-        <v>65.9796</v>
+        <v>66.28959999999999</v>
       </c>
       <c r="D107" t="n">
-        <v>51.578</v>
+        <v>52.9578</v>
       </c>
     </row>
     <row r="108">
@@ -10849,13 +10849,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>93.77030000000001</v>
+        <v>93.58759999999999</v>
       </c>
       <c r="C108" t="n">
-        <v>68.3274</v>
+        <v>68.58159999999999</v>
       </c>
       <c r="D108" t="n">
-        <v>53.0375</v>
+        <v>54.2593</v>
       </c>
     </row>
     <row r="109">
@@ -10863,13 +10863,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>97.01600000000001</v>
+        <v>97.1306</v>
       </c>
       <c r="C109" t="n">
-        <v>70.5865</v>
+        <v>70.633</v>
       </c>
       <c r="D109" t="n">
-        <v>54.3481</v>
+        <v>55.7589</v>
       </c>
     </row>
     <row r="110">
@@ -10877,13 +10877,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>100.425</v>
+        <v>100.581</v>
       </c>
       <c r="C110" t="n">
-        <v>72.7945</v>
+        <v>72.938</v>
       </c>
       <c r="D110" t="n">
-        <v>56.1207</v>
+        <v>57.0595</v>
       </c>
     </row>
     <row r="111">
@@ -10891,13 +10891,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>104.11</v>
+        <v>104.406</v>
       </c>
       <c r="C111" t="n">
-        <v>75.30670000000001</v>
+        <v>75.49460000000001</v>
       </c>
       <c r="D111" t="n">
-        <v>57.7012</v>
+        <v>58.6376</v>
       </c>
     </row>
     <row r="112">
@@ -10905,13 +10905,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>75.50700000000001</v>
+        <v>75.8815</v>
       </c>
       <c r="C112" t="n">
-        <v>78.389</v>
+        <v>78.2668</v>
       </c>
       <c r="D112" t="n">
-        <v>58.935</v>
+        <v>60.2088</v>
       </c>
     </row>
     <row r="113">
@@ -10919,13 +10919,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>77.4747</v>
+        <v>77.9983</v>
       </c>
       <c r="C113" t="n">
-        <v>80.98699999999999</v>
+        <v>80.9632</v>
       </c>
       <c r="D113" t="n">
-        <v>60.6129</v>
+        <v>62.0873</v>
       </c>
     </row>
     <row r="114">
@@ -10933,13 +10933,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>79.9666</v>
+        <v>79.66379999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>83.5869</v>
+        <v>83.584</v>
       </c>
       <c r="D114" t="n">
-        <v>62.2634</v>
+        <v>63.6302</v>
       </c>
     </row>
     <row r="115">
@@ -10947,13 +10947,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>81.7774</v>
+        <v>82.2098</v>
       </c>
       <c r="C115" t="n">
-        <v>86.9637</v>
+        <v>86.758</v>
       </c>
       <c r="D115" t="n">
-        <v>63.8221</v>
+        <v>65.2679</v>
       </c>
     </row>
     <row r="116">
@@ -10961,13 +10961,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>84.4815</v>
+        <v>84.3506</v>
       </c>
       <c r="C116" t="n">
-        <v>90.1597</v>
+        <v>89.92</v>
       </c>
       <c r="D116" t="n">
-        <v>65.6619</v>
+        <v>67.08369999999999</v>
       </c>
     </row>
     <row r="117">
@@ -10975,13 +10975,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>86.7187</v>
+        <v>87.07470000000001</v>
       </c>
       <c r="C117" t="n">
-        <v>93.5193</v>
+        <v>93.47629999999999</v>
       </c>
       <c r="D117" t="n">
-        <v>67.672</v>
+        <v>69.10760000000001</v>
       </c>
     </row>
     <row r="118">
@@ -10989,13 +10989,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>89.4006</v>
+        <v>89.3647</v>
       </c>
       <c r="C118" t="n">
-        <v>97.2182</v>
+        <v>97.6298</v>
       </c>
       <c r="D118" t="n">
-        <v>69.67400000000001</v>
+        <v>71.1367</v>
       </c>
     </row>
     <row r="119">
@@ -11003,13 +11003,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>92.1005</v>
+        <v>92.1327</v>
       </c>
       <c r="C119" t="n">
-        <v>100.55</v>
+        <v>101.565</v>
       </c>
       <c r="D119" t="n">
-        <v>71.91289999999999</v>
+        <v>72.9914</v>
       </c>
     </row>
   </sheetData>
@@ -11057,13 +11057,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>33.1601</v>
+        <v>32.7363</v>
       </c>
       <c r="C2" t="n">
-        <v>24.099</v>
+        <v>24.0252</v>
       </c>
       <c r="D2" t="n">
-        <v>15.1791</v>
+        <v>15.1654</v>
       </c>
     </row>
     <row r="3">
@@ -11071,13 +11071,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>20.99</v>
+        <v>20.6386</v>
       </c>
       <c r="C3" t="n">
-        <v>25.3619</v>
+        <v>25.2793</v>
       </c>
       <c r="D3" t="n">
-        <v>15.6061</v>
+        <v>15.6457</v>
       </c>
     </row>
     <row r="4">
@@ -11085,13 +11085,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>22.0392</v>
+        <v>22.0688</v>
       </c>
       <c r="C4" t="n">
-        <v>27.1539</v>
+        <v>26.4001</v>
       </c>
       <c r="D4" t="n">
-        <v>16.2319</v>
+        <v>16.2222</v>
       </c>
     </row>
     <row r="5">
@@ -11099,13 +11099,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>23.2084</v>
+        <v>23.2647</v>
       </c>
       <c r="C5" t="n">
-        <v>28.0538</v>
+        <v>27.4798</v>
       </c>
       <c r="D5" t="n">
-        <v>16.8928</v>
+        <v>16.7044</v>
       </c>
     </row>
     <row r="6">
@@ -11113,13 +11113,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>24.5219</v>
+        <v>23.9898</v>
       </c>
       <c r="C6" t="n">
-        <v>29.381</v>
+        <v>28.7255</v>
       </c>
       <c r="D6" t="n">
-        <v>17.4439</v>
+        <v>17.4019</v>
       </c>
     </row>
     <row r="7">
@@ -11127,13 +11127,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>25.6574</v>
+        <v>26.3544</v>
       </c>
       <c r="C7" t="n">
-        <v>30.5338</v>
+        <v>29.9863</v>
       </c>
       <c r="D7" t="n">
-        <v>17.7058</v>
+        <v>17.6156</v>
       </c>
     </row>
     <row r="8">
@@ -11141,13 +11141,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>27.7281</v>
+        <v>27.6996</v>
       </c>
       <c r="C8" t="n">
-        <v>31.0968</v>
+        <v>31.5077</v>
       </c>
       <c r="D8" t="n">
-        <v>18.098</v>
+        <v>18.1152</v>
       </c>
     </row>
     <row r="9">
@@ -11155,13 +11155,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>28.9295</v>
+        <v>28.8175</v>
       </c>
       <c r="C9" t="n">
-        <v>32.738</v>
+        <v>33.1507</v>
       </c>
       <c r="D9" t="n">
-        <v>18.8618</v>
+        <v>18.6143</v>
       </c>
     </row>
     <row r="10">
@@ -11169,13 +11169,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>31.1478</v>
+        <v>30.6518</v>
       </c>
       <c r="C10" t="n">
-        <v>34.7571</v>
+        <v>35.1317</v>
       </c>
       <c r="D10" t="n">
-        <v>19.5299</v>
+        <v>19.4128</v>
       </c>
     </row>
     <row r="11">
@@ -11183,13 +11183,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>32.8675</v>
+        <v>33.0779</v>
       </c>
       <c r="C11" t="n">
-        <v>23.2032</v>
+        <v>22.7342</v>
       </c>
       <c r="D11" t="n">
-        <v>13.8408</v>
+        <v>13.9405</v>
       </c>
     </row>
     <row r="12">
@@ -11197,13 +11197,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>35.1494</v>
+        <v>34.6713</v>
       </c>
       <c r="C12" t="n">
-        <v>23.9934</v>
+        <v>23.8387</v>
       </c>
       <c r="D12" t="n">
-        <v>14.4927</v>
+        <v>14.6819</v>
       </c>
     </row>
     <row r="13">
@@ -11211,13 +11211,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>37.2868</v>
+        <v>37.12</v>
       </c>
       <c r="C13" t="n">
-        <v>25.6324</v>
+        <v>25.3525</v>
       </c>
       <c r="D13" t="n">
-        <v>14.9734</v>
+        <v>15.201</v>
       </c>
     </row>
     <row r="14">
@@ -11225,13 +11225,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>39.2932</v>
+        <v>39.4539</v>
       </c>
       <c r="C14" t="n">
-        <v>27.4692</v>
+        <v>27.6997</v>
       </c>
       <c r="D14" t="n">
-        <v>15.6532</v>
+        <v>15.7396</v>
       </c>
     </row>
     <row r="15">
@@ -11239,13 +11239,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>42.4025</v>
+        <v>42.2388</v>
       </c>
       <c r="C15" t="n">
-        <v>29.3713</v>
+        <v>29.208</v>
       </c>
       <c r="D15" t="n">
-        <v>16.3188</v>
+        <v>16.4548</v>
       </c>
     </row>
     <row r="16">
@@ -11253,13 +11253,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>44.397</v>
+        <v>44.5862</v>
       </c>
       <c r="C16" t="n">
-        <v>30.9371</v>
+        <v>31.2459</v>
       </c>
       <c r="D16" t="n">
-        <v>17.0337</v>
+        <v>17.1348</v>
       </c>
     </row>
     <row r="17">
@@ -11267,13 +11267,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>28.5644</v>
+        <v>28.2021</v>
       </c>
       <c r="C17" t="n">
-        <v>33.4116</v>
+        <v>33.2674</v>
       </c>
       <c r="D17" t="n">
-        <v>17.7454</v>
+        <v>17.97</v>
       </c>
     </row>
     <row r="18">
@@ -11281,13 +11281,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>30.1583</v>
+        <v>29.9714</v>
       </c>
       <c r="C18" t="n">
-        <v>35.3686</v>
+        <v>35.4142</v>
       </c>
       <c r="D18" t="n">
-        <v>18.3925</v>
+        <v>18.5867</v>
       </c>
     </row>
     <row r="19">
@@ -11295,13 +11295,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>32.0164</v>
+        <v>31.7261</v>
       </c>
       <c r="C19" t="n">
-        <v>37.633</v>
+        <v>37.9916</v>
       </c>
       <c r="D19" t="n">
-        <v>19.3672</v>
+        <v>19.4262</v>
       </c>
     </row>
     <row r="20">
@@ -11309,13 +11309,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>34.0257</v>
+        <v>33.8626</v>
       </c>
       <c r="C20" t="n">
-        <v>39.788</v>
+        <v>39.5741</v>
       </c>
       <c r="D20" t="n">
-        <v>20.0977</v>
+        <v>20.1668</v>
       </c>
     </row>
     <row r="21">
@@ -11323,13 +11323,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>36.1638</v>
+        <v>35.629</v>
       </c>
       <c r="C21" t="n">
-        <v>42.5531</v>
+        <v>42.1151</v>
       </c>
       <c r="D21" t="n">
-        <v>20.9649</v>
+        <v>20.9918</v>
       </c>
     </row>
     <row r="22">
@@ -11337,13 +11337,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>37.6154</v>
+        <v>37.5989</v>
       </c>
       <c r="C22" t="n">
-        <v>44.1507</v>
+        <v>44.4143</v>
       </c>
       <c r="D22" t="n">
-        <v>21.8263</v>
+        <v>21.8179</v>
       </c>
     </row>
     <row r="23">
@@ -11351,13 +11351,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>39.989</v>
+        <v>39.7228</v>
       </c>
       <c r="C23" t="n">
-        <v>46.7031</v>
+        <v>47.0821</v>
       </c>
       <c r="D23" t="n">
-        <v>22.6725</v>
+        <v>22.5403</v>
       </c>
     </row>
     <row r="24">
@@ -11365,13 +11365,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>42.197</v>
+        <v>42.0744</v>
       </c>
       <c r="C24" t="n">
-        <v>49.2052</v>
+        <v>49.8128</v>
       </c>
       <c r="D24" t="n">
-        <v>23.5426</v>
+        <v>23.5476</v>
       </c>
     </row>
     <row r="25">
@@ -11379,13 +11379,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>44.4194</v>
+        <v>44.4292</v>
       </c>
       <c r="C25" t="n">
-        <v>51.4472</v>
+        <v>51.8932</v>
       </c>
       <c r="D25" t="n">
-        <v>24.6455</v>
+        <v>24.4985</v>
       </c>
     </row>
     <row r="26">
@@ -11393,13 +11393,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>46.379</v>
+        <v>46.2307</v>
       </c>
       <c r="C26" t="n">
-        <v>31.8103</v>
+        <v>31.7812</v>
       </c>
       <c r="D26" t="n">
-        <v>16.8299</v>
+        <v>16.8854</v>
       </c>
     </row>
     <row r="27">
@@ -11407,13 +11407,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>48.9672</v>
+        <v>48.624</v>
       </c>
       <c r="C27" t="n">
-        <v>33.3168</v>
+        <v>33.5381</v>
       </c>
       <c r="D27" t="n">
-        <v>17.532</v>
+        <v>17.5382</v>
       </c>
     </row>
     <row r="28">
@@ -11421,13 +11421,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>51.1334</v>
+        <v>51.2008</v>
       </c>
       <c r="C28" t="n">
-        <v>35.5367</v>
+        <v>35.5646</v>
       </c>
       <c r="D28" t="n">
-        <v>18.2291</v>
+        <v>18.2693</v>
       </c>
     </row>
     <row r="29">
@@ -11435,13 +11435,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>53.7462</v>
+        <v>53.4559</v>
       </c>
       <c r="C29" t="n">
-        <v>37.316</v>
+        <v>37.5312</v>
       </c>
       <c r="D29" t="n">
-        <v>18.8312</v>
+        <v>18.8334</v>
       </c>
     </row>
     <row r="30">
@@ -11449,13 +11449,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>56.3842</v>
+        <v>56.2429</v>
       </c>
       <c r="C30" t="n">
-        <v>39.3964</v>
+        <v>39.238</v>
       </c>
       <c r="D30" t="n">
-        <v>19.6079</v>
+        <v>19.6591</v>
       </c>
     </row>
     <row r="31">
@@ -11463,13 +11463,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>59.5738</v>
+        <v>59.3733</v>
       </c>
       <c r="C31" t="n">
-        <v>41.0186</v>
+        <v>41.3773</v>
       </c>
       <c r="D31" t="n">
-        <v>20.3343</v>
+        <v>20.3573</v>
       </c>
     </row>
     <row r="32">
@@ -11477,13 +11477,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>35.1476</v>
+        <v>35.1963</v>
       </c>
       <c r="C32" t="n">
-        <v>43.7157</v>
+        <v>43.7627</v>
       </c>
       <c r="D32" t="n">
-        <v>21.0305</v>
+        <v>21.0935</v>
       </c>
     </row>
     <row r="33">
@@ -11491,13 +11491,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>37.0639</v>
+        <v>36.7292</v>
       </c>
       <c r="C33" t="n">
-        <v>45.5338</v>
+        <v>45.7396</v>
       </c>
       <c r="D33" t="n">
-        <v>21.835</v>
+        <v>21.8366</v>
       </c>
     </row>
     <row r="34">
@@ -11505,13 +11505,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>38.4666</v>
+        <v>38.3303</v>
       </c>
       <c r="C34" t="n">
-        <v>48.1424</v>
+        <v>48.6701</v>
       </c>
       <c r="D34" t="n">
-        <v>22.4342</v>
+        <v>22.481</v>
       </c>
     </row>
     <row r="35">
@@ -11519,13 +11519,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>40.3286</v>
+        <v>40.2148</v>
       </c>
       <c r="C35" t="n">
-        <v>49.8554</v>
+        <v>50.1314</v>
       </c>
       <c r="D35" t="n">
-        <v>23.2875</v>
+        <v>23.2363</v>
       </c>
     </row>
     <row r="36">
@@ -11533,13 +11533,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>42.8484</v>
+        <v>42.6301</v>
       </c>
       <c r="C36" t="n">
-        <v>52.0368</v>
+        <v>52.3842</v>
       </c>
       <c r="D36" t="n">
-        <v>24.3271</v>
+        <v>24.2102</v>
       </c>
     </row>
     <row r="37">
@@ -11547,13 +11547,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>44.1556</v>
+        <v>44.0274</v>
       </c>
       <c r="C37" t="n">
-        <v>54.7925</v>
+        <v>55.288</v>
       </c>
       <c r="D37" t="n">
-        <v>25.0925</v>
+        <v>25.047</v>
       </c>
     </row>
     <row r="38">
@@ -11561,13 +11561,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>46.8527</v>
+        <v>46.8733</v>
       </c>
       <c r="C38" t="n">
-        <v>57.0554</v>
+        <v>57.6645</v>
       </c>
       <c r="D38" t="n">
-        <v>26.0505</v>
+        <v>25.9351</v>
       </c>
     </row>
     <row r="39">
@@ -11575,13 +11575,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>48.9523</v>
+        <v>48.6447</v>
       </c>
       <c r="C39" t="n">
-        <v>59.5117</v>
+        <v>59.4378</v>
       </c>
       <c r="D39" t="n">
-        <v>27.1226</v>
+        <v>26.9113</v>
       </c>
     </row>
     <row r="40">
@@ -11589,13 +11589,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>51.7144</v>
+        <v>51.3075</v>
       </c>
       <c r="C40" t="n">
-        <v>35.9144</v>
+        <v>35.9154</v>
       </c>
       <c r="D40" t="n">
-        <v>19.9074</v>
+        <v>19.8604</v>
       </c>
     </row>
     <row r="41">
@@ -11603,13 +11603,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>54.5916</v>
+        <v>54.2256</v>
       </c>
       <c r="C41" t="n">
-        <v>37.4272</v>
+        <v>37.0577</v>
       </c>
       <c r="D41" t="n">
-        <v>20.5231</v>
+        <v>20.465</v>
       </c>
     </row>
     <row r="42">
@@ -11617,13 +11617,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>56.8536</v>
+        <v>56.7457</v>
       </c>
       <c r="C42" t="n">
-        <v>39.2973</v>
+        <v>39.2565</v>
       </c>
       <c r="D42" t="n">
-        <v>21.2234</v>
+        <v>21.2495</v>
       </c>
     </row>
     <row r="43">
@@ -11631,13 +11631,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>59.195</v>
+        <v>59.241</v>
       </c>
       <c r="C43" t="n">
-        <v>40.9138</v>
+        <v>41.1311</v>
       </c>
       <c r="D43" t="n">
-        <v>21.9995</v>
+        <v>21.9474</v>
       </c>
     </row>
     <row r="44">
@@ -11645,13 +11645,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>61.8122</v>
+        <v>61.5298</v>
       </c>
       <c r="C44" t="n">
-        <v>43.2126</v>
+        <v>43.231</v>
       </c>
       <c r="D44" t="n">
-        <v>22.7815</v>
+        <v>22.7399</v>
       </c>
     </row>
     <row r="45">
@@ -11659,13 +11659,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>64.14400000000001</v>
+        <v>64.48220000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>45.0427</v>
+        <v>45.5413</v>
       </c>
       <c r="D45" t="n">
-        <v>23.6062</v>
+        <v>23.5308</v>
       </c>
     </row>
     <row r="46">
@@ -11673,13 +11673,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>37.3748</v>
+        <v>37.3074</v>
       </c>
       <c r="C46" t="n">
-        <v>47.2877</v>
+        <v>47.8681</v>
       </c>
       <c r="D46" t="n">
-        <v>24.3592</v>
+        <v>24.3504</v>
       </c>
     </row>
     <row r="47">
@@ -11687,13 +11687,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>38.9502</v>
+        <v>39.0248</v>
       </c>
       <c r="C47" t="n">
-        <v>49.6209</v>
+        <v>49.3465</v>
       </c>
       <c r="D47" t="n">
-        <v>25.1822</v>
+        <v>25.1334</v>
       </c>
     </row>
     <row r="48">
@@ -11701,13 +11701,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>40.8183</v>
+        <v>40.9991</v>
       </c>
       <c r="C48" t="n">
-        <v>51.8327</v>
+        <v>51.7917</v>
       </c>
       <c r="D48" t="n">
-        <v>25.992</v>
+        <v>25.9561</v>
       </c>
     </row>
     <row r="49">
@@ -11715,13 +11715,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>42.8024</v>
+        <v>42.9547</v>
       </c>
       <c r="C49" t="n">
-        <v>54.4788</v>
+        <v>54.5909</v>
       </c>
       <c r="D49" t="n">
-        <v>26.8248</v>
+        <v>26.766</v>
       </c>
     </row>
     <row r="50">
@@ -11729,13 +11729,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>44.6307</v>
+        <v>44.5758</v>
       </c>
       <c r="C50" t="n">
-        <v>57.173</v>
+        <v>57.4586</v>
       </c>
       <c r="D50" t="n">
-        <v>27.695</v>
+        <v>27.6028</v>
       </c>
     </row>
     <row r="51">
@@ -11743,13 +11743,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>47.173</v>
+        <v>46.8229</v>
       </c>
       <c r="C51" t="n">
-        <v>59.867</v>
+        <v>59.6293</v>
       </c>
       <c r="D51" t="n">
-        <v>28.6676</v>
+        <v>28.4951</v>
       </c>
     </row>
     <row r="52">
@@ -11757,13 +11757,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>49.5114</v>
+        <v>49.2742</v>
       </c>
       <c r="C52" t="n">
-        <v>62.3494</v>
+        <v>62.0539</v>
       </c>
       <c r="D52" t="n">
-        <v>29.563</v>
+        <v>29.4649</v>
       </c>
     </row>
     <row r="53">
@@ -11771,13 +11771,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>51.481</v>
+        <v>51.6695</v>
       </c>
       <c r="C53" t="n">
-        <v>64.42529999999999</v>
+        <v>65.21339999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>30.5137</v>
+        <v>30.3983</v>
       </c>
     </row>
     <row r="54">
@@ -11785,13 +11785,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>54.132</v>
+        <v>54.2096</v>
       </c>
       <c r="C54" t="n">
-        <v>38.3477</v>
+        <v>38.5827</v>
       </c>
       <c r="D54" t="n">
-        <v>21.7654</v>
+        <v>21.7988</v>
       </c>
     </row>
     <row r="55">
@@ -11799,13 +11799,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>56.8054</v>
+        <v>57.3388</v>
       </c>
       <c r="C55" t="n">
-        <v>39.7255</v>
+        <v>40.1562</v>
       </c>
       <c r="D55" t="n">
-        <v>22.5015</v>
+        <v>22.4662</v>
       </c>
     </row>
     <row r="56">
@@ -11813,13 +11813,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>59.4893</v>
+        <v>59.5145</v>
       </c>
       <c r="C56" t="n">
-        <v>41.8477</v>
+        <v>41.5753</v>
       </c>
       <c r="D56" t="n">
-        <v>23.3588</v>
+        <v>23.1775</v>
       </c>
     </row>
     <row r="57">
@@ -11827,13 +11827,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>62.1794</v>
+        <v>61.9398</v>
       </c>
       <c r="C57" t="n">
-        <v>44.0298</v>
+        <v>43.7632</v>
       </c>
       <c r="D57" t="n">
-        <v>24.1142</v>
+        <v>23.9231</v>
       </c>
     </row>
     <row r="58">
@@ -11841,13 +11841,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>65.2319</v>
+        <v>64.99890000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>46.0128</v>
+        <v>46.0494</v>
       </c>
       <c r="D58" t="n">
-        <v>24.7029</v>
+        <v>24.713</v>
       </c>
     </row>
     <row r="59">
@@ -11855,13 +11855,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>68.45950000000001</v>
+        <v>68.15940000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>49.1364</v>
+        <v>48.1402</v>
       </c>
       <c r="D59" t="n">
-        <v>25.7156</v>
+        <v>25.5191</v>
       </c>
     </row>
     <row r="60">
@@ -11869,13 +11869,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>39.2627</v>
+        <v>38.0785</v>
       </c>
       <c r="C60" t="n">
-        <v>51.8909</v>
+        <v>50.6637</v>
       </c>
       <c r="D60" t="n">
-        <v>26.6522</v>
+        <v>26.5183</v>
       </c>
     </row>
     <row r="61">
@@ -11883,13 +11883,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>41.4791</v>
+        <v>40.3719</v>
       </c>
       <c r="C61" t="n">
-        <v>54.2865</v>
+        <v>52.6264</v>
       </c>
       <c r="D61" t="n">
-        <v>27.8299</v>
+        <v>27.33</v>
       </c>
     </row>
     <row r="62">
@@ -11897,13 +11897,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>43.9101</v>
+        <v>42.1774</v>
       </c>
       <c r="C62" t="n">
-        <v>57.5462</v>
+        <v>56.8218</v>
       </c>
       <c r="D62" t="n">
-        <v>28.9188</v>
+        <v>28.2062</v>
       </c>
     </row>
     <row r="63">
@@ -11911,13 +11911,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>46.4567</v>
+        <v>45.1297</v>
       </c>
       <c r="C63" t="n">
-        <v>60.682</v>
+        <v>58.4638</v>
       </c>
       <c r="D63" t="n">
-        <v>29.9117</v>
+        <v>29.3115</v>
       </c>
     </row>
     <row r="64">
@@ -11925,13 +11925,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>48.6704</v>
+        <v>47.4055</v>
       </c>
       <c r="C64" t="n">
-        <v>63.0569</v>
+        <v>62.7998</v>
       </c>
       <c r="D64" t="n">
-        <v>30.8967</v>
+        <v>30.3788</v>
       </c>
     </row>
     <row r="65">
@@ -11939,13 +11939,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>51.2968</v>
+        <v>50.4639</v>
       </c>
       <c r="C65" t="n">
-        <v>67.2559</v>
+        <v>66.0608</v>
       </c>
       <c r="D65" t="n">
-        <v>32.312</v>
+        <v>31.5769</v>
       </c>
     </row>
     <row r="66">
@@ -11953,13 +11953,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>54.0189</v>
+        <v>53.0483</v>
       </c>
       <c r="C66" t="n">
-        <v>69.76900000000001</v>
+        <v>70.2655</v>
       </c>
       <c r="D66" t="n">
-        <v>32.8772</v>
+        <v>32.5155</v>
       </c>
     </row>
     <row r="67">
@@ -11967,13 +11967,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>57.4719</v>
+        <v>56.3543</v>
       </c>
       <c r="C67" t="n">
-        <v>74.1947</v>
+        <v>73.25490000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>34.3412</v>
+        <v>34.1235</v>
       </c>
     </row>
     <row r="68">
@@ -11981,13 +11981,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>61.2231</v>
+        <v>60.5689</v>
       </c>
       <c r="C68" t="n">
-        <v>42.6734</v>
+        <v>43.3372</v>
       </c>
       <c r="D68" t="n">
-        <v>24.1921</v>
+        <v>24.2881</v>
       </c>
     </row>
     <row r="69">
@@ -11995,13 +11995,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>64.43819999999999</v>
+        <v>64.4221</v>
       </c>
       <c r="C69" t="n">
-        <v>45.6983</v>
+        <v>45.5129</v>
       </c>
       <c r="D69" t="n">
-        <v>25.0309</v>
+        <v>25.1524</v>
       </c>
     </row>
     <row r="70">
@@ -12009,13 +12009,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>68.3869</v>
+        <v>67.7754</v>
       </c>
       <c r="C70" t="n">
-        <v>48.2627</v>
+        <v>48.346</v>
       </c>
       <c r="D70" t="n">
-        <v>26.0865</v>
+        <v>26.3115</v>
       </c>
     </row>
     <row r="71">
@@ -12023,13 +12023,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>72.7079</v>
+        <v>71.9718</v>
       </c>
       <c r="C71" t="n">
-        <v>51.5203</v>
+        <v>51.3993</v>
       </c>
       <c r="D71" t="n">
-        <v>27.2016</v>
+        <v>27.2496</v>
       </c>
     </row>
     <row r="72">
@@ -12037,13 +12037,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>77.16679999999999</v>
+        <v>76.23260000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>54.5534</v>
+        <v>54.7107</v>
       </c>
       <c r="D72" t="n">
-        <v>28.4016</v>
+        <v>28.3871</v>
       </c>
     </row>
     <row r="73">
@@ -12051,13 +12051,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>81.9819</v>
+        <v>81.2997</v>
       </c>
       <c r="C73" t="n">
-        <v>58.2689</v>
+        <v>58.5713</v>
       </c>
       <c r="D73" t="n">
-        <v>29.6323</v>
+        <v>29.6153</v>
       </c>
     </row>
     <row r="74">
@@ -12065,13 +12065,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>45.8444</v>
+        <v>46.0331</v>
       </c>
       <c r="C74" t="n">
-        <v>61.3493</v>
+        <v>61.7837</v>
       </c>
       <c r="D74" t="n">
-        <v>30.9589</v>
+        <v>30.8119</v>
       </c>
     </row>
     <row r="75">
@@ -12079,13 +12079,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>48.8056</v>
+        <v>49.2094</v>
       </c>
       <c r="C75" t="n">
-        <v>64.5128</v>
+        <v>66.0519</v>
       </c>
       <c r="D75" t="n">
-        <v>31.8972</v>
+        <v>32.1268</v>
       </c>
     </row>
     <row r="76">
@@ -12093,13 +12093,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>51.9803</v>
+        <v>53.0828</v>
       </c>
       <c r="C76" t="n">
-        <v>69.33199999999999</v>
+        <v>70.3322</v>
       </c>
       <c r="D76" t="n">
-        <v>33.262</v>
+        <v>33.4837</v>
       </c>
     </row>
     <row r="77">
@@ -12107,13 +12107,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>56.1093</v>
+        <v>57.2276</v>
       </c>
       <c r="C77" t="n">
-        <v>74.20140000000001</v>
+        <v>75.0397</v>
       </c>
       <c r="D77" t="n">
-        <v>34.5565</v>
+        <v>34.7749</v>
       </c>
     </row>
     <row r="78">
@@ -12121,13 +12121,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>61.7649</v>
+        <v>60.7137</v>
       </c>
       <c r="C78" t="n">
-        <v>80.54770000000001</v>
+        <v>80.11799999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>36.3111</v>
+        <v>36.2569</v>
       </c>
     </row>
     <row r="79">
@@ -12135,13 +12135,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>66.2205</v>
+        <v>67.1254</v>
       </c>
       <c r="C79" t="n">
-        <v>85.4567</v>
+        <v>84.81489999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>38.2064</v>
+        <v>37.9123</v>
       </c>
     </row>
     <row r="80">
@@ -12149,13 +12149,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>77.6087</v>
+        <v>73.6206</v>
       </c>
       <c r="C80" t="n">
-        <v>94.61499999999999</v>
+        <v>92.1306</v>
       </c>
       <c r="D80" t="n">
-        <v>39.8746</v>
+        <v>39.9708</v>
       </c>
     </row>
     <row r="81">
@@ -12163,13 +12163,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>87.2154</v>
+        <v>84.9055</v>
       </c>
       <c r="C81" t="n">
-        <v>103.618</v>
+        <v>101.189</v>
       </c>
       <c r="D81" t="n">
-        <v>42.0694</v>
+        <v>42.2032</v>
       </c>
     </row>
     <row r="82">
@@ -12177,13 +12177,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>98.90770000000001</v>
+        <v>95.92310000000001</v>
       </c>
       <c r="C82" t="n">
-        <v>117.268</v>
+        <v>113.218</v>
       </c>
       <c r="D82" t="n">
-        <v>45.6357</v>
+        <v>45.1526</v>
       </c>
     </row>
     <row r="83">
@@ -12191,13 +12191,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>113.084</v>
+        <v>110.539</v>
       </c>
       <c r="C83" t="n">
-        <v>75.6447</v>
+        <v>72.97929999999999</v>
       </c>
       <c r="D83" t="n">
-        <v>34.0146</v>
+        <v>32.1432</v>
       </c>
     </row>
     <row r="84">
@@ -12205,13 +12205,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>128.512</v>
+        <v>127.452</v>
       </c>
       <c r="C84" t="n">
-        <v>85.8271</v>
+        <v>83.6091</v>
       </c>
       <c r="D84" t="n">
-        <v>36.1194</v>
+        <v>34.9054</v>
       </c>
     </row>
     <row r="85">
@@ -12219,13 +12219,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>145.34</v>
+        <v>143.115</v>
       </c>
       <c r="C85" t="n">
-        <v>97.18989999999999</v>
+        <v>95.03319999999999</v>
       </c>
       <c r="D85" t="n">
-        <v>39.1067</v>
+        <v>38.5172</v>
       </c>
     </row>
     <row r="86">
@@ -12233,13 +12233,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>160.887</v>
+        <v>161.771</v>
       </c>
       <c r="C86" t="n">
-        <v>109.235</v>
+        <v>108.387</v>
       </c>
       <c r="D86" t="n">
-        <v>42.7484</v>
+        <v>42.3866</v>
       </c>
     </row>
     <row r="87">
@@ -12247,13 +12247,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>182.78</v>
+        <v>181.18</v>
       </c>
       <c r="C87" t="n">
-        <v>123.061</v>
+        <v>122.548</v>
       </c>
       <c r="D87" t="n">
-        <v>47.1139</v>
+        <v>46.784</v>
       </c>
     </row>
     <row r="88">
@@ -12261,13 +12261,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>203.215</v>
+        <v>203.05</v>
       </c>
       <c r="C88" t="n">
-        <v>137.022</v>
+        <v>137.946</v>
       </c>
       <c r="D88" t="n">
-        <v>51.6558</v>
+        <v>51.5661</v>
       </c>
     </row>
     <row r="89">
@@ -12275,13 +12275,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>128.848</v>
+        <v>128.59</v>
       </c>
       <c r="C89" t="n">
-        <v>152.221</v>
+        <v>153.984</v>
       </c>
       <c r="D89" t="n">
-        <v>57.2667</v>
+        <v>56.5486</v>
       </c>
     </row>
     <row r="90">
@@ -12289,13 +12289,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>140.076</v>
+        <v>139.926</v>
       </c>
       <c r="C90" t="n">
-        <v>167.274</v>
+        <v>168.639</v>
       </c>
       <c r="D90" t="n">
-        <v>61.344</v>
+        <v>61.7856</v>
       </c>
     </row>
     <row r="91">
@@ -12303,13 +12303,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>152.044</v>
+        <v>152.455</v>
       </c>
       <c r="C91" t="n">
-        <v>186.892</v>
+        <v>187.819</v>
       </c>
       <c r="D91" t="n">
-        <v>67.0938</v>
+        <v>67.45350000000001</v>
       </c>
     </row>
     <row r="92">
@@ -12317,13 +12317,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>164.721</v>
+        <v>164.731</v>
       </c>
       <c r="C92" t="n">
-        <v>202.686</v>
+        <v>206.629</v>
       </c>
       <c r="D92" t="n">
-        <v>73.1891</v>
+        <v>73.1264</v>
       </c>
     </row>
     <row r="93">
@@ -12331,13 +12331,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>177.745</v>
+        <v>178.164</v>
       </c>
       <c r="C93" t="n">
-        <v>220.707</v>
+        <v>221.984</v>
       </c>
       <c r="D93" t="n">
-        <v>79.04130000000001</v>
+        <v>78.62439999999999</v>
       </c>
     </row>
     <row r="94">
@@ -12345,13 +12345,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>192.913</v>
+        <v>193.28</v>
       </c>
       <c r="C94" t="n">
-        <v>243.932</v>
+        <v>244.894</v>
       </c>
       <c r="D94" t="n">
-        <v>85.3317</v>
+        <v>84.8929</v>
       </c>
     </row>
     <row r="95">
@@ -12359,13 +12359,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>208.468</v>
+        <v>208.589</v>
       </c>
       <c r="C95" t="n">
-        <v>262.23</v>
+        <v>262.876</v>
       </c>
       <c r="D95" t="n">
-        <v>91.9515</v>
+        <v>91.7894</v>
       </c>
     </row>
     <row r="96">
@@ -12373,13 +12373,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>225.527</v>
+        <v>226.301</v>
       </c>
       <c r="C96" t="n">
-        <v>284.546</v>
+        <v>289.395</v>
       </c>
       <c r="D96" t="n">
-        <v>98.6836</v>
+        <v>98.57340000000001</v>
       </c>
     </row>
     <row r="97">
@@ -12387,13 +12387,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>243.149</v>
+        <v>243.45</v>
       </c>
       <c r="C97" t="n">
-        <v>162.222</v>
+        <v>163.295</v>
       </c>
       <c r="D97" t="n">
-        <v>69.65860000000001</v>
+        <v>69.94670000000001</v>
       </c>
     </row>
     <row r="98">
@@ -12401,13 +12401,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>260.911</v>
+        <v>262.047</v>
       </c>
       <c r="C98" t="n">
-        <v>174.381</v>
+        <v>175.317</v>
       </c>
       <c r="D98" t="n">
-        <v>73.8476</v>
+        <v>74.3541</v>
       </c>
     </row>
     <row r="99">
@@ -12415,13 +12415,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>279.327</v>
+        <v>279.55</v>
       </c>
       <c r="C99" t="n">
-        <v>186.326</v>
+        <v>188.164</v>
       </c>
       <c r="D99" t="n">
-        <v>78.072</v>
+        <v>78.7418</v>
       </c>
     </row>
     <row r="100">
@@ -12429,13 +12429,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>300.427</v>
+        <v>300.176</v>
       </c>
       <c r="C100" t="n">
-        <v>199.552</v>
+        <v>201.4</v>
       </c>
       <c r="D100" t="n">
-        <v>82.80670000000001</v>
+        <v>83.1169</v>
       </c>
     </row>
     <row r="101">
@@ -12443,13 +12443,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>319.071</v>
+        <v>320.851</v>
       </c>
       <c r="C101" t="n">
-        <v>213.922</v>
+        <v>215.974</v>
       </c>
       <c r="D101" t="n">
-        <v>87.512</v>
+        <v>87.9435</v>
       </c>
     </row>
     <row r="102">
@@ -12457,13 +12457,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>340.85</v>
+        <v>341.546</v>
       </c>
       <c r="C102" t="n">
-        <v>230.444</v>
+        <v>231.865</v>
       </c>
       <c r="D102" t="n">
-        <v>92.6679</v>
+        <v>92.6237</v>
       </c>
     </row>
     <row r="103">
@@ -12471,13 +12471,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>192.496</v>
+        <v>191.854</v>
       </c>
       <c r="C103" t="n">
-        <v>242.771</v>
+        <v>245.338</v>
       </c>
       <c r="D103" t="n">
-        <v>97.50230000000001</v>
+        <v>97.2376</v>
       </c>
     </row>
     <row r="104">
@@ -12485,13 +12485,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>204.009</v>
+        <v>204.43</v>
       </c>
       <c r="C104" t="n">
-        <v>260.598</v>
+        <v>263.833</v>
       </c>
       <c r="D104" t="n">
-        <v>102.482</v>
+        <v>102.957</v>
       </c>
     </row>
     <row r="105">
@@ -12499,13 +12499,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>216.422</v>
+        <v>217.912</v>
       </c>
       <c r="C105" t="n">
-        <v>277.363</v>
+        <v>278.063</v>
       </c>
       <c r="D105" t="n">
-        <v>108.231</v>
+        <v>108.655</v>
       </c>
     </row>
     <row r="106">
@@ -12513,13 +12513,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>230.451</v>
+        <v>230.588</v>
       </c>
       <c r="C106" t="n">
-        <v>295.51</v>
+        <v>296.357</v>
       </c>
       <c r="D106" t="n">
-        <v>113.607</v>
+        <v>113.916</v>
       </c>
     </row>
     <row r="107">
@@ -12527,13 +12527,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>244.864</v>
+        <v>243.283</v>
       </c>
       <c r="C107" t="n">
-        <v>313.097</v>
+        <v>312.234</v>
       </c>
       <c r="D107" t="n">
-        <v>119.248</v>
+        <v>119.552</v>
       </c>
     </row>
     <row r="108">
@@ -12541,13 +12541,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>259.197</v>
+        <v>257.86</v>
       </c>
       <c r="C108" t="n">
-        <v>328.522</v>
+        <v>333.006</v>
       </c>
       <c r="D108" t="n">
-        <v>125.427</v>
+        <v>125.505</v>
       </c>
     </row>
     <row r="109">
@@ -12555,13 +12555,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>273.76</v>
+        <v>273.53</v>
       </c>
       <c r="C109" t="n">
-        <v>350.532</v>
+        <v>351.406</v>
       </c>
       <c r="D109" t="n">
-        <v>131.681</v>
+        <v>131.767</v>
       </c>
     </row>
     <row r="110">
@@ -12569,13 +12569,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>289.583</v>
+        <v>288.905</v>
       </c>
       <c r="C110" t="n">
-        <v>369.482</v>
+        <v>374.242</v>
       </c>
       <c r="D110" t="n">
-        <v>137.665</v>
+        <v>138.267</v>
       </c>
     </row>
     <row r="111">
@@ -12583,13 +12583,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>306.486</v>
+        <v>305.443</v>
       </c>
       <c r="C111" t="n">
-        <v>204.736</v>
+        <v>204.152</v>
       </c>
       <c r="D111" t="n">
-        <v>96.678</v>
+        <v>97.3216</v>
       </c>
     </row>
     <row r="112">
@@ -12597,13 +12597,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>323.565</v>
+        <v>323.886</v>
       </c>
       <c r="C112" t="n">
-        <v>215.514</v>
+        <v>216.05</v>
       </c>
       <c r="D112" t="n">
-        <v>101.239</v>
+        <v>101.673</v>
       </c>
     </row>
     <row r="113">
@@ -12611,13 +12611,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>343.126</v>
+        <v>344.063</v>
       </c>
       <c r="C113" t="n">
-        <v>227.548</v>
+        <v>228.665</v>
       </c>
       <c r="D113" t="n">
-        <v>105.762</v>
+        <v>106.582</v>
       </c>
     </row>
     <row r="114">
@@ -12625,13 +12625,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>361.903</v>
+        <v>362.535</v>
       </c>
       <c r="C114" t="n">
-        <v>241.133</v>
+        <v>242.248</v>
       </c>
       <c r="D114" t="n">
-        <v>110.354</v>
+        <v>110.959</v>
       </c>
     </row>
     <row r="115">
@@ -12639,13 +12639,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>382.461</v>
+        <v>383.529</v>
       </c>
       <c r="C115" t="n">
-        <v>255.291</v>
+        <v>256.369</v>
       </c>
       <c r="D115" t="n">
-        <v>115.469</v>
+        <v>115.856</v>
       </c>
     </row>
     <row r="116">
@@ -12653,13 +12653,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>403.545</v>
+        <v>404.337</v>
       </c>
       <c r="C116" t="n">
-        <v>271.125</v>
+        <v>272.216</v>
       </c>
       <c r="D116" t="n">
-        <v>119.933</v>
+        <v>121.222</v>
       </c>
     </row>
     <row r="117">
@@ -12667,13 +12667,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>224.666</v>
+        <v>221.228</v>
       </c>
       <c r="C117" t="n">
-        <v>286.044</v>
+        <v>288.207</v>
       </c>
       <c r="D117" t="n">
-        <v>125.372</v>
+        <v>126.025</v>
       </c>
     </row>
     <row r="118">
@@ -12681,13 +12681,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>234.722</v>
+        <v>234.357</v>
       </c>
       <c r="C118" t="n">
-        <v>302.77</v>
+        <v>306.849</v>
       </c>
       <c r="D118" t="n">
-        <v>131.037</v>
+        <v>131.807</v>
       </c>
     </row>
     <row r="119">
@@ -12695,13 +12695,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>248.578</v>
+        <v>247.891</v>
       </c>
       <c r="C119" t="n">
-        <v>323.001</v>
+        <v>327.134</v>
       </c>
       <c r="D119" t="n">
-        <v>136.593</v>
+        <v>137.108</v>
       </c>
     </row>
   </sheetData>
